--- a/notebooks/anomaly/DataAnomaly.xlsx
+++ b/notebooks/anomaly/DataAnomaly.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsharma\OneDrive - Microsoft\Desktop\Project\mstic-dataexpl\notebooks\anomaly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFF0AD-9050-4CB0-BED6-55EB6C8369F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All-data-raw" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,16 @@
     <sheet name="All-data-count" sheetId="3" r:id="rId3"/>
     <sheet name="Anomalous-data-count" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="169">
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>Login Times</t>
-  </si>
-  <si>
     <t>ExternalAccess</t>
   </si>
   <si>
@@ -293,255 +296,6 @@
   </si>
   <si>
     <t>urn:spo:anon#eed3bac0f8c61332c384dbbc93ef0126ea7b9b01cf0bc95c45fcedff04c33d40</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-08 19:05:47+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-18 03:26:15+0000', tz='UTC'), Timestamp('2021-08-18 03:26:29+0000', tz='UTC'), Timestamp('2021-09-02 05:43:33+0000', tz='UTC'), Timestamp('2021-08-28 01:14:11+0000', tz='UTC'), Timestamp('2021-08-27 23:07:38+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-10 18:48:05+0000', tz='UTC'), Timestamp('2021-08-19 02:34:10+0000', tz='UTC'), Timestamp('2021-07-13 17:38:56+0000', tz='UTC'), Timestamp('2021-07-12 18:23:06+0000', tz='UTC'), Timestamp('2021-07-16 17:37:55+0000', tz='UTC'), Timestamp('2021-08-25 11:03:35+0000', tz='UTC'), Timestamp('2021-07-09 19:14:34+0000', tz='UTC'), Timestamp('2021-07-20 14:19:24+0000', tz='UTC'), Timestamp('2021-07-15 16:25:10+0000', tz='UTC'), Timestamp('2021-07-12 17:50:00+0000', tz='UTC'), Timestamp('2021-07-15 17:42:36+0000', tz='UTC'), Timestamp('2021-08-18 02:47:30+0000', tz='UTC'), Timestamp('2021-07-31 01:26:09+0000', tz='UTC'), Timestamp('2021-07-25 18:35:18+0000', tz='UTC'), Timestamp('2021-07-13 18:02:30+0000', tz='UTC'), Timestamp('2021-07-20 14:54:58+0000', tz='UTC'), Timestamp('2021-07-16 16:19:08+0000', tz='UTC'), Timestamp('2021-07-10 18:48:12+0000', tz='UTC'), Timestamp('2021-08-23 00:04:37+0000', tz='UTC'), Timestamp('2021-07-18 13:27:39+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-21 09:28:55+0000', tz='UTC'), Timestamp('2021-07-25 18:04:00+0000', tz='UTC'), Timestamp('2021-08-29 22:56:01+0000', tz='UTC'), Timestamp('2021-07-09 18:20:26+0000', tz='UTC'), Timestamp('2021-07-11 17:29:02+0000', tz='UTC'), Timestamp('2021-08-25 15:56:50+0000', tz='UTC'), Timestamp('2021-07-18 15:35:36+0000', tz='UTC'), Timestamp('2021-08-05 21:28:16+0000', tz='UTC'), Timestamp('2021-08-18 03:47:36+0000', tz='UTC'), Timestamp('2021-08-19 03:22:09+0000', tz='UTC'), Timestamp('2021-07-10 17:56:28+0000', tz='UTC'), Timestamp('2021-07-26 02:23:16+0000', tz='UTC'), Timestamp('2021-07-14 17:06:23+0000', tz='UTC'), Timestamp('2021-07-26 07:48:38+0000', tz='UTC'), Timestamp('2021-07-29 01:08:50+0000', tz='UTC'), Timestamp('2021-08-26 00:09:15+0000', tz='UTC'), Timestamp('2021-07-18 10:10:57+0000', tz='UTC'), Timestamp('2021-08-26 23:49:43+0000', tz='UTC'), Timestamp('2021-07-12 16:57:11+0000', tz='UTC'), Timestamp('2021-07-16 17:34:39+0000', tz='UTC'), Timestamp('2021-07-31 23:10:04+0000', tz='UTC'), Timestamp('2021-07-25 07:51:48+0000', tz='UTC'), Timestamp('2021-07-27 01:50:23+0000', tz='UTC'), Timestamp('2021-07-30 00:20:20+0000', tz='UTC'), Timestamp('2021-07-28 07:19:43+0000', tz='UTC'), Timestamp('2021-07-23 08:13:24+0000', tz='UTC'), Timestamp('2021-07-12 17:53:38+0000', tz='UTC'), Timestamp('2021-07-13 17:41:54+0000', tz='UTC'), Timestamp('2021-08-23 01:49:35+0000', tz='UTC'), Timestamp('2021-08-28 23:04:05+0000', tz='UTC'), Timestamp('2021-07-16 16:21:21+0000', tz='UTC'), Timestamp('2021-07-15 16:37:14+0000', tz='UTC'), Timestamp('2021-07-17 15:33:47+0000', tz='UTC'), Timestamp('2021-07-20 05:09:30+0000', tz='UTC'), Timestamp('2021-07-15 17:44:02+0000', tz='UTC'), Timestamp('2021-07-25 03:04:43+0000', tz='UTC'), Timestamp('2021-07-20 09:37:50+0000', tz='UTC'), Timestamp('2021-07-22 04:11:04+0000', tz='UTC'), Timestamp('2021-07-24 03:00:07+0000', tz='UTC'), Timestamp('2021-08-18 03:47:35+0000', tz='UTC'), Timestamp('2021-07-29 07:24:55+0000', tz='UTC'), Timestamp('2021-08-03 22:17:42+0000', tz='UTC'), Timestamp('2021-08-24 00:47:19+0000', tz='UTC'), Timestamp('2021-08-07 19:41:19+0000', tz='UTC'), Timestamp('2021-07-19 09:22:52+0000', tz='UTC'), Timestamp('2021-07-30 07:18:41+0000', tz='UTC'), Timestamp('2021-08-21 02:14:55+0000', tz='UTC'), Timestamp('2021-07-27 07:49:51+0000', tz='UTC'), Timestamp('2021-07-21 04:35:26+0000', tz='UTC'), Timestamp('2021-07-23 03:55:24+0000', tz='UTC'), Timestamp('2021-07-14 17:52:24+0000', tz='UTC'), Timestamp('2021-07-13 17:11:02+0000', tz='UTC'), Timestamp('2021-08-08 18:18:24+0000', tz='UTC'), Timestamp('2021-08-19 03:12:42+0000', tz='UTC'), Timestamp('2021-07-22 08:43:52+0000', tz='UTC'), Timestamp('2021-08-02 06:18:46+0000', tz='UTC'), Timestamp('2021-08-22 01:55:38+0000', tz='UTC'), Timestamp('2021-07-10 18:23:59+0000', tz='UTC'), Timestamp('2021-08-25 00:18:15+0000', tz='UTC'), Timestamp('2021-08-01 23:00:59+0000', tz='UTC'), Timestamp('2021-07-28 01:43:50+0000', tz='UTC'), Timestamp('2021-08-02 22:57:48+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-15 13:05:41+0000', tz='UTC'), Timestamp('2021-07-15 13:05:52+0000', tz='UTC'), Timestamp('2021-07-16 15:13:53+0000', tz='UTC'), Timestamp('2021-07-12 13:36:38+0000', tz='UTC'), Timestamp('2021-07-16 19:33:56+0000', tz='UTC'), Timestamp('2021-07-16 15:13:54+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-11 15:45:42+0000', tz='UTC'), Timestamp('2021-08-10 06:52:10+0000', tz='UTC'), Timestamp('2021-08-10 08:05:42+0000', tz='UTC'), Timestamp('2021-07-02 14:33:31+0000', tz='UTC'), Timestamp('2021-08-12 00:01:42+0000', tz='UTC'), Timestamp('2021-08-10 07:55:22+0000', tz='UTC'), Timestamp('2021-08-11 07:23:47+0000', tz='UTC'), Timestamp('2021-08-11 07:28:02+0000', tz='UTC'), Timestamp('2021-07-12 07:43:38+0000', tz='UTC'), Timestamp('2021-07-16 15:45:03+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-08 00:41:47+0000', tz='UTC'), Timestamp('2021-07-07 18:42:57+0000', tz='UTC'), Timestamp('2021-07-07 18:50:02+0000', tz='UTC'), Timestamp('2021-07-07 18:42:29+0000', tz='UTC'), Timestamp('2021-07-27 15:14:19+0000', tz='UTC'), Timestamp('2021-07-08 00:43:11+0000', tz='UTC'), Timestamp('2021-07-27 09:41:57+0000', tz='UTC'), Timestamp('2021-07-27 15:14:16+0000', tz='UTC'), Timestamp('2021-07-08 00:42:15+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-05 12:31:30+0000', tz='UTC'), Timestamp('2021-08-18 15:50:08+0000', tz='UTC'), Timestamp('2021-07-21 08:31:40+0000', tz='UTC'), Timestamp('2021-08-06 12:00:26+0000', tz='UTC'), Timestamp('2021-08-06 12:01:06+0000', tz='UTC'), Timestamp('2021-07-27 05:58:23+0000', tz='UTC'), Timestamp('2021-07-21 08:31:41+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 11:55:13+0000', tz='UTC'), Timestamp('2021-07-16 10:35:21+0000', tz='UTC'), Timestamp('2021-07-13 11:54:47+0000', tz='UTC'), Timestamp('2021-07-17 10:34:12+0000', tz='UTC'), Timestamp('2021-07-20 06:28:35+0000', tz='UTC'), Timestamp('2021-07-21 05:24:27+0000', tz='UTC'), Timestamp('2021-07-14 11:31:30+0000', tz='UTC'), Timestamp('2021-07-20 06:28:37+0000', tz='UTC'), Timestamp('2021-07-16 10:37:20+0000', tz='UTC'), Timestamp('2021-07-14 11:20:44+0000', tz='UTC'), Timestamp('2021-07-17 10:47:52+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 21:28:07+0000', tz='UTC'), Timestamp('2021-08-12 21:28:11+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:25:04+0000', tz='UTC'), Timestamp('2021-09-01 00:52:56+0000', tz='UTC'), Timestamp('2021-06-30 07:19:29+0000', tz='UTC'), Timestamp('2021-07-21 16:53:54+0000', tz='UTC'), Timestamp('2021-08-18 18:01:38+0000', tz='UTC'), Timestamp('2021-06-26 15:34:24+0000', tz='UTC'), Timestamp('2021-06-21 15:27:33+0000', tz='UTC'), Timestamp('2021-06-29 08:24:57+0000', tz='UTC'), Timestamp('2021-08-29 03:12:12+0000', tz='UTC'), Timestamp('2021-08-31 01:44:52+0000', tz='UTC'), Timestamp('2021-06-21 16:43:42+0000', tz='UTC'), Timestamp('2021-08-16 18:19:28+0000', tz='UTC'), Timestamp('2021-08-26 06:07:57+0000', tz='UTC'), Timestamp('2021-08-27 06:14:32+0000', tz='UTC'), Timestamp('2021-08-27 05:24:12+0000', tz='UTC'), Timestamp('2021-07-27 04:57:58+0000', tz='UTC'), Timestamp('2021-07-28 09:50:06+0000', tz='UTC'), Timestamp('2021-07-27 09:51:41+0000', tz='UTC'), Timestamp('2021-08-23 10:54:27+0000', tz='UTC'), Timestamp('2021-08-25 07:04:22+0000', tz='UTC'), Timestamp('2021-08-19 13:55:33+0000', tz='UTC'), Timestamp('2021-08-28 04:16:41+0000', tz='UTC'), Timestamp('2021-06-25 15:58:53+0000', tz='UTC'), Timestamp('2021-08-20 12:02:43+0000', tz='UTC'), Timestamp('2021-08-12 00:25:11+0000', tz='UTC'), Timestamp('2021-06-22 16:28:06+0000', tz='UTC'), Timestamp('2021-07-01 13:02:52+0000', tz='UTC'), Timestamp('2021-07-20 16:49:23+0000', tz='UTC'), Timestamp('2021-06-21 16:40:40+0000', tz='UTC'), Timestamp('2021-07-26 14:27:54+0000', tz='UTC'), Timestamp('2021-07-23 12:27:42+0000', tz='UTC'), Timestamp('2021-07-03 14:05:28+0000', tz='UTC'), Timestamp('2021-07-25 14:45:42+0000', tz='UTC'), Timestamp('2021-08-25 06:21:26+0000', tz='UTC'), Timestamp('2021-09-02 01:47:30+0000', tz='UTC'), Timestamp('2021-07-02 14:28:17+0000', tz='UTC'), Timestamp('2021-06-29 08:24:55+0000', tz='UTC'), Timestamp('2021-06-28 15:12:45+0000', tz='UTC'), Timestamp('2021-09-02 23:25:16+0000', tz='UTC'), Timestamp('2021-06-24 15:59:27+0000', tz='UTC'), Timestamp('2021-06-28 14:15:49+0000', tz='UTC'), Timestamp('2021-08-13 21:11:35+0000', tz='UTC'), Timestamp('2021-07-05 13:51:13+0000', tz='UTC'), Timestamp('2021-06-27 15:20:10+0000', tz='UTC'), Timestamp('2021-07-19 17:16:07+0000', tz='UTC'), Timestamp('2021-06-22 16:10:57+0000', tz='UTC'), Timestamp('2021-07-22 13:05:10+0000', tz='UTC'), Timestamp('2021-07-06 11:56:13+0000', tz='UTC'), Timestamp('2021-06-22 21:35:48+0000', tz='UTC'), Timestamp('2021-07-24 15:10:58+0000', tz='UTC'), Timestamp('2021-08-31 03:13:13+0000', tz='UTC'), Timestamp('2021-06-21 16:44:09+0000', tz='UTC'), Timestamp('2021-06-29 14:26:17+0000', tz='UTC'), Timestamp('2021-08-13 23:29:49+0000', tz='UTC'), Timestamp('2021-06-23 15:52:37+0000', tz='UTC'), Timestamp('2021-07-20 15:18:44+0000', tz='UTC'), Timestamp('2021-08-17 19:05:21+0000', tz='UTC'), Timestamp('2021-06-22 15:33:46+0000', tz='UTC'), Timestamp('2021-06-25 15:36:34+0000', tz='UTC'), Timestamp('2021-07-05 11:42:00+0000', tz='UTC'), Timestamp('2021-07-28 14:21:34+0000', tz='UTC'), Timestamp('2021-07-07 02:22:11+0000', tz='UTC'), Timestamp('2021-07-29 14:01:37+0000', tz='UTC'), Timestamp('2021-08-14 21:48:42+0000', tz='UTC'), Timestamp('2021-07-27 14:35:06+0000', tz='UTC'), Timestamp('2021-07-25 09:55:43+0000', tz='UTC'), Timestamp('2021-07-04 12:20:49+0000', tz='UTC'), Timestamp('2021-08-15 18:57:59+0000', tz='UTC'), Timestamp('2021-08-12 23:57:17+0000', tz='UTC'), Timestamp('2021-08-28 05:08:32+0000', tz='UTC'), Timestamp('2021-08-30 04:01:32+0000', tz='UTC'), Timestamp('2021-07-21 13:50:27+0000', tz='UTC'), Timestamp('2021-08-21 12:07:47+0000', tz='UTC'), Timestamp('2021-07-07 13:29:47+0000', tz='UTC'), Timestamp('2021-08-19 16:54:10+0000', tz='UTC'), Timestamp('2021-08-20 14:04:00+0000', tz='UTC'), Timestamp('2021-08-27 04:11:45+0000', tz='UTC'), Timestamp('2021-07-09 13:09:30+0000', tz='UTC'), Timestamp('2021-08-22 11:20:29+0000', tz='UTC'), Timestamp('2021-08-24 08:40:31+0000', tz='UTC'), Timestamp('2021-08-26 06:21:20+0000', tz='UTC'), Timestamp('2021-06-21 16:43:26+0000', tz='UTC'), Timestamp('2021-06-23 16:45:14+0000', tz='UTC'), Timestamp('2021-06-29 15:14:45+0000', tz='UTC'), Timestamp('2021-07-03 12:32:09+0000', tz='UTC'), Timestamp('2021-07-19 17:01:04+0000', tz='UTC'), Timestamp('2021-08-22 11:13:39+0000', tz='UTC'), Timestamp('2021-07-04 14:05:40+0000', tz='UTC'), Timestamp('2021-07-22 16:12:56+0000', tz='UTC'), Timestamp('2021-07-23 15:34:05+0000', tz='UTC'), Timestamp('2021-06-26 15:51:48+0000', tz='UTC'), Timestamp('2021-08-15 20:41:11+0000', tz='UTC'), Timestamp('2021-07-19 17:01:06+0000', tz='UTC'), Timestamp('2021-07-06 14:12:11+0000', tz='UTC'), Timestamp('2021-07-01 14:27:16+0000', tz='UTC'), Timestamp('2021-08-16 20:24:45+0000', tz='UTC'), Timestamp('2021-08-30 02:12:10+0000', tz='UTC'), Timestamp('2021-06-30 13:23:27+0000', tz='UTC'), Timestamp('2021-08-29 04:36:17+0000', tz='UTC'), Timestamp('2021-08-12 23:21:16+0000', tz='UTC'), Timestamp('2021-07-02 12:52:24+0000', tz='UTC'), Timestamp('2021-08-21 12:09:00+0000', tz='UTC'), Timestamp('2021-07-24 11:26:47+0000', tz='UTC'), Timestamp('2021-08-17 16:33:18+0000', tz='UTC'), Timestamp('2021-08-18 15:27:56+0000', tz='UTC'), Timestamp('2021-08-19 16:00:11+0000', tz='UTC'), Timestamp('2021-08-12 00:25:12+0000', tz='UTC'), Timestamp('2021-06-21 16:43:46+0000', tz='UTC'), Timestamp('2021-06-30 14:47:46+0000', tz='UTC'), Timestamp('2021-07-08 13:27:40+0000', tz='UTC'), Timestamp('2021-07-26 09:46:47+0000', tz='UTC'), Timestamp('2021-08-24 07:47:02+0000', tz='UTC'), Timestamp('2021-07-08 10:40:50+0000', tz='UTC'), Timestamp('2021-07-19 17:01:00+0000', tz='UTC'), Timestamp('2021-06-27 14:56:41+0000', tz='UTC'), Timestamp('2021-06-21 16:34:31+0000', tz='UTC'), Timestamp('2021-07-07 11:27:31+0000', tz='UTC'), Timestamp('2021-09-01 02:20:15+0000', tz='UTC'), Timestamp('2021-09-03 01:19:20+0000', tz='UTC'), Timestamp('2021-09-02 00:22:58+0000', tz='UTC'), Timestamp('2021-08-14 19:41:37+0000', tz='UTC'), Timestamp('2021-08-28 03:04:45+0000', tz='UTC'), Timestamp('2021-08-23 10:09:35+0000', tz='UTC'), Timestamp('2021-07-08 01:36:58+0000', tz='UTC'), Timestamp('2021-07-29 07:23:44+0000', tz='UTC'), Timestamp('2021-06-24 16:33:39+0000', tz='UTC'), Timestamp('2021-07-09 10:21:40+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-29 02:59:35+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-09 12:07:25+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-19 15:29:23+0000', tz='UTC'), Timestamp('2021-07-16 16:08:48+0000', tz='UTC'), Timestamp('2021-07-24 06:47:22+0000', tz='UTC'), Timestamp('2021-07-07 19:41:30+0000', tz='UTC'), Timestamp('2021-07-16 16:08:41+0000', tz='UTC'), Timestamp('2021-07-19 15:42:54+0000', tz='UTC'), Timestamp('2021-07-16 16:08:37+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-24 04:19:09+0000', tz='UTC'), Timestamp('2021-07-16 17:28:15+0000', tz='UTC'), Timestamp('2021-07-19 16:34:58+0000', tz='UTC'), Timestamp('2021-07-19 16:19:47+0000', tz='UTC'), Timestamp('2021-07-07 19:42:13+0000', tz='UTC'), Timestamp('2021-07-16 17:34:29+0000', tz='UTC'), Timestamp('2021-07-16 17:28:02+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-10 23:42:06+0000', tz='UTC'), Timestamp('2021-08-23 07:07:20+0000', tz='UTC'), Timestamp('2021-08-26 21:47:45+0000', tz='UTC'), Timestamp('2021-08-18 20:40:06+0000', tz='UTC'), Timestamp('2021-08-17 07:21:32+0000', tz='UTC'), Timestamp('2021-08-18 02:56:39+0000', tz='UTC'), Timestamp('2021-08-11 15:45:41+0000', tz='UTC'), Timestamp('2021-08-18 14:20:35+0000', tz='UTC'), Timestamp('2021-08-10 07:55:26+0000', tz='UTC'), Timestamp('2021-08-23 04:07:44+0000', tz='UTC'), Timestamp('2021-08-25 08:45:22+0000', tz='UTC'), Timestamp('2021-08-01 01:06:06+0000', tz='UTC'), Timestamp('2021-08-10 17:01:11+0000', tz='UTC'), Timestamp('2021-08-10 16:37:38+0000', tz='UTC'), Timestamp('2021-08-18 17:41:11+0000', tz='UTC'), Timestamp('2021-08-12 14:50:38+0000', tz='UTC'), Timestamp('2021-08-10 21:09:33+0000', tz='UTC'), Timestamp('2021-08-24 08:37:34+0000', tz='UTC'), Timestamp('2021-08-10 09:40:37+0000', tz='UTC'), Timestamp('2021-08-13 12:58:07+0000', tz='UTC'), Timestamp('2021-08-10 20:56:31+0000', tz='UTC'), Timestamp('2021-08-30 21:23:19+0000', tz='UTC'), Timestamp('2021-08-18 09:13:27+0000', tz='UTC'), Timestamp('2021-08-11 20:05:15+0000', tz='UTC'), Timestamp('2021-07-25 21:32:12+0000', tz='UTC'), Timestamp('2021-07-19 16:03:56+0000', tz='UTC'), Timestamp('2021-08-10 17:00:52+0000', tz='UTC'), Timestamp('2021-08-10 20:15:17+0000', tz='UTC'), Timestamp('2021-08-13 07:22:06+0000', tz='UTC'), Timestamp('2021-08-10 22:21:17+0000', tz='UTC'), Timestamp('2021-08-10 23:59:42+0000', tz='UTC'), Timestamp('2021-08-13 17:10:13+0000', tz='UTC'), Timestamp('2021-08-11 02:39:48+0000', tz='UTC'), Timestamp('2021-07-29 21:08:57+0000', tz='UTC'), Timestamp('2021-08-12 04:41:45+0000', tz='UTC'), Timestamp('2021-08-13 08:58:07+0000', tz='UTC'), Timestamp('2021-08-10 07:53:40+0000', tz='UTC'), Timestamp('2021-08-11 23:54:10+0000', tz='UTC'), Timestamp('2021-07-19 14:59:59+0000', tz='UTC'), Timestamp('2021-08-04 01:09:19+0000', tz='UTC'), Timestamp('2021-08-12 00:19:11+0000', tz='UTC'), Timestamp('2021-08-18 15:42:38+0000', tz='UTC'), Timestamp('2021-08-10 08:04:29+0000', tz='UTC'), Timestamp('2021-08-03 00:06:15+0000', tz='UTC'), Timestamp('2021-08-20 11:19:02+0000', tz='UTC'), Timestamp('2021-08-10 12:40:24+0000', tz='UTC'), Timestamp('2021-08-13 20:42:05+0000', tz='UTC'), Timestamp('2021-08-18 04:20:18+0000', tz='UTC'), Timestamp('2021-07-22 15:03:58+0000', tz='UTC'), Timestamp('2021-08-18 10:02:35+0000', tz='UTC'), Timestamp('2021-08-10 16:49:17+0000', tz='UTC'), Timestamp('2021-07-20 14:57:28+0000', tz='UTC'), Timestamp('2021-08-10 06:53:45+0000', tz='UTC'), Timestamp('2021-08-18 12:54:19+0000', tz='UTC'), Timestamp('2021-08-23 14:21:59+0000', tz='UTC'), Timestamp('2021-08-16 15:27:26+0000', tz='UTC'), Timestamp('2021-08-10 10:29:08+0000', tz='UTC'), Timestamp('2021-08-10 06:36:43+0000', tz='UTC'), Timestamp('2021-08-21 00:30:52+0000', tz='UTC'), Timestamp('2021-08-16 06:06:03+0000', tz='UTC'), Timestamp('2021-08-11 23:49:40+0000', tz='UTC'), Timestamp('2021-08-18 07:56:29+0000', tz='UTC'), Timestamp('2021-08-29 05:43:02+0000', tz='UTC'), Timestamp('2021-08-12 01:24:09+0000', tz='UTC'), Timestamp('2021-08-25 13:26:01+0000', tz='UTC'), Timestamp('2021-08-10 06:35:54+0000', tz='UTC'), Timestamp('2021-08-19 09:27:03+0000', tz='UTC'), Timestamp('2021-08-28 14:50:42+0000', tz='UTC'), Timestamp('2021-08-18 20:45:20+0000', tz='UTC'), Timestamp('2021-08-19 07:21:05+0000', tz='UTC'), Timestamp('2021-08-19 08:07:00+0000', tz='UTC'), Timestamp('2021-08-14 14:53:31+0000', tz='UTC'), Timestamp('2021-08-10 12:40:35+0000', tz='UTC'), Timestamp('2021-08-11 23:54:40+0000', tz='UTC'), Timestamp('2021-08-17 16:22:12+0000', tz='UTC'), Timestamp('2021-08-21 05:59:20+0000', tz='UTC'), Timestamp('2021-08-18 06:47:43+0000', tz='UTC'), Timestamp('2021-08-29 23:04:56+0000', tz='UTC'), Timestamp('2021-08-10 08:21:16+0000', tz='UTC'), Timestamp('2021-08-23 08:34:23+0000', tz='UTC'), Timestamp('2021-08-18 17:46:14+0000', tz='UTC'), Timestamp('2021-08-18 01:47:37+0000', tz='UTC'), Timestamp('2021-08-10 06:52:21+0000', tz='UTC'), Timestamp('2021-08-10 20:56:15+0000', tz='UTC'), Timestamp('2021-08-10 22:21:39+0000', tz='UTC'), Timestamp('2021-08-13 20:41:57+0000', tz='UTC'), Timestamp('2021-08-18 07:34:35+0000', tz='UTC'), Timestamp('2021-08-11 14:48:47+0000', tz='UTC'), Timestamp('2021-08-02 01:07:32+0000', tz='UTC'), Timestamp('2021-07-21 15:03:13+0000', tz='UTC'), Timestamp('2021-08-31 02:40:39+0000', tz='UTC'), Timestamp('2021-08-10 10:01:19+0000', tz='UTC'), Timestamp('2021-08-23 07:50:18+0000', tz='UTC'), Timestamp('2021-08-19 14:35:23+0000', tz='UTC'), Timestamp('2021-08-27 04:21:52+0000', tz='UTC'), Timestamp('2021-08-16 08:14:58+0000', tz='UTC'), Timestamp('2021-08-17 02:03:02+0000', tz='UTC'), Timestamp('2021-08-18 11:39:38+0000', tz='UTC'), Timestamp('2021-08-18 07:34:38+0000', tz='UTC'), Timestamp('2021-08-12 09:25:30+0000', tz='UTC'), Timestamp('2021-07-19 15:07:29+0000', tz='UTC'), Timestamp('2021-08-10 23:47:51+0000', tz='UTC'), Timestamp('2021-08-13 07:47:29+0000', tz='UTC'), Timestamp('2021-08-18 09:27:14+0000', tz='UTC'), Timestamp('2021-08-26 11:04:58+0000', tz='UTC'), Timestamp('2021-07-27 15:08:35+0000', tz='UTC'), Timestamp('2021-08-30 05:20:26+0000', tz='UTC'), Timestamp('2021-08-04 12:58:38+0000', tz='UTC'), Timestamp('2021-08-25 12:08:28+0000', tz='UTC'), Timestamp('2021-08-10 13:40:14+0000', tz='UTC'), Timestamp('2021-08-16 20:15:11+0000', tz='UTC'), Timestamp('2021-08-11 15:45:42+0000', tz='UTC'), Timestamp('2021-08-18 21:38:15+0000', tz='UTC'), Timestamp('2021-08-10 21:56:34+0000', tz='UTC'), Timestamp('2021-08-10 23:09:12+0000', tz='UTC'), Timestamp('2021-08-24 18:42:14+0000', tz='UTC'), Timestamp('2021-08-10 12:40:30+0000', tz='UTC'), Timestamp('2021-09-02 12:38:43+0000', tz='UTC'), Timestamp('2021-08-18 11:36:17+0000', tz='UTC'), Timestamp('2021-08-20 08:16:38+0000', tz='UTC'), Timestamp('2021-07-19 22:00:44+0000', tz='UTC'), Timestamp('2021-08-11 04:33:40+0000', tz='UTC'), Timestamp('2021-08-18 19:35:12+0000', tz='UTC'), Timestamp('2021-08-10 17:01:09+0000', tz='UTC'), Timestamp('2021-08-10 20:56:10+0000', tz='UTC'), Timestamp('2021-08-12 00:56:40+0000', tz='UTC'), Timestamp('2021-08-10 23:43:02+0000', tz='UTC'), Timestamp('2021-08-24 23:57:12+0000', tz='UTC'), Timestamp('2021-08-23 12:40:19+0000', tz='UTC'), Timestamp('2021-08-19 01:07:46+0000', tz='UTC'), Timestamp('2021-08-10 10:01:41+0000', tz='UTC'), Timestamp('2021-07-31 01:04:35+0000', tz='UTC'), Timestamp('2021-08-12 03:21:40+0000', tz='UTC'), Timestamp('2021-08-20 06:11:49+0000', tz='UTC'), Timestamp('2021-08-10 08:04:35+0000', tz='UTC'), Timestamp('2021-08-11 23:46:05+0000', tz='UTC'), Timestamp('2021-08-20 14:59:42+0000', tz='UTC'), Timestamp('2021-08-18 23:10:15+0000', tz='UTC'), Timestamp('2021-08-18 07:07:38+0000', tz='UTC'), Timestamp('2021-07-26 15:08:01+0000', tz='UTC'), Timestamp('2021-08-25 10:42:28+0000', tz='UTC'), Timestamp('2021-08-05 13:47:32+0000', tz='UTC'), Timestamp('2021-08-18 11:33:06+0000', tz='UTC'), Timestamp('2021-07-30 19:40:16+0000', tz='UTC'), Timestamp('2021-08-23 05:25:43+0000', tz='UTC'), Timestamp('2021-08-22 09:02:45+0000', tz='UTC'), Timestamp('2021-08-10 09:35:08+0000', tz='UTC'), Timestamp('2021-08-10 21:10:13+0000', tz='UTC'), Timestamp('2021-08-26 10:17:12+0000', tz='UTC'), Timestamp('2021-09-02 12:32:37+0000', tz='UTC'), Timestamp('2021-08-10 15:34:50+0000', tz='UTC'), Timestamp('2021-08-10 06:36:38+0000', tz='UTC'), Timestamp('2021-08-10 06:36:49+0000', tz='UTC'), Timestamp('2021-07-31 09:48:09+0000', tz='UTC'), Timestamp('2021-08-10 11:33:52+0000', tz='UTC'), Timestamp('2021-08-18 17:19:15+0000', tz='UTC'), Timestamp('2021-08-10 21:11:21+0000', tz='UTC'), Timestamp('2021-08-05 01:12:03+0000', tz='UTC'), Timestamp('2021-08-30 11:09:54+0000', tz='UTC'), Timestamp('2021-08-17 17:58:32+0000', tz='UTC'), Timestamp('2021-08-20 00:55:48+0000', tz='UTC'), Timestamp('2021-08-10 22:18:13+0000', tz='UTC'), Timestamp('2021-08-30 16:57:03+0000', tz='UTC'), Timestamp('2021-08-30 23:05:07+0000', tz='UTC'), Timestamp('2021-08-18 12:25:09+0000', tz='UTC'), Timestamp('2021-08-26 11:07:39+0000', tz='UTC'), Timestamp('2021-08-10 23:46:10+0000', tz='UTC'), Timestamp('2021-08-18 03:10:13+0000', tz='UTC'), Timestamp('2021-07-31 19:22:54+0000', tz='UTC'), Timestamp('2021-08-30 18:55:09+0000', tz='UTC'), Timestamp('2021-08-30 03:15:32+0000', tz='UTC'), Timestamp('2021-08-13 03:28:04+0000', tz='UTC'), Timestamp('2021-08-11 14:49:31+0000', tz='UTC'), Timestamp('2021-08-11 14:49:53+0000', tz='UTC'), Timestamp('2021-08-17 12:22:50+0000', tz='UTC'), Timestamp('2021-08-10 10:01:06+0000', tz='UTC'), Timestamp('2021-08-14 03:14:15+0000', tz='UTC'), Timestamp('2021-08-12 07:50:46+0000', tz='UTC'), Timestamp('2021-08-10 08:20:17+0000', tz='UTC'), Timestamp('2021-08-10 23:09:10+0000', tz='UTC'), Timestamp('2021-08-23 07:53:38+0000', tz='UTC'), Timestamp('2021-08-29 18:54:26+0000', tz='UTC'), Timestamp('2021-08-19 14:35:21+0000', tz='UTC'), Timestamp('2021-08-12 00:53:21+0000', tz='UTC'), Timestamp('2021-08-31 00:22:34+0000', tz='UTC'), Timestamp('2021-08-10 07:58:14+0000', tz='UTC'), Timestamp('2021-08-13 21:56:12+0000', tz='UTC'), Timestamp('2021-08-10 23:46:32+0000', tz='UTC'), Timestamp('2021-08-13 02:21:34+0000', tz='UTC'), Timestamp('2021-08-16 14:43:38+0000', tz='UTC'), Timestamp('2021-08-17 12:23:10+0000', tz='UTC'), Timestamp('2021-08-15 11:33:57+0000', tz='UTC'), Timestamp('2021-08-18 16:09:34+0000', tz='UTC'), Timestamp('2021-08-25 17:47:38+0000', tz='UTC'), Timestamp('2021-07-19 20:57:01+0000', tz='UTC'), Timestamp('2021-08-18 10:09:14+0000', tz='UTC'), Timestamp('2021-08-10 21:56:13+0000', tz='UTC'), Timestamp('2021-08-18 10:34:12+0000', tz='UTC'), Timestamp('2021-08-10 06:53:30+0000', tz='UTC'), Timestamp('2021-08-10 22:18:35+0000', tz='UTC'), Timestamp('2021-08-12 10:34:55+0000', tz='UTC'), Timestamp('2021-08-10 08:04:33+0000', tz='UTC'), Timestamp('2021-08-30 05:31:32+0000', tz='UTC'), Timestamp('2021-08-18 17:19:10+0000', tz='UTC'), Timestamp('2021-08-26 18:42:46+0000', tz='UTC'), Timestamp('2021-08-20 09:50:50+0000', tz='UTC'), Timestamp('2021-08-11 14:50:42+0000', tz='UTC'), Timestamp('2021-08-18 03:02:33+0000', tz='UTC'), Timestamp('2021-08-27 09:10:32+0000', tz='UTC'), Timestamp('2021-08-25 04:23:23+0000', tz='UTC'), Timestamp('2021-08-28 10:48:39+0000', tz='UTC'), Timestamp('2021-08-10 06:36:36+0000', tz='UTC'), Timestamp('2021-08-30 05:57:00+0000', tz='UTC'), Timestamp('2021-08-26 06:11:28+0000', tz='UTC'), Timestamp('2021-08-10 14:43:42+0000', tz='UTC'), Timestamp('2021-08-23 15:02:01+0000', tz='UTC'), Timestamp('2021-07-25 15:06:59+0000', tz='UTC'), Timestamp('2021-08-13 06:51:27+0000', tz='UTC'), Timestamp('2021-08-18 20:08:10+0000', tz='UTC'), Timestamp('2021-08-19 18:35:46+0000', tz='UTC'), Timestamp('2021-08-10 08:14:14+0000', tz='UTC'), Timestamp('2021-08-24 05:05:13+0000', tz='UTC'), Timestamp('2021-08-18 23:07:19+0000', tz='UTC'), Timestamp('2021-08-12 02:19:57+0000', tz='UTC'), Timestamp('2021-08-18 08:53:45+0000', tz='UTC'), Timestamp('2021-08-15 20:28:40+0000', tz='UTC'), Timestamp('2021-07-20 08:02:26+0000', tz='UTC'), Timestamp('2021-08-18 10:10:14+0000', tz='UTC'), Timestamp('2021-08-20 07:31:33+0000', tz='UTC'), Timestamp('2021-08-18 21:43:05+0000', tz='UTC'), Timestamp('2021-08-25 04:54:01+0000', tz='UTC'), Timestamp('2021-08-13 08:55:49+0000', tz='UTC'), Timestamp('2021-08-18 03:38:19+0000', tz='UTC'), Timestamp('2021-08-22 18:38:55+0000', tz='UTC'), Timestamp('2021-08-16 23:44:17+0000', tz='UTC'), Timestamp('2021-08-18 18:04:40+0000', tz='UTC'), Timestamp('2021-08-20 03:12:49+0000', tz='UTC'), Timestamp('2021-07-29 13:02:17+0000', tz='UTC'), Timestamp('2021-08-17 16:29:13+0000', tz='UTC'), Timestamp('2021-08-13 08:38:54+0000', tz='UTC'), Timestamp('2021-07-19 23:56:23+0000', tz='UTC'), Timestamp('2021-08-12 00:45:35+0000', tz='UTC'), Timestamp('2021-08-20 18:36:59+0000', tz='UTC'), Timestamp('2021-08-20 03:14:08+0000', tz='UTC'), Timestamp('2021-08-18 16:27:51+0000', tz='UTC'), Timestamp('2021-08-15 22:16:56+0000', tz='UTC'), Timestamp('2021-08-10 05:50:33+0000', tz='UTC'), Timestamp('2021-08-12 03:49:41+0000', tz='UTC'), Timestamp('2021-08-18 10:29:17+0000', tz='UTC'), Timestamp('2021-08-18 23:55:11+0000', tz='UTC'), Timestamp('2021-08-18 21:38:35+0000', tz='UTC'), Timestamp('2021-08-20 08:16:58+0000', tz='UTC'), Timestamp('2021-08-10 11:33:31+0000', tz='UTC'), Timestamp('2021-08-19 08:47:29+0000', tz='UTC'), Timestamp('2021-08-27 18:43:44+0000', tz='UTC'), Timestamp('2021-08-12 00:01:46+0000', tz='UTC'), Timestamp('2021-08-18 13:57:26+0000', tz='UTC'), Timestamp('2021-08-10 17:45:10+0000', tz='UTC'), Timestamp('2021-08-18 17:05:43+0000', tz='UTC'), Timestamp('2021-08-18 17:05:54+0000', tz='UTC'), Timestamp('2021-09-02 12:35:33+0000', tz='UTC'), Timestamp('2021-08-18 11:03:07+0000', tz='UTC'), Timestamp('2021-08-18 13:12:18+0000', tz='UTC'), Timestamp('2021-08-18 20:15:19+0000', tz='UTC'), Timestamp('2021-08-10 10:49:15+0000', tz='UTC'), Timestamp('2021-08-11 23:54:09+0000', tz='UTC'), Timestamp('2021-08-24 08:37:54+0000', tz='UTC'), Timestamp('2021-08-18 22:55:08+0000', tz='UTC'), Timestamp('2021-08-23 23:56:54+0000', tz='UTC'), Timestamp('2021-08-17 19:49:49+0000', tz='UTC'), Timestamp('2021-07-23 23:34:41+0000', tz='UTC'), Timestamp('2021-08-04 07:29:08+0000', tz='UTC'), Timestamp('2021-08-28 18:52:38+0000', tz='UTC'), Timestamp('2021-08-13 18:56:34+0000', tz='UTC'), Timestamp('2021-08-11 02:45:47+0000', tz='UTC'), Timestamp('2021-08-12 08:18:44+0000', tz='UTC'), Timestamp('2021-08-18 06:47:31+0000', tz='UTC'), Timestamp('2021-08-25 18:42:33+0000', tz='UTC'), Timestamp('2021-08-10 06:50:50+0000', tz='UTC'), Timestamp('2021-08-10 20:56:41+0000', tz='UTC'), Timestamp('2021-07-24 15:05:59+0000', tz='UTC'), Timestamp('2021-08-15 14:55:26+0000', tz='UTC'), Timestamp('2021-08-18 07:56:09+0000', tz='UTC'), Timestamp('2021-08-18 10:10:09+0000', tz='UTC'), Timestamp('2021-08-30 11:10:14+0000', tz='UTC'), Timestamp('2021-08-11 10:27:45+0000', tz='UTC'), Timestamp('2021-08-10 16:28:21+0000', tz='UTC'), Timestamp('2021-08-23 12:40:39+0000', tz='UTC'), Timestamp('2021-08-18 11:54:04+0000', tz='UTC'), Timestamp('2021-08-18 08:18:42+0000', tz='UTC'), Timestamp('2021-08-18 21:46:22+0000', tz='UTC'), Timestamp('2021-08-18 09:27:20+0000', tz='UTC'), Timestamp('2021-08-16 14:57:09+0000', tz='UTC'), Timestamp('2021-08-18 20:55:38+0000', tz='UTC'), Timestamp('2021-08-18 06:47:50+0000', tz='UTC'), Timestamp('2021-08-10 16:49:37+0000', tz='UTC'), Timestamp('2021-07-19 15:00:31+0000', tz='UTC'), Timestamp('2021-08-11 09:44:18+0000', tz='UTC'), Timestamp('2021-08-10 21:47:08+0000', tz='UTC'), Timestamp('2021-08-21 00:43:27+0000', tz='UTC'), Timestamp('2021-08-21 18:37:43+0000', tz='UTC'), Timestamp('2021-08-23 08:34:03+0000', tz='UTC'), Timestamp('2021-08-10 16:49:38+0000', tz='UTC'), Timestamp('2021-08-10 18:59:38+0000', tz='UTC'), Timestamp('2021-08-26 06:13:51+0000', tz='UTC'), Timestamp('2021-08-19 06:41:26+0000', tz='UTC'), Timestamp('2021-07-26 22:32:49+0000', tz='UTC'), Timestamp('2021-08-18 12:54:40+0000', tz='UTC'), Timestamp('2021-08-18 19:00:19+0000', tz='UTC'), Timestamp('2021-08-17 07:00:32+0000', tz='UTC'), Timestamp('2021-08-11 15:45:38+0000', tz='UTC'), Timestamp('2021-08-23 18:40:43+0000', tz='UTC'), Timestamp('2021-08-10 16:19:13+0000', tz='UTC'), Timestamp('2021-08-18 03:02:12+0000', tz='UTC'), Timestamp('2021-08-10 23:46:33+0000', tz='UTC'), Timestamp('2021-08-23 10:54:42+0000', tz='UTC'), Timestamp('2021-08-11 11:51:24+0000', tz='UTC'), Timestamp('2021-08-14 02:19:21+0000', tz='UTC'), Timestamp('2021-08-29 01:16:17+0000', tz='UTC'), Timestamp('2021-08-03 22:43:28+0000', tz='UTC'), Timestamp('2021-08-10 18:12:19+0000', tz='UTC'), Timestamp('2021-08-10 19:00:00+0000', tz='UTC'), Timestamp('2021-08-18 21:43:11+0000', tz='UTC'), Timestamp('2021-08-10 16:37:16+0000', tz='UTC'), Timestamp('2021-07-22 02:37:56+0000', tz='UTC'), Timestamp('2021-08-10 16:28:43+0000', tz='UTC'), Timestamp('2021-08-10 09:40:53+0000', tz='UTC'), Timestamp('2021-08-12 10:35:15+0000', tz='UTC'), Timestamp('2021-08-18 10:25:02+0000', tz='UTC'), Timestamp('2021-08-10 21:09:11+0000', tz='UTC'), Timestamp('2021-08-18 20:08:30+0000', tz='UTC'), Timestamp('2021-08-21 10:50:07+0000', tz='UTC'), Timestamp('2021-08-25 08:47:24+0000', tz='UTC'), Timestamp('2021-07-23 15:04:57+0000', tz='UTC'), Timestamp('2021-07-23 01:01:20+0000', tz='UTC'), Timestamp('2021-08-16 06:56:03+0000', tz='UTC'), Timestamp('2021-08-10 13:40:35+0000', tz='UTC'), Timestamp('2021-08-19 22:56:12+0000', tz='UTC'), Timestamp('2021-08-13 08:38:33+0000', tz='UTC'), Timestamp('2021-08-12 16:31:16+0000', tz='UTC'), Timestamp('2021-08-26 10:14:54+0000', tz='UTC'), Timestamp('2021-08-10 08:04:34+0000', tz='UTC'), Timestamp('2021-08-10 18:13:27+0000', tz='UTC'), Timestamp('2021-08-27 01:20:40+0000', tz='UTC'), Timestamp('2021-07-20 14:56:25+0000', tz='UTC'), Timestamp('2021-08-10 08:20:20+0000', tz='UTC'), Timestamp('2021-08-18 10:36:40+0000', tz='UTC'), Timestamp('2021-08-18 20:35:06+0000', tz='UTC'), Timestamp('2021-08-22 10:29:23+0000', tz='UTC'), Timestamp('2021-07-24 23:17:44+0000', tz='UTC'), Timestamp('2021-08-18 09:44:21+0000', tz='UTC'), Timestamp('2021-07-19 15:53:45+0000', tz='UTC'), Timestamp('2021-08-18 09:27:24+0000', tz='UTC'), Timestamp('2021-08-18 06:47:37+0000', tz='UTC'), Timestamp('2021-08-28 01:50:39+0000', tz='UTC'), Timestamp('2021-08-12 22:01:58+0000', tz='UTC'), Timestamp('2021-08-10 06:36:37+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-19 08:32:52+0000', tz='UTC'), Timestamp('2021-07-24 23:29:09+0000', tz='UTC'), Timestamp('2021-07-20 04:53:13+0000', tz='UTC'), Timestamp('2021-07-16 15:38:45+0000', tz='UTC'), Timestamp('2021-07-18 16:05:14+0000', tz='UTC'), Timestamp('2021-07-20 07:50:57+0000', tz='UTC'), Timestamp('2021-07-17 13:50:11+0000', tz='UTC'), Timestamp('2021-07-20 08:12:44+0000', tz='UTC'), Timestamp('2021-07-20 07:47:43+0000', tz='UTC'), Timestamp('2021-07-16 16:22:01+0000', tz='UTC'), Timestamp('2021-07-07 19:42:07+0000', tz='UTC'), Timestamp('2021-07-19 08:28:45+0000', tz='UTC'), Timestamp('2021-07-30 09:15:06+0000', tz='UTC'), Timestamp('2021-07-16 16:17:45+0000', tz='UTC'), Timestamp('2021-07-17 16:05:22+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-20 18:39:49+0000', tz='UTC'), Timestamp('2021-07-14 19:26:31+0000', tz='UTC'), Timestamp('2021-07-26 22:21:47+0000', tz='UTC'), Timestamp('2021-09-02 19:02:07+0000', tz='UTC'), Timestamp('2021-06-11 17:33:05+0000', tz='UTC'), Timestamp('2021-07-21 11:57:44+0000', tz='UTC'), Timestamp('2021-07-24 22:38:06+0000', tz='UTC'), Timestamp('2021-07-17 00:51:09+0000', tz='UTC'), Timestamp('2021-06-07 08:32:19+0000', tz='UTC'), Timestamp('2021-07-13 09:01:30+0000', tz='UTC'), Timestamp('2021-07-17 19:36:38+0000', tz='UTC'), Timestamp('2021-06-24 09:06:49+0000', tz='UTC'), Timestamp('2021-07-26 04:29:36+0000', tz='UTC'), Timestamp('2021-08-04 04:22:25+0000', tz='UTC'), Timestamp('2021-08-11 18:14:52+0000', tz='UTC'), Timestamp('2021-09-03 11:32:03+0000', tz='UTC'), Timestamp('2021-06-07 15:26:47+0000', tz='UTC'), Timestamp('2021-07-07 11:55:51+0000', tz='UTC'), Timestamp('2021-06-17 18:37:29+0000', tz='UTC'), Timestamp('2021-06-16 00:54:23+0000', tz='UTC'), Timestamp('2021-06-29 17:51:13+0000', tz='UTC'), Timestamp('2021-07-05 00:51:37+0000', tz='UTC'), Timestamp('2021-09-03 05:54:54+0000', tz='UTC'), Timestamp('2021-06-22 13:12:56+0000', tz='UTC'), Timestamp('2021-07-31 07:26:21+0000', tz='UTC'), Timestamp('2021-08-10 12:54:43+0000', tz='UTC'), Timestamp('2021-06-15 22:49:29+0000', tz='UTC'), Timestamp('2021-08-09 03:55:04+0000', tz='UTC'), Timestamp('2021-06-13 21:03:44+0000', tz='UTC'), Timestamp('2021-08-30 19:10:24+0000', tz='UTC'), Timestamp('2021-07-14 00:55:04+0000', tz='UTC'), Timestamp('2021-06-16 20:29:42+0000', tz='UTC'), Timestamp('2021-08-09 01:22:23+0000', tz='UTC'), Timestamp('2021-07-26 03:18:25+0000', tz='UTC'), Timestamp('2021-07-22 07:23:54+0000', tz='UTC'), Timestamp('2021-07-23 23:48:42+0000', tz='UTC'), Timestamp('2021-06-19 23:14:45+0000', tz='UTC'), Timestamp('2021-08-26 03:00:29+0000', tz='UTC'), Timestamp('2021-07-10 22:07:38+0000', tz='UTC'), Timestamp('2021-06-11 05:04:04+0000', tz='UTC'), Timestamp('2021-07-28 22:01:16+0000', tz='UTC'), Timestamp('2021-06-29 01:17:41+0000', tz='UTC'), Timestamp('2021-07-26 16:41:16+0000', tz='UTC'), Timestamp('2021-08-24 23:09:03+0000', tz='UTC'), Timestamp('2021-07-14 12:38:41+0000', tz='UTC'), Timestamp('2021-06-28 00:23:50+0000', tz='UTC'), Timestamp('2021-07-05 19:59:53+0000', tz='UTC'), Timestamp('2021-07-20 05:27:49+0000', tz='UTC'), Timestamp('2021-07-16 15:29:32+0000', tz='UTC'), Timestamp('2021-08-05 18:22:21+0000', tz='UTC'), Timestamp('2021-07-13 14:32:55+0000', tz='UTC'), Timestamp('2021-08-14 21:32:00+0000', tz='UTC'), Timestamp('2021-07-20 14:02:01+0000', tz='UTC'), Timestamp('2021-07-20 12:57:36+0000', tz='UTC'), Timestamp('2021-06-26 02:04:05+0000', tz='UTC'), Timestamp('2021-06-30 23:19:44+0000', tz='UTC'), Timestamp('2021-08-23 00:49:58+0000', tz='UTC'), Timestamp('2021-08-26 00:44:53+0000', tz='UTC'), Timestamp('2021-06-28 14:46:35+0000', tz='UTC'), Timestamp('2021-07-24 06:43:15+0000', tz='UTC'), Timestamp('2021-08-26 17:41:58+0000', tz='UTC'), Timestamp('2021-06-09 09:32:41+0000', tz='UTC'), Timestamp('2021-08-04 20:43:19+0000', tz='UTC'), Timestamp('2021-08-03 01:21:20+0000', tz='UTC'), Timestamp('2021-07-18 09:11:15+0000', tz='UTC'), Timestamp('2021-07-08 17:11:20+0000', tz='UTC'), Timestamp('2021-08-07 02:15:57+0000', tz='UTC'), Timestamp('2021-06-21 01:25:05+0000', tz='UTC'), Timestamp('2021-07-19 14:40:12+0000', tz='UTC'), Timestamp('2021-09-02 03:58:30+0000', tz='UTC'), Timestamp('2021-06-20 22:18:09+0000', tz='UTC'), Timestamp('2021-08-04 00:12:00+0000', tz='UTC'), Timestamp('2021-07-17 10:21:05+0000', tz='UTC'), Timestamp('2021-08-19 01:57:56+0000', tz='UTC'), Timestamp('2021-06-21 21:52:32+0000', tz='UTC'), Timestamp('2021-06-07 10:57:39+0000', tz='UTC'), Timestamp('2021-07-04 23:38:49+0000', tz='UTC'), Timestamp('2021-08-14 09:04:17+0000', tz='UTC'), Timestamp('2021-07-15 21:38:31+0000', tz='UTC'), Timestamp('2021-06-06 18:59:18+0000', tz='UTC'), Timestamp('2021-06-14 05:57:12+0000', tz='UTC'), Timestamp('2021-08-28 03:23:59+0000', tz='UTC'), Timestamp('2021-07-13 00:45:46+0000', tz='UTC'), Timestamp('2021-08-24 11:41:15+0000', tz='UTC'), Timestamp('2021-06-06 21:15:16+0000', tz='UTC'), Timestamp('2021-08-08 13:45:45+0000', tz='UTC'), Timestamp('2021-08-02 00:05:10+0000', tz='UTC'), Timestamp('2021-06-07 17:54:45+0000', tz='UTC'), Timestamp('2021-06-09 02:52:16+0000', tz='UTC'), Timestamp('2021-07-14 03:18:10+0000', tz='UTC'), Timestamp('2021-06-09 14:56:20+0000', tz='UTC'), Timestamp('2021-06-10 12:13:52+0000', tz='UTC'), Timestamp('2021-06-30 11:08:46+0000', tz='UTC'), Timestamp('2021-07-19 14:57:18+0000', tz='UTC'), Timestamp('2021-07-01 15:47:08+0000', tz='UTC'), Timestamp('2021-06-22 23:35:25+0000', tz='UTC'), Timestamp('2021-07-22 10:27:36+0000', tz='UTC'), Timestamp('2021-08-11 17:00:01+0000', tz='UTC'), Timestamp('2021-06-16 11:00:08+0000', tz='UTC'), Timestamp('2021-09-02 22:37:05+0000', tz='UTC'), Timestamp('2021-06-08 12:17:00+0000', tz='UTC'), Timestamp('2021-08-12 20:58:28+0000', tz='UTC'), Timestamp('2021-06-06 03:09:14+0000', tz='UTC'), Timestamp('2021-06-22 09:55:40+0000', tz='UTC'), Timestamp('2021-07-04 21:25:57+0000', tz='UTC'), Timestamp('2021-09-01 05:55:09+0000', tz='UTC'), Timestamp('2021-09-02 21:33:19+0000', tz='UTC'), Timestamp('2021-07-07 12:58:08+0000', tz='UTC'), Timestamp('2021-07-13 04:24:24+0000', tz='UTC'), Timestamp('2021-07-25 03:10:07+0000', tz='UTC'), Timestamp('2021-08-16 13:56:18+0000', tz='UTC'), Timestamp('2021-08-06 21:30:39+0000', tz='UTC'), Timestamp('2021-08-07 07:50:06+0000', tz='UTC'), Timestamp('2021-07-14 04:43:05+0000', tz='UTC'), Timestamp('2021-08-05 13:29:04+0000', tz='UTC'), Timestamp('2021-07-11 01:29:40+0000', tz='UTC'), Timestamp('2021-08-15 11:19:40+0000', tz='UTC'), Timestamp('2021-07-08 14:28:22+0000', tz='UTC'), Timestamp('2021-07-05 11:09:20+0000', tz='UTC'), Timestamp('2021-07-30 23:10:24+0000', tz='UTC'), Timestamp('2021-07-09 12:03:19+0000', tz='UTC'), Timestamp('2021-07-25 11:57:22+0000', tz='UTC'), Timestamp('2021-06-14 12:29:59+0000', tz='UTC'), Timestamp('2021-06-26 11:47:28+0000', tz='UTC'), Timestamp('2021-06-23 19:17:16+0000', tz='UTC'), Timestamp('2021-08-03 13:29:39+0000', tz='UTC'), Timestamp('2021-06-21 09:07:56+0000', tz='UTC'), Timestamp('2021-07-27 02:40:50+0000', tz='UTC'), Timestamp('2021-08-02 07:35:08+0000', tz='UTC'), Timestamp('2021-06-10 00:51:45+0000', tz='UTC'), Timestamp('2021-06-13 17:47:39+0000', tz='UTC'), Timestamp('2021-07-13 06:47:28+0000', tz='UTC'), Timestamp('2021-06-10 13:14:38+0000', tz='UTC'), Timestamp('2021-07-30 18:52:02+0000', tz='UTC'), Timestamp('2021-08-21 22:11:50+0000', tz='UTC'), Timestamp('2021-06-23 06:44:50+0000', tz='UTC'), Timestamp('2021-07-14 04:29:05+0000', tz='UTC'), Timestamp('2021-08-08 02:59:41+0000', tz='UTC'), Timestamp('2021-07-13 22:53:00+0000', tz='UTC'), Timestamp('2021-09-02 00:28:22+0000', tz='UTC'), Timestamp('2021-08-01 07:11:05+0000', tz='UTC'), Timestamp('2021-08-06 16:51:41+0000', tz='UTC'), Timestamp('2021-08-14 00:44:11+0000', tz='UTC'), Timestamp('2021-07-31 09:30:22+0000', tz='UTC'), Timestamp('2021-07-24 07:44:13+0000', tz='UTC'), Timestamp('2021-08-20 10:07:35+0000', tz='UTC'), Timestamp('2021-08-27 04:11:36+0000', tz='UTC'), Timestamp('2021-08-19 15:03:56+0000', tz='UTC'), Timestamp('2021-06-18 07:29:55+0000', tz='UTC'), Timestamp('2021-07-26 12:30:05+0000', tz='UTC'), Timestamp('2021-06-05 17:03:00+0000', tz='UTC'), Timestamp('2021-07-24 18:22:09+0000', tz='UTC'), Timestamp('2021-06-17 21:03:43+0000', tz='UTC'), Timestamp('2021-07-31 22:59:49+0000', tz='UTC'), Timestamp('2021-07-19 11:21:32+0000', tz='UTC'), Timestamp('2021-08-10 07:01:54+0000', tz='UTC'), Timestamp('2021-06-28 10:13:57+0000', tz='UTC'), Timestamp('2021-08-08 15:00:43+0000', tz='UTC'), Timestamp('2021-08-07 15:49:51+0000', tz='UTC'), Timestamp('2021-06-09 17:03:21+0000', tz='UTC'), Timestamp('2021-07-24 04:13:32+0000', tz='UTC'), Timestamp('2021-07-30 15:47:07+0000', tz='UTC'), Timestamp('2021-06-27 09:22:36+0000', tz='UTC'), Timestamp('2021-08-17 01:15:51+0000', tz='UTC'), Timestamp('2021-09-03 13:46:34+0000', tz='UTC'), Timestamp('2021-08-20 19:33:01+0000', tz='UTC'), Timestamp('2021-06-11 23:13:07+0000', tz='UTC'), Timestamp('2021-07-15 01:07:26+0000', tz='UTC'), Timestamp('2021-06-20 15:05:33+0000', tz='UTC'), Timestamp('2021-07-07 19:45:14+0000', tz='UTC'), Timestamp('2021-06-29 00:07:06+0000', tz='UTC'), Timestamp('2021-07-13 20:53:10+0000', tz='UTC'), Timestamp('2021-07-22 21:37:46+0000', tz='UTC'), Timestamp('2021-08-27 08:41:53+0000', tz='UTC'), Timestamp('2021-07-27 12:10:10+0000', tz='UTC'), Timestamp('2021-07-11 09:22:50+0000', tz='UTC'), Timestamp('2021-06-23 15:54:02+0000', tz='UTC'), Timestamp('2021-06-27 20:56:04+0000', tz='UTC'), Timestamp('2021-06-07 18:55:43+0000', tz='UTC'), Timestamp('2021-08-15 22:25:47+0000', tz='UTC'), Timestamp('2021-07-07 08:28:02+0000', tz='UTC'), Timestamp('2021-07-12 08:55:59+0000', tz='UTC'), Timestamp('2021-08-31 18:57:23+0000', tz='UTC'), Timestamp('2021-08-13 02:37:17+0000', tz='UTC'), Timestamp('2021-07-25 14:20:28+0000', tz='UTC'), Timestamp('2021-07-16 06:32:56+0000', tz='UTC'), Timestamp('2021-08-23 16:42:14+0000', tz='UTC'), Timestamp('2021-07-14 02:16:43+0000', tz='UTC'), Timestamp('2021-07-15 14:10:39+0000', tz='UTC'), Timestamp('2021-07-13 06:33:39+0000', tz='UTC'), Timestamp('2021-08-18 22:54:18+0000', tz='UTC'), Timestamp('2021-08-12 04:21:16+0000', tz='UTC'), Timestamp('2021-06-10 16:32:50+0000', tz='UTC'), Timestamp('2021-07-10 11:17:18+0000', tz='UTC'), Timestamp('2021-07-16 16:34:06+0000', tz='UTC'), Timestamp('2021-06-24 10:09:20+0000', tz='UTC'), Timestamp('2021-07-11 10:35:31+0000', tz='UTC'), Timestamp('2021-07-14 05:24:44+0000', tz='UTC'), Timestamp('2021-07-20 09:41:42+0000', tz='UTC'), Timestamp('2021-07-31 10:45:39+0000', tz='UTC'), Timestamp('2021-06-11 07:21:18+0000', tz='UTC'), Timestamp('2021-08-23 12:11:30+0000', tz='UTC'), Timestamp('2021-06-26 03:04:11+0000', tz='UTC'), Timestamp('2021-09-02 07:13:23+0000', tz='UTC'), Timestamp('2021-08-03 14:54:36+0000', tz='UTC'), Timestamp('2021-06-23 03:07:36+0000', tz='UTC'), Timestamp('2021-07-25 16:23:53+0000', tz='UTC'), Timestamp('2021-08-05 00:08:36+0000', tz='UTC'), Timestamp('2021-06-17 07:45:56+0000', tz='UTC'), Timestamp('2021-06-21 04:43:31+0000', tz='UTC'), Timestamp('2021-08-19 08:25:17+0000', tz='UTC'), Timestamp('2021-07-06 21:02:56+0000', tz='UTC'), Timestamp('2021-08-13 21:29:53+0000', tz='UTC'), Timestamp('2021-08-23 18:54:20+0000', tz='UTC'), Timestamp('2021-08-05 12:28:35+0000', tz='UTC'), Timestamp('2021-06-29 08:14:45+0000', tz='UTC'), Timestamp('2021-08-18 02:02:32+0000', tz='UTC'), Timestamp('2021-07-29 21:48:36+0000', tz='UTC'), Timestamp('2021-07-07 01:14:18+0000', tz='UTC'), Timestamp('2021-06-24 08:02:34+0000', tz='UTC'), Timestamp('2021-07-15 08:31:38+0000', tz='UTC'), Timestamp('2021-08-13 23:34:07+0000', tz='UTC'), Timestamp('2021-07-12 21:47:17+0000', tz='UTC'), Timestamp('2021-07-14 06:43:52+0000', tz='UTC'), Timestamp('2021-08-16 01:47:47+0000', tz='UTC'), Timestamp('2021-08-29 22:10:27+0000', tz='UTC'), Timestamp('2021-06-17 05:33:03+0000', tz='UTC'), Timestamp('2021-06-18 16:41:23+0000', tz='UTC'), Timestamp('2021-06-26 15:11:29+0000', tz='UTC'), Timestamp('2021-07-17 02:23:29+0000', tz='UTC'), Timestamp('2021-08-08 09:25:26+0000', tz='UTC'), Timestamp('2021-08-18 01:02:10+0000', tz='UTC'), Timestamp('2021-08-25 04:58:36+0000', tz='UTC'), Timestamp('2021-07-04 16:54:19+0000', tz='UTC'), Timestamp('2021-08-26 20:09:13+0000', tz='UTC'), Timestamp('2021-08-21 05:28:32+0000', tz='UTC'), Timestamp('2021-08-24 20:39:25+0000', tz='UTC'), Timestamp('2021-07-08 13:28:15+0000', tz='UTC'), Timestamp('2021-07-15 07:18:19+0000', tz='UTC'), Timestamp('2021-06-20 16:08:58+0000', tz='UTC'), Timestamp('2021-07-17 00:21:04+0000', tz='UTC'), Timestamp('2021-07-12 17:12:00+0000', tz='UTC'), Timestamp('2021-07-16 12:33:49+0000', tz='UTC'), Timestamp('2021-07-25 17:35:37+0000', tz='UTC'), Timestamp('2021-08-24 04:12:37+0000', tz='UTC'), Timestamp('2021-07-18 02:35:01+0000', tz='UTC'), Timestamp('2021-06-16 22:56:19+0000', tz='UTC'), Timestamp('2021-08-02 20:20:13+0000', tz='UTC'), Timestamp('2021-06-16 17:25:46+0000', tz='UTC'), Timestamp('2021-07-09 05:21:21+0000', tz='UTC'), Timestamp('2021-07-31 08:28:06+0000', tz='UTC'), Timestamp('2021-08-06 08:49:11+0000', tz='UTC'), Timestamp('2021-06-24 00:00:49+0000', tz='UTC'), Timestamp('2021-07-08 07:53:41+0000', tz='UTC'), Timestamp('2021-07-03 21:58:11+0000', tz='UTC'), Timestamp('2021-08-02 03:10:06+0000', tz='UTC'), Timestamp('2021-08-02 08:49:20+0000', tz='UTC'), Timestamp('2021-08-26 00:44:54+0000', tz='UTC'), Timestamp('2021-07-29 20:47:06+0000', tz='UTC'), Timestamp('2021-07-09 16:49:12+0000', tz='UTC'), Timestamp('2021-09-02 02:57:47+0000', tz='UTC'), Timestamp('2021-07-31 04:07:30+0000', tz='UTC'), Timestamp('2021-07-03 16:52:08+0000', tz='UTC'), Timestamp('2021-07-21 00:24:50+0000', tz='UTC'), Timestamp('2021-06-09 11:50:48+0000', tz='UTC'), Timestamp('2021-06-12 04:23:42+0000', tz='UTC'), Timestamp('2021-07-12 15:40:33+0000', tz='UTC'), Timestamp('2021-06-17 17:23:38+0000', tz='UTC'), Timestamp('2021-07-13 03:13:31+0000', tz='UTC'), Timestamp('2021-08-31 01:11:13+0000', tz='UTC'), Timestamp('2021-07-20 16:18:30+0000', tz='UTC'), Timestamp('2021-06-19 07:37:19+0000', tz='UTC'), Timestamp('2021-07-30 00:57:55+0000', tz='UTC'), Timestamp('2021-06-19 12:28:12+0000', tz='UTC'), Timestamp('2021-08-14 13:34:08+0000', tz='UTC'), Timestamp('2021-06-27 04:39:30+0000', tz='UTC'), Timestamp('2021-07-05 17:58:00+0000', tz='UTC'), Timestamp('2021-07-06 18:42:21+0000', tz='UTC'), Timestamp('2021-08-14 06:37:23+0000', tz='UTC'), Timestamp('2021-07-13 02:26:20+0000', tz='UTC'), Timestamp('2021-07-16 21:28:31+0000', tz='UTC'), Timestamp('2021-07-10 07:03:32+0000', tz='UTC'), Timestamp('2021-06-08 08:34:25+0000', tz='UTC'), Timestamp('2021-06-24 22:30:14+0000', tz='UTC'), Timestamp('2021-06-25 22:34:49+0000', tz='UTC'), Timestamp('2021-06-27 17:39:10+0000', tz='UTC'), Timestamp('2021-08-29 13:09:45+0000', tz='UTC'), Timestamp('2021-06-15 07:59:26+0000', tz='UTC'), Timestamp('2021-06-10 08:41:47+0000', tz='UTC'), Timestamp('2021-09-03 10:21:26+0000', tz='UTC'), Timestamp('2021-06-13 08:29:38+0000', tz='UTC'), Timestamp('2021-08-31 03:38:30+0000', tz='UTC'), Timestamp('2021-07-17 11:21:25+0000', tz='UTC'), Timestamp('2021-06-07 06:14:23+0000', tz='UTC'), Timestamp('2021-07-03 03:16:17+0000', tz='UTC'), Timestamp('2021-08-10 20:38:05+0000', tz='UTC'), Timestamp('2021-08-20 23:00:57+0000', tz='UTC'), Timestamp('2021-07-28 20:58:53+0000', tz='UTC'), Timestamp('2021-06-15 21:35:20+0000', tz='UTC'), Timestamp('2021-07-28 13:04:57+0000', tz='UTC'), Timestamp('2021-06-22 10:24:33+0000', tz='UTC'), Timestamp('2021-08-11 03:12:17+0000', tz='UTC'), Timestamp('2021-09-03 03:40:31+0000', tz='UTC'), Timestamp('2021-06-06 17:01:47+0000', tz='UTC'), Timestamp('2021-08-05 11:28:27+0000', tz='UTC'), Timestamp('2021-07-06 13:56:07+0000', tz='UTC'), Timestamp('2021-07-21 13:10:11+0000', tz='UTC'), Timestamp('2021-06-16 02:55:20+0000', tz='UTC'), Timestamp('2021-07-28 01:38:26+0000', tz='UTC'), Timestamp('2021-08-13 15:06:17+0000', tz='UTC'), Timestamp('2021-07-05 21:02:39+0000', tz='UTC'), Timestamp('2021-07-23 03:22:49+0000', tz='UTC'), Timestamp('2021-07-28 16:22:57+0000', tz='UTC'), Timestamp('2021-08-24 21:54:53+0000', tz='UTC'), Timestamp('2021-07-29 10:03:57+0000', tz='UTC'), Timestamp('2021-06-09 03:58:23+0000', tz='UTC'), Timestamp('2021-06-19 10:04:17+0000', tz='UTC'), Timestamp('2021-07-26 17:51:48+0000', tz='UTC'), Timestamp('2021-07-15 18:19:40+0000', tz='UTC'), Timestamp('2021-06-27 01:22:52+0000', tz='UTC'), Timestamp('2021-06-06 02:06:39+0000', tz='UTC'), Timestamp('2021-06-11 16:22:01+0000', tz='UTC'), Timestamp('2021-06-09 12:51:24+0000', tz='UTC'), Timestamp('2021-07-19 18:01:58+0000', tz='UTC'), Timestamp('2021-07-22 05:20:20+0000', tz='UTC'), Timestamp('2021-08-02 01:06:06+0000', tz='UTC'), Timestamp('2021-08-21 16:52:15+0000', tz='UTC'), Timestamp('2021-08-25 13:38:49+0000', tz='UTC'), Timestamp('2021-06-24 21:15:12+0000', tz='UTC'), Timestamp('2021-08-24 07:15:05+0000', tz='UTC'), Timestamp('2021-07-09 01:00:29+0000', tz='UTC'), Timestamp('2021-07-23 20:45:49+0000', tz='UTC'), Timestamp('2021-07-14 13:44:02+0000', tz='UTC'), Timestamp('2021-06-23 11:17:35+0000', tz='UTC'), Timestamp('2021-07-14 01:27:36+0000', tz='UTC'), Timestamp('2021-06-24 14:48:38+0000', tz='UTC'), Timestamp('2021-07-07 20:58:43+0000', tz='UTC'), Timestamp('2021-08-22 18:04:09+0000', tz='UTC'), Timestamp('2021-06-16 21:44:44+0000', tz='UTC'), Timestamp('2021-06-07 22:09:58+0000', tz='UTC'), Timestamp('2021-06-22 05:09:13+0000', tz='UTC'), Timestamp('2021-06-28 02:36:11+0000', tz='UTC'), Timestamp('2021-06-24 05:43:51+0000', tz='UTC'), Timestamp('2021-07-20 08:40:48+0000', tz='UTC'), Timestamp('2021-06-14 21:37:53+0000', tz='UTC'), Timestamp('2021-06-11 12:51:50+0000', tz='UTC'), Timestamp('2021-07-12 14:29:06+0000', tz='UTC'), Timestamp('2021-07-11 02:32:15+0000', tz='UTC'), Timestamp('2021-08-19 07:12:59+0000', tz='UTC'), Timestamp('2021-07-16 12:17:01+0000', tz='UTC'), Timestamp('2021-08-15 13:22:09+0000', tz='UTC'), Timestamp('2021-07-13 02:12:53+0000', tz='UTC'), Timestamp('2021-07-01 07:01:38+0000', tz='UTC'), Timestamp('2021-08-25 14:40:33+0000', tz='UTC'), Timestamp('2021-08-22 10:21:41+0000', tz='UTC'), Timestamp('2021-06-22 10:55:33+0000', tz='UTC'), Timestamp('2021-06-23 14:41:52+0000', tz='UTC'), Timestamp('2021-07-17 03:05:41+0000', tz='UTC'), Timestamp('2021-08-31 04:51:14+0000', tz='UTC'), Timestamp('2021-07-27 05:59:51+0000', tz='UTC'), Timestamp('2021-07-28 06:17:29+0000', tz='UTC'), Timestamp('2021-08-20 04:22:17+0000', tz='UTC'), Timestamp('2021-09-02 06:08:37+0000', tz='UTC'), Timestamp('2021-06-09 06:13:34+0000', tz='UTC'), Timestamp('2021-08-22 07:04:52+0000', tz='UTC'), Timestamp('2021-06-28 11:28:18+0000', tz='UTC'), Timestamp('2021-08-17 15:39:30+0000', tz='UTC'), Timestamp('2021-07-13 22:37:17+0000', tz='UTC'), Timestamp('2021-06-26 00:52:06+0000', tz='UTC'), Timestamp('2021-07-14 11:36:02+0000', tz='UTC'), Timestamp('2021-06-25 01:51:22+0000', tz='UTC'), Timestamp('2021-07-24 03:00:08+0000', tz='UTC'), Timestamp('2021-08-29 08:41:28+0000', tz='UTC'), Timestamp('2021-07-29 00:15:43+0000', tz='UTC'), Timestamp('2021-06-19 01:25:27+0000', tz='UTC'), Timestamp('2021-06-29 11:48:39+0000', tz='UTC'), Timestamp('2021-07-29 03:36:46+0000', tz='UTC'), Timestamp('2021-07-31 18:37:27+0000', tz='UTC'), Timestamp('2021-08-27 05:25:34+0000', tz='UTC'), Timestamp('2021-07-19 08:55:38+0000', tz='UTC'), Timestamp('2021-07-13 11:37:30+0000', tz='UTC'), Timestamp('2021-08-08 12:39:11+0000', tz='UTC'), Timestamp('2021-08-17 14:27:00+0000', tz='UTC'), Timestamp('2021-07-11 11:47:13+0000', tz='UTC'), Timestamp('2021-06-07 04:12:12+0000', tz='UTC'), Timestamp('2021-07-20 07:38:48+0000', tz='UTC'), Timestamp('2021-06-11 10:49:47+0000', tz='UTC'), Timestamp('2021-08-22 08:07:30+0000', tz='UTC'), Timestamp('2021-07-12 23:44:54+0000', tz='UTC'), Timestamp('2021-06-11 01:32:46+0000', tz='UTC'), Timestamp('2021-07-22 20:25:12+0000', tz='UTC'), Timestamp('2021-06-16 18:28:06+0000', tz='UTC'), Timestamp('2021-06-05 18:08:18+0000', tz='UTC'), Timestamp('2021-08-16 15:08:14+0000', tz='UTC'), Timestamp('2021-07-21 05:00:43+0000', tz='UTC'), Timestamp('2021-06-09 23:48:42+0000', tz='UTC'), Timestamp('2021-07-01 04:55:22+0000', tz='UTC'), Timestamp('2021-07-15 08:45:39+0000', tz='UTC'), Timestamp('2021-08-28 19:18:44+0000', tz='UTC'), Timestamp('2021-08-01 15:02:02+0000', tz='UTC'), Timestamp('2021-08-08 19:45:47+0000', tz='UTC'), Timestamp('2021-06-26 06:18:48+0000', tz='UTC'), Timestamp('2021-07-13 13:49:35+0000', tz='UTC'), Timestamp('2021-06-30 20:02:27+0000', tz='UTC'), Timestamp('2021-06-14 14:39:06+0000', tz='UTC'), Timestamp('2021-06-17 06:42:10+0000', tz='UTC'), Timestamp('2021-07-17 17:19:27+0000', tz='UTC'), Timestamp('2021-06-20 09:43:47+0000', tz='UTC'), Timestamp('2021-07-12 23:01:16+0000', tz='UTC'), Timestamp('2021-06-22 07:38:55+0000', tz='UTC'), Timestamp('2021-08-28 12:31:13+0000', tz='UTC'), Timestamp('2021-06-18 17:54:03+0000', tz='UTC'), Timestamp('2021-07-05 16:56:44+0000', tz='UTC'), Timestamp('2021-08-16 12:41:49+0000', tz='UTC'), Timestamp('2021-07-17 09:08:47+0000', tz='UTC'), Timestamp('2021-07-12 20:29:59+0000', tz='UTC'), Timestamp('2021-07-19 22:55:04+0000', tz='UTC'), Timestamp('2021-08-26 18:55:47+0000', tz='UTC'), Timestamp('2021-07-19 21:41:18+0000', tz='UTC'), Timestamp('2021-07-20 10:42:57+0000', tz='UTC'), Timestamp('2021-08-23 06:11:41+0000', tz='UTC'), Timestamp('2021-08-07 18:00:45+0000', tz='UTC'), Timestamp('2021-08-27 15:25:30+0000', tz='UTC'), Timestamp('2021-07-18 16:02:04+0000', tz='UTC'), Timestamp('2021-07-12 11:26:30+0000', tz='UTC'), Timestamp('2021-07-13 18:59:42+0000', tz='UTC'), Timestamp('2021-07-05 09:55:32+0000', tz='UTC'), Timestamp('2021-08-06 02:42:43+0000', tz='UTC'), Timestamp('2021-06-19 15:58:46+0000', tz='UTC'), Timestamp('2021-07-29 20:47:05+0000', tz='UTC'), Timestamp('2021-08-15 04:24:30+0000', tz='UTC'), Timestamp('2021-08-14 20:29:23+0000', tz='UTC'), Timestamp('2021-08-01 14:00:51+0000', tz='UTC'), Timestamp('2021-07-04 02:51:43+0000', tz='UTC'), Timestamp('2021-07-07 02:23:27+0000', tz='UTC'), Timestamp('2021-06-10 22:01:22+0000', tz='UTC'), Timestamp('2021-07-14 21:45:09+0000', tz='UTC'), Timestamp('2021-07-17 07:22:58+0000', tz='UTC'), Timestamp('2021-07-21 10:57:33+0000', tz='UTC'), Timestamp('2021-07-27 03:46:41+0000', tz='UTC'), Timestamp('2021-06-29 04:35:16+0000', tz='UTC'), Timestamp('2021-06-15 11:26:33+0000', tz='UTC'), Timestamp('2021-07-27 20:31:24+0000', tz='UTC'), Timestamp('2021-07-30 22:10:18+0000', tz='UTC'), Timestamp('2021-07-13 21:06:01+0000', tz='UTC'), Timestamp('2021-09-01 15:50:59+0000', tz='UTC'), Timestamp('2021-07-13 19:13:15+0000', tz='UTC'), Timestamp('2021-07-12 20:12:56+0000', tz='UTC'), Timestamp('2021-06-29 23:30:54+0000', tz='UTC'), Timestamp('2021-09-01 11:33:26+0000', tz='UTC'), Timestamp('2021-07-13 10:19:16+0000', tz='UTC'), Timestamp('2021-08-29 10:54:26+0000', tz='UTC'), Timestamp('2021-08-25 17:07:33+0000', tz='UTC'), Timestamp('2021-07-25 21:48:03+0000', tz='UTC'), Timestamp('2021-08-11 15:57:43+0000', tz='UTC'), Timestamp('2021-07-10 17:26:56+0000', tz='UTC'), Timestamp('2021-07-20 01:58:48+0000', tz='UTC'), Timestamp('2021-08-13 20:22:37+0000', tz='UTC'), Timestamp('2021-08-27 13:12:38+0000', tz='UTC'), Timestamp('2021-06-10 07:27:12+0000', tz='UTC'), Timestamp('2021-07-11 20:29:23+0000', tz='UTC'), Timestamp('2021-08-13 13:54:53+0000', tz='UTC'), Timestamp('2021-07-21 02:37:24+0000', tz='UTC'), Timestamp('2021-07-29 04:38:41+0000', tz='UTC'), Timestamp('2021-07-10 23:09:43+0000', tz='UTC'), Timestamp('2021-07-31 21:56:09+0000', tz='UTC'), Timestamp('2021-08-02 22:50:42+0000', tz='UTC'), Timestamp('2021-07-04 19:08:34+0000', tz='UTC'), Timestamp('2021-08-06 08:19:25+0000', tz='UTC'), Timestamp('2021-06-06 20:12:48+0000', tz='UTC'), Timestamp('2021-07-27 12:34:26+0000', tz='UTC'), Timestamp('2021-06-05 19:17:29+0000', tz='UTC'), Timestamp('2021-08-31 13:21:18+0000', tz='UTC'), Timestamp('2021-07-22 17:01:39+0000', tz='UTC'), Timestamp('2021-06-07 01:58:53+0000', tz='UTC'), Timestamp('2021-06-10 18:48:36+0000', tz='UTC'), Timestamp('2021-06-19 14:56:46+0000', tz='UTC'), Timestamp('2021-07-25 01:54:17+0000', tz='UTC'), Timestamp('2021-08-04 09:23:25+0000', tz='UTC'), Timestamp('2021-08-19 11:43:30+0000', tz='UTC'), Timestamp('2021-08-11 09:00:13+0000', tz='UTC'), Timestamp('2021-06-08 21:33:55+0000', tz='UTC'), Timestamp('2021-07-16 21:13:40+0000', tz='UTC'), Timestamp('2021-08-10 22:42:17+0000', tz='UTC'), Timestamp('2021-06-07 09:45:24+0000', tz='UTC'), Timestamp('2021-08-15 02:08:35+0000', tz='UTC'), Timestamp('2021-08-28 09:13:46+0000', tz='UTC'), Timestamp('2021-06-20 19:54:13+0000', tz='UTC'), Timestamp('2021-07-09 20:49:16+0000', tz='UTC'), Timestamp('2021-06-26 08:28:52+0000', tz='UTC'), Timestamp('2021-09-02 16:34:31+0000', tz='UTC'), Timestamp('2021-08-29 06:40:56+0000', tz='UTC'), Timestamp('2021-06-16 13:15:11+0000', tz='UTC'), Timestamp('2021-07-26 01:15:38+0000', tz='UTC'), Timestamp('2021-08-31 20:09:49+0000', tz='UTC'), Timestamp('2021-06-11 15:08:24+0000', tz='UTC'), Timestamp('2021-08-18 18:20:25+0000', tz='UTC'), Timestamp('2021-07-16 09:25:17+0000', tz='UTC'), Timestamp('2021-07-27 06:13:39+0000', tz='UTC'), Timestamp('2021-07-25 20:43:20+0000', tz='UTC'), Timestamp('2021-06-18 22:09:56+0000', tz='UTC'), Timestamp('2021-07-01 22:31:03+0000', tz='UTC'), Timestamp('2021-07-08 15:44:16+0000', tz='UTC'), Timestamp('2021-06-06 16:47:45+0000', tz='UTC'), Timestamp('2021-07-31 11:56:46+0000', tz='UTC'), Timestamp('2021-08-05 14:44:12+0000', tz='UTC'), Timestamp('2021-07-13 12:33:11+0000', tz='UTC'), Timestamp('2021-07-21 21:24:43+0000', tz='UTC'), Timestamp('2021-07-13 17:55:50+0000', tz='UTC'), Timestamp('2021-08-08 11:35:30+0000', tz='UTC'), Timestamp('2021-08-25 23:42:05+0000', tz='UTC'), Timestamp('2021-07-14 10:48:57+0000', tz='UTC'), Timestamp('2021-06-10 20:51:03+0000', tz='UTC'), Timestamp('2021-08-01 23:02:28+0000', tz='UTC'), Timestamp('2021-07-26 19:07:30+0000', tz='UTC'), Timestamp('2021-07-16 12:33:53+0000', tz='UTC'), Timestamp('2021-08-23 01:51:44+0000', tz='UTC'), Timestamp('2021-07-16 03:46:30+0000', tz='UTC'), Timestamp('2021-08-02 05:16:07+0000', tz='UTC'), Timestamp('2021-08-01 05:00:09+0000', tz='UTC'), Timestamp('2021-08-15 15:23:07+0000', tz='UTC'), Timestamp('2021-06-14 18:21:21+0000', tz='UTC'), Timestamp('2021-08-12 19:45:33+0000', tz='UTC'), Timestamp('2021-06-20 04:01:06+0000', tz='UTC'), Timestamp('2021-08-04 19:33:30+0000', tz='UTC'), Timestamp('2021-06-05 20:19:14+0000', tz='UTC'), Timestamp('2021-07-09 09:49:01+0000', tz='UTC'), Timestamp('2021-08-23 23:15:36+0000', tz='UTC'), Timestamp('2021-07-06 11:35:13+0000', tz='UTC'), Timestamp('2021-08-27 09:52:57+0000', tz='UTC'), Timestamp('2021-07-26 20:18:14+0000', tz='UTC'), Timestamp('2021-08-03 04:59:15+0000', tz='UTC'), Timestamp('2021-07-30 23:39:37+0000', tz='UTC'), Timestamp('2021-06-06 17:45:56+0000', tz='UTC'), Timestamp('2021-08-25 21:40:10+0000', tz='UTC'), Timestamp('2021-08-16 19:42:13+0000', tz='UTC'), Timestamp('2021-07-31 01:55:59+0000', tz='UTC'), Timestamp('2021-07-13 16:04:04+0000', tz='UTC'), Timestamp('2021-08-25 09:33:03+0000', tz='UTC'), Timestamp('2021-07-20 04:13:05+0000', tz='UTC'), Timestamp('2021-06-23 18:07:24+0000', tz='UTC'), Timestamp('2021-06-13 07:29:17+0000', tz='UTC'), Timestamp('2021-07-13 04:38:57+0000', tz='UTC'), Timestamp('2021-06-21 20:40:30+0000', tz='UTC'), Timestamp('2021-07-17 04:16:31+0000', tz='UTC'), Timestamp('2021-08-06 13:33:07+0000', tz='UTC'), Timestamp('2021-08-22 11:22:23+0000', tz='UTC'), Timestamp('2021-08-17 11:00:19+0000', tz='UTC'), Timestamp('2021-08-27 23:02:37+0000', tz='UTC'), Timestamp('2021-07-24 21:22:44+0000', tz='UTC'), Timestamp('2021-07-22 09:25:41+0000', tz='UTC'), Timestamp('2021-08-26 23:38:26+0000', tz='UTC'), Timestamp('2021-07-14 08:33:02+0000', tz='UTC'), Timestamp('2021-07-19 16:11:21+0000', tz='UTC'), Timestamp('2021-08-09 07:08:13+0000', tz='UTC'), Timestamp('2021-06-11 21:09:17+0000', tz='UTC'), Timestamp('2021-06-25 12:55:30+0000', tz='UTC'), Timestamp('2021-08-16 06:18:14+0000', tz='UTC'), Timestamp('2021-07-11 05:00:08+0000', tz='UTC'), Timestamp('2021-07-20 06:28:43+0000', tz='UTC'), Timestamp('2021-07-06 19:56:44+0000', tz='UTC'), Timestamp('2021-07-27 13:46:21+0000', tz='UTC'), Timestamp('2021-08-22 20:23:19+0000', tz='UTC'), Timestamp('2021-08-27 07:40:05+0000', tz='UTC'), Timestamp('2021-08-10 00:02:01+0000', tz='UTC'), Timestamp('2021-08-24 17:21:16+0000', tz='UTC'), Timestamp('2021-07-28 00:49:32+0000', tz='UTC'), Timestamp('2021-07-08 06:40:10+0000', tz='UTC'), Timestamp('2021-07-01 18:13:13+0000', tz='UTC'), Timestamp('2021-07-10 12:45:37+0000', tz='UTC'), Timestamp('2021-07-06 06:04:42+0000', tz='UTC'), Timestamp('2021-08-19 14:00:31+0000', tz='UTC'), Timestamp('2021-06-15 23:22:32+0000', tz='UTC'), Timestamp('2021-08-14 16:05:10+0000', tz='UTC'), Timestamp('2021-07-28 15:19:42+0000', tz='UTC'), Timestamp('2021-06-24 00:15:26+0000', tz='UTC'), Timestamp('2021-06-24 01:30:40+0000', tz='UTC'), Timestamp('2021-07-14 10:49:30+0000', tz='UTC'), Timestamp('2021-08-20 13:48:22+0000', tz='UTC'), Timestamp('2021-07-22 12:42:03+0000', tz='UTC'), Timestamp('2021-07-23 18:30:14+0000', tz='UTC'), Timestamp('2021-08-28 06:57:54+0000', tz='UTC'), Timestamp('2021-07-14 07:31:51+0000', tz='UTC'), Timestamp('2021-09-01 02:38:33+0000', tz='UTC'), Timestamp('2021-08-14 01:44:11+0000', tz='UTC'), Timestamp('2021-09-02 10:13:28+0000', tz='UTC'), Timestamp('2021-06-10 09:57:35+0000', tz='UTC'), Timestamp('2021-08-06 20:28:36+0000', tz='UTC'), Timestamp('2021-08-20 01:57:01+0000', tz='UTC'), Timestamp('2021-06-28 06:50:37+0000', tz='UTC'), Timestamp('2021-07-19 13:28:42+0000', tz='UTC'), Timestamp('2021-07-22 19:13:59+0000', tz='UTC'), Timestamp('2021-07-01 14:35:07+0000', tz='UTC'), Timestamp('2021-07-26 21:20:58+0000', tz='UTC'), Timestamp('2021-07-23 09:49:57+0000', tz='UTC'), Timestamp('2021-07-18 21:39:11+0000', tz='UTC'), Timestamp('2021-07-03 10:02:39+0000', tz='UTC'), Timestamp('2021-08-21 00:48:06+0000', tz='UTC'), Timestamp('2021-08-08 04:10:11+0000', tz='UTC'), Timestamp('2021-06-13 10:43:07+0000', tz='UTC'), Timestamp('2021-08-04 18:19:19+0000', tz='UTC'), Timestamp('2021-07-16 11:13:07+0000', tz='UTC'), Timestamp('2021-07-27 11:18:13+0000', tz='UTC'), Timestamp('2021-07-01 03:51:55+0000', tz='UTC'), Timestamp('2021-06-08 01:37:59+0000', tz='UTC'), Timestamp('2021-08-29 14:23:00+0000', tz='UTC'), Timestamp('2021-08-31 10:07:57+0000', tz='UTC'), Timestamp('2021-07-19 07:24:39+0000', tz='UTC'), Timestamp('2021-07-13 14:46:20+0000', tz='UTC'), Timestamp('2021-06-21 23:04:05+0000', tz='UTC'), Timestamp('2021-06-14 22:51:25+0000', tz='UTC'), Timestamp('2021-06-27 15:17:33+0000', tz='UTC'), Timestamp('2021-07-26 14:35:41+0000', tz='UTC'), Timestamp('2021-08-10 02:04:58+0000', tz='UTC'), Timestamp('2021-06-25 17:16:39+0000', tz='UTC'), Timestamp('2021-08-31 21:25:39+0000', tz='UTC'), Timestamp('2021-07-19 13:55:56+0000', tz='UTC'), Timestamp('2021-08-15 14:22:38+0000', tz='UTC'), Timestamp('2021-07-28 14:19:01+0000', tz='UTC'), Timestamp('2021-06-24 03:28:46+0000', tz='UTC'), Timestamp('2021-06-12 06:41:45+0000', tz='UTC'), Timestamp('2021-06-11 22:12:01+0000', tz='UTC'), Timestamp('2021-07-11 03:45:27+0000', tz='UTC'), Timestamp('2021-07-07 10:43:07+0000', tz='UTC'), Timestamp('2021-08-14 10:17:15+0000', tz='UTC'), Timestamp('2021-07-13 10:19:14+0000', tz='UTC'), Timestamp('2021-08-16 00:32:57+0000', tz='UTC'), Timestamp('2021-08-29 23:11:34+0000', tz='UTC'), Timestamp('2021-07-08 08:53:57+0000', tz='UTC'), Timestamp('2021-07-13 16:20:53+0000', tz='UTC'), Timestamp('2021-06-07 11:58:44+0000', tz='UTC'), Timestamp('2021-08-01 11:34:24+0000', tz='UTC'), Timestamp('2021-08-26 15:36:23+0000', tz='UTC'), Timestamp('2021-07-28 07:26:39+0000', tz='UTC'), Timestamp('2021-08-29 00:57:37+0000', tz='UTC'), Timestamp('2021-08-23 09:42:32+0000', tz='UTC'), Timestamp('2021-09-02 07:13:25+0000', tz='UTC'), Timestamp('2021-06-12 15:54:54+0000', tz='UTC'), Timestamp('2021-08-06 05:45:26+0000', tz='UTC'), Timestamp('2021-08-10 09:33:16+0000', tz='UTC'), Timestamp('2021-08-07 23:26:27+0000', tz='UTC'), Timestamp('2021-08-08 00:39:51+0000', tz='UTC'), Timestamp('2021-06-08 11:02:27+0000', tz='UTC'), Timestamp('2021-08-11 19:26:39+0000', tz='UTC'), Timestamp('2021-07-04 15:53:56+0000', tz='UTC'), Timestamp('2021-08-29 15:34:14+0000', tz='UTC'), Timestamp('2021-06-20 13:02:46+0000', tz='UTC'), Timestamp('2021-08-03 14:54:33+0000', tz='UTC'), Timestamp('2021-07-21 06:13:36+0000', tz='UTC'), Timestamp('2021-07-16 20:18:06+0000', tz='UTC'), Timestamp('2021-06-17 04:30:27+0000', tz='UTC'), Timestamp('2021-08-03 00:06:09+0000', tz='UTC'), Timestamp('2021-06-10 15:31:44+0000', tz='UTC'), Timestamp('2021-06-20 21:05:52+0000', tz='UTC'), Timestamp('2021-08-12 18:30:06+0000', tz='UTC'), Timestamp('2021-09-03 02:40:24+0000', tz='UTC'), Timestamp('2021-08-17 08:45:55+0000', tz='UTC'), Timestamp('2021-08-14 12:20:31+0000', tz='UTC'), Timestamp('2021-07-16 16:02:38+0000', tz='UTC'), Timestamp('2021-07-13 10:36:20+0000', tz='UTC'), Timestamp('2021-07-19 08:28:28+0000', tz='UTC'), Timestamp('2021-06-20 23:19:36+0000', tz='UTC'), Timestamp('2021-07-24 20:53:12+0000', tz='UTC'), Timestamp('2021-08-28 16:49:17+0000', tz='UTC'), Timestamp('2021-08-01 17:25:36+0000', tz='UTC'), Timestamp('2021-09-01 14:48:51+0000', tz='UTC'), Timestamp('2021-08-09 04:37:51+0000', tz='UTC'), Timestamp('2021-08-24 05:12:55+0000', tz='UTC'), Timestamp('2021-06-15 02:17:38+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-17 21:53:38+0000', tz='UTC'), Timestamp('2021-08-09 14:14:56+0000', tz='UTC'), Timestamp('2021-07-09 14:34:44+0000', tz='UTC'), Timestamp('2021-06-23 10:59:18+0000', tz='UTC'), Timestamp('2021-08-30 13:40:54+0000', tz='UTC'), Timestamp('2021-06-17 09:23:31+0000', tz='UTC'), Timestamp('2021-07-09 13:39:40+0000', tz='UTC'), Timestamp('2021-07-09 13:43:20+0000', tz='UTC'), Timestamp('2021-07-15 18:09:48+0000', tz='UTC'), Timestamp('2021-06-14 16:53:27+0000', tz='UTC'), Timestamp('2021-07-09 13:44:28+0000', tz='UTC'), Timestamp('2021-06-21 06:57:31+0000', tz='UTC'), Timestamp('2021-07-09 14:37:24+0000', tz='UTC'), Timestamp('2021-07-13 09:39:56+0000', tz='UTC'), Timestamp('2021-06-28 18:27:49+0000', tz='UTC'), Timestamp('2021-06-14 17:13:02+0000', tz='UTC'), Timestamp('2021-06-16 20:23:46+0000', tz='UTC'), Timestamp('2021-06-17 06:54:04+0000', tz='UTC'), Timestamp('2021-06-14 16:50:48+0000', tz='UTC'), Timestamp('2021-08-10 18:39:58+0000', tz='UTC'), Timestamp('2021-08-09 14:14:55+0000', tz='UTC'), Timestamp('2021-06-22 17:24:45+0000', tz='UTC'), Timestamp('2021-07-13 09:40:02+0000', tz='UTC'), Timestamp('2021-06-28 18:31:00+0000', tz='UTC'), Timestamp('2021-08-11 23:06:04+0000', tz='UTC'), Timestamp('2021-06-23 11:29:39+0000', tz='UTC'), Timestamp('2021-08-11 15:40:36+0000', tz='UTC'), Timestamp('2021-06-21 22:25:42+0000', tz='UTC'), Timestamp('2021-06-20 09:26:33+0000', tz='UTC'), Timestamp('2021-08-11 20:17:35+0000', tz='UTC'), Timestamp('2021-06-17 21:03:32+0000', tz='UTC'), Timestamp('2021-06-28 18:31:04+0000', tz='UTC'), Timestamp('2021-06-28 18:31:08+0000', tz='UTC'), Timestamp('2021-06-28 18:30:59+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-28 18:31:22+0000', tz='UTC'), Timestamp('2021-06-28 18:31:21+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-13 01:39:54+0000', tz='UTC'), Timestamp('2021-08-03 12:50:35+0000', tz='UTC'), Timestamp('2021-08-16 07:40:33+0000', tz='UTC'), Timestamp('2021-07-26 06:44:07+0000', tz='UTC'), Timestamp('2021-07-28 13:25:09+0000', tz='UTC'), Timestamp('2021-08-19 12:59:25+0000', tz='UTC'), Timestamp('2021-09-03 13:43:58+0000', tz='UTC'), Timestamp('2021-09-01 01:28:57+0000', tz='UTC'), Timestamp('2021-07-23 01:14:17+0000', tz='UTC'), Timestamp('2021-07-23 13:22:32+0000', tz='UTC'), Timestamp('2021-08-11 12:45:46+0000', tz='UTC'), Timestamp('2021-07-31 18:38:42+0000', tz='UTC'), Timestamp('2021-08-15 07:39:31+0000', tz='UTC'), Timestamp('2021-08-10 01:36:33+0000', tz='UTC'), Timestamp('2021-08-13 06:51:28+0000', tz='UTC'), Timestamp('2021-08-14 07:00:11+0000', tz='UTC'), Timestamp('2021-08-02 01:36:53+0000', tz='UTC'), Timestamp('2021-08-10 13:07:05+0000', tz='UTC'), Timestamp('2021-08-06 19:13:08+0000', tz='UTC'), Timestamp('2021-08-10 07:31:53+0000', tz='UTC'), Timestamp('2021-08-09 19:04:03+0000', tz='UTC'), Timestamp('2021-07-21 01:26:54+0000', tz='UTC'), Timestamp('2021-07-31 13:30:14+0000', tz='UTC'), Timestamp('2021-08-25 06:58:35+0000', tz='UTC'), Timestamp('2021-08-31 13:03:18+0000', tz='UTC'), Timestamp('2021-08-21 19:42:43+0000', tz='UTC'), Timestamp('2021-08-27 00:45:34+0000', tz='UTC'), Timestamp('2021-08-16 13:31:04+0000', tz='UTC'), Timestamp('2021-08-01 12:45:13+0000', tz='UTC'), Timestamp('2021-08-24 01:39:22+0000', tz='UTC'), Timestamp('2021-08-22 01:38:38+0000', tz='UTC'), Timestamp('2021-07-30 07:11:03+0000', tz='UTC'), Timestamp('2021-07-23 18:48:06+0000', tz='UTC'), Timestamp('2021-08-02 19:07:20+0000', tz='UTC'), Timestamp('2021-08-18 01:44:09+0000', tz='UTC'), Timestamp('2021-08-24 13:39:15+0000', tz='UTC'), Timestamp('2021-08-30 01:06:00+0000', tz='UTC'), Timestamp('2021-08-16 01:38:57+0000', tz='UTC'), Timestamp('2021-08-02 07:29:21+0000', tz='UTC'), Timestamp('2021-08-13 01:39:57+0000', tz='UTC'), Timestamp('2021-08-08 07:21:30+0000', tz='UTC'), Timestamp('2021-08-19 12:59:28+0000', tz='UTC'), Timestamp('2021-08-31 13:03:19+0000', tz='UTC'), Timestamp('2021-08-31 19:40:33+0000', tz='UTC'), Timestamp('2021-08-21 19:42:44+0000', tz='UTC'), Timestamp('2021-08-11 07:13:48+0000', tz='UTC'), Timestamp('2021-07-27 19:13:32+0000', tz='UTC'), Timestamp('2021-08-30 07:38:23+0000', tz='UTC'), Timestamp('2021-07-26 00:55:52+0000', tz='UTC'), Timestamp('2021-08-12 00:54:36+0000', tz='UTC'), Timestamp('2021-08-25 13:32:36+0000', tz='UTC'), Timestamp('2021-08-10 13:07:08+0000', tz='UTC'), Timestamp('2021-08-20 18:37:49+0000', tz='UTC'), Timestamp('2021-08-06 13:00:56+0000', tz='UTC'), Timestamp('2021-08-06 19:13:11+0000', tz='UTC'), Timestamp('2021-08-29 12:53:35+0000', tz='UTC'), Timestamp('2021-08-04 07:40:04+0000', tz='UTC'), Timestamp('2021-08-27 07:29:27+0000', tz='UTC'), Timestamp('2021-09-02 19:27:26+0000', tz='UTC'), Timestamp('2021-08-09 00:46:56+0000', tz='UTC'), Timestamp('2021-08-15 01:16:00+0000', tz='UTC'), Timestamp('2021-07-29 01:22:33+0000', tz='UTC'), Timestamp('2021-08-08 19:24:18+0000', tz='UTC'), Timestamp('2021-08-23 13:23:48+0000', tz='UTC'), Timestamp('2021-07-26 06:44:09+0000', tz='UTC'), Timestamp('2021-09-02 00:59:40+0000', tz='UTC'), Timestamp('2021-08-24 13:39:18+0000', tz='UTC'), Timestamp('2021-08-17 13:03:44+0000', tz='UTC'), Timestamp('2021-08-20 18:37:50+0000', tz='UTC'), Timestamp('2021-07-22 07:56:27+0000', tz='UTC'), Timestamp('2021-08-29 19:15:39+0000', tz='UTC'), Timestamp('2021-07-30 13:37:50+0000', tz='UTC'), Timestamp('2021-08-24 19:28:13+0000', tz='UTC'), Timestamp('2021-07-28 07:02:06+0000', tz='UTC'), Timestamp('2021-09-02 19:27:27+0000', tz='UTC'), Timestamp('2021-08-07 19:39:16+0000', tz='UTC'), Timestamp('2021-08-16 07:40:36+0000', tz='UTC'), Timestamp('2021-09-02 00:59:41+0000', tz='UTC'), Timestamp('2021-08-11 12:45:49+0000', tz='UTC'), Timestamp('2021-08-07 07:22:39+0000', tz='UTC'), Timestamp('2021-08-15 13:31:21+0000', tz='UTC'), Timestamp('2021-08-24 07:37:58+0000', tz='UTC'), Timestamp('2021-08-10 01:36:34+0000', tz='UTC'), Timestamp('2021-07-31 18:38:45+0000', tz='UTC'), Timestamp('2021-08-12 19:40:47+0000', tz='UTC'), Timestamp('2021-08-04 07:40:07+0000', tz='UTC'), Timestamp('2021-07-28 19:31:48+0000', tz='UTC'), Timestamp('2021-07-24 19:14:25+0000', tz='UTC'), Timestamp('2021-08-19 07:06:13+0000', tz='UTC'), Timestamp('2021-08-21 13:30:51+0000', tz='UTC'), Timestamp('2021-07-25 19:24:09+0000', tz='UTC'), Timestamp('2021-08-07 12:42:15+0000', tz='UTC'), Timestamp('2021-08-08 19:24:21+0000', tz='UTC'), Timestamp('2021-07-31 13:30:17+0000', tz='UTC'), Timestamp('2021-08-09 19:04:06+0000', tz='UTC'), Timestamp('2021-08-23 19:05:19+0000', tz='UTC'), Timestamp('2021-07-30 19:33:51+0000', tz='UTC'), Timestamp('2021-07-28 01:21:16+0000', tz='UTC'), Timestamp('2021-07-22 07:56:30+0000', tz='UTC'), Timestamp('2021-08-18 06:47:21+0000', tz='UTC'), Timestamp('2021-07-30 01:33:27+0000', tz='UTC'), Timestamp('2021-07-30 13:37:53+0000', tz='UTC'), Timestamp('2021-08-18 01:44:12+0000', tz='UTC'), Timestamp('2021-08-01 07:23:56+0000', tz='UTC'), Timestamp('2021-07-25 01:39:53+0000', tz='UTC'), Timestamp('2021-07-27 19:13:33+0000', tz='UTC'), Timestamp('2021-08-22 07:30:12+0000', tz='UTC'), Timestamp('2021-08-17 01:05:10+0000', tz='UTC'), Timestamp('2021-08-07 07:22:42+0000', tz='UTC'), Timestamp('2021-08-23 07:01:45+0000', tz='UTC'), Timestamp('2021-07-24 12:57:49+0000', tz='UTC'), Timestamp('2021-08-28 00:46:48+0000', tz='UTC'), Timestamp('2021-08-13 18:40:49+0000', tz='UTC'), Timestamp('2021-08-25 13:32:39+0000', tz='UTC'), Timestamp('2021-08-02 01:36:48+0000', tz='UTC'), Timestamp('2021-07-31 00:59:40+0000', tz='UTC'), Timestamp('2021-07-23 07:40:38+0000', tz='UTC'), Timestamp('2021-08-03 01:41:09+0000', tz='UTC'), Timestamp('2021-08-07 01:25:44+0000', tz='UTC'), Timestamp('2021-07-26 19:09:33+0000', tz='UTC'), Timestamp('2021-07-28 01:21:19+0000', tz='UTC'), Timestamp('2021-08-03 12:50:38+0000', tz='UTC'), Timestamp('2021-08-12 07:04:02+0000', tz='UTC'), Timestamp('2021-07-29 07:40:50+0000', tz='UTC'), Timestamp('2021-09-02 00:59:43+0000', tz='UTC'), Timestamp('2021-08-15 07:39:34+0000', tz='UTC'), Timestamp('2021-07-21 13:46:50+0000', tz='UTC'), Timestamp('2021-08-17 13:03:47+0000', tz='UTC'), Timestamp('2021-08-27 12:57:39+0000', tz='UTC'), Timestamp('2021-08-11 19:41:18+0000', tz='UTC'), Timestamp('2021-08-17 07:15:49+0000', tz='UTC'), Timestamp('2021-08-09 13:36:58+0000', tz='UTC'), Timestamp('2021-09-02 07:37:36+0000', tz='UTC'), Timestamp('2021-07-21 07:38:28+0000', tz='UTC'), Timestamp('2021-07-29 18:59:00+0000', tz='UTC'), Timestamp('2021-08-08 01:29:16+0000', tz='UTC'), Timestamp('2021-08-06 07:20:18+0000', tz='UTC'), Timestamp('2021-08-05 18:34:30+0000', tz='UTC'), Timestamp('2021-08-05 07:27:55+0000', tz='UTC'), Timestamp('2021-08-28 13:31:09+0000', tz='UTC'), Timestamp('2021-08-26 13:30:25+0000', tz='UTC'), Timestamp('2021-08-21 00:47:20+0000', tz='UTC'), Timestamp('2021-09-01 13:21:21+0000', tz='UTC'), Timestamp('2021-09-03 07:26:30+0000', tz='UTC'), Timestamp('2021-07-22 01:06:43+0000', tz='UTC'), Timestamp('2021-09-02 13:30:04+0000', tz='UTC'), Timestamp('2021-08-04 01:31:55+0000', tz='UTC'), Timestamp('2021-08-03 07:31:24+0000', tz='UTC'), Timestamp('2021-08-03 01:41:12+0000', tz='UTC'), Timestamp('2021-08-28 06:52:27+0000', tz='UTC'), Timestamp('2021-08-30 01:06:03+0000', tz='UTC'), Timestamp('2021-07-28 13:25:04+0000', tz='UTC'), Timestamp('2021-08-18 13:06:44+0000', tz='UTC'), Timestamp('2021-08-29 06:52:48+0000', tz='UTC'), Timestamp('2021-08-05 07:27:56+0000', tz='UTC'), Timestamp('2021-08-31 01:38:09+0000', tz='UTC'), Timestamp('2021-08-13 13:25:43+0000', tz='UTC'), Timestamp('2021-07-30 19:33:54+0000', tz='UTC'), Timestamp('2021-08-14 13:34:37+0000', tz='UTC'), Timestamp('2021-07-21 13:46:53+0000', tz='UTC'), Timestamp('2021-07-30 01:33:30+0000', tz='UTC'), Timestamp('2021-08-09 13:37:01+0000', tz='UTC'), Timestamp('2021-08-09 07:01:24+0000', tz='UTC'), Timestamp('2021-08-30 12:52:54+0000', tz='UTC'), Timestamp('2021-07-29 18:59:03+0000', tz='UTC'), Timestamp('2021-09-03 01:11:11+0000', tz='UTC'), Timestamp('2021-08-06 13:00:59+0000', tz='UTC'), Timestamp('2021-08-08 01:29:19+0000', tz='UTC'), Timestamp('2021-07-24 07:33:54+0000', tz='UTC'), Timestamp('2021-08-15 18:46:49+0000', tz='UTC'), Timestamp('2021-08-31 01:38:10+0000', tz='UTC'), Timestamp('2021-08-01 01:31:39+0000', tz='UTC'), Timestamp('2021-08-22 13:20:54+0000', tz='UTC'), Timestamp('2021-09-03 13:43:56+0000', tz='UTC'), Timestamp('2021-08-26 19:15:56+0000', tz='UTC'), Timestamp('2021-08-19 01:14:59+0000', tz='UTC'), Timestamp('2021-08-07 01:25:46+0000', tz='UTC'), Timestamp('2021-08-16 13:31:01+0000', tz='UTC'), Timestamp('2021-08-04 01:31:58+0000', tz='UTC'), Timestamp('2021-08-20 13:11:14+0000', tz='UTC'), Timestamp('2021-08-06 13:01:00+0000', tz='UTC'), Timestamp('2021-08-11 00:57:26+0000', tz='UTC'), Timestamp('2021-08-28 19:30:23+0000', tz='UTC'), Timestamp('2021-09-01 07:03:56+0000', tz='UTC'), Timestamp('2021-08-02 01:36:51+0000', tz='UTC'), Timestamp('2021-08-10 07:31:51+0000', tz='UTC'), Timestamp('2021-07-23 07:40:41+0000', tz='UTC'), Timestamp('2021-08-18 19:46:15+0000', tz='UTC'), Timestamp('2021-07-21 01:26:52+0000', tz='UTC'), Timestamp('2021-08-04 19:08:22+0000', tz='UTC'), Timestamp('2021-08-20 01:40:21+0000', tz='UTC'), Timestamp('2021-08-07 01:25:47+0000', tz='UTC'), Timestamp('2021-07-26 19:09:36+0000', tz='UTC'), Timestamp('2021-08-16 13:31:02+0000', tz='UTC'), Timestamp('2021-07-22 13:27:15+0000', tz='UTC'), Timestamp('2021-08-23 00:54:23+0000', tz='UTC'), Timestamp('2021-08-12 07:04:05+0000', tz='UTC'), Timestamp('2021-09-02 00:59:44+0000', tz='UTC'), Timestamp('2021-08-24 01:39:20+0000', tz='UTC'), Timestamp('2021-08-08 13:00:12+0000', tz='UTC'), Timestamp('2021-07-29 07:40:53+0000', tz='UTC'), Timestamp('2021-08-02 13:32:04+0000', tz='UTC'), Timestamp('2021-08-10 19:35:37+0000', tz='UTC'), Timestamp('2021-08-22 01:38:36+0000', tz='UTC'), Timestamp('2021-08-05 12:24:02+0000', tz='UTC'), Timestamp('2021-08-02 07:29:19+0000', tz='UTC'), Timestamp('2021-09-02 07:37:39+0000', tz='UTC'), Timestamp('2021-07-25 07:38:51+0000', tz='UTC'), Timestamp('2021-08-13 01:39:55+0000', tz='UTC'), Timestamp('2021-07-24 19:14:28+0000', tz='UTC'), Timestamp('2021-08-07 19:39:14+0000', tz='UTC'), Timestamp('2021-07-21 07:38:31+0000', tz='UTC'), Timestamp('2021-08-14 04:12:17+0000', tz='UTC'), Timestamp('2021-08-31 19:40:31+0000', tz='UTC'), Timestamp('2021-08-26 19:15:59+0000', tz='UTC'), Timestamp('2021-08-30 07:38:21+0000', tz='UTC'), Timestamp('2021-07-22 18:56:21+0000', tz='UTC'), Timestamp('2021-08-02 19:07:18+0000', tz='UTC'), Timestamp('2021-08-27 19:38:18+0000', tz='UTC'), Timestamp('2021-07-29 13:18:32+0000', tz='UTC'), Timestamp('2021-08-03 19:14:04+0000', tz='UTC'), Timestamp('2021-09-01 13:21:24+0000', tz='UTC'), Timestamp('2021-07-22 01:06:46+0000', tz='UTC'), Timestamp('2021-07-25 07:38:52+0000', tz='UTC'), Timestamp('2021-08-06 19:13:09+0000', tz='UTC'), Timestamp('2021-08-26 07:34:08+0000', tz='UTC'), Timestamp('2021-08-09 19:04:04+0000', tz='UTC'), Timestamp('2021-07-21 01:26:55+0000', tz='UTC'), Timestamp('2021-08-23 19:05:17+0000', tz='UTC'), Timestamp('2021-07-28 07:02:03+0000', tz='UTC'), Timestamp('2021-08-20 07:12:40+0000', tz='UTC'), Timestamp('2021-07-27 07:20:21+0000', tz='UTC'), Timestamp('2021-08-04 13:22:30+0000', tz='UTC'), Timestamp('2021-08-09 00:46:54+0000', tz='UTC'), Timestamp('2021-07-28 13:25:07+0000', tz='UTC'), Timestamp('2021-08-22 07:30:15+0000', tz='UTC'), Timestamp('2021-09-01 01:28:55+0000', tz='UTC'), Timestamp('2021-07-26 13:23:55+0000', tz='UTC'), Timestamp('2021-07-29 01:22:31+0000', tz='UTC'), Timestamp('2021-08-02 13:32:07+0000', tz='UTC'), Timestamp('2021-08-19 18:33:40+0000', tz='UTC'), Timestamp('2021-08-01 19:35:58+0000', tz='UTC'), Timestamp('2021-08-14 13:34:40+0000', tz='UTC'), Timestamp('2021-08-09 07:01:25+0000', tz='UTC'), Timestamp('2021-07-24 01:27:37+0000', tz='UTC'), Timestamp('2021-08-10 01:36:31+0000', tz='UTC'), Timestamp('2021-08-13 06:51:26+0000', tz='UTC'), Timestamp('2021-08-30 12:52:57+0000', tz='UTC'), Timestamp('2021-08-14 07:00:09+0000', tz='UTC'), Timestamp('2021-08-15 01:15:58+0000', tz='UTC'), Timestamp('2021-08-25 06:58:33+0000', tz='UTC'), Timestamp('2021-08-15 18:46:52+0000', tz='UTC'), Timestamp('2021-09-03 13:43:59+0000', tz='UTC'), Timestamp('2021-07-22 07:56:25+0000', tz='UTC'), Timestamp('2021-08-01 12:45:11+0000', tz='UTC'), Timestamp('2021-08-01 19:35:59+0000', tz='UTC'), Timestamp('2021-08-11 12:45:47+0000', tz='UTC'), Timestamp('2021-08-12 00:54:37+0000', tz='UTC'), Timestamp('2021-08-20 01:40:23+0000', tz='UTC'), Timestamp('2021-08-10 01:36:32+0000', tz='UTC'), Timestamp('2021-07-31 18:38:43+0000', tz='UTC'), Timestamp('2021-08-10 19:35:39+0000', tz='UTC'), Timestamp('2021-08-02 13:32:06+0000', tz='UTC'), Timestamp('2021-08-04 07:40:05+0000', tz='UTC'), Timestamp('2021-08-16 01:38:55+0000', tz='UTC'), Timestamp('2021-07-28 19:31:46+0000', tz='UTC'), Timestamp('2021-08-19 12:59:26+0000', tz='UTC'), Timestamp('2021-09-01 07:03:59+0000', tz='UTC'), Timestamp('2021-08-21 19:42:42+0000', tz='UTC'), Timestamp('2021-08-11 07:13:46+0000', tz='UTC'), Timestamp('2021-09-01 01:28:58+0000', tz='UTC'), Timestamp('2021-07-29 01:22:34+0000', tz='UTC'), Timestamp('2021-07-27 19:13:30+0000', tz='UTC'), Timestamp('2021-08-15 13:31:19+0000', tz='UTC'), Timestamp('2021-07-31 13:30:15+0000', tz='UTC'), Timestamp('2021-08-31 07:11:30+0000', tz='UTC'), Timestamp('2021-08-18 06:47:19+0000', tz='UTC'), Timestamp('2021-08-22 01:38:39+0000', tz='UTC'), Timestamp('2021-08-10 13:07:06+0000', tz='UTC'), Timestamp('2021-08-03 07:31:27+0000', tz='UTC'), Timestamp('2021-08-05 00:47:14+0000', tz='UTC'), Timestamp('2021-07-25 07:38:54+0000', tz='UTC'), Timestamp('2021-07-27 19:13:31+0000', tz='UTC'), Timestamp('2021-08-07 19:39:17+0000', tz='UTC'), Timestamp('2021-08-14 04:12:20+0000', tz='UTC'), Timestamp('2021-08-01 12:45:14+0000', tz='UTC'), Timestamp('2021-08-14 19:24:24+0000', tz='UTC'), Timestamp('2021-08-24 07:37:59+0000', tz='UTC'), Timestamp('2021-08-23 07:01:43+0000', tz='UTC'), Timestamp('2021-08-24 13:39:16+0000', tz='UTC'), Timestamp('2021-08-02 19:07:21+0000', tz='UTC'), Timestamp('2021-08-18 01:44:10+0000', tz='UTC'), Timestamp('2021-07-26 13:23:57+0000', tz='UTC'), Timestamp('2021-07-29 13:18:35+0000', tz='UTC'), Timestamp('2021-08-17 13:03:42+0000', tz='UTC'), Timestamp('2021-08-19 07:06:14+0000', tz='UTC'), Timestamp('2021-08-08 07:21:31+0000', tz='UTC'), Timestamp('2021-08-09 07:01:27+0000', tz='UTC'), Timestamp('2021-08-31 13:03:20+0000', tz='UTC'), Timestamp('2021-08-21 19:42:45+0000', tz='UTC'), Timestamp('2021-08-11 19:41:15+0000', tz='UTC'), Timestamp('2021-08-26 07:34:11+0000', tz='UTC'), Timestamp('2021-08-13 13:25:41+0000', tz='UTC'), Timestamp('2021-07-26 00:55:53+0000', tz='UTC'), Timestamp('2021-08-03 12:50:36+0000', tz='UTC'), Timestamp('2021-08-16 07:40:34+0000', tz='UTC'), Timestamp('2021-07-26 06:44:08+0000', tz='UTC'), Timestamp('2021-08-09 00:46:57+0000', tz='UTC'), Timestamp('2021-09-02 00:59:39+0000', tz='UTC'), Timestamp('2021-07-23 13:22:33+0000', tz='UTC'), Timestamp('2021-07-26 13:23:58+0000', tz='UTC'), Timestamp('2021-08-23 13:23:49+0000', tz='UTC'), Timestamp('2021-08-15 07:39:32+0000', tz='UTC'), Timestamp('2021-08-12 13:07:33+0000', tz='UTC'), Timestamp('2021-08-01 01:31:37+0000', tz='UTC'), Timestamp('2021-08-14 07:00:12+0000', tz='UTC'), Timestamp('2021-08-15 01:16:01+0000', tz='UTC'), Timestamp('2021-08-08 19:24:19+0000', tz='UTC'), Timestamp('2021-08-20 01:40:24+0000', tz='UTC'), Timestamp('2021-08-05 07:27:53+0000', tz='UTC'), Timestamp('2021-07-22 07:56:28+0000', tz='UTC'), Timestamp('2021-08-28 19:30:21+0000', tz='UTC'), Timestamp('2021-07-30 13:37:51+0000', tz='UTC'), Timestamp('2021-07-23 18:48:07+0000', tz='UTC'), Timestamp('2021-08-03 01:41:10+0000', tz='UTC'), Timestamp('2021-08-30 01:06:01+0000', tz='UTC'), Timestamp('2021-08-16 01:38:58+0000', tz='UTC'), Timestamp('2021-07-28 19:31:49+0000', tz='UTC'), Timestamp('2021-08-13 01:39:58+0000', tz='UTC'), Timestamp('2021-08-19 12:59:29+0000', tz='UTC'), Timestamp('2021-08-22 07:30:10+0000', tz='UTC'), Timestamp('2021-08-11 07:13:49+0000', tz='UTC'), Timestamp('2021-08-17 01:05:08+0000', tz='UTC'), Timestamp('2021-08-07 07:22:40+0000', tz='UTC'), Timestamp('2021-08-15 13:31:22+0000', tz='UTC'), Timestamp('2021-08-30 07:38:24+0000', tz='UTC'), Timestamp('2021-07-21 13:46:51+0000', tz='UTC'), Timestamp('2021-08-28 00:46:46+0000', tz='UTC'), Timestamp('2021-08-18 06:47:22+0000', tz='UTC'), Timestamp('2021-07-27 00:52:12+0000', tz='UTC'), Timestamp('2021-08-25 13:32:37+0000', tz='UTC'), Timestamp('2021-08-30 18:58:31+0000', tz='UTC'), Timestamp('2021-08-10 13:07:09+0000', tz='UTC'), Timestamp('2021-08-06 13:00:57+0000', tz='UTC'), Timestamp('2021-08-08 01:29:17+0000', tz='UTC'), Timestamp('2021-07-25 19:24:10+0000', tz='UTC'), Timestamp('2021-08-07 12:42:16+0000', tz='UTC'), Timestamp('2021-08-09 19:04:07+0000', tz='UTC'), Timestamp('2021-08-31 13:03:22+0000', tz='UTC'), Timestamp('2021-07-26 19:09:31+0000', tz='UTC'), Timestamp('2021-07-28 01:21:17+0000', tz='UTC'), Timestamp('2021-08-14 01:39:12+0000', tz='UTC'), Timestamp('2021-07-26 06:44:10+0000', tz='UTC'), Timestamp('2021-07-31 07:21:25+0000', tz='UTC'), Timestamp('2021-08-21 07:01:02+0000', tz='UTC'), Timestamp('2021-08-18 01:44:13+0000', tz='UTC'), Timestamp('2021-08-24 13:39:19+0000', tz='UTC'), Timestamp('2021-08-17 13:03:45+0000', tz='UTC'), Timestamp('2021-08-28 06:52:28+0000', tz='UTC'), Timestamp('2021-07-25 01:39:54+0000', tz='UTC'), Timestamp('2021-08-11 00:57:24+0000', tz='UTC'), Timestamp('2021-07-21 07:38:26+0000', tz='UTC'), Timestamp('2021-08-18 13:06:45+0000', tz='UTC'), Timestamp('2021-07-25 13:21:26+0000', tz='UTC'), Timestamp('2021-08-06 07:20:16+0000', tz='UTC'), Timestamp('2021-08-13 13:25:44+0000', tz='UTC'), Timestamp('2021-08-16 07:40:37+0000', tz='UTC'), Timestamp('2021-09-02 00:59:42+0000', tz='UTC'), Timestamp('2021-08-11 12:45:50+0000', tz='UTC'), Timestamp('2021-08-25 13:32:40+0000', tz='UTC'), Timestamp('2021-08-08 13:00:10+0000', tz='UTC'), Timestamp('2021-07-29 07:40:51+0000', tz='UTC'), Timestamp('2021-08-21 00:47:18+0000', tz='UTC'), Timestamp('2021-08-02 01:36:49+0000', tz='UTC'), Timestamp('2021-08-25 01:22:17+0000', tz='UTC'), Timestamp('2021-08-12 19:40:48+0000', tz='UTC'), Timestamp('2021-07-31 00:59:41+0000', tz='UTC'), Timestamp('2021-08-16 19:41:58+0000', tz='UTC'), Timestamp('2021-07-21 01:26:50+0000', tz='UTC'), Timestamp('2021-08-02 07:29:17+0000', tz='UTC'), Timestamp('2021-08-01 01:31:40+0000', tz='UTC'), Timestamp('2021-07-24 19:14:26+0000', tz='UTC'), Timestamp('2021-08-21 13:30:52+0000', tz='UTC'), Timestamp('2021-07-21 18:49:33+0000', tz='UTC'), Timestamp('2021-08-26 19:15:57+0000', tz='UTC'), Timestamp('2021-08-26 01:08:46+0000', tz='UTC'), Timestamp('2021-07-30 19:33:52+0000', tz='UTC'), Timestamp('2021-08-14 13:34:35+0000', tz='UTC'), Timestamp('2021-08-17 07:15:50+0000', tz='UTC'), Timestamp('2021-08-09 13:36:59+0000', tz='UTC'), Timestamp('2021-08-03 19:14:02+0000', tz='UTC'), Timestamp('2021-07-30 13:37:54+0000', tz='UTC'), Timestamp('2021-09-01 07:03:57+0000', tz='UTC'), Timestamp('2021-07-29 18:59:01+0000', tz='UTC'), Timestamp('2021-08-18 19:46:16+0000', tz='UTC'), Timestamp('2021-08-01 07:23:57+0000', tz='UTC'), Timestamp('2021-08-22 07:30:13+0000', tz='UTC'), Timestamp('2021-09-03 13:43:54+0000', tz='UTC'), Timestamp('2021-07-28 13:25:05+0000', tz='UTC'), Timestamp('2021-08-28 13:31:10+0000', tz='UTC'), Timestamp('2021-08-17 01:05:11+0000', tz='UTC'), Timestamp('2021-08-07 07:22:43+0000', tz='UTC'), Timestamp('2021-07-21 13:46:52+0000', tz='UTC'), Timestamp('2021-08-08 13:00:13+0000', tz='UTC'), Timestamp('2021-08-01 19:35:56+0000', tz='UTC'), Timestamp('2021-08-04 01:31:56+0000', tz='UTC'), Timestamp('2021-07-24 12:57:50+0000', tz='UTC'), Timestamp('2021-08-14 01:39:14+0000', tz='UTC'), Timestamp('2021-08-28 00:46:49+0000', tz='UTC'), Timestamp('2021-08-13 06:51:24+0000', tz='UTC'), Timestamp('2021-08-13 18:40:50+0000', tz='UTC'), Timestamp('2021-08-29 06:52:49+0000', tz='UTC'), Timestamp('2021-08-10 07:31:49+0000', tz='UTC'), Timestamp('2021-07-23 07:40:39+0000', tz='UTC'), Timestamp('2021-08-25 06:58:31+0000', tz='UTC'), Timestamp('2021-08-15 18:46:50+0000', tz='UTC'), Timestamp('2021-08-29 01:19:51+0000', tz='UTC'), Timestamp('2021-07-30 19:33:55+0000', tz='UTC'), Timestamp('2021-08-07 01:25:45+0000', tz='UTC'), Timestamp('2021-07-26 19:09:34+0000', tz='UTC'), Timestamp('2021-07-28 01:21:20+0000', tz='UTC'), Timestamp('2021-08-22 13:20:55+0000', tz='UTC'), Timestamp('2021-08-12 07:04:03+0000', tz='UTC'), Timestamp('2021-07-30 01:33:31+0000', tz='UTC'), Timestamp('2021-08-14 01:39:15+0000', tz='UTC'), Timestamp('2021-08-03 19:14:05+0000', tz='UTC'), Timestamp('2021-08-30 12:52:55+0000', tz='UTC'), Timestamp('2021-08-22 18:50:28+0000', tz='UTC'), Timestamp('2021-08-17 19:13:49+0000', tz='UTC'), Timestamp('2021-08-27 12:57:40+0000', tz='UTC'), Timestamp('2021-08-11 19:41:19+0000', tz='UTC'), Timestamp('2021-07-28 07:02:04+0000', tz='UTC'), Timestamp('2021-09-02 07:37:37+0000', tz='UTC'), Timestamp('2021-08-11 00:57:27+0000', tz='UTC'), Timestamp('2021-08-20 07:12:41+0000', tz='UTC'), Timestamp('2021-08-16 19:42:00+0000', tz='UTC'), Timestamp('2021-09-03 13:43:57+0000', tz='UTC'), Timestamp('2021-07-21 07:38:29+0000', tz='UTC'), Timestamp('2021-08-31 19:40:29+0000', tz='UTC'), Timestamp('2021-08-06 07:20:19+0000', tz='UTC'), Timestamp('2021-08-05 18:34:31+0000', tz='UTC'), Timestamp('2021-07-31 18:38:41+0000', tz='UTC'), Timestamp('2021-08-13 06:51:27+0000', tz='UTC'), Timestamp('2021-08-28 19:30:24+0000', tz='UTC'), Timestamp('2021-08-21 00:47:21+0000', tz='UTC'), Timestamp('2021-08-14 07:00:10+0000', tz='UTC'), Timestamp('2021-09-01 13:21:22+0000', tz='UTC'), Timestamp('2021-08-02 01:36:52+0000', tz='UTC'), Timestamp('2021-07-22 01:06:44+0000', tz='UTC'), Timestamp('2021-08-10 13:07:04+0000', tz='UTC'), Timestamp('2021-09-02 13:30:05+0000', tz='UTC'), Timestamp('2021-08-10 07:31:52+0000', tz='UTC'), Timestamp('2021-08-03 07:31:25+0000', tz='UTC'), Timestamp('2021-08-09 19:04:02+0000', tz='UTC'), Timestamp('2021-07-21 01:26:53+0000', tz='UTC'), Timestamp('2021-08-16 19:42:01+0000', tz='UTC'), Timestamp('2021-08-21 13:30:53+0000', tz='UTC'), Timestamp('2021-07-27 13:27:17+0000', tz='UTC'), Timestamp('2021-08-23 19:05:15+0000', tz='UTC'), Timestamp('2021-08-27 00:45:33+0000', tz='UTC'), Timestamp('2021-07-24 19:14:29+0000', tz='UTC'), Timestamp('2021-08-16 13:31:03+0000', tz='UTC'), Timestamp('2021-07-22 13:27:16+0000', tz='UTC'), Timestamp('2021-08-14 04:12:18+0000', tz='UTC'), Timestamp('2021-08-01 12:45:12+0000', tz='UTC'), Timestamp('2021-08-25 18:41:19+0000', tz='UTC'), Timestamp('2021-08-24 01:39:21+0000', tz='UTC'), Timestamp('2021-07-30 07:11:02+0000', tz='UTC'), Timestamp('2021-08-24 13:39:14+0000', tz='UTC'), Timestamp('2021-08-02 19:07:19+0000', tz='UTC'), Timestamp('2021-08-14 13:34:38+0000', tz='UTC'), Timestamp('2021-08-28 13:31:12+0000', tz='UTC'), Timestamp('2021-07-29 13:18:33+0000', tz='UTC'), Timestamp('2021-07-21 13:46:54+0000', tz='UTC'), Timestamp('2021-08-02 07:29:20+0000', tz='UTC'), Timestamp('2021-08-31 19:40:32+0000', tz='UTC'), Timestamp('2021-08-11 07:13:47+0000', tz='UTC'), Timestamp('2021-07-26 00:55:51+0000', tz='UTC'), Timestamp('2021-08-31 01:38:11+0000', tz='UTC'), Timestamp('2021-08-04 13:22:31+0000', tz='UTC'), Timestamp('2021-08-16 07:40:32+0000', tz='UTC'), Timestamp('2021-07-23 01:14:16+0000', tz='UTC'), Timestamp('2021-07-22 01:06:47+0000', tz='UTC'), Timestamp('2021-08-04 01:31:59+0000', tz='UTC'), Timestamp('2021-08-26 07:34:09+0000', tz='UTC'), Timestamp('2021-08-20 13:11:15+0000', tz='UTC'), Timestamp('2021-08-04 07:40:03+0000', tz='UTC'), Timestamp('2021-07-28 13:25:08+0000', tz='UTC'), Timestamp('2021-08-27 19:38:20+0000', tz='UTC'), Timestamp('2021-08-29 06:52:52+0000', tz='UTC'), Timestamp('2021-09-01 01:28:56+0000', tz='UTC'), Timestamp('2021-08-20 01:40:22+0000', tz='UTC'), Timestamp('2021-08-07 01:25:48+0000', tz='UTC'), Timestamp('2021-08-23 00:54:24+0000', tz='UTC'), Timestamp('2021-07-22 07:56:26+0000', tz='UTC'), Timestamp('2021-08-12 07:04:06+0000', tz='UTC'), Timestamp('2021-07-30 13:37:49+0000', tz='UTC'), Timestamp('2021-08-10 19:35:38+0000', tz='UTC'), Timestamp('2021-08-22 01:38:37+0000', tz='UTC'), Timestamp('2021-08-13 01:39:56+0000', tz='UTC'), Timestamp('2021-07-27 19:13:29+0000', tz='UTC'), Timestamp('2021-08-07 19:39:15+0000', tz='UTC'), Timestamp('2021-08-19 12:59:27+0000', tz='UTC'), Timestamp('2021-08-15 13:31:20+0000', tz='UTC'), Timestamp('2021-08-24 07:37:57+0000', tz='UTC'), Timestamp('2021-07-31 18:38:44+0000', tz='UTC'), Timestamp('2021-08-30 07:38:22+0000', tz='UTC'), Timestamp('2021-08-27 19:38:19+0000', tz='UTC'), Timestamp('2021-08-24 01:39:23+0000', tz='UTC'), Timestamp('2021-07-28 19:31:47+0000', tz='UTC'), Timestamp('2021-09-01 07:04:00+0000', tz='UTC'), Timestamp('2021-08-10 13:07:07+0000', tz='UTC'), Timestamp('2021-07-25 07:38:53+0000', tz='UTC'), Timestamp('2021-08-06 19:13:10+0000', tz='UTC'), Timestamp('2021-08-09 19:04:05+0000', tz='UTC'), Timestamp('2021-07-31 13:30:16+0000', tz='UTC'), Timestamp('2021-08-14 19:24:23+0000', tz='UTC'), Timestamp('2021-08-23 19:05:18+0000', tz='UTC'), Timestamp('2021-08-20 01:40:25+0000', tz='UTC'), Timestamp('2021-07-27 07:20:22+0000', tz='UTC'), Timestamp('2021-08-03 12:50:34+0000', tz='UTC'), Timestamp('2021-08-09 00:46:55+0000', tz='UTC'), Timestamp('2021-07-26 13:23:56+0000', tz='UTC'), Timestamp('2021-08-24 01:39:24+0000', tz='UTC'), Timestamp('2021-08-02 13:32:08+0000', tz='UTC'), Timestamp('2021-08-24 13:39:17+0000', tz='UTC'), Timestamp('2021-08-18 01:44:11+0000', tz='UTC'), Timestamp('2021-08-17 13:03:43+0000', tz='UTC'), Timestamp('2021-08-05 00:47:15+0000', tz='UTC'), Timestamp('2021-08-11 19:41:14+0000', tz='UTC'), Timestamp('2021-08-24 19:28:12+0000', tz='UTC'), Timestamp('2021-08-15 01:15:59+0000', tz='UTC'), Timestamp('2021-08-25 06:58:34+0000', tz='UTC'), Timestamp('2021-07-26 00:55:54+0000', tz='UTC'), Timestamp('2021-08-11 12:45:48+0000', tz='UTC'), Timestamp('2021-08-12 19:40:46+0000', tz='UTC'), Timestamp('2021-08-01 01:31:36+0000', tz='UTC'), Timestamp('2021-08-29 19:15:40+0000', tz='UTC'), Timestamp('2021-08-26 07:34:12+0000', tz='UTC'), Timestamp('2021-08-04 07:40:06+0000', tz='UTC'), Timestamp('2021-08-16 01:38:56+0000', tz='UTC'), Timestamp('2021-07-28 07:02:07+0000', tz='UTC'), Timestamp('2021-08-16 07:40:35+0000', tz='UTC'), Timestamp('2021-08-09 00:46:58+0000', tz='UTC'), Timestamp('2021-08-05 07:27:52+0000', tz='UTC'), Timestamp('2021-07-29 07:40:49+0000', tz='UTC'), Timestamp('2021-07-26 06:44:11+0000', tz='UTC'), Timestamp('2021-08-15 07:39:33+0000', tz='UTC'), Timestamp('2021-07-21 13:46:49+0000', tz='UTC'), Timestamp('2021-08-12 13:07:34+0000', tz='UTC'), Timestamp('2021-08-10 01:36:35+0000', tz='UTC'), Timestamp('2021-08-18 06:47:20+0000', tz='UTC'), Timestamp('2021-08-17 07:15:48+0000', tz='UTC'), Timestamp('2021-08-09 13:36:57+0000', tz='UTC'), Timestamp('2021-08-14 07:00:13+0000', tz='UTC'), Timestamp('2021-07-29 18:58:59+0000', tz='UTC'), Timestamp('2021-07-28 07:02:08+0000', tz='UTC'), Timestamp('2021-08-08 01:29:15+0000', tz='UTC'), Timestamp('2021-08-29 12:53:34+0000', tz='UTC'), Timestamp('2021-08-14 04:12:21+0000', tz='UTC'), Timestamp('2021-08-17 01:05:09+0000', tz='UTC'), Timestamp('2021-08-24 07:38:00+0000', tz='UTC'), Timestamp('2021-09-01 13:21:20+0000', tz='UTC'), Timestamp('2021-08-23 07:01:44+0000', tz='UTC'), Timestamp('2021-07-22 01:06:42+0000', tz='UTC'), Timestamp('2021-08-21 07:01:00+0000', tz='UTC'), Timestamp('2021-08-02 19:07:22+0000', tz='UTC'), Timestamp('2021-07-30 01:33:28+0000', tz='UTC'), Timestamp('2021-08-28 00:46:47+0000', tz='UTC'), Timestamp('2021-08-30 01:06:02+0000', tz='UTC'), Timestamp('2021-07-28 19:31:50+0000', tz='UTC'), Timestamp('2021-08-31 13:03:21+0000', tz='UTC'), Timestamp('2021-08-11 19:41:16+0000', tz='UTC'), Timestamp('2021-07-23 07:40:37+0000', tz='UTC'), Timestamp('2021-08-13 13:25:42+0000', tz='UTC'), Timestamp('2021-07-30 19:33:53+0000', tz='UTC'), Timestamp('2021-07-26 19:09:32+0000', tz='UTC'), Timestamp('2021-07-28 01:21:18+0000', tz='UTC'), Timestamp('2021-08-03 12:50:37+0000', tz='UTC'), Timestamp('2021-08-18 06:47:23+0000', tz='UTC'), Timestamp('2021-08-21 07:01:01+0000', tz='UTC'), Timestamp('2021-07-30 01:33:29+0000', tz='UTC'), Timestamp('2021-08-25 13:32:38+0000', tz='UTC'), Timestamp('2021-08-30 12:52:53+0000', tz='UTC'), Timestamp('2021-07-31 07:21:26+0000', tz='UTC'), Timestamp('2021-08-06 13:00:58+0000', tz='UTC'), Timestamp('2021-07-31 00:59:39+0000', tz='UTC'), Timestamp('2021-08-27 12:57:38+0000', tz='UTC'), Timestamp('2021-07-24 07:33:53+0000', tz='UTC'), Timestamp('2021-08-01 01:31:38+0000', tz='UTC'), Timestamp('2021-07-24 19:14:24+0000', tz='UTC'), Timestamp('2021-09-03 13:43:55+0000', tz='UTC'), Timestamp('2021-07-21 07:38:27+0000', tz='UTC'), Timestamp('2021-08-21 13:30:50+0000', tz='UTC'), Timestamp('2021-08-26 19:15:55+0000', tz='UTC'), Timestamp('2021-08-15 01:16:02+0000', tz='UTC'), Timestamp('2021-08-08 19:24:20+0000', tz='UTC'), Timestamp('2021-08-05 07:27:54+0000', tz='UTC'), Timestamp('2021-08-17 13:03:46+0000', tz='UTC'), Timestamp('2021-07-22 07:56:29+0000', tz='UTC'), Timestamp('2021-08-26 13:30:24+0000', tz='UTC'), Timestamp('2021-08-28 19:30:22+0000', tz='UTC'), Timestamp('2021-07-30 13:37:52+0000', tz='UTC'), Timestamp('2021-08-02 01:36:50+0000', tz='UTC'), Timestamp('2021-08-18 19:46:14+0000', tz='UTC'), Timestamp('2021-07-21 01:26:51+0000', tz='UTC'), Timestamp('2021-08-03 01:41:11+0000', tz='UTC'), Timestamp('2021-08-16 01:38:59+0000', tz='UTC'), Timestamp('2021-07-22 13:27:14+0000', tz='UTC'), Timestamp('2021-08-22 07:30:11+0000', tz='UTC'), Timestamp('2021-07-26 06:44:12+0000', tz='UTC'), Timestamp('2021-08-12 07:04:04+0000', tz='UTC'), Timestamp('2021-08-07 07:22:41+0000', tz='UTC'), Timestamp('2021-08-15 13:31:23+0000', tz='UTC'), Timestamp('2021-08-08 13:00:11+0000', tz='UTC'), Timestamp('2021-07-29 07:40:52+0000', tz='UTC'), Timestamp('2021-08-02 13:32:03+0000', tz='UTC'), Timestamp('2021-08-21 00:47:19+0000', tz='UTC'), Timestamp('2021-08-31 01:38:08+0000', tz='UTC'), Timestamp('2021-08-25 01:22:18+0000', tz='UTC'), Timestamp('2021-08-26 01:08:47+0000', tz='UTC'), Timestamp('2021-08-12 19:40:49+0000', tz='UTC'), Timestamp('2021-08-14 13:34:36+0000', tz='UTC'), Timestamp('2021-08-22 18:50:29+0000', tz='UTC'), Timestamp('2021-08-03 07:31:23+0000', tz='UTC'), Timestamp('2021-08-02 07:29:18+0000', tz='UTC'), Timestamp('2021-08-17 07:15:51+0000', tz='UTC'), Timestamp('2021-07-24 19:14:27+0000', tz='UTC'), Timestamp('2021-07-29 18:59:02+0000', tz='UTC'), Timestamp('2021-08-30 18:58:32+0000', tz='UTC'), Timestamp('2021-08-08 01:29:18+0000', tz='UTC'), Timestamp('2021-08-15 18:46:48+0000', tz='UTC'), Timestamp('2021-07-22 18:56:20+0000', tz='UTC'), Timestamp('2021-08-27 19:38:17+0000', tz='UTC'), Timestamp('2021-07-29 01:22:29+0000', tz='UTC'), Timestamp('2021-08-22 13:20:53+0000', tz='UTC'), Timestamp('2021-08-14 01:39:13+0000', tz='UTC'), Timestamp('2021-08-03 19:14:03+0000', tz='UTC'), Timestamp('2021-09-01 13:21:23+0000', tz='UTC'), Timestamp('2021-08-21 07:01:03+0000', tz='UTC'), Timestamp('2021-08-10 19:35:35+0000', tz='UTC'), Timestamp('2021-08-11 19:41:17+0000', tz='UTC'), Timestamp('2021-08-11 00:57:25+0000', tz='UTC'), Timestamp('2021-08-25 18:41:20+0000', tz='UTC'), Timestamp('2021-07-28 13:25:06+0000', tz='UTC'), Timestamp('2021-08-29 06:52:50+0000', tz='UTC'), Timestamp('2021-08-17 01:05:12+0000', tz='UTC'), Timestamp('2021-09-01 01:28:54+0000', tz='UTC'), Timestamp('2021-07-29 01:22:30+0000', tz='UTC'), Timestamp('2021-07-25 13:21:27+0000', tz='UTC'), Timestamp('2021-08-06 07:20:17+0000', tz='UTC'), Timestamp('2021-08-07 19:39:12+0000', tz='UTC'), Timestamp('2021-08-29 01:19:52+0000', tz='UTC'), Timestamp('2021-08-13 06:51:25+0000', tz='UTC'), Timestamp('2021-08-25 13:32:41+0000', tz='UTC'), Timestamp('2021-08-30 12:52:56+0000', tz='UTC'), Timestamp('2021-08-22 01:38:35+0000', tz='UTC'), Timestamp('2021-08-14 07:00:08+0000', tz='UTC'), Timestamp('2021-07-31 00:59:42+0000', tz='UTC'), Timestamp('2021-08-10 07:31:50+0000', tz='UTC'), Timestamp('2021-08-16 19:41:59+0000', tz='UTC'), Timestamp('2021-08-05 12:24:01+0000', tz='UTC'), Timestamp('2021-08-15 18:46:51+0000', tz='UTC'), Timestamp('2021-07-25 07:38:50+0000', tz='UTC'), Timestamp('2021-08-07 19:39:13+0000', tz='UTC'), Timestamp('2021-07-28 01:21:21+0000', tz='UTC'), Timestamp('2021-08-01 12:45:10+0000', tz='UTC'), Timestamp('2021-07-21 18:49:34+0000', tz='UTC'), Timestamp('2021-08-26 19:15:58+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-15 14:40:00+0000', tz='UTC'), Timestamp('2021-06-15 14:40:01+0000', tz='UTC'), Timestamp('2021-06-10 02:46:36+0000', tz='UTC'), Timestamp('2021-06-19 20:42:53+0000', tz='UTC'), Timestamp('2021-06-19 20:42:54+0000', tz='UTC'), Timestamp('2021-06-15 14:39:59+0000', tz='UTC'), Timestamp('2021-06-15 14:39:57+0000', tz='UTC'), Timestamp('2021-06-15 14:39:58+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 07:43:32+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-16 09:56:58+0000', tz='UTC'), Timestamp('2021-08-01 16:53:08+0000', tz='UTC'), Timestamp('2021-08-31 09:06:40+0000', tz='UTC'), Timestamp('2021-08-24 09:35:42+0000', tz='UTC'), Timestamp('2021-06-08 16:43:03+0000', tz='UTC'), Timestamp('2021-08-29 13:39:46+0000', tz='UTC'), Timestamp('2021-08-24 01:04:54+0000', tz='UTC'), Timestamp('2021-08-22 11:28:12+0000', tz='UTC'), Timestamp('2021-08-24 11:55:12+0000', tz='UTC'), Timestamp('2021-08-28 11:17:22+0000', tz='UTC'), Timestamp('2021-08-27 19:13:20+0000', tz='UTC'), Timestamp('2021-08-29 23:00:20+0000', tz='UTC'), Timestamp('2021-06-10 09:16:07+0000', tz='UTC'), Timestamp('2021-07-24 03:47:20+0000', tz='UTC'), Timestamp('2021-08-28 19:09:39+0000', tz='UTC'), Timestamp('2021-06-23 10:31:31+0000', tz='UTC'), Timestamp('2021-08-29 12:06:59+0000', tz='UTC'), Timestamp('2021-08-26 01:19:20+0000', tz='UTC'), Timestamp('2021-07-01 01:09:49+0000', tz='UTC'), Timestamp('2021-08-21 00:08:55+0000', tz='UTC'), Timestamp('2021-08-23 23:05:47+0000', tz='UTC'), Timestamp('2021-08-31 15:08:49+0000', tz='UTC'), Timestamp('2021-08-08 22:52:43+0000', tz='UTC'), Timestamp('2021-08-20 08:56:56+0000', tz='UTC'), Timestamp('2021-08-31 09:20:51+0000', tz='UTC'), Timestamp('2021-08-31 15:00:05+0000', tz='UTC'), Timestamp('2021-08-29 14:57:35+0000', tz='UTC'), Timestamp('2021-09-03 09:44:00+0000', tz='UTC'), Timestamp('2021-08-30 07:03:17+0000', tz='UTC'), Timestamp('2021-07-03 13:40:03+0000', tz='UTC'), Timestamp('2021-06-29 09:38:20+0000', tz='UTC'), Timestamp('2021-08-28 06:38:32+0000', tz='UTC'), Timestamp('2021-08-08 18:55:18+0000', tz='UTC'), Timestamp('2021-08-26 05:17:16+0000', tz='UTC'), Timestamp('2021-08-02 16:20:58+0000', tz='UTC'), Timestamp('2021-08-28 16:37:28+0000', tz='UTC'), Timestamp('2021-08-13 22:20:38+0000', tz='UTC'), Timestamp('2021-08-27 19:05:01+0000', tz='UTC'), Timestamp('2021-07-06 19:52:11+0000', tz='UTC'), Timestamp('2021-08-29 14:30:03+0000', tz='UTC'), Timestamp('2021-09-01 11:54:56+0000', tz='UTC'), Timestamp('2021-08-31 18:21:38+0000', tz='UTC'), Timestamp('2021-08-26 05:14:13+0000', tz='UTC'), Timestamp('2021-08-20 17:54:20+0000', tz='UTC'), Timestamp('2021-08-27 05:32:41+0000', tz='UTC'), Timestamp('2021-06-11 16:00:49+0000', tz='UTC'), Timestamp('2021-08-19 04:43:59+0000', tz='UTC'), Timestamp('2021-08-15 05:11:50+0000', tz='UTC'), Timestamp('2021-08-24 10:33:04+0000', tz='UTC'), Timestamp('2021-07-09 16:48:41+0000', tz='UTC'), Timestamp('2021-08-30 04:43:28+0000', tz='UTC'), Timestamp('2021-06-12 13:10:34+0000', tz='UTC'), Timestamp('2021-08-27 11:19:00+0000', tz='UTC'), Timestamp('2021-08-27 18:24:26+0000', tz='UTC'), Timestamp('2021-08-20 20:02:52+0000', tz='UTC'), Timestamp('2021-06-27 21:52:09+0000', tz='UTC'), Timestamp('2021-07-14 21:40:26+0000', tz='UTC'), Timestamp('2021-08-16 12:10:53+0000', tz='UTC'), Timestamp('2021-08-26 09:22:57+0000', tz='UTC'), Timestamp('2021-07-28 13:58:31+0000', tz='UTC'), Timestamp('2021-06-23 07:59:50+0000', tz='UTC'), Timestamp('2021-08-10 03:15:28+0000', tz='UTC'), Timestamp('2021-08-29 14:34:55+0000', tz='UTC'), Timestamp('2021-08-30 12:36:26+0000', tz='UTC'), Timestamp('2021-08-22 15:52:24+0000', tz='UTC'), Timestamp('2021-09-02 09:34:20+0000', tz='UTC'), Timestamp('2021-06-10 09:58:13+0000', tz='UTC'), Timestamp('2021-08-24 21:10:11+0000', tz='UTC'), Timestamp('2021-08-20 22:36:53+0000', tz='UTC'), Timestamp('2021-07-16 01:45:25+0000', tz='UTC'), Timestamp('2021-06-07 16:18:12+0000', tz='UTC'), Timestamp('2021-07-16 17:14:54+0000', tz='UTC'), Timestamp('2021-07-01 20:32:33+0000', tz='UTC'), Timestamp('2021-07-30 08:54:03+0000', tz='UTC'), Timestamp('2021-08-02 11:56:30+0000', tz='UTC'), Timestamp('2021-08-20 19:46:47+0000', tz='UTC'), Timestamp('2021-08-31 10:12:27+0000', tz='UTC'), Timestamp('2021-06-11 11:18:27+0000', tz='UTC'), Timestamp('2021-08-24 07:22:31+0000', tz='UTC'), Timestamp('2021-06-20 11:00:18+0000', tz='UTC'), Timestamp('2021-08-31 06:48:21+0000', tz='UTC'), Timestamp('2021-06-27 09:52:08+0000', tz='UTC'), Timestamp('2021-08-28 09:59:08+0000', tz='UTC'), Timestamp('2021-09-01 21:46:57+0000', tz='UTC'), Timestamp('2021-09-03 02:07:40+0000', tz='UTC'), Timestamp('2021-07-05 01:50:48+0000', tz='UTC'), Timestamp('2021-07-25 04:44:48+0000', tz='UTC'), Timestamp('2021-08-13 19:33:46+0000', tz='UTC'), Timestamp('2021-08-21 01:00:11+0000', tz='UTC'), Timestamp('2021-06-16 20:35:31+0000', tz='UTC'), Timestamp('2021-08-20 14:06:35+0000', tz='UTC'), Timestamp('2021-08-31 17:40:44+0000', tz='UTC'), Timestamp('2021-08-22 18:29:49+0000', tz='UTC'), Timestamp('2021-08-11 11:45:27+0000', tz='UTC'), Timestamp('2021-07-15 21:28:23+0000', tz='UTC'), Timestamp('2021-08-13 05:38:06+0000', tz='UTC'), Timestamp('2021-08-25 20:10:02+0000', tz='UTC'), Timestamp('2021-08-05 08:49:42+0000', tz='UTC'), Timestamp('2021-09-03 14:25:26+0000', tz='UTC'), Timestamp('2021-08-06 17:36:35+0000', tz='UTC'), Timestamp('2021-08-27 11:38:50+0000', tz='UTC'), Timestamp('2021-08-28 05:26:54+0000', tz='UTC'), Timestamp('2021-07-02 22:42:38+0000', tz='UTC'), Timestamp('2021-06-24 15:58:07+0000', tz='UTC'), Timestamp('2021-06-22 15:36:32+0000', tz='UTC'), Timestamp('2021-07-28 16:21:56+0000', tz='UTC'), Timestamp('2021-06-28 12:38:05+0000', tz='UTC'), Timestamp('2021-06-17 21:07:32+0000', tz='UTC'), Timestamp('2021-08-31 00:00:01+0000', tz='UTC'), Timestamp('2021-09-03 07:15:33+0000', tz='UTC'), Timestamp('2021-06-17 14:56:23+0000', tz='UTC'), Timestamp('2021-08-10 18:14:12+0000', tz='UTC'), Timestamp('2021-08-21 01:36:06+0000', tz='UTC'), Timestamp('2021-06-11 09:19:56+0000', tz='UTC'), Timestamp('2021-08-18 02:35:56+0000', tz='UTC'), Timestamp('2021-08-20 22:39:59+0000', tz='UTC'), Timestamp('2021-08-27 17:35:59+0000', tz='UTC'), Timestamp('2021-06-07 21:14:10+0000', tz='UTC'), Timestamp('2021-06-10 22:40:51+0000', tz='UTC'), Timestamp('2021-09-01 22:32:06+0000', tz='UTC'), Timestamp('2021-08-22 19:41:41+0000', tz='UTC'), Timestamp('2021-08-04 10:16:53+0000', tz='UTC'), Timestamp('2021-06-19 09:21:02+0000', tz='UTC'), Timestamp('2021-08-01 02:04:50+0000', tz='UTC'), Timestamp('2021-08-26 01:36:59+0000', tz='UTC'), Timestamp('2021-08-01 23:48:20+0000', tz='UTC'), Timestamp('2021-08-18 18:04:36+0000', tz='UTC'), Timestamp('2021-08-26 16:57:53+0000', tz='UTC'), Timestamp('2021-08-24 00:49:03+0000', tz='UTC'), Timestamp('2021-08-22 19:08:22+0000', tz='UTC'), Timestamp('2021-06-08 18:28:39+0000', tz='UTC'), Timestamp('2021-08-24 07:47:53+0000', tz='UTC'), Timestamp('2021-08-31 14:08:11+0000', tz='UTC'), Timestamp('2021-08-15 09:53:37+0000', tz='UTC'), Timestamp('2021-08-09 00:29:45+0000', tz='UTC'), Timestamp('2021-08-27 08:49:06+0000', tz='UTC'), Timestamp('2021-08-24 17:04:05+0000', tz='UTC'), Timestamp('2021-08-01 06:40:18+0000', tz='UTC'), Timestamp('2021-08-25 05:14:35+0000', tz='UTC'), Timestamp('2021-08-18 17:30:28+0000', tz='UTC'), Timestamp('2021-08-21 13:52:08+0000', tz='UTC'), Timestamp('2021-09-01 06:31:53+0000', tz='UTC'), Timestamp('2021-08-06 19:39:03+0000', tz='UTC'), Timestamp('2021-08-27 23:48:08+0000', tz='UTC'), Timestamp('2021-08-02 23:46:46+0000', tz='UTC'), Timestamp('2021-08-27 12:23:01+0000', tz='UTC'), Timestamp('2021-07-11 14:06:09+0000', tz='UTC'), Timestamp('2021-08-04 10:13:02+0000', tz='UTC'), Timestamp('2021-08-29 21:26:04+0000', tz='UTC'), Timestamp('2021-08-31 11:44:00+0000', tz='UTC'), Timestamp('2021-08-24 19:28:27+0000', tz='UTC'), Timestamp('2021-08-25 22:13:00+0000', tz='UTC'), Timestamp('2021-08-16 03:19:22+0000', tz='UTC'), Timestamp('2021-08-03 21:57:15+0000', tz='UTC'), Timestamp('2021-08-09 11:51:01+0000', tz='UTC'), Timestamp('2021-08-20 06:58:10+0000', tz='UTC'), Timestamp('2021-08-22 16:31:00+0000', tz='UTC'), Timestamp('2021-06-13 10:31:16+0000', tz='UTC'), Timestamp('2021-08-14 21:40:00+0000', tz='UTC'), Timestamp('2021-07-04 09:58:09+0000', tz='UTC'), Timestamp('2021-08-30 14:30:51+0000', tz='UTC'), Timestamp('2021-08-06 23:09:55+0000', tz='UTC'), Timestamp('2021-08-13 03:34:55+0000', tz='UTC'), Timestamp('2021-08-31 22:44:18+0000', tz='UTC'), Timestamp('2021-07-25 17:52:06+0000', tz='UTC'), Timestamp('2021-08-10 04:45:18+0000', tz='UTC'), Timestamp('2021-07-15 10:53:38+0000', tz='UTC'), Timestamp('2021-08-22 18:20:03+0000', tz='UTC'), Timestamp('2021-08-27 12:58:50+0000', tz='UTC'), Timestamp('2021-07-18 15:37:00+0000', tz='UTC'), Timestamp('2021-08-24 09:07:37+0000', tz='UTC'), Timestamp('2021-08-27 15:50:21+0000', tz='UTC'), Timestamp('2021-08-05 09:04:37+0000', tz='UTC'), Timestamp('2021-09-03 10:45:09+0000', tz='UTC'), Timestamp('2021-08-29 07:54:05+0000', tz='UTC'), Timestamp('2021-06-14 17:50:06+0000', tz='UTC'), Timestamp('2021-06-15 04:28:47+0000', tz='UTC'), Timestamp('2021-09-03 06:50:47+0000', tz='UTC'), Timestamp('2021-08-16 09:02:39+0000', tz='UTC'), Timestamp('2021-06-27 12:48:06+0000', tz='UTC'), Timestamp('2021-08-26 08:56:09+0000', tz='UTC'), Timestamp('2021-08-31 07:21:46+0000', tz='UTC'), Timestamp('2021-09-01 02:31:06+0000', tz='UTC'), Timestamp('2021-08-20 22:40:32+0000', tz='UTC'), Timestamp('2021-07-02 20:48:41+0000', tz='UTC'), Timestamp('2021-06-18 20:36:02+0000', tz='UTC'), Timestamp('2021-08-30 06:38:15+0000', tz='UTC'), Timestamp('2021-06-17 21:31:46+0000', tz='UTC'), Timestamp('2021-07-12 22:37:58+0000', tz='UTC'), Timestamp('2021-08-22 18:33:36+0000', tz='UTC'), Timestamp('2021-07-03 08:19:00+0000', tz='UTC'), Timestamp('2021-08-24 08:57:59+0000', tz='UTC'), Timestamp('2021-07-01 07:07:15+0000', tz='UTC'), Timestamp('2021-08-22 18:12:30+0000', tz='UTC'), Timestamp('2021-08-22 17:53:41+0000', tz='UTC'), Timestamp('2021-06-29 19:17:14+0000', tz='UTC'), Timestamp('2021-06-09 10:02:09+0000', tz='UTC'), Timestamp('2021-07-08 06:33:05+0000', tz='UTC'), Timestamp('2021-07-25 08:26:52+0000', tz='UTC'), Timestamp('2021-09-02 12:25:32+0000', tz='UTC'), Timestamp('2021-08-29 07:53:46+0000', tz='UTC'), Timestamp('2021-06-08 08:28:03+0000', tz='UTC'), Timestamp('2021-08-22 02:31:58+0000', tz='UTC'), Timestamp('2021-06-29 08:02:56+0000', tz='UTC'), Timestamp('2021-06-11 14:40:44+0000', tz='UTC'), Timestamp('2021-08-22 17:18:52+0000', tz='UTC'), Timestamp('2021-08-21 01:30:34+0000', tz='UTC'), Timestamp('2021-08-22 13:17:54+0000', tz='UTC'), Timestamp('2021-06-17 19:09:43+0000', tz='UTC'), Timestamp('2021-06-07 08:27:01+0000', tz='UTC'), Timestamp('2021-08-25 22:12:13+0000', tz='UTC'), Timestamp('2021-08-29 09:52:19+0000', tz='UTC'), Timestamp('2021-06-28 12:43:57+0000', tz='UTC'), Timestamp('2021-08-25 16:39:26+0000', tz='UTC'), Timestamp('2021-08-29 04:44:57+0000', tz='UTC'), Timestamp('2021-08-28 12:56:06+0000', tz='UTC'), Timestamp('2021-07-29 23:39:42+0000', tz='UTC'), Timestamp('2021-06-08 01:16:02+0000', tz='UTC'), Timestamp('2021-08-24 12:56:24+0000', tz='UTC'), Timestamp('2021-08-28 13:24:58+0000', tz='UTC'), Timestamp('2021-07-02 10:35:37+0000', tz='UTC'), Timestamp('2021-09-01 18:21:14+0000', tz='UTC'), Timestamp('2021-07-08 05:00:57+0000', tz='UTC'), Timestamp('2021-08-19 02:07:52+0000', tz='UTC'), Timestamp('2021-08-22 19:38:14+0000', tz='UTC'), Timestamp('2021-08-31 03:38:24+0000', tz='UTC'), Timestamp('2021-08-22 09:32:43+0000', tz='UTC'), Timestamp('2021-08-12 20:49:04+0000', tz='UTC'), Timestamp('2021-06-06 22:10:38+0000', tz='UTC'), Timestamp('2021-06-07 06:09:17+0000', tz='UTC'), Timestamp('2021-08-24 06:42:53+0000', tz='UTC'), Timestamp('2021-06-22 01:43:01+0000', tz='UTC'), Timestamp('2021-06-22 12:54:16+0000', tz='UTC'), Timestamp('2021-06-05 23:13:23+0000', tz='UTC'), Timestamp('2021-07-09 15:13:47+0000', tz='UTC'), Timestamp('2021-08-27 17:17:05+0000', tz='UTC'), Timestamp('2021-08-31 07:42:46+0000', tz='UTC'), Timestamp('2021-08-03 09:41:57+0000', tz='UTC'), Timestamp('2021-08-14 11:35:02+0000', tz='UTC'), Timestamp('2021-06-09 21:45:27+0000', tz='UTC'), Timestamp('2021-07-01 07:38:32+0000', tz='UTC'), Timestamp('2021-08-31 20:34:31+0000', tz='UTC'), Timestamp('2021-08-29 10:29:33+0000', tz='UTC'), Timestamp('2021-06-10 21:42:48+0000', tz='UTC'), Timestamp('2021-08-14 01:28:03+0000', tz='UTC'), Timestamp('2021-08-17 09:16:55+0000', tz='UTC'), Timestamp('2021-08-24 14:15:32+0000', tz='UTC'), Timestamp('2021-09-01 07:37:13+0000', tz='UTC'), Timestamp('2021-08-06 19:24:47+0000', tz='UTC'), Timestamp('2021-09-03 10:04:37+0000', tz='UTC'), Timestamp('2021-08-11 20:53:15+0000', tz='UTC'), Timestamp('2021-09-02 15:42:24+0000', tz='UTC'), Timestamp('2021-07-19 11:11:07+0000', tz='UTC'), Timestamp('2021-09-01 17:55:36+0000', tz='UTC'), Timestamp('2021-08-22 13:24:32+0000', tz='UTC'), Timestamp('2021-06-26 22:36:33+0000', tz='UTC'), Timestamp('2021-08-31 12:42:44+0000', tz='UTC'), Timestamp('2021-09-01 16:43:55+0000', tz='UTC'), Timestamp('2021-08-26 09:06:01+0000', tz='UTC'), Timestamp('2021-07-14 01:22:38+0000', tz='UTC'), Timestamp('2021-09-02 16:12:41+0000', tz='UTC'), Timestamp('2021-08-19 17:10:48+0000', tz='UTC'), Timestamp('2021-08-30 09:49:02+0000', tz='UTC'), Timestamp('2021-08-29 20:56:32+0000', tz='UTC'), Timestamp('2021-08-26 02:24:27+0000', tz='UTC'), Timestamp('2021-07-01 01:34:20+0000', tz='UTC'), Timestamp('2021-06-28 12:29:33+0000', tz='UTC'), Timestamp('2021-08-20 21:01:51+0000', tz='UTC'), Timestamp('2021-08-28 20:29:46+0000', tz='UTC'), Timestamp('2021-06-05 15:58:58+0000', tz='UTC'), Timestamp('2021-09-03 15:29:05+0000', tz='UTC'), Timestamp('2021-08-25 15:23:35+0000', tz='UTC'), Timestamp('2021-09-01 09:26:08+0000', tz='UTC'), Timestamp('2021-06-16 17:18:40+0000', tz='UTC'), Timestamp('2021-08-20 16:01:34+0000', tz='UTC'), Timestamp('2021-08-22 13:14:54+0000', tz='UTC'), Timestamp('2021-08-22 18:10:09+0000', tz='UTC'), Timestamp('2021-08-29 23:36:10+0000', tz='UTC'), Timestamp('2021-07-06 00:45:40+0000', tz='UTC'), Timestamp('2021-08-26 09:08:36+0000', tz='UTC'), Timestamp('2021-08-27 22:32:41+0000', tz='UTC'), Timestamp('2021-08-23 09:09:19+0000', tz='UTC'), Timestamp('2021-07-27 17:46:14+0000', tz='UTC'), Timestamp('2021-08-24 21:07:28+0000', tz='UTC'), Timestamp('2021-06-25 17:45:18+0000', tz='UTC'), Timestamp('2021-08-26 00:39:16+0000', tz='UTC'), Timestamp('2021-06-18 08:09:01+0000', tz='UTC'), Timestamp('2021-08-24 17:25:19+0000', tz='UTC'), Timestamp('2021-08-22 15:40:11+0000', tz='UTC'), Timestamp('2021-08-10 17:48:45+0000', tz='UTC'), Timestamp('2021-07-04 08:07:26+0000', tz='UTC'), Timestamp('2021-06-26 08:23:09+0000', tz='UTC'), Timestamp('2021-08-26 00:12:33+0000', tz='UTC'), Timestamp('2021-07-11 04:07:01+0000', tz='UTC'), Timestamp('2021-09-01 22:01:48+0000', tz='UTC'), Timestamp('2021-08-26 02:23:19+0000', tz='UTC'), Timestamp('2021-06-26 20:14:11+0000', tz='UTC'), Timestamp('2021-07-03 01:54:25+0000', tz='UTC'), Timestamp('2021-07-07 23:16:40+0000', tz='UTC'), Timestamp('2021-07-23 19:07:40+0000', tz='UTC'), Timestamp('2021-06-30 05:50:49+0000', tz='UTC'), Timestamp('2021-08-04 04:15:07+0000', tz='UTC'), Timestamp('2021-08-20 22:38:13+0000', tz='UTC'), Timestamp('2021-08-29 04:53:46+0000', tz='UTC'), Timestamp('2021-06-07 09:51:10+0000', tz='UTC'), Timestamp('2021-07-06 05:02:55+0000', tz='UTC'), Timestamp('2021-08-29 07:40:49+0000', tz='UTC'), Timestamp('2021-09-02 16:27:14+0000', tz='UTC'), Timestamp('2021-06-08 13:20:20+0000', tz='UTC'), Timestamp('2021-06-19 08:34:39+0000', tz='UTC'), Timestamp('2021-07-31 12:04:10+0000', tz='UTC'), Timestamp('2021-08-01 11:12:20+0000', tz='UTC'), Timestamp('2021-08-31 02:58:13+0000', tz='UTC'), Timestamp('2021-07-15 01:19:00+0000', tz='UTC'), Timestamp('2021-08-17 22:26:47+0000', tz='UTC'), Timestamp('2021-08-09 20:36:57+0000', tz='UTC'), Timestamp('2021-06-20 04:23:46+0000', tz='UTC'), Timestamp('2021-08-30 20:03:50+0000', tz='UTC'), Timestamp('2021-08-12 20:37:51+0000', tz='UTC'), Timestamp('2021-08-25 19:57:41+0000', tz='UTC'), Timestamp('2021-08-31 10:12:09+0000', tz='UTC'), Timestamp('2021-08-31 17:27:34+0000', tz='UTC'), Timestamp('2021-08-15 18:21:12+0000', tz='UTC'), Timestamp('2021-06-08 02:52:54+0000', tz='UTC'), Timestamp('2021-06-27 10:53:23+0000', tz='UTC'), Timestamp('2021-07-29 04:58:21+0000', tz='UTC'), Timestamp('2021-07-28 19:54:36+0000', tz='UTC'), Timestamp('2021-06-16 09:20:29+0000', tz='UTC'), Timestamp('2021-08-16 07:36:48+0000', tz='UTC'), Timestamp('2021-08-05 01:42:04+0000', tz='UTC'), Timestamp('2021-08-14 15:38:19+0000', tz='UTC'), Timestamp('2021-08-22 16:41:47+0000', tz='UTC'), Timestamp('2021-07-24 20:45:29+0000', tz='UTC'), Timestamp('2021-08-27 02:57:09+0000', tz='UTC'), Timestamp('2021-08-29 04:38:57+0000', tz='UTC'), Timestamp('2021-06-20 22:19:10+0000', tz='UTC'), Timestamp('2021-07-03 23:09:55+0000', tz='UTC'), Timestamp('2021-06-11 09:07:44+0000', tz='UTC'), Timestamp('2021-08-05 20:05:12+0000', tz='UTC'), Timestamp('2021-08-19 02:46:09+0000', tz='UTC'), Timestamp('2021-07-04 07:35:34+0000', tz='UTC'), Timestamp('2021-08-17 17:05:54+0000', tz='UTC'), Timestamp('2021-08-12 21:36:51+0000', tz='UTC'), Timestamp('2021-06-25 14:11:07+0000', tz='UTC'), Timestamp('2021-07-22 03:33:39+0000', tz='UTC'), Timestamp('2021-08-24 11:05:33+0000', tz='UTC'), Timestamp('2021-08-11 19:10:43+0000', tz='UTC'), Timestamp('2021-06-11 15:42:34+0000', tz='UTC'), Timestamp('2021-07-09 07:25:38+0000', tz='UTC'), Timestamp('2021-08-29 08:52:42+0000', tz='UTC'), Timestamp('2021-06-10 16:58:26+0000', tz='UTC'), Timestamp('2021-08-10 20:45:02+0000', tz='UTC'), Timestamp('2021-06-09 08:47:42+0000', tz='UTC'), Timestamp('2021-08-27 18:45:08+0000', tz='UTC'), Timestamp('2021-09-01 11:14:46+0000', tz='UTC'), Timestamp('2021-06-25 17:16:05+0000', tz='UTC'), Timestamp('2021-07-25 07:02:17+0000', tz='UTC'), Timestamp('2021-09-01 04:44:48+0000', tz='UTC'), Timestamp('2021-06-28 02:37:19+0000', tz='UTC'), Timestamp('2021-07-27 00:16:53+0000', tz='UTC'), Timestamp('2021-08-22 18:27:39+0000', tz='UTC'), Timestamp('2021-08-24 03:25:10+0000', tz='UTC'), Timestamp('2021-08-28 06:53:09+0000', tz='UTC'), Timestamp('2021-09-01 19:55:34+0000', tz='UTC'), Timestamp('2021-08-28 01:36:57+0000', tz='UTC'), Timestamp('2021-08-26 01:57:38+0000', tz='UTC'), Timestamp('2021-08-24 08:59:16+0000', tz='UTC'), Timestamp('2021-08-29 06:39:20+0000', tz='UTC'), Timestamp('2021-07-31 11:29:15+0000', tz='UTC'), Timestamp('2021-08-30 22:42:21+0000', tz='UTC'), Timestamp('2021-08-22 17:34:01+0000', tz='UTC'), Timestamp('2021-08-27 01:42:47+0000', tz='UTC'), Timestamp('2021-08-28 07:14:07+0000', tz='UTC'), Timestamp('2021-08-10 12:50:12+0000', tz='UTC'), Timestamp('2021-09-02 04:25:48+0000', tz='UTC'), Timestamp('2021-06-30 03:32:22+0000', tz='UTC'), Timestamp('2021-08-24 08:39:38+0000', tz='UTC'), Timestamp('2021-08-31 21:00:16+0000', tz='UTC'), Timestamp('2021-09-03 10:59:10+0000', tz='UTC'), Timestamp('2021-07-28 20:38:47+0000', tz='UTC'), Timestamp('2021-08-22 14:18:36+0000', tz='UTC'), Timestamp('2021-06-11 15:01:31+0000', tz='UTC'), Timestamp('2021-08-25 23:07:09+0000', tz='UTC'), Timestamp('2021-08-07 10:14:30+0000', tz='UTC'), Timestamp('2021-08-21 10:40:12+0000', tz='UTC'), Timestamp('2021-08-21 12:30:50+0000', tz='UTC'), Timestamp('2021-08-25 21:30:12+0000', tz='UTC'), Timestamp('2021-06-19 22:57:57+0000', tz='UTC'), Timestamp('2021-08-30 21:17:29+0000', tz='UTC'), Timestamp('2021-08-26 07:45:17+0000', tz='UTC'), Timestamp('2021-09-03 05:00:09+0000', tz='UTC'), Timestamp('2021-08-25 20:53:55+0000', tz='UTC'), Timestamp('2021-07-29 20:34:18+0000', tz='UTC'), Timestamp('2021-08-21 10:49:22+0000', tz='UTC'), Timestamp('2021-06-16 13:11:02+0000', tz='UTC'), Timestamp('2021-07-05 14:44:27+0000', tz='UTC'), Timestamp('2021-06-19 21:02:08+0000', tz='UTC'), Timestamp('2021-08-17 19:50:06+0000', tz='UTC'), Timestamp('2021-08-30 07:06:38+0000', tz='UTC'), Timestamp('2021-07-11 15:38:30+0000', tz='UTC'), Timestamp('2021-08-25 05:53:59+0000', tz='UTC'), Timestamp('2021-08-26 03:56:42+0000', tz='UTC'), Timestamp('2021-08-24 07:37:08+0000', tz='UTC'), Timestamp('2021-07-21 23:33:48+0000', tz='UTC'), Timestamp('2021-07-25 22:27:35+0000', tz='UTC'), Timestamp('2021-07-22 13:35:30+0000', tz='UTC'), Timestamp('2021-09-01 18:23:56+0000', tz='UTC'), Timestamp('2021-08-20 06:22:28+0000', tz='UTC'), Timestamp('2021-08-23 05:12:30+0000', tz='UTC'), Timestamp('2021-08-23 06:21:08+0000', tz='UTC'), Timestamp('2021-08-26 17:36:08+0000', tz='UTC'), Timestamp('2021-08-30 06:26:03+0000', tz='UTC'), Timestamp('2021-06-23 08:41:41+0000', tz='UTC'), Timestamp('2021-08-07 12:54:00+0000', tz='UTC'), Timestamp('2021-08-24 07:49:16+0000', tz='UTC'), Timestamp('2021-09-03 02:51:09+0000', tz='UTC'), Timestamp('2021-07-01 04:07:10+0000', tz='UTC'), Timestamp('2021-08-21 00:32:54+0000', tz='UTC'), Timestamp('2021-07-20 11:51:32+0000', tz='UTC'), Timestamp('2021-06-15 19:17:42+0000', tz='UTC'), Timestamp('2021-06-26 10:46:48+0000', tz='UTC'), Timestamp('2021-07-27 19:09:10+0000', tz='UTC'), Timestamp('2021-06-07 19:33:25+0000', tz='UTC'), Timestamp('2021-08-26 16:46:14+0000', tz='UTC'), Timestamp('2021-08-23 04:23:05+0000', tz='UTC'), Timestamp('2021-08-24 17:09:50+0000', tz='UTC'), Timestamp('2021-08-25 19:32:36+0000', tz='UTC'), Timestamp('2021-06-16 16:29:41+0000', tz='UTC'), Timestamp('2021-07-27 08:15:49+0000', tz='UTC'), Timestamp('2021-07-30 04:49:29+0000', tz='UTC'), Timestamp('2021-08-15 17:06:53+0000', tz='UTC'), Timestamp('2021-08-10 17:17:56+0000', tz='UTC'), Timestamp('2021-08-30 23:26:32+0000', tz='UTC'), Timestamp('2021-08-22 14:29:36+0000', tz='UTC'), Timestamp('2021-08-28 11:29:29+0000', tz='UTC'), Timestamp('2021-07-05 07:35:10+0000', tz='UTC'), Timestamp('2021-06-21 18:47:26+0000', tz='UTC'), Timestamp('2021-07-05 19:05:14+0000', tz='UTC'), Timestamp('2021-08-05 18:58:56+0000', tz='UTC'), Timestamp('2021-08-22 15:38:14+0000', tz='UTC'), Timestamp('2021-06-23 13:51:47+0000', tz='UTC'), Timestamp('2021-08-09 12:24:18+0000', tz='UTC'), Timestamp('2021-08-27 22:30:04+0000', tz='UTC'), Timestamp('2021-08-28 02:03:44+0000', tz='UTC'), Timestamp('2021-06-12 23:30:54+0000', tz='UTC'), Timestamp('2021-08-15 14:41:26+0000', tz='UTC'), Timestamp('2021-08-20 19:27:46+0000', tz='UTC'), Timestamp('2021-08-16 10:09:35+0000', tz='UTC'), Timestamp('2021-08-15 07:08:27+0000', tz='UTC'), Timestamp('2021-08-20 22:38:00+0000', tz='UTC'), Timestamp('2021-06-21 18:03:09+0000', tz='UTC'), Timestamp('2021-06-24 23:29:37+0000', tz='UTC'), Timestamp('2021-06-08 08:25:01+0000', tz='UTC'), Timestamp('2021-06-17 21:40:12+0000', tz='UTC'), Timestamp('2021-07-13 08:09:51+0000', tz='UTC'), Timestamp('2021-08-24 14:18:55+0000', tz='UTC'), Timestamp('2021-08-31 22:34:22+0000', tz='UTC'), Timestamp('2021-08-31 23:47:22+0000', tz='UTC'), Timestamp('2021-08-04 23:42:27+0000', tz='UTC'), Timestamp('2021-08-13 07:38:14+0000', tz='UTC'), Timestamp('2021-08-13 10:41:52+0000', tz='UTC'), Timestamp('2021-09-02 10:52:00+0000', tz='UTC'), Timestamp('2021-08-20 22:34:57+0000', tz='UTC'), Timestamp('2021-07-10 08:29:30+0000', tz='UTC'), Timestamp('2021-07-25 22:01:52+0000', tz='UTC'), Timestamp('2021-08-20 05:04:42+0000', tz='UTC'), Timestamp('2021-08-26 06:59:53+0000', tz='UTC'), Timestamp('2021-08-26 05:04:53+0000', tz='UTC'), Timestamp('2021-07-07 13:13:34+0000', tz='UTC'), Timestamp('2021-08-28 12:01:05+0000', tz='UTC'), Timestamp('2021-06-24 06:10:37+0000', tz='UTC'), Timestamp('2021-06-25 04:36:47+0000', tz='UTC'), Timestamp('2021-06-09 16:16:33+0000', tz='UTC'), Timestamp('2021-08-11 17:46:54+0000', tz='UTC'), Timestamp('2021-08-20 22:17:33+0000', tz='UTC'), Timestamp('2021-08-31 00:28:11+0000', tz='UTC'), Timestamp('2021-08-20 20:26:46+0000', tz='UTC'), Timestamp('2021-08-24 04:16:08+0000', tz='UTC'), Timestamp('2021-08-30 13:12:42+0000', tz='UTC'), Timestamp('2021-08-27 13:39:19+0000', tz='UTC'), Timestamp('2021-07-29 21:18:59+0000', tz='UTC'), Timestamp('2021-08-18 02:19:58+0000', tz='UTC'), Timestamp('2021-08-29 18:12:32+0000', tz='UTC'), Timestamp('2021-08-25 15:44:52+0000', tz='UTC'), Timestamp('2021-08-14 12:45:55+0000', tz='UTC'), Timestamp('2021-08-25 13:22:19+0000', tz='UTC'), Timestamp('2021-08-22 05:36:38+0000', tz='UTC'), Timestamp('2021-08-24 23:51:27+0000', tz='UTC'), Timestamp('2021-08-27 13:30:30+0000', tz='UTC'), Timestamp('2021-06-21 17:05:31+0000', tz='UTC'), Timestamp('2021-08-24 09:30:27+0000', tz='UTC'), Timestamp('2021-08-21 10:18:50+0000', tz='UTC'), Timestamp('2021-08-27 22:03:23+0000', tz='UTC'), Timestamp('2021-07-30 13:07:08+0000', tz='UTC'), Timestamp('2021-08-27 14:18:11+0000', tz='UTC'), Timestamp('2021-08-27 17:47:14+0000', tz='UTC'), Timestamp('2021-06-30 09:59:31+0000', tz='UTC'), Timestamp('2021-08-26 03:12:58+0000', tz='UTC'), Timestamp('2021-07-16 16:08:53+0000', tz='UTC'), Timestamp('2021-07-19 04:26:40+0000', tz='UTC'), Timestamp('2021-08-20 22:52:33+0000', tz='UTC'), Timestamp('2021-08-24 06:02:49+0000', tz='UTC'), Timestamp('2021-07-09 17:23:40+0000', tz='UTC'), Timestamp('2021-08-24 08:15:14+0000', tz='UTC'), Timestamp('2021-06-19 02:32:03+0000', tz='UTC'), Timestamp('2021-08-31 06:23:36+0000', tz='UTC'), Timestamp('2021-08-26 06:43:29+0000', tz='UTC'), Timestamp('2021-08-31 13:47:51+0000', tz='UTC'), Timestamp('2021-07-17 00:24:08+0000', tz='UTC'), Timestamp('2021-06-11 20:14:54+0000', tz='UTC'), Timestamp('2021-06-13 18:33:13+0000', tz='UTC'), Timestamp('2021-07-27 20:00:18+0000', tz='UTC'), Timestamp('2021-08-13 23:30:16+0000', tz='UTC'), Timestamp('2021-08-15 00:33:41+0000', tz='UTC'), Timestamp('2021-08-24 03:17:05+0000', tz='UTC'), Timestamp('2021-08-29 13:13:35+0000', tz='UTC'), Timestamp('2021-08-29 16:14:59+0000', tz='UTC'), Timestamp('2021-06-05 23:14:24+0000', tz='UTC'), Timestamp('2021-07-08 22:26:28+0000', tz='UTC'), Timestamp('2021-08-01 04:02:25+0000', tz='UTC'), Timestamp('2021-08-26 18:14:14+0000', tz='UTC'), Timestamp('2021-07-14 22:11:53+0000', tz='UTC'), Timestamp('2021-09-01 13:36:20+0000', tz='UTC'), Timestamp('2021-07-25 10:44:13+0000', tz='UTC'), Timestamp('2021-08-17 03:25:01+0000', tz='UTC'), Timestamp('2021-07-11 11:01:03+0000', tz='UTC'), Timestamp('2021-09-03 02:27:42+0000', tz='UTC'), Timestamp('2021-08-20 22:07:36+0000', tz='UTC'), Timestamp('2021-08-25 04:45:35+0000', tz='UTC'), Timestamp('2021-08-25 21:40:26+0000', tz='UTC'), Timestamp('2021-08-26 10:08:05+0000', tz='UTC'), Timestamp('2021-06-06 07:43:35+0000', tz='UTC'), Timestamp('2021-07-13 23:25:31+0000', tz='UTC'), Timestamp('2021-06-09 04:56:40+0000', tz='UTC'), Timestamp('2021-06-13 09:58:42+0000', tz='UTC'), Timestamp('2021-07-06 03:16:09+0000', tz='UTC'), Timestamp('2021-08-29 18:30:08+0000', tz='UTC'), Timestamp('2021-08-28 17:54:03+0000', tz='UTC'), Timestamp('2021-06-06 17:28:39+0000', tz='UTC'), Timestamp('2021-08-25 22:27:18+0000', tz='UTC'), Timestamp('2021-08-23 19:19:43+0000', tz='UTC'), Timestamp('2021-08-20 19:04:19+0000', tz='UTC'), Timestamp('2021-06-16 14:37:49+0000', tz='UTC'), Timestamp('2021-08-26 19:13:14+0000', tz='UTC'), Timestamp('2021-06-19 18:55:30+0000', tz='UTC'), Timestamp('2021-07-25 20:32:41+0000', tz='UTC'), Timestamp('2021-08-09 18:24:52+0000', tz='UTC'), Timestamp('2021-07-22 11:10:49+0000', tz='UTC'), Timestamp('2021-07-18 23:21:13+0000', tz='UTC'), Timestamp('2021-07-18 13:31:48+0000', tz='UTC'), Timestamp('2021-08-27 18:52:31+0000', tz='UTC'), Timestamp('2021-08-22 02:27:51+0000', tz='UTC'), Timestamp('2021-08-22 18:31:29+0000', tz='UTC'), Timestamp('2021-08-26 08:53:51+0000', tz='UTC'), Timestamp('2021-07-03 19:43:34+0000', tz='UTC'), Timestamp('2021-08-25 12:20:49+0000', tz='UTC'), Timestamp('2021-08-19 20:40:53+0000', tz='UTC'), Timestamp('2021-08-17 11:01:05+0000', tz='UTC'), Timestamp('2021-06-05 22:44:19+0000', tz='UTC'), Timestamp('2021-08-24 18:12:07+0000', tz='UTC'), Timestamp('2021-06-07 09:04:49+0000', tz='UTC'), Timestamp('2021-06-23 00:25:59+0000', tz='UTC'), Timestamp('2021-08-22 19:22:43+0000', tz='UTC'), Timestamp('2021-09-03 08:31:08+0000', tz='UTC'), Timestamp('2021-08-31 11:24:40+0000', tz='UTC'), Timestamp('2021-08-05 09:20:14+0000', tz='UTC'), Timestamp('2021-07-08 03:52:34+0000', tz='UTC'), Timestamp('2021-07-03 12:14:49+0000', tz='UTC'), Timestamp('2021-08-26 07:52:10+0000', tz='UTC'), Timestamp('2021-08-16 13:24:17+0000', tz='UTC'), Timestamp('2021-07-11 13:51:12+0000', tz='UTC'), Timestamp('2021-08-03 14:40:24+0000', tz='UTC'), Timestamp('2021-08-22 06:03:55+0000', tz='UTC'), Timestamp('2021-08-24 11:57:06+0000', tz='UTC'), Timestamp('2021-08-26 04:38:53+0000', tz='UTC'), Timestamp('2021-06-11 01:56:41+0000', tz='UTC'), Timestamp('2021-06-25 15:57:47+0000', tz='UTC'), Timestamp('2021-06-11 23:39:33+0000', tz='UTC'), Timestamp('2021-09-01 09:16:42+0000', tz='UTC'), Timestamp('2021-08-28 04:44:56+0000', tz='UTC'), Timestamp('2021-09-02 10:38:14+0000', tz='UTC'), Timestamp('2021-08-01 02:02:17+0000', tz='UTC'), Timestamp('2021-08-06 07:35:28+0000', tz='UTC'), Timestamp('2021-09-01 20:00:24+0000', tz='UTC'), Timestamp('2021-07-26 22:30:47+0000', tz='UTC'), Timestamp('2021-07-18 02:35:05+0000', tz='UTC'), Timestamp('2021-08-08 17:12:31+0000', tz='UTC'), Timestamp('2021-07-20 23:19:10+0000', tz='UTC'), Timestamp('2021-08-10 10:03:37+0000', tz='UTC'), Timestamp('2021-07-02 15:11:50+0000', tz='UTC'), Timestamp('2021-09-02 14:39:42+0000', tz='UTC'), Timestamp('2021-06-12 20:04:21+0000', tz='UTC'), Timestamp('2021-08-24 08:20:39+0000', tz='UTC'), Timestamp('2021-06-13 18:46:38+0000', tz='UTC'), Timestamp('2021-08-22 17:35:10+0000', tz='UTC'), Timestamp('2021-08-18 18:30:06+0000', tz='UTC'), Timestamp('2021-08-11 22:50:39+0000', tz='UTC'), Timestamp('2021-08-27 07:55:49+0000', tz='UTC'), Timestamp('2021-08-30 21:25:22+0000', tz='UTC'), Timestamp('2021-07-08 23:18:15+0000', tz='UTC'), Timestamp('2021-06-19 18:30:14+0000', tz='UTC'), Timestamp('2021-08-26 05:12:34+0000', tz='UTC'), Timestamp('2021-08-26 12:41:11+0000', tz='UTC'), Timestamp('2021-07-22 02:42:56+0000', tz='UTC'), Timestamp('2021-08-24 11:34:26+0000', tz='UTC'), Timestamp('2021-08-04 18:18:46+0000', tz='UTC'), Timestamp('2021-08-25 03:29:10+0000', tz='UTC'), Timestamp('2021-08-20 18:12:49+0000', tz='UTC'), Timestamp('2021-08-28 20:20:42+0000', tz='UTC'), Timestamp('2021-08-21 04:26:39+0000', tz='UTC'), Timestamp('2021-08-28 03:30:04+0000', tz='UTC'), Timestamp('2021-07-07 17:38:49+0000', tz='UTC'), Timestamp('2021-08-22 13:12:26+0000', tz='UTC'), Timestamp('2021-08-22 14:12:29+0000', tz='UTC'), Timestamp('2021-08-24 00:15:46+0000', tz='UTC'), Timestamp('2021-07-30 14:18:15+0000', tz='UTC'), Timestamp('2021-07-20 20:49:13+0000', tz='UTC'), Timestamp('2021-08-31 05:48:23+0000', tz='UTC'), Timestamp('2021-08-05 06:54:11+0000', tz='UTC'), Timestamp('2021-06-19 01:40:15+0000', tz='UTC'), Timestamp('2021-07-16 02:56:17+0000', tz='UTC'), Timestamp('2021-08-25 23:53:05+0000', tz='UTC'), Timestamp('2021-06-11 20:29:30+0000', tz='UTC'), Timestamp('2021-07-16 01:42:22+0000', tz='UTC'), Timestamp('2021-07-31 20:11:42+0000', tz='UTC'), Timestamp('2021-09-03 10:23:17+0000', tz='UTC'), Timestamp('2021-06-19 22:39:28+0000', tz='UTC'), Timestamp('2021-07-14 20:48:04+0000', tz='UTC'), Timestamp('2021-08-20 07:58:29+0000', tz='UTC'), Timestamp('2021-06-28 23:32:20+0000', tz='UTC'), Timestamp('2021-06-24 21:54:13+0000', tz='UTC'), Timestamp('2021-07-30 20:55:48+0000', tz='UTC'), Timestamp('2021-08-19 14:22:17+0000', tz='UTC'), Timestamp('2021-07-11 05:29:46+0000', tz='UTC'), Timestamp('2021-08-31 22:25:01+0000', tz='UTC'), Timestamp('2021-08-11 11:07:05+0000', tz='UTC'), Timestamp('2021-07-09 10:06:37+0000', tz='UTC'), Timestamp('2021-08-24 06:03:25+0000', tz='UTC'), Timestamp('2021-09-02 16:17:40+0000', tz='UTC'), Timestamp('2021-08-26 07:00:40+0000', tz='UTC'), Timestamp('2021-07-26 21:09:00+0000', tz='UTC'), Timestamp('2021-06-11 09:38:53+0000', tz='UTC'), Timestamp('2021-08-27 15:10:01+0000', tz='UTC'), Timestamp('2021-08-20 10:52:38+0000', tz='UTC'), Timestamp('2021-06-12 19:33:27+0000', tz='UTC'), Timestamp('2021-08-14 11:14:23+0000', tz='UTC'), Timestamp('2021-08-14 10:32:23+0000', tz='UTC'), Timestamp('2021-08-27 21:02:56+0000', tz='UTC'), Timestamp('2021-08-25 23:25:13+0000', tz='UTC'), Timestamp('2021-08-19 15:56:50+0000', tz='UTC'), Timestamp('2021-07-11 00:25:02+0000', tz='UTC'), Timestamp('2021-08-29 16:25:44+0000', tz='UTC'), Timestamp('2021-08-26 01:03:53+0000', tz='UTC'), Timestamp('2021-08-26 08:07:05+0000', tz='UTC'), Timestamp('2021-08-25 05:14:13+0000', tz='UTC'), Timestamp('2021-08-20 23:19:04+0000', tz='UTC'), Timestamp('2021-08-23 02:17:36+0000', tz='UTC'), Timestamp('2021-08-31 20:36:58+0000', tz='UTC'), Timestamp('2021-09-03 13:16:28+0000', tz='UTC'), Timestamp('2021-08-16 22:31:32+0000', tz='UTC'), Timestamp('2021-08-02 21:28:18+0000', tz='UTC'), Timestamp('2021-08-29 03:05:37+0000', tz='UTC'), Timestamp('2021-08-25 18:19:10+0000', tz='UTC'), Timestamp('2021-09-03 07:16:08+0000', tz='UTC'), Timestamp('2021-08-31 08:14:40+0000', tz='UTC'), Timestamp('2021-08-20 23:16:01+0000', tz='UTC'), Timestamp('2021-07-12 22:13:33+0000', tz='UTC'), Timestamp('2021-07-08 13:29:22+0000', tz='UTC'), Timestamp('2021-09-03 13:13:25+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 17:47:36+0000', tz='UTC'), Timestamp('2021-07-23 19:40:17+0000', tz='UTC'), Timestamp('2021-06-07 23:23:53+0000', tz='UTC'), Timestamp('2021-08-07 12:55:34+0000', tz='UTC'), Timestamp('2021-07-15 22:54:01+0000', tz='UTC'), Timestamp('2021-06-09 20:13:26+0000', tz='UTC'), Timestamp('2021-06-16 17:39:53+0000', tz='UTC'), Timestamp('2021-07-28 11:53:09+0000', tz='UTC'), Timestamp('2021-06-23 14:30:53+0000', tz='UTC'), Timestamp('2021-06-23 14:31:04+0000', tz='UTC'), Timestamp('2021-07-11 12:08:06+0000', tz='UTC'), Timestamp('2021-07-11 12:08:17+0000', tz='UTC'), Timestamp('2021-08-09 18:29:06+0000', tz='UTC'), Timestamp('2021-06-30 03:22:42+0000', tz='UTC'), Timestamp('2021-07-31 13:22:41+0000', tz='UTC'), Timestamp('2021-06-27 22:35:09+0000', tz='UTC'), Timestamp('2021-07-28 11:54:28+0000', tz='UTC'), Timestamp('2021-07-13 17:47:09+0000', tz='UTC'), Timestamp('2021-08-09 01:00:17+0000', tz='UTC'), Timestamp('2021-07-31 13:20:44+0000', tz='UTC'), Timestamp('2021-07-29 20:20:08+0000', tz='UTC'), Timestamp('2021-08-09 01:00:28+0000', tz='UTC'), Timestamp('2021-07-25 22:20:50+0000', tz='UTC'), Timestamp('2021-07-29 20:18:11+0000', tz='UTC'), Timestamp('2021-06-16 17:38:55+0000', tz='UTC'), Timestamp('2021-06-20 09:24:15+0000', tz='UTC'), Timestamp('2021-06-30 03:22:04+0000', tz='UTC'), Timestamp('2021-07-23 19:40:36+0000', tz='UTC'), Timestamp('2021-07-31 13:22:03+0000', tz='UTC'), Timestamp('2021-07-23 19:43:01+0000', tz='UTC'), Timestamp('2021-07-31 13:24:28+0000', tz='UTC'), Timestamp('2021-08-09 00:59:39+0000', tz='UTC'), Timestamp('2021-07-29 20:19:08+0000', tz='UTC'), Timestamp('2021-07-11 12:08:36+0000', tz='UTC'), Timestamp('2021-07-29 20:19:30+0000', tz='UTC'), Timestamp('2021-07-30 12:03:25+0000', tz='UTC'), Timestamp('2021-08-09 00:57:53+0000', tz='UTC'), Timestamp('2021-06-20 09:22:58+0000', tz='UTC'), Timestamp('2021-06-23 14:29:26+0000', tz='UTC'), Timestamp('2021-06-23 14:29:37+0000', tz='UTC'), Timestamp('2021-06-20 09:25:12+0000', tz='UTC'), Timestamp('2021-06-23 14:29:48+0000', tz='UTC'), Timestamp('2021-08-06 21:41:41+0000', tz='UTC'), Timestamp('2021-08-07 12:54:09+0000', tz='UTC'), Timestamp('2021-06-30 03:23:01+0000', tz='UTC'), Timestamp('2021-07-23 19:41:44+0000', tz='UTC'), Timestamp('2021-06-16 17:38:17+0000', tz='UTC'), Timestamp('2021-07-15 22:54:50+0000', tz='UTC'), Timestamp('2021-07-28 11:52:22+0000', tz='UTC'), Timestamp('2021-08-09 18:31:50+0000', tz='UTC'), Timestamp('2021-07-28 11:54:47+0000', tz='UTC'), Timestamp('2021-07-13 17:47:28+0000', tz='UTC'), Timestamp('2021-07-13 17:47:39+0000', tz='UTC'), Timestamp('2021-07-30 12:03:55+0000', tz='UTC'), Timestamp('2021-06-27 22:33:42+0000', tz='UTC'), Timestamp('2021-06-27 22:33:53+0000', tz='UTC'), Timestamp('2021-07-04 21:10:05+0000', tz='UTC'), Timestamp('2021-06-06 12:30:14+0000', tz='UTC'), Timestamp('2021-07-23 19:42:03+0000', tz='UTC'), Timestamp('2021-07-29 20:20:27+0000', tz='UTC'), Timestamp('2021-07-31 13:21:03+0000', tz='UTC'), Timestamp('2021-06-23 14:30:45+0000', tz='UTC'), Timestamp('2021-07-31 13:21:25+0000', tz='UTC'), Timestamp('2021-06-07 23:24:24+0000', tz='UTC'), Timestamp('2021-08-09 00:57:17+0000', tz='UTC'), Timestamp('2021-06-20 09:24:45+0000', tz='UTC'), Timestamp('2021-06-16 17:39:14+0000', tz='UTC'), Timestamp('2021-06-16 17:39:25+0000', tz='UTC'), Timestamp('2021-06-16 17:39:36+0000', tz='UTC'), Timestamp('2021-06-20 09:24:34+0000', tz='UTC'), Timestamp('2021-06-20 09:24:56+0000', tz='UTC'), Timestamp('2021-08-07 12:53:31+0000', tz='UTC'), Timestamp('2021-06-16 17:37:39+0000', tz='UTC'), Timestamp('2021-06-27 22:34:50+0000', tz='UTC'), Timestamp('2021-06-09 20:13:48+0000', tz='UTC'), Timestamp('2021-07-31 13:22:22+0000', tz='UTC'), Timestamp('2021-07-31 13:24:47+0000', tz='UTC'), Timestamp('2021-08-09 01:00:09+0000', tz='UTC'), Timestamp('2021-07-25 22:20:42+0000', tz='UTC'), Timestamp('2021-07-28 11:52:23+0000', tz='UTC'), Timestamp('2021-08-09 00:58:12+0000', tz='UTC'), Timestamp('2021-08-09 18:33:28+0000', tz='UTC'), Timestamp('2021-07-13 17:47:29+0000', tz='UTC'), Timestamp('2021-07-30 12:02:09+0000', tz='UTC'), Timestamp('2021-06-06 12:30:15+0000', tz='UTC'), Timestamp('2021-08-07 12:54:28+0000', tz='UTC'), Timestamp('2021-08-07 12:54:39+0000', tz='UTC'), Timestamp('2021-07-15 22:55:09+0000', tz='UTC'), Timestamp('2021-07-29 20:17:54+0000', tz='UTC'), Timestamp('2021-07-31 13:21:44+0000', tz='UTC'), Timestamp('2021-07-04 21:10:24+0000', tz='UTC'), Timestamp('2021-07-28 11:53:31+0000', tz='UTC'), Timestamp('2021-06-07 23:24:43+0000', tz='UTC'), Timestamp('2021-06-07 23:24:54+0000', tz='UTC'), Timestamp('2021-08-09 00:57:34+0000', tz='UTC'), Timestamp('2021-08-09 18:30:36+0000', tz='UTC'), Timestamp('2021-08-09 18:32:50+0000', tz='UTC'), Timestamp('2021-06-16 17:39:55+0000', tz='UTC'), Timestamp('2021-06-20 09:25:04+0000', tz='UTC'), Timestamp('2021-06-20 09:25:15+0000', tz='UTC'), Timestamp('2021-08-06 21:41:22+0000', tz='UTC'), Timestamp('2021-08-06 21:41:33+0000', tz='UTC'), Timestamp('2021-08-07 12:53:50+0000', tz='UTC'), Timestamp('2021-06-16 17:37:58+0000', tz='UTC'), Timestamp('2021-06-16 17:38:20+0000', tz='UTC'), Timestamp('2021-06-20 09:23:29+0000', tz='UTC'), Timestamp('2021-07-15 22:54:42+0000', tz='UTC'), Timestamp('2021-08-07 12:52:15+0000', tz='UTC'), Timestamp('2021-07-25 22:21:01+0000', tz='UTC'), Timestamp('2021-08-09 18:31:33+0000', tz='UTC'), Timestamp('2021-06-07 23:24:16+0000', tz='UTC'), Timestamp('2021-08-06 21:42:30+0000', tz='UTC'), Timestamp('2021-07-23 19:42:06+0000', tz='UTC'), Timestamp('2021-08-09 00:56:56+0000', tz='UTC'), Timestamp('2021-08-09 18:29:58+0000', tz='UTC'), Timestamp('2021-08-09 18:32:12+0000', tz='UTC'), Timestamp('2021-08-06 21:40:44+0000', tz='UTC'), Timestamp('2021-08-06 21:40:55+0000', tz='UTC'), Timestamp('2021-07-29 20:18:13+0000', tz='UTC'), Timestamp('2021-07-29 20:18:24+0000', tz='UTC'), Timestamp('2021-08-07 12:53:12+0000', tz='UTC'), Timestamp('2021-07-28 11:50:47+0000', tz='UTC'), Timestamp('2021-08-07 12:55:26+0000', tz='UTC'), Timestamp('2021-06-16 17:39:45+0000', tz='UTC'), Timestamp('2021-06-16 17:39:56+0000', tz='UTC'), Timestamp('2021-06-23 14:31:07+0000', tz='UTC'), Timestamp('2021-07-11 12:08:20+0000', tz='UTC'), Timestamp('2021-08-07 12:53:51+0000', tz='UTC'), Timestamp('2021-06-27 22:32:56+0000', tz='UTC'), Timestamp('2021-06-30 03:22:06+0000', tz='UTC'), Timestamp('2021-07-25 22:20:23+0000', tz='UTC'), Timestamp('2021-07-23 19:43:03+0000', tz='UTC'), Timestamp('2021-08-09 18:33:31+0000', tz='UTC'), Timestamp('2021-07-31 13:24:19+0000', tz='UTC'), Timestamp('2021-08-06 21:42:03+0000', tz='UTC'), Timestamp('2021-06-06 12:29:56+0000', tz='UTC'), Timestamp('2021-08-09 18:31:34+0000', tz='UTC'), Timestamp('2021-06-27 22:35:12+0000', tz='UTC'), Timestamp('2021-07-28 11:52:06+0000', tz='UTC'), Timestamp('2021-07-15 22:55:01+0000', tz='UTC'), Timestamp('2021-08-07 12:52:34+0000', tz='UTC'), Timestamp('2021-06-07 23:23:18+0000', tz='UTC'), Timestamp('2021-08-07 12:54:48+0000', tz='UTC'), Timestamp('2021-07-15 22:53:26+0000', tz='UTC'), Timestamp('2021-08-07 12:55:24+0000', tz='UTC'), Timestamp('2021-07-30 12:02:20+0000', tz='UTC'), Timestamp('2021-07-25 22:19:34+0000', tz='UTC'), Timestamp('2021-07-25 22:19:45+0000', tz='UTC'), Timestamp('2021-08-09 18:32:42+0000', tz='UTC'), Timestamp('2021-08-06 21:41:14+0000', tz='UTC'), Timestamp('2021-08-09 00:55:40+0000', tz='UTC'), Timestamp('2021-06-30 03:21:56+0000', tz='UTC'), Timestamp('2021-07-23 19:40:50+0000', tz='UTC'), Timestamp('2021-07-31 13:22:06+0000', tz='UTC'), Timestamp('2021-07-23 19:43:04+0000', tz='UTC'), Timestamp('2021-07-28 11:51:28+0000', tz='UTC'), Timestamp('2021-06-16 17:38:01+0000', tz='UTC'), Timestamp('2021-06-20 09:23:21+0000', tz='UTC'), Timestamp('2021-07-15 22:54:34+0000', tz='UTC'), Timestamp('2021-07-31 13:24:20+0000', tz='UTC'), Timestamp('2021-07-31 13:20:09+0000', tz='UTC'), Timestamp('2021-07-30 12:03:17+0000', tz='UTC'), Timestamp('2021-08-07 12:51:45+0000', tz='UTC'), Timestamp('2021-06-13 18:44:46+0000', tz='UTC'), Timestamp('2021-06-30 03:22:53+0000', tz='UTC'), Timestamp('2021-06-30 03:23:04+0000', tz='UTC'), Timestamp('2021-07-31 13:23:03+0000', tz='UTC'), Timestamp('2021-07-28 11:52:25+0000', tz='UTC'), Timestamp('2021-08-09 18:31:53+0000', tz='UTC'), Timestamp('2021-07-28 11:54:39+0000', tz='UTC'), Timestamp('2021-06-30 03:21:18+0000', tz='UTC'), Timestamp('2021-07-13 17:47:31+0000', tz='UTC'), Timestamp('2021-07-23 19:40:01+0000', tz='UTC'), Timestamp('2021-06-27 22:33:45+0000', tz='UTC'), Timestamp('2021-07-28 11:50:28+0000', tz='UTC'), Timestamp('2021-08-07 12:55:18+0000', tz='UTC'), Timestamp('2021-07-28 11:53:04+0000', tz='UTC'), Timestamp('2021-06-09 20:13:21+0000', tz='UTC'), Timestamp('2021-06-16 17:39:37+0000', tz='UTC'), Timestamp('2021-08-07 12:55:29+0000', tz='UTC'), Timestamp('2021-06-23 14:30:48+0000', tz='UTC'), Timestamp('2021-07-30 12:02:39+0000', tz='UTC'), Timestamp('2021-07-30 12:02:50+0000', tz='UTC'), Timestamp('2021-08-06 21:42:52+0000', tz='UTC'), Timestamp('2021-08-09 00:59:04+0000', tz='UTC'), Timestamp('2021-07-25 22:20:04+0000', tz='UTC'), Timestamp('2021-07-23 19:42:55+0000', tz='UTC'), Timestamp('2021-08-09 18:32:33+0000', tz='UTC'), Timestamp('2021-06-13 18:44:47+0000', tz='UTC'), Timestamp('2021-06-30 03:22:15+0000', tz='UTC'), Timestamp('2021-06-30 03:22:26+0000', tz='UTC'), Timestamp('2021-06-30 03:22:37+0000', tz='UTC'), Timestamp('2021-06-27 22:35:04+0000', tz='UTC'), Timestamp('2021-07-28 11:51:47+0000', tz='UTC'), Timestamp('2021-07-31 13:24:39+0000', tz='UTC'), Timestamp('2021-08-09 18:31:15+0000', tz='UTC'), Timestamp('2021-07-13 17:47:04+0000', tz='UTC'), Timestamp('2021-08-09 01:00:12+0000', tz='UTC'), Timestamp('2021-07-29 20:19:41+0000', tz='UTC'), Timestamp('2021-07-25 22:20:34+0000', tz='UTC'), Timestamp('2021-08-09 00:58:26+0000', tz='UTC'), Timestamp('2021-06-23 14:29:59+0000', tz='UTC'), Timestamp('2021-06-23 14:30:10+0000', tz='UTC'), Timestamp('2021-07-11 12:07:12+0000', tz='UTC'), Timestamp('2021-07-11 12:07:23+0000', tz='UTC'), Timestamp('2021-07-11 12:07:34+0000', tz='UTC'), Timestamp('2021-06-13 18:45:55+0000', tz='UTC'), Timestamp('2021-08-06 21:41:06+0000', tz='UTC'), Timestamp('2021-07-31 13:21:47+0000', tz='UTC'), Timestamp('2021-06-27 22:34:04+0000', tz='UTC'), Timestamp('2021-06-27 22:34:15+0000', tz='UTC'), Timestamp('2021-06-16 17:37:42+0000', tz='UTC'), Timestamp('2021-06-27 22:34:26+0000', tz='UTC'), Timestamp('2021-07-04 21:10:16+0000', tz='UTC'), Timestamp('2021-06-16 17:40:07+0000', tz='UTC'), Timestamp('2021-07-23 19:42:56+0000', tz='UTC'), Timestamp('2021-07-28 11:51:09+0000', tz='UTC'), Timestamp('2021-07-28 11:53:23+0000', tz='UTC'), Timestamp('2021-07-28 11:53:34+0000', tz='UTC'), Timestamp('2021-06-07 23:24:57+0000', tz='UTC'), Timestamp('2021-07-25 22:19:56+0000', tz='UTC'), Timestamp('2021-08-09 00:57:37+0000', tz='UTC'), Timestamp('2021-07-30 12:01:23+0000', tz='UTC'), Timestamp('2021-06-20 09:25:18+0000', tz='UTC'), Timestamp('2021-06-13 18:45:06+0000', tz='UTC'), Timestamp('2021-06-13 18:45:17+0000', tz='UTC'), Timestamp('2021-06-30 03:22:56+0000', tz='UTC'), Timestamp('2021-07-28 11:54:31+0000', tz='UTC'), Timestamp('2021-07-13 17:47:12+0000', tz='UTC'), Timestamp('2021-07-31 13:21:09+0000', tz='UTC'), Timestamp('2021-07-29 20:20:22+0000', tz='UTC'), Timestamp('2021-08-09 00:56:20+0000', tz='UTC'), Timestamp('2021-07-25 22:20:53+0000', tz='UTC'), Timestamp('2021-07-29 20:18:36+0000', tz='UTC'), Timestamp('2021-07-30 12:02:31+0000', tz='UTC'), Timestamp('2021-06-30 03:21:01+0000', tz='UTC'), Timestamp('2021-08-06 21:42:44+0000', tz='UTC'), Timestamp('2021-08-07 12:53:15+0000', tz='UTC'), Timestamp('2021-07-23 19:41:01+0000', tz='UTC'), Timestamp('2021-07-30 12:03:01+0000', tz='UTC'), Timestamp('2021-07-29 20:19:33+0000', tz='UTC'), Timestamp('2021-07-25 22:20:15+0000', tz='UTC'), Timestamp('2021-07-28 11:52:07+0000', tz='UTC'), Timestamp('2021-08-09 18:30:58+0000', tz='UTC'), Timestamp('2021-08-09 18:33:23+0000', tz='UTC'), Timestamp('2021-06-06 12:29:59+0000', tz='UTC'), Timestamp('2021-06-16 17:38:31+0000', tz='UTC'), Timestamp('2021-06-16 17:38:42+0000', tz='UTC'), Timestamp('2021-06-20 09:24:02+0000', tz='UTC'), Timestamp('2021-07-15 22:55:04+0000', tz='UTC'), Timestamp('2021-07-31 13:21:28+0000', tz='UTC'), Timestamp('2021-07-04 21:10:19+0000', tz='UTC'), Timestamp('2021-08-09 00:59:15+0000', tz='UTC'), Timestamp('2021-07-29 20:19:06+0000', tz='UTC'), Timestamp('2021-06-07 23:24:49+0000', tz='UTC'), Timestamp('2021-06-07 23:24:38+0000', tz='UTC'), Timestamp('2021-07-25 22:19:37+0000', tz='UTC'), Timestamp('2021-08-07 12:55:31+0000', tz='UTC'), Timestamp('2021-06-23 14:29:13+0000', tz='UTC'), Timestamp('2021-06-23 14:29:24+0000', tz='UTC'), Timestamp('2021-08-09 00:57:18+0000', tz='UTC'), Timestamp('2021-06-16 17:39:39+0000', tz='UTC'), Timestamp('2021-06-20 09:24:59+0000', tz='UTC'), Timestamp('2021-06-20 09:25:10+0000', tz='UTC'), Timestamp('2021-08-07 12:53:34+0000', tz='UTC'), Timestamp('2021-07-15 22:54:26+0000', tz='UTC'), Timestamp('2021-08-07 12:51:48+0000', tz='UTC'), Timestamp('2021-07-30 12:03:20+0000', tz='UTC'), Timestamp('2021-07-11 12:08:42+0000', tz='UTC'), Timestamp('2021-06-30 03:22:28+0000', tz='UTC'), Timestamp('2021-07-25 22:20:56+0000', tz='UTC'), Timestamp('2021-08-09 18:33:42+0000', tz='UTC'), Timestamp('2021-06-23 14:30:21+0000', tz='UTC'), Timestamp('2021-07-13 17:47:43+0000', tz='UTC'), Timestamp('2021-06-07 23:24:00+0000', tz='UTC'), Timestamp('2021-06-13 18:45:28+0000', tz='UTC'), Timestamp('2021-06-30 03:23:07+0000', tz='UTC'), Timestamp('2021-06-06 12:30:18+0000', tz='UTC'), Timestamp('2021-07-25 22:19:10+0000', tz='UTC'), Timestamp('2021-08-06 21:42:36+0000', tz='UTC'), Timestamp('2021-07-23 19:40:04+0000', tz='UTC'), Timestamp('2021-08-07 12:52:56+0000', tz='UTC'), Timestamp('2021-08-07 12:55:21+0000', tz='UTC'), Timestamp('2021-06-09 20:13:13+0000', tz='UTC'), Timestamp('2021-06-16 17:39:40+0000', tz='UTC'), Timestamp('2021-08-07 12:51:21+0000', tz='UTC'), Timestamp('2021-07-30 12:02:42+0000', tz='UTC'), Timestamp('2021-07-23 19:42:58+0000', tz='UTC'), Timestamp('2021-08-09 00:56:02+0000', tz='UTC'), Timestamp('2021-07-23 19:41:12+0000', tz='UTC'), Timestamp('2021-06-06 12:29:51+0000', tz='UTC'), Timestamp('2021-07-29 20:19:16+0000', tz='UTC'), Timestamp('2021-06-27 22:34:56+0000', tz='UTC'), Timestamp('2021-06-27 22:35:07+0000', tz='UTC'), Timestamp('2021-07-28 11:51:50+0000', tz='UTC'), Timestamp('2021-07-15 22:55:07+0000', tz='UTC'), Timestamp('2021-07-11 12:06:47+0000', tz='UTC'), Timestamp('2021-07-30 12:03:50+0000', tz='UTC'), Timestamp('2021-06-13 18:45:19+0000', tz='UTC'), Timestamp('2021-06-23 14:30:13+0000', tz='UTC'), Timestamp('2021-06-07 23:24:30+0000', tz='UTC'), Timestamp('2021-06-13 18:45:47+0000', tz='UTC'), Timestamp('2021-06-13 18:45:58+0000', tz='UTC'), Timestamp('2021-07-23 19:42:09+0000', tz='UTC'), Timestamp('2021-07-04 21:09:51+0000', tz='UTC'), Timestamp('2021-08-06 21:42:55+0000', tz='UTC'), Timestamp('2021-08-09 00:55:35+0000', tz='UTC'), Timestamp('2021-07-28 11:51:12+0000', tz='UTC'), Timestamp('2021-07-31 13:23:19+0000', tz='UTC'), Timestamp('2021-07-15 22:54:18+0000', tz='UTC'), Timestamp('2021-06-09 20:13:43+0000', tz='UTC'), Timestamp('2021-06-23 14:31:10+0000', tz='UTC'), Timestamp('2021-07-11 12:08:34+0000', tz='UTC'), Timestamp('2021-07-29 20:19:17+0000', tz='UTC'), Timestamp('2021-07-25 22:20:37+0000', tz='UTC'), Timestamp('2021-07-30 12:01:37+0000', tz='UTC'), Timestamp('2021-07-11 12:06:37+0000', tz='UTC'), Timestamp('2021-08-09 18:33:45+0000', tz='UTC'), Timestamp('2021-06-20 09:25:21+0000', tz='UTC'), Timestamp('2021-06-30 03:22:59+0000', tz='UTC'), Timestamp('2021-07-23 19:41:31+0000', tz='UTC'), Timestamp('2021-07-23 19:41:42+0000', tz='UTC'), Timestamp('2021-06-27 22:35:15+0000', tz='UTC'), Timestamp('2021-07-31 13:22:58+0000', tz='UTC'), Timestamp('2021-06-16 17:38:53+0000', tz='UTC'), Timestamp('2021-07-28 11:54:34+0000', tz='UTC'), Timestamp('2021-06-07 23:23:32+0000', tz='UTC'), Timestamp('2021-06-07 23:23:43+0000', tz='UTC'), Timestamp('2021-06-07 23:23:54+0000', tz='UTC'), Timestamp('2021-07-04 21:09:52+0000', tz='UTC'), Timestamp('2021-07-15 22:53:40+0000', tz='UTC'), Timestamp('2021-07-29 20:20:14+0000', tz='UTC'), Timestamp('2021-07-29 20:20:25+0000', tz='UTC'), Timestamp('2021-06-23 14:30:32+0000', tz='UTC'), Timestamp('2021-06-23 14:30:43+0000', tz='UTC'), Timestamp('2021-07-11 12:07:45+0000', tz='UTC'), Timestamp('2021-07-11 12:07:56+0000', tz='UTC'), Timestamp('2021-07-04 21:10:21+0000', tz='UTC'), Timestamp('2021-07-31 13:22:20+0000', tz='UTC'), Timestamp('2021-06-27 22:34:37+0000', tz='UTC'), Timestamp('2021-06-27 22:34:48+0000', tz='UTC'), Timestamp('2021-07-28 11:51:31+0000', tz='UTC'), Timestamp('2021-07-15 22:54:48+0000', tz='UTC'), Timestamp('2021-08-09 01:00:07+0000', tz='UTC'), Timestamp('2021-07-31 13:20:23+0000', tz='UTC'), Timestamp('2021-07-29 20:19:36+0000', tz='UTC'), Timestamp('2021-07-29 20:19:47+0000', tz='UTC'), Timestamp('2021-07-30 12:03:42+0000', tz='UTC'), Timestamp('2021-08-09 00:58:10+0000', tz='UTC'), Timestamp('2021-07-30 12:01:45+0000', tz='UTC'), Timestamp('2021-07-30 12:01:56+0000', tz='UTC'), Timestamp('2021-07-30 12:02:07+0000', tz='UTC'), Timestamp('2021-06-13 18:45:39+0000', tz='UTC'), Timestamp('2021-07-23 19:40:15+0000', tz='UTC'), Timestamp('2021-07-04 21:10:11+0000', tz='UTC'), Timestamp('2021-07-15 22:54:10+0000', tz='UTC'), Timestamp('2021-07-28 11:53:18+0000', tz='UTC'), Timestamp('2021-08-09 00:59:07+0000', tz='UTC'), Timestamp('2021-06-23 14:31:02+0000', tz='UTC'), Timestamp('2021-06-23 14:31:13+0000', tz='UTC'), Timestamp('2021-06-07 23:24:41+0000', tz='UTC'), Timestamp('2021-06-07 23:24:52+0000', tz='UTC'), Timestamp('2021-07-28 11:51:32+0000', tz='UTC'), Timestamp('2021-08-09 18:33:26+0000', tz='UTC'), Timestamp('2021-06-20 09:25:13+0000', tz='UTC'), Timestamp('2021-08-07 12:53:48+0000', tz='UTC'), Timestamp('2021-08-09 18:29:15+0000', tz='UTC'), Timestamp('2021-06-30 03:22:40+0000', tz='UTC'), Timestamp('2021-07-23 19:41:23+0000', tz='UTC'), Timestamp('2021-07-31 13:22:39+0000', tz='UTC'), Timestamp('2021-07-11 12:06:20+0000', tz='UTC'), Timestamp('2021-07-28 11:54:37+0000', tz='UTC'), Timestamp('2021-07-31 13:20:42+0000', tz='UTC'), Timestamp('2021-06-27 22:33:32+0000', tz='UTC'), Timestamp('2021-07-28 11:50:15+0000', tz='UTC'), Timestamp('2021-06-06 12:29:53+0000', tz='UTC'), Timestamp('2021-06-06 12:30:04+0000', tz='UTC'), Timestamp('2021-07-25 22:20:48+0000', tz='UTC'), Timestamp('2021-07-28 11:52:40+0000', tz='UTC'), Timestamp('2021-08-09 00:58:29+0000', tz='UTC'), Timestamp('2021-06-30 03:20:45+0000', tz='UTC'), Timestamp('2021-08-09 18:29:45+0000', tz='UTC'), Timestamp('2021-06-20 09:24:35+0000', tz='UTC'), Timestamp('2021-06-16 17:39:04+0000', tz='UTC'), Timestamp('2021-06-16 17:39:15+0000', tz='UTC'), Timestamp('2021-06-13 18:44:34+0000', tz='UTC'), Timestamp('2021-06-20 09:24:13+0000', tz='UTC'), Timestamp('2021-06-20 09:24:24+0000', tz='UTC'), Timestamp('2021-08-07 12:55:13+0000', tz='UTC'), Timestamp('2021-07-23 19:42:59+0000', tz='UTC'), Timestamp('2021-07-23 19:43:10+0000', tz='UTC'), Timestamp('2021-07-31 13:24:26+0000', tz='UTC'), Timestamp('2021-07-28 11:53:59+0000', tz='UTC'), Timestamp('2021-07-31 13:24:37+0000', tz='UTC'), Timestamp('2021-07-31 13:20:04+0000', tz='UTC'), Timestamp('2021-06-13 18:44:03+0000', tz='UTC'), Timestamp('2021-06-27 22:32:54+0000', tz='UTC'), Timestamp('2021-08-09 18:30:42+0000', tz='UTC'), Timestamp('2021-08-09 00:57:51+0000', tz='UTC'), Timestamp('2021-08-09 18:33:18+0000', tz='UTC'), Timestamp('2021-06-06 12:29:54+0000', tz='UTC'), Timestamp('2021-08-07 12:54:07+0000', tz='UTC'), Timestamp('2021-07-15 22:54:59+0000', tz='UTC'), Timestamp('2021-07-15 22:55:10+0000', tz='UTC'), Timestamp('2021-07-11 12:06:39+0000', tz='UTC'), Timestamp('2021-07-29 20:17:33+0000', tz='UTC'), Timestamp('2021-07-13 17:47:37+0000', tz='UTC'), Timestamp('2021-07-30 12:03:53+0000', tz='UTC'), Timestamp('2021-07-30 12:04:04+0000', tz='UTC'), Timestamp('2021-07-04 21:10:14+0000', tz='UTC'), Timestamp('2021-06-23 14:30:54+0000', tz='UTC'), Timestamp('2021-06-07 23:24:22+0000', tz='UTC'), Timestamp('2021-06-07 23:24:44+0000', tz='UTC'), Timestamp('2021-08-06 21:42:47+0000', tz='UTC'), Timestamp('2021-07-31 13:23:28+0000', tz='UTC'), Timestamp('2021-06-20 09:24:54+0000', tz='UTC'), Timestamp('2021-06-16 17:37:37+0000', tz='UTC'), Timestamp('2021-06-09 20:13:46+0000', tz='UTC'), Timestamp('2021-07-11 12:06:23+0000', tz='UTC'), Timestamp('2021-07-28 11:54:18+0000', tz='UTC'), Timestamp('2021-07-30 12:03:15+0000', tz='UTC'), Timestamp('2021-07-11 12:08:26+0000', tz='UTC'), Timestamp('2021-07-11 12:08:37+0000', tz='UTC'), Timestamp('2021-06-27 22:33:13+0000', tz='UTC'), Timestamp('2021-07-30 12:03:26+0000', tz='UTC'), Timestamp('2021-07-25 22:20:51+0000', tz='UTC'), Timestamp('2021-08-09 18:33:37+0000', tz='UTC'), Timestamp('2021-07-13 17:47:38+0000', tz='UTC'), Timestamp('2021-08-09 18:33:48+0000', tz='UTC'), Timestamp('2021-07-25 22:18:54+0000', tz='UTC'), Timestamp('2021-08-06 21:42:09+0000', tz='UTC'), Timestamp('2021-08-09 00:56:35+0000', tz='UTC'), Timestamp('2021-08-09 18:31:51+0000', tz='UTC'), Timestamp('2021-07-29 20:17:52+0000', tz='UTC'), Timestamp('2021-06-09 20:13:19+0000', tz='UTC'), Timestamp('2021-07-31 13:20:07+0000', tz='UTC'), Timestamp('2021-06-13 18:44:06+0000', tz='UTC'), Timestamp('2021-06-30 03:21:45+0000', tz='UTC'), Timestamp('2021-07-25 22:20:13+0000', tz='UTC'), Timestamp('2021-08-09 00:57:54+0000', tz='UTC'), Timestamp('2021-07-23 19:42:53+0000', tz='UTC'), Timestamp('2021-06-23 14:29:38+0000', tz='UTC'), Timestamp('2021-06-16 17:40:04+0000', tz='UTC'), Timestamp('2021-08-06 21:41:31+0000', tz='UTC'), Timestamp('2021-08-06 21:41:42+0000', tz='UTC'), Timestamp('2021-06-06 12:29:46+0000', tz='UTC'), Timestamp('2021-07-31 13:22:23+0000', tz='UTC'), Timestamp('2021-06-27 22:34:51+0000', tz='UTC'), Timestamp('2021-08-09 00:56:08+0000', tz='UTC'), Timestamp('2021-06-16 17:38:18+0000', tz='UTC'), Timestamp('2021-06-20 09:23:38+0000', tz='UTC'), Timestamp('2021-07-15 22:54:51+0000', tz='UTC'), Timestamp('2021-07-30 12:01:20+0000', tz='UTC'), Timestamp('2021-07-29 20:19:39+0000', tz='UTC'), Timestamp('2021-07-30 12:03:45+0000', tz='UTC'), Timestamp('2021-07-30 12:03:56+0000', tz='UTC'), Timestamp('2021-08-07 12:54:38+0000', tz='UTC'), Timestamp('2021-07-11 12:07:10+0000', tz='UTC'), Timestamp('2021-06-13 18:45:42+0000', tz='UTC'), Timestamp('2021-07-25 22:19:24+0000', tz='UTC'), Timestamp('2021-07-23 19:42:15+0000', tz='UTC'), Timestamp('2021-08-06 21:42:50+0000', tz='UTC'), Timestamp('2021-07-31 13:23:20+0000', tz='UTC'), Timestamp('2021-07-28 11:52:42+0000', tz='UTC'), Timestamp('2021-07-31 13:23:31+0000', tz='UTC'), Timestamp('2021-08-06 21:41:04+0000', tz='UTC'), Timestamp('2021-08-09 00:57:16+0000', tz='UTC'), Timestamp('2021-07-23 19:40:18+0000', tz='UTC'), Timestamp('2021-08-09 18:32:10+0000', tz='UTC'), Timestamp('2021-07-31 13:21:45+0000', tz='UTC'), Timestamp('2021-07-28 11:51:07+0000', tz='UTC'), Timestamp('2021-08-07 12:55:35+0000', tz='UTC'), Timestamp('2021-07-15 22:54:02+0000', tz='UTC'), Timestamp('2021-06-09 20:13:38+0000', tz='UTC'), Timestamp('2021-06-09 20:13:49+0000', tz='UTC'), Timestamp('2021-06-16 17:39:54+0000', tz='UTC'), Timestamp('2021-06-23 14:31:05+0000', tz='UTC'), Timestamp('2021-07-11 12:08:07+0000', tz='UTC'), Timestamp('2021-07-11 12:08:18+0000', tz='UTC'), Timestamp('2021-06-13 18:44:25+0000', tz='UTC'), Timestamp('2021-07-28 11:53:21+0000', tz='UTC'), Timestamp('2021-07-25 22:20:32+0000', tz='UTC'), Timestamp('2021-08-09 18:33:29+0000', tz='UTC'), Timestamp('2021-06-20 09:25:05+0000', tz='UTC'), Timestamp('2021-08-06 21:41:13+0000', tz='UTC'), Timestamp('2021-06-30 03:22:54+0000', tz='UTC'), Timestamp('2021-07-31 13:22:42+0000', tz='UTC'), Timestamp('2021-06-27 22:35:10+0000', tz='UTC'), Timestamp('2021-07-28 11:52:04+0000', tz='UTC'), Timestamp('2021-08-06 21:40:15+0000', tz='UTC'), Timestamp('2021-07-28 11:54:29+0000', tz='UTC'), Timestamp('2021-07-29 20:17:55+0000', tz='UTC'), Timestamp('2021-07-29 20:20:20+0000', tz='UTC'), Timestamp('2021-07-15 22:53:24+0000', tz='UTC'), Timestamp('2021-07-28 11:52:43+0000', tz='UTC'), Timestamp('2021-06-16 17:39:27+0000', tz='UTC'), Timestamp('2021-07-29 20:18:23+0000', tz='UTC'), Timestamp('2021-07-30 12:02:29+0000', tz='UTC'), Timestamp('2021-07-30 12:02:40+0000', tz='UTC'), Timestamp('2021-06-13 18:46:01+0000', tz='UTC'), Timestamp('2021-08-09 00:57:35+0000', tz='UTC'), Timestamp('2021-08-09 18:32:40+0000', tz='UTC'), Timestamp('2021-08-09 18:32:51+0000', tz='UTC'), Timestamp('2021-08-06 21:41:23+0000', tz='UTC'), Timestamp('2021-06-30 03:21:54+0000', tz='UTC'), Timestamp('2021-06-30 03:22:05+0000', tz='UTC'), Timestamp('2021-06-30 03:22:16+0000', tz='UTC'), Timestamp('2021-07-23 19:40:48+0000', tz='UTC'), Timestamp('2021-07-31 13:22:04+0000', tz='UTC'), Timestamp('2021-07-31 13:24:29+0000', tz='UTC'), Timestamp('2021-07-28 11:49:40+0000', tz='UTC'), Timestamp('2021-07-29 20:19:42+0000', tz='UTC'), Timestamp('2021-06-23 14:29:49+0000', tz='UTC'), Timestamp('2021-06-20 09:25:24+0000', tz='UTC'), Timestamp('2021-08-07 12:54:10+0000', tz='UTC'), Timestamp('2021-07-31 13:23:12+0000', tz='UTC'), Timestamp('2021-07-15 22:55:02+0000', tz='UTC'), Timestamp('2021-07-28 11:54:48+0000', tz='UTC'), Timestamp('2021-07-13 17:47:40+0000', tz='UTC'), Timestamp('2021-07-23 19:39:59+0000', tz='UTC'), Timestamp('2021-07-31 13:21:26+0000', tz='UTC'), Timestamp('2021-06-07 23:24:08+0000', tz='UTC'), Timestamp('2021-06-27 22:33:43+0000', tz='UTC'), Timestamp('2021-06-27 22:33:54+0000', tz='UTC'), Timestamp('2021-06-27 22:34:05+0000', tz='UTC'), Timestamp('2021-07-04 21:10:06+0000', tz='UTC'), Timestamp('2021-06-16 17:39:57+0000', tz='UTC'), Timestamp('2021-07-04 21:10:17+0000', tz='UTC'), Timestamp('2021-06-23 14:30:46+0000', tz='UTC'), Timestamp('2021-06-23 14:31:08+0000', tz='UTC'), Timestamp('2021-07-15 22:53:54+0000', tz='UTC'), Timestamp('2021-07-25 22:19:35+0000', tz='UTC'), Timestamp('2021-08-09 00:59:02+0000', tz='UTC'), Timestamp('2021-08-09 00:59:13+0000', tz='UTC'), Timestamp('2021-06-16 17:39:26+0000', tz='UTC'), Timestamp('2021-06-20 09:24:46+0000', tz='UTC'), Timestamp('2021-06-20 09:24:57+0000', tz='UTC'), Timestamp('2021-06-13 18:44:56+0000', tz='UTC'), Timestamp('2021-08-06 21:41:53+0000', tz='UTC'), Timestamp('2021-08-07 12:53:32+0000', tz='UTC'), Timestamp('2021-08-09 18:31:35+0000', tz='UTC'), Timestamp('2021-06-27 22:35:02+0000', tz='UTC'), Timestamp('2021-07-29 20:17:36+0000', tz='UTC'), Timestamp('2021-08-09 01:00:10+0000', tz='UTC'), Timestamp('2021-07-31 13:20:48+0000', tz='UTC'), Timestamp('2021-06-07 23:23:30+0000', tz='UTC'), Timestamp('2021-08-09 01:00:21+0000', tz='UTC'), Timestamp('2021-06-06 12:29:48+0000', tz='UTC'), Timestamp('2021-07-28 11:52:24+0000', tz='UTC'), Timestamp('2021-08-09 18:33:40+0000', tz='UTC'), Timestamp('2021-07-30 12:02:10+0000', tz='UTC'), Timestamp('2021-07-11 12:07:32+0000', tz='UTC'), Timestamp('2021-07-30 12:02:21+0000', tz='UTC'), Timestamp('2021-08-09 00:56:38+0000', tz='UTC'), Timestamp('2021-06-13 18:45:53+0000', tz='UTC'), Timestamp('2021-06-13 18:46:04+0000', tz='UTC'), Timestamp('2021-08-07 12:54:40+0000', tz='UTC'), Timestamp('2021-08-07 12:52:54+0000', tz='UTC'), Timestamp('2021-08-07 12:55:19+0000', tz='UTC'), Timestamp('2021-07-23 19:42:54+0000', tz='UTC'), Timestamp('2021-07-23 19:43:05+0000', tz='UTC'), Timestamp('2021-07-31 13:24:10+0000', tz='UTC'), Timestamp('2021-07-28 11:53:32+0000', tz='UTC'), Timestamp('2021-07-31 13:24:21+0000', tz='UTC'), Timestamp('2021-08-09 00:55:32+0000', tz='UTC'), Timestamp('2021-07-25 22:19:54+0000', tz='UTC'), Timestamp('2021-07-25 22:20:05+0000', tz='UTC'), Timestamp('2021-06-20 09:23:02+0000', tz='UTC'), Timestamp('2021-08-09 01:00:11+0000', tz='UTC'), Timestamp('2021-06-07 23:23:20+0000', tz='UTC'), Timestamp('2021-06-20 09:25:16+0000', tz='UTC'), Timestamp('2021-06-20 09:23:41+0000', tz='UTC'), Timestamp('2021-07-15 22:54:54+0000', tz='UTC'), Timestamp('2021-07-13 17:47:32+0000', tz='UTC'), Timestamp('2021-07-30 12:03:59+0000', tz='UTC'), Timestamp('2021-07-04 21:09:58+0000', tz='UTC'), Timestamp('2021-07-04 21:10:09+0000', tz='UTC'), Timestamp('2021-08-09 00:58:54+0000', tz='UTC'), Timestamp('2021-08-09 00:59:05+0000', tz='UTC'), Timestamp('2021-06-30 03:20:59+0000', tz='UTC'), Timestamp('2021-06-07 23:24:39+0000', tz='UTC'), Timestamp('2021-07-25 22:19:16+0000', tz='UTC'), Timestamp('2021-07-25 22:19:27+0000', tz='UTC'), Timestamp('2021-08-06 21:42:42+0000', tz='UTC'), Timestamp('2021-06-23 14:29:03+0000', tz='UTC'), Timestamp('2021-08-06 21:42:53+0000', tz='UTC'), Timestamp('2021-08-09 00:57:19+0000', tz='UTC'), Timestamp('2021-08-06 21:40:56+0000', tz='UTC'), Timestamp('2021-07-29 20:18:25+0000', tz='UTC'), Timestamp('2021-08-07 12:53:13+0000', tz='UTC'), Timestamp('2021-06-09 20:13:41+0000', tz='UTC'), Timestamp('2021-07-30 12:03:10+0000', tz='UTC'), Timestamp('2021-07-11 12:08:21+0000', tz='UTC'), Timestamp('2021-06-30 03:22:07+0000', tz='UTC'), Timestamp('2021-07-25 22:20:24+0000', tz='UTC'), Timestamp('2021-07-25 22:20:35+0000', tz='UTC'), Timestamp('2021-08-09 00:58:27+0000', tz='UTC'), Timestamp('2021-08-09 18:31:18+0000', tz='UTC'), Timestamp('2021-06-23 14:30:00+0000', tz='UTC'), Timestamp('2021-08-09 18:33:32+0000', tz='UTC'), Timestamp('2021-08-06 21:42:04+0000', tz='UTC'), Timestamp('2021-08-09 18:29:10+0000', tz='UTC'), Timestamp('2021-06-30 03:22:46+0000', tz='UTC'), Timestamp('2021-06-06 12:30:08+0000', tz='UTC'), Timestamp('2021-06-27 22:35:13+0000', tz='UTC'), Timestamp('2021-07-28 11:54:32+0000', tz='UTC'), Timestamp('2021-08-07 12:52:35+0000', tz='UTC'), Timestamp('2021-08-07 12:52:57+0000', tz='UTC'), Timestamp('2021-07-15 22:53:27+0000', tz='UTC'), Timestamp('2021-07-28 11:53:24+0000', tz='UTC'), Timestamp('2021-06-07 23:24:58+0000', tz='UTC'), Timestamp('2021-07-25 22:19:46+0000', tz='UTC'), Timestamp('2021-08-09 18:30:18+0000', tz='UTC'), Timestamp('2021-08-09 18:32:43+0000', tz='UTC'), Timestamp('2021-08-06 21:41:15+0000', tz='UTC'), Timestamp('2021-07-23 19:40:51+0000', tz='UTC'), Timestamp('2021-07-29 20:18:55+0000', tz='UTC'), Timestamp('2021-06-27 22:34:35+0000', tz='UTC'), Timestamp('2021-07-28 11:51:29+0000', tz='UTC'), Timestamp('2021-06-20 09:23:22+0000', tz='UTC'), Timestamp('2021-07-30 12:03:51+0000', tz='UTC'), Timestamp('2021-07-11 12:08:40+0000', tz='UTC'), Timestamp('2021-08-07 12:54:33+0000', tz='UTC'), Timestamp('2021-06-13 18:44:58+0000', tz='UTC'), Timestamp('2021-06-13 18:45:37+0000', tz='UTC'), Timestamp('2021-07-25 22:18:57+0000', tz='UTC'), Timestamp('2021-07-23 19:42:10+0000', tz='UTC'), Timestamp('2021-07-25 22:19:08+0000', tz='UTC'), Timestamp('2021-08-09 00:57:00+0000', tz='UTC'), Timestamp('2021-07-28 11:52:26+0000', tz='UTC'), Timestamp('2021-08-09 18:29:40+0000', tz='UTC'), Timestamp('2021-06-30 03:21:30+0000', tz='UTC'), Timestamp('2021-07-29 20:20:31+0000', tz='UTC'), Timestamp('2021-08-07 12:55:41+0000', tz='UTC'), Timestamp('2021-07-15 22:53:46+0000', tz='UTC'), Timestamp('2021-06-09 20:13:22+0000', tz='UTC'), Timestamp('2021-06-09 20:13:33+0000', tz='UTC'), Timestamp('2021-08-09 00:59:16+0000', tz='UTC'), Timestamp('2021-06-23 14:31:00+0000', tz='UTC'), Timestamp('2021-07-29 20:18:56+0000', tz='UTC'), Timestamp('2021-07-30 12:02:51+0000', tz='UTC'), Timestamp('2021-07-30 12:03:02+0000', tz='UTC'), Timestamp('2021-07-30 12:03:13+0000', tz='UTC'), Timestamp('2021-08-09 18:30:59+0000', tz='UTC'), Timestamp('2021-07-23 19:43:07+0000', tz='UTC'), Timestamp('2021-08-09 18:33:13+0000', tz='UTC'), Timestamp('2021-07-31 13:24:23+0000', tz='UTC'), Timestamp('2021-08-09 18:33:24+0000', tz='UTC'), Timestamp('2021-06-13 18:44:48+0000', tz='UTC'), Timestamp('2021-08-06 21:41:56+0000', tz='UTC'), Timestamp('2021-06-30 03:22:27+0000', tz='UTC'), Timestamp('2021-06-30 03:22:38+0000', tz='UTC'), Timestamp('2021-07-23 19:41:10+0000', tz='UTC'), Timestamp('2021-06-27 22:35:05+0000', tz='UTC'), Timestamp('2021-06-27 22:35:16+0000', tz='UTC'), Timestamp('2021-06-16 17:38:32+0000', tz='UTC'), Timestamp('2021-06-20 09:23:52+0000', tz='UTC'), Timestamp('2021-07-13 17:47:05+0000', tz='UTC'), Timestamp('2021-07-15 22:55:05+0000', tz='UTC'), Timestamp('2021-07-23 19:41:21+0000', tz='UTC'), Timestamp('2021-07-28 11:51:48+0000', tz='UTC'), Timestamp('2021-08-07 12:52:38+0000', tz='UTC'), Timestamp('2021-08-09 01:00:13+0000', tz='UTC'), Timestamp('2021-08-09 01:00:24+0000', tz='UTC'), Timestamp('2021-06-23 14:30:11+0000', tz='UTC'), Timestamp('2021-06-23 14:30:22+0000', tz='UTC'), Timestamp('2021-07-11 12:07:24+0000', tz='UTC'), Timestamp('2021-07-11 12:07:35+0000', tz='UTC'), Timestamp('2021-06-30 03:21:21+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-29 06:27:15+0000', tz='UTC'), Timestamp('2021-06-18 16:57:36+0000', tz='UTC'), Timestamp('2021-07-01 20:48:19+0000', tz='UTC'), Timestamp('2021-08-23 05:16:20+0000', tz='UTC'), Timestamp('2021-08-27 15:44:44+0000', tz='UTC'), Timestamp('2021-08-29 06:29:40+0000', tz='UTC'), Timestamp('2021-06-24 16:24:09+0000', tz='UTC'), Timestamp('2021-09-01 04:13:33+0000', tz='UTC'), Timestamp('2021-07-09 04:11:52+0000', tz='UTC'), Timestamp('2021-07-09 04:12:03+0000', tz='UTC'), Timestamp('2021-08-19 16:57:42+0000', tz='UTC'), Timestamp('2021-08-23 05:17:28+0000', tz='UTC'), Timestamp('2021-08-21 14:55:21+0000', tz='UTC'), Timestamp('2021-08-23 05:17:39+0000', tz='UTC'), Timestamp('2021-08-29 06:26:37+0000', tz='UTC'), Timestamp('2021-08-13 17:17:18+0000', tz='UTC'), Timestamp('2021-08-27 15:44:06+0000', tz='UTC'), Timestamp('2021-08-27 15:42:20+0000', tz='UTC'), Timestamp('2021-06-18 16:57:28+0000', tz='UTC'), Timestamp('2021-08-05 04:04:52+0000', tz='UTC'), Timestamp('2021-07-01 20:48:27+0000', tz='UTC'), Timestamp('2021-07-01 20:48:38+0000', tz='UTC'), Timestamp('2021-08-23 05:16:39+0000', tz='UTC'), Timestamp('2021-09-03 04:34:36+0000', tz='UTC'), Timestamp('2021-06-18 16:56:20+0000', tz='UTC'), Timestamp('2021-08-21 00:44:30+0000', tz='UTC'), Timestamp('2021-08-13 17:16:40+0000', tz='UTC'), Timestamp('2021-08-21 00:44:41+0000', tz='UTC'), Timestamp('2021-08-13 17:14:43+0000', tz='UTC'), Timestamp('2021-08-15 08:22:23+0000', tz='UTC'), Timestamp('2021-08-05 04:06:00+0000', tz='UTC'), Timestamp('2021-09-03 04:36:08+0000', tz='UTC'), Timestamp('2021-08-29 06:26:56+0000', tz='UTC'), Timestamp('2021-09-03 04:35:34+0000', tz='UTC'), Timestamp('2021-08-21 00:45:49+0000', tz='UTC'), Timestamp('2021-08-13 17:17:48+0000', tz='UTC'), Timestamp('2021-08-21 14:51:29+0000', tz='UTC'), Timestamp('2021-08-21 14:53:54+0000', tz='UTC'), Timestamp('2021-08-29 06:25:21+0000', tz='UTC'), Timestamp('2021-08-27 15:45:15+0000', tz='UTC'), Timestamp('2021-08-15 08:25:34+0000', tz='UTC'), Timestamp('2021-06-18 16:55:22+0000', tz='UTC'), Timestamp('2021-06-18 16:57:47+0000', tz='UTC'), Timestamp('2021-08-21 14:55:13+0000', tz='UTC'), Timestamp('2021-08-29 06:26:18+0000', tz='UTC'), Timestamp('2021-08-21 00:45:11+0000', tz='UTC'), Timestamp('2021-08-13 17:16:59+0000', tz='UTC'), Timestamp('2021-08-13 17:17:10+0000', tz='UTC'), Timestamp('2021-08-17 13:54:55+0000', tz='UTC'), Timestamp('2021-08-21 14:53:16+0000', tz='UTC'), Timestamp('2021-08-16 09:11:25+0000', tz='UTC'), Timestamp('2021-09-03 04:35:32+0000', tz='UTC'), Timestamp('2021-08-13 17:15:02+0000', tz='UTC'), Timestamp('2021-08-17 13:53:20+0000', tz='UTC'), Timestamp('2021-08-29 06:28:34+0000', tz='UTC'), Timestamp('2021-08-29 06:28:45+0000', tz='UTC'), Timestamp('2021-08-13 03:31:16+0000', tz='UTC'), Timestamp('2021-08-13 17:18:07+0000', tz='UTC'), Timestamp('2021-08-23 05:16:31+0000', tz='UTC'), Timestamp('2021-08-21 00:44:11+0000', tz='UTC'), Timestamp('2021-08-13 17:16:21+0000', tz='UTC'), Timestamp('2021-08-19 16:56:25+0000', tz='UTC'), Timestamp('2021-08-21 00:46:36+0000', tz='UTC'), Timestamp('2021-08-05 04:06:49+0000', tz='UTC'), Timestamp('2021-08-29 06:29:42+0000', tz='UTC'), Timestamp('2021-08-27 15:41:45+0000', tz='UTC'), Timestamp('2021-08-29 06:27:56+0000', tz='UTC'), Timestamp('2021-09-01 04:12:00+0000', tz='UTC'), Timestamp('2021-09-01 04:14:14+0000', tz='UTC'), Timestamp('2021-06-18 16:56:31+0000', tz='UTC'), Timestamp('2021-08-15 08:24:09+0000', tz='UTC'), Timestamp('2021-08-13 03:30:38+0000', tz='UTC'), Timestamp('2021-09-03 04:35:40+0000', tz='UTC'), Timestamp('2021-08-13 03:32:52+0000', tz='UTC'), Timestamp('2021-08-13 03:33:03+0000', tz='UTC'), Timestamp('2021-08-05 04:07:57+0000', tz='UTC'), Timestamp('2021-08-05 04:08:08+0000', tz='UTC'), Timestamp('2021-08-21 14:53:35+0000', tz='UTC'), Timestamp('2021-08-13 17:15:43+0000', tz='UTC'), Timestamp('2021-09-03 04:35:55+0000', tz='UTC'), Timestamp('2021-08-21 00:45:58+0000', tz='UTC'), Timestamp('2021-08-13 17:17:57+0000', tz='UTC'), Timestamp('2021-08-21 14:52:00+0000', tz='UTC'), Timestamp('2021-06-18 16:55:25+0000', tz='UTC'), Timestamp('2021-08-29 06:27:18+0000', tz='UTC'), Timestamp('2021-06-18 16:57:50+0000', tz='UTC'), Timestamp('2021-07-01 20:48:11+0000', tz='UTC'), Timestamp('2021-07-09 04:12:04+0000', tz='UTC'), Timestamp('2021-08-15 08:25:28+0000', tz='UTC'), Timestamp('2021-08-27 15:44:58+0000', tz='UTC'), Timestamp('2021-06-24 16:24:01+0000', tz='UTC'), Timestamp('2021-06-24 16:24:12+0000', tz='UTC'), Timestamp('2021-08-16 09:12:14+0000', tz='UTC'), Timestamp('2021-08-24 19:50:35+0000', tz='UTC'), Timestamp('2021-09-03 04:35:13+0000', tz='UTC'), Timestamp('2021-09-03 04:35:24+0000', tz='UTC'), Timestamp('2021-08-13 17:15:05+0000', tz='UTC'), Timestamp('2021-08-24 19:48:49+0000', tz='UTC'), Timestamp('2021-08-13 03:30:39+0000', tz='UTC'), Timestamp('2021-08-13 17:17:19+0000', tz='UTC'), Timestamp('2021-08-05 04:05:44+0000', tz='UTC'), Timestamp('2021-08-21 00:45:31+0000', tz='UTC'), Timestamp('2021-08-29 06:28:26+0000', tz='UTC'), Timestamp('2021-08-05 04:07:58+0000', tz='UTC'), Timestamp('2021-07-09 04:13:01+0000', tz='UTC'), Timestamp('2021-07-09 04:13:12+0000', tz='UTC'), Timestamp('2021-08-23 05:17:31+0000', tz='UTC'), Timestamp('2021-08-27 15:44:09+0000', tz='UTC'), Timestamp('2021-09-01 04:12:58+0000', tz='UTC'), Timestamp('2021-08-13 17:16:02+0000', tz='UTC'), Timestamp('2021-08-16 09:09:50+0000', tz='UTC'), Timestamp('2021-08-13 03:31:47+0000', tz='UTC'), Timestamp('2021-07-09 04:11:17+0000', tz='UTC'), Timestamp('2021-08-05 04:06:41+0000', tz='UTC'), Timestamp('2021-08-19 16:56:17+0000', tz='UTC'), Timestamp('2021-08-21 00:46:28+0000', tz='UTC'), Timestamp('2021-08-13 17:14:05+0000', tz='UTC'), Timestamp('2021-08-29 06:29:34+0000', tz='UTC'), Timestamp('2021-09-03 04:34:24+0000', tz='UTC'), Timestamp('2021-08-19 16:56:56+0000', tz='UTC'), Timestamp('2021-08-29 06:27:37+0000', tz='UTC'), Timestamp('2021-07-01 20:48:30+0000', tz='UTC'), Timestamp('2021-07-01 20:48:41+0000', tz='UTC'), Timestamp('2021-07-09 04:12:34+0000', tz='UTC'), Timestamp('2021-07-09 04:12:45+0000', tz='UTC'), Timestamp('2021-08-27 15:45:17+0000', tz='UTC'), Timestamp('2021-09-01 04:14:06+0000', tz='UTC'), Timestamp('2021-09-01 04:14:17+0000', tz='UTC'), Timestamp('2021-09-01 04:12:09+0000', tz='UTC'), Timestamp('2021-09-01 04:12:20+0000', tz='UTC'), Timestamp('2021-06-24 16:22:34+0000', tz='UTC'), Timestamp('2021-06-24 16:22:45+0000', tz='UTC'), Timestamp('2021-08-16 09:10:58+0000', tz='UTC'), Timestamp('2021-08-05 04:07:49+0000', tz='UTC'), Timestamp('2021-08-13 17:15:24+0000', tz='UTC'), Timestamp('2021-08-24 19:49:08+0000', tz='UTC'), Timestamp('2021-08-13 03:30:58+0000', tz='UTC'), Timestamp('2021-08-13 17:17:49+0000', tz='UTC'), Timestamp('2021-08-05 04:06:03+0000', tz='UTC'), Timestamp('2021-08-19 16:58:15+0000', tz='UTC'), Timestamp('2021-08-24 19:49:19+0000', tz='UTC'), Timestamp('2021-09-03 04:33:57+0000', tz='UTC'), Timestamp('2021-09-03 04:36:11+0000', tz='UTC'), Timestamp('2021-08-21 14:55:43+0000', tz='UTC'), Timestamp('2021-06-18 16:57:31+0000', tz='UTC'), Timestamp('2021-08-27 15:44:50+0000', tz='UTC'), Timestamp('2021-09-01 04:13:28+0000', tz='UTC'), Timestamp('2021-08-13 03:33:14+0000', tz='UTC'), Timestamp('2021-08-15 08:23:12+0000', tz='UTC'), Timestamp('2021-08-15 08:23:23+0000', tz='UTC'), Timestamp('2021-08-15 08:23:34+0000', tz='UTC'), Timestamp('2021-08-16 09:10:31+0000', tz='UTC'), Timestamp('2021-08-17 13:54:39+0000', tz='UTC'), Timestamp('2021-08-21 14:53:00+0000', tz='UTC'), Timestamp('2021-08-24 19:50:27+0000', tz='UTC'), Timestamp('2021-09-01 04:11:42+0000', tz='UTC'), Timestamp('2021-09-03 04:35:05+0000', tz='UTC'), Timestamp('2021-08-13 17:14:46+0000', tz='UTC'), Timestamp('2021-08-24 19:48:52+0000', tz='UTC'), Timestamp('2021-08-19 16:57:15+0000', tz='UTC'), Timestamp('2021-08-05 04:05:25+0000', tz='UTC'), Timestamp('2021-08-05 04:07:50+0000', tz='UTC'), Timestamp('2021-08-23 05:17:23+0000', tz='UTC'), Timestamp('2021-06-18 16:56:42+0000', tz='UTC'), Timestamp('2021-06-18 16:56:53+0000', tz='UTC'), Timestamp('2021-08-21 00:44:52+0000', tz='UTC'), Timestamp('2021-08-21 00:45:03+0000', tz='UTC'), Timestamp('2021-08-24 19:50:57+0000', tz='UTC'), Timestamp('2021-08-27 15:43:50+0000', tz='UTC'), Timestamp('2021-09-01 04:12:39+0000', tz='UTC'), Timestamp('2021-09-01 04:12:50+0000', tz='UTC'), Timestamp('2021-08-15 08:22:56+0000', tz='UTC'), Timestamp('2021-08-21 14:52:22+0000', tz='UTC'), Timestamp('2021-07-09 04:11:09+0000', tz='UTC'), Timestamp('2021-08-19 16:58:23+0000', tz='UTC'), Timestamp('2021-08-13 17:14:08+0000', tz='UTC'), Timestamp('2021-08-19 16:56:48+0000', tz='UTC'), Timestamp('2021-08-21 00:46:00+0000', tz='UTC'), Timestamp('2021-07-01 20:48:22+0000', tz='UTC'), Timestamp('2021-08-29 06:29:43+0000', tz='UTC'), Timestamp('2021-08-21 14:54:27+0000', tz='UTC'), Timestamp('2021-08-29 06:29:54+0000', tz='UTC'), Timestamp('2021-08-29 06:25:54+0000', tz='UTC'), Timestamp('2021-08-29 06:30:05+0000', tz='UTC'), Timestamp('2021-08-27 15:43:34+0000', tz='UTC'), Timestamp('2021-08-13 03:31:58+0000', tz='UTC'), Timestamp('2021-08-17 13:54:20+0000', tz='UTC'), Timestamp('2021-08-16 09:10:50+0000', tz='UTC'), Timestamp('2021-08-17 13:54:31+0000', tz='UTC'), Timestamp('2021-08-21 14:53:19+0000', tz='UTC'), Timestamp('2021-08-27 15:41:37+0000', tz='UTC'), Timestamp('2021-08-19 16:57:45+0000', tz='UTC'), Timestamp('2021-08-13 17:13:30+0000', tz='UTC'), Timestamp('2021-08-21 14:55:24+0000', tz='UTC'), Timestamp('2021-08-17 13:53:03+0000', tz='UTC'), Timestamp('2021-08-13 17:17:21+0000', tz='UTC'), Timestamp('2021-08-21 00:45:22+0000', tz='UTC'), Timestamp('2021-08-13 03:32:55+0000', tz='UTC'), Timestamp('2021-08-13 03:33:06+0000', tz='UTC'), Timestamp('2021-08-21 00:45:33+0000', tz='UTC'), Timestamp('2021-08-21 14:51:24+0000', tz='UTC'), Timestamp('2021-08-23 05:15:56+0000', tz='UTC'), Timestamp('2021-08-13 17:15:46+0000', tz='UTC'), Timestamp('2021-08-19 16:55:50+0000', tz='UTC'), Timestamp('2021-08-27 15:42:56+0000', tz='UTC'), Timestamp('2021-08-27 15:45:10+0000', tz='UTC'), Timestamp('2021-08-15 08:25:29+0000', tz='UTC'), Timestamp('2021-07-09 04:11:39+0000', tz='UTC'), Timestamp('2021-08-19 16:57:07+0000', tz='UTC'), Timestamp('2021-06-24 16:24:15+0000', tz='UTC'), Timestamp('2021-08-16 09:12:17+0000', tz='UTC'), Timestamp('2021-08-23 05:17:04+0000', tz='UTC'), Timestamp('2021-08-23 05:17:15+0000', tz='UTC'), Timestamp('2021-08-13 03:30:03+0000', tz='UTC'), Timestamp('2021-08-05 04:07:22+0000', tz='UTC'), Timestamp('2021-08-13 17:15:08+0000', tz='UTC'), Timestamp('2021-08-15 08:22:37+0000', tz='UTC'), Timestamp('2021-07-09 04:10:50+0000', tz='UTC'), Timestamp('2021-06-18 16:57:04+0000', tz='UTC'), Timestamp('2021-08-15 08:24:42+0000', tz='UTC'), Timestamp('2021-08-29 06:25:24+0000', tz='UTC'), Timestamp('2021-08-13 03:29:25+0000', tz='UTC'), Timestamp('2021-08-19 16:56:09+0000', tz='UTC'), Timestamp('2021-08-21 00:44:17+0000', tz='UTC'), Timestamp('2021-08-13 03:31:39+0000', tz='UTC'), Timestamp('2021-08-13 03:31:50+0000', tz='UTC'), Timestamp('2021-08-17 13:54:12+0000', tz='UTC'), Timestamp('2021-08-21 00:46:31+0000', tz='UTC'), Timestamp('2021-08-24 19:50:11+0000', tz='UTC'), Timestamp('2021-08-27 15:43:15+0000', tz='UTC'), Timestamp('2021-08-27 15:45:29+0000', tz='UTC'), Timestamp('2021-08-29 06:29:26+0000', tz='UTC'), Timestamp('2021-06-18 16:55:47+0000', tz='UTC'), Timestamp('2021-08-29 06:29:37+0000', tz='UTC'), Timestamp('2021-09-01 04:11:55+0000', tz='UTC'), Timestamp('2021-09-01 04:14:09+0000', tz='UTC'), Timestamp('2021-08-23 05:17:34+0000', tz='UTC'), Timestamp('2021-08-21 14:55:27+0000', tz='UTC'), Timestamp('2021-08-13 03:32:58+0000', tz='UTC'), Timestamp('2021-08-05 04:08:03+0000', tz='UTC'), Timestamp('2021-08-13 17:15:27+0000', tz='UTC'), Timestamp('2021-08-19 16:55:53+0000', tz='UTC'), Timestamp('2021-08-17 13:53:45+0000', tz='UTC'), Timestamp('2021-08-13 17:17:52+0000', tz='UTC'), Timestamp('2021-08-21 00:45:53+0000', tz='UTC'), Timestamp('2021-08-24 19:49:22+0000', tz='UTC'), Timestamp('2021-06-18 16:57:45+0000', tz='UTC'), Timestamp('2021-09-01 04:13:31+0000', tz='UTC'), Timestamp('2021-06-24 16:23:56+0000', tz='UTC'), Timestamp('2021-06-24 16:24:07+0000', tz='UTC'), Timestamp('2021-08-21 14:54:38+0000', tz='UTC'), Timestamp('2021-08-23 05:16:56+0000', tz='UTC'), Timestamp('2021-08-24 19:50:30+0000', tz='UTC'), Timestamp('2021-08-16 09:10:23+0000', tz='UTC'), Timestamp('2021-08-17 13:54:42+0000', tz='UTC'), Timestamp('2021-08-05 04:03:14+0000', tz='UTC'), Timestamp('2021-08-13 03:30:23+0000', tz='UTC'), Timestamp('2021-08-05 04:05:28+0000', tz='UTC'), Timestamp('2021-07-09 04:13:07+0000', tz='UTC'), Timestamp('2021-06-24 16:23:07+0000', tz='UTC'), Timestamp('2021-06-24 16:23:18+0000', tz='UTC'), Timestamp('2021-08-16 09:11:31+0000', tz='UTC'), Timestamp('2021-08-23 05:16:18+0000', tz='UTC'), Timestamp('2021-09-03 04:36:05+0000', tz='UTC'), Timestamp('2021-09-03 04:36:16+0000', tz='UTC'), Timestamp('2021-08-24 19:49:41+0000', tz='UTC'), Timestamp('2021-08-24 19:49:52+0000', tz='UTC'), Timestamp('2021-08-17 13:53:53+0000', tz='UTC'), Timestamp('2021-08-13 17:18:11+0000', tz='UTC'), Timestamp('2021-08-17 13:54:04+0000', tz='UTC'), Timestamp('2021-08-19 16:58:26+0000', tz='UTC'), Timestamp('2021-08-21 00:46:12+0000', tz='UTC'), Timestamp('2021-08-21 00:46:34+0000', tz='UTC'), Timestamp('2021-08-21 14:52:25+0000', tz='UTC'), Timestamp('2021-08-24 19:50:03+0000', tz='UTC'), Timestamp('2021-08-29 06:29:18+0000', tz='UTC'), Timestamp('2021-08-05 04:04:50+0000', tz='UTC'), Timestamp('2021-09-03 04:35:23+0000', tz='UTC'), Timestamp('2021-06-18 16:57:53+0000', tz='UTC'), Timestamp('2021-07-01 20:48:25+0000', tz='UTC'), Timestamp('2021-07-01 20:48:36+0000', tz='UTC'), Timestamp('2021-08-15 08:25:42+0000', tz='UTC'), Timestamp('2021-08-27 15:45:12+0000', tz='UTC'), Timestamp('2021-06-18 16:56:18+0000', tz='UTC'), Timestamp('2021-08-15 08:23:45+0000', tz='UTC'), Timestamp('2021-08-15 08:23:56+0000', tz='UTC'), Timestamp('2021-08-15 08:24:07+0000', tz='UTC'), Timestamp('2021-08-16 09:10:42+0000', tz='UTC'), Timestamp('2021-08-13 03:32:39+0000', tz='UTC'), Timestamp('2021-08-24 19:51:00+0000', tz='UTC'), Timestamp('2021-08-05 04:07:44+0000', tz='UTC'), Timestamp('2021-08-21 00:45:45+0000', tz='UTC'), Timestamp('2021-08-13 17:17:44+0000', tz='UTC'), Timestamp('2021-08-13 17:17:55+0000', tz='UTC'), Timestamp('2021-08-19 16:57:48+0000', tz='UTC'), Timestamp('2021-09-03 04:36:06+0000', tz='UTC'), Timestamp('2021-08-21 14:55:38+0000', tz='UTC'), Timestamp('2021-08-05 04:04:12+0000', tz='UTC'), Timestamp('2021-08-29 06:26:54+0000', tz='UTC'), Timestamp('2021-06-18 16:57:15+0000', tz='UTC'), Timestamp('2021-08-27 15:44:23+0000', tz='UTC'), Timestamp('2021-08-27 15:44:45+0000', tz='UTC'), Timestamp('2021-06-24 16:23:48+0000', tz='UTC'), Timestamp('2021-08-21 14:54:30+0000', tz='UTC'), Timestamp('2021-08-13 03:32:01+0000', tz='UTC'), Timestamp('2021-07-09 04:11:42+0000', tz='UTC'), Timestamp('2021-08-21 14:52:44+0000', tz='UTC'), Timestamp('2021-08-13 17:14:41+0000', tz='UTC'), Timestamp('2021-08-29 06:25:37+0000', tz='UTC'), Timestamp('2021-08-05 04:05:09+0000', tz='UTC'), Timestamp('2021-08-05 04:07:45+0000', tz='UTC'), Timestamp('2021-08-23 05:17:18+0000', tz='UTC'), Timestamp('2021-08-29 06:26:16+0000', tz='UTC'), Timestamp('2021-08-27 15:44:07+0000', tz='UTC'), Timestamp('2021-08-15 08:24:26+0000', tz='UTC'), Timestamp('2021-08-17 13:54:53+0000', tz='UTC'), Timestamp('2021-06-24 16:22:59+0000', tz='UTC'), Timestamp('2021-08-16 09:11:12+0000', tz='UTC'), Timestamp('2021-08-16 09:11:23+0000', tz='UTC'), Timestamp('2021-08-21 14:53:52+0000', tz='UTC'), Timestamp('2021-08-15 08:22:40+0000', tz='UTC'), Timestamp('2021-08-24 19:49:33+0000', tz='UTC'), Timestamp('2021-08-16 09:09:26+0000', tz='UTC'), Timestamp('2021-08-19 16:58:18+0000', tz='UTC'), Timestamp('2021-08-05 04:06:17+0000', tz='UTC'), Timestamp('2021-08-19 16:58:29+0000', tz='UTC'), Timestamp('2021-08-29 06:24:59+0000', tz='UTC'), Timestamp('2021-08-21 00:45:55+0000', tz='UTC'), Timestamp('2021-07-01 20:48:17+0000', tz='UTC'), Timestamp('2021-08-13 17:17:54+0000', tz='UTC'), Timestamp('2021-08-23 05:16:29+0000', tz='UTC'), Timestamp('2021-08-29 06:29:38+0000', tz='UTC'), Timestamp('2021-08-13 03:29:28+0000', tz='UTC'), Timestamp('2021-08-13 17:16:19+0000', tz='UTC'), Timestamp('2021-08-21 00:44:09+0000', tz='UTC'), Timestamp('2021-08-27 15:43:18+0000', tz='UTC'), Timestamp('2021-09-01 04:12:07+0000', tz='UTC'), Timestamp('2021-06-24 16:22:32+0000', tz='UTC'), Timestamp('2021-08-05 04:06:47+0000', tz='UTC'), Timestamp('2021-07-09 04:12:12+0000', tz='UTC'), Timestamp('2021-08-19 16:57:40+0000', tz='UTC'), Timestamp('2021-09-03 04:35:58+0000', tz='UTC'), Timestamp('2021-09-01 04:14:12+0000', tz='UTC'), Timestamp('2021-08-23 05:17:37+0000', tz='UTC'), Timestamp('2021-08-21 14:55:19+0000', tz='UTC'), Timestamp('2021-08-29 06:26:35+0000', tz='UTC'), Timestamp('2021-08-24 19:51:11+0000', tz='UTC'), Timestamp('2021-08-27 15:44:26+0000', tz='UTC'), Timestamp('2021-08-13 03:32:50+0000', tz='UTC'), Timestamp('2021-08-05 04:07:55+0000', tz='UTC'), Timestamp('2021-07-09 04:13:09+0000', tz='UTC'), Timestamp('2021-08-27 15:42:40+0000', tz='UTC'), Timestamp('2021-08-15 08:22:59+0000', tz='UTC'), Timestamp('2021-08-15 08:25:24+0000', tz='UTC'), Timestamp('2021-09-01 04:13:34+0000', tz='UTC'), Timestamp('2021-08-21 00:46:25+0000', tz='UTC'), Timestamp('2021-06-24 16:23:59+0000', tz='UTC'), Timestamp('2021-08-16 09:12:12+0000', tz='UTC'), Timestamp('2021-08-23 05:16:48+0000', tz='UTC'), Timestamp('2021-08-29 06:25:57+0000', tz='UTC'), Timestamp('2021-08-13 03:29:47+0000', tz='UTC'), Timestamp('2021-08-13 17:16:38+0000', tz='UTC'), Timestamp('2021-08-21 00:44:28+0000', tz='UTC'), Timestamp('2021-08-13 03:32:23+0000', tz='UTC'), Timestamp('2021-08-17 13:54:45+0000', tz='UTC'), Timestamp('2021-08-21 00:44:39+0000', tz='UTC'), Timestamp('2021-08-21 00:44:50+0000', tz='UTC'), Timestamp('2021-08-27 15:41:40+0000', tz='UTC'), Timestamp('2021-08-15 08:22:21+0000', tz='UTC'), Timestamp('2021-08-15 08:24:37+0000', tz='UTC'), Timestamp('2021-08-13 03:30:55+0000', tz='UTC'), Timestamp('2021-08-21 00:45:47+0000', tz='UTC'), Timestamp('2021-08-23 05:16:10+0000', tz='UTC'), Timestamp('2021-08-21 14:54:14+0000', tz='UTC'), Timestamp('2021-08-23 05:16:21+0000', tz='UTC'), Timestamp('2021-08-27 15:42:59+0000', tz='UTC'), Timestamp('2021-08-21 00:46:26+0000', tz='UTC'), Timestamp('2021-08-27 15:45:35+0000', tz='UTC'), Timestamp('2021-08-05 04:06:28+0000', tz='UTC'), Timestamp('2021-08-05 04:06:39+0000', tz='UTC'), Timestamp('2021-07-09 04:11:53+0000', tz='UTC'), Timestamp('2021-08-29 06:27:35+0000', tz='UTC'), Timestamp('2021-06-18 16:57:56+0000', tz='UTC'), Timestamp('2021-09-01 04:11:39+0000', tz='UTC'), Timestamp('2021-07-01 20:48:28+0000', tz='UTC'), Timestamp('2021-08-23 05:17:29+0000', tz='UTC'), Timestamp('2021-08-21 14:55:22+0000', tz='UTC'), Timestamp('2021-08-13 17:17:08+0000', tz='UTC'), Timestamp('2021-08-23 05:15:43+0000', tz='UTC'), Timestamp('2021-08-13 03:32:31+0000', tz='UTC'), Timestamp('2021-08-13 03:32:53+0000', tz='UTC'), Timestamp('2021-08-05 04:07:47+0000', tz='UTC'), Timestamp('2021-08-21 14:53:36+0000', tz='UTC'), Timestamp('2021-09-03 04:35:41+0000', tz='UTC'), Timestamp('2021-08-13 03:30:56+0000', tz='UTC'), Timestamp('2021-08-13 17:17:36+0000', tz='UTC'), Timestamp('2021-08-05 04:06:01+0000', tz='UTC'), Timestamp('2021-08-29 06:28:43+0000', tz='UTC'), Timestamp('2021-08-29 06:26:57+0000', tz='UTC'), Timestamp('2021-08-16 09:09:28+0000', tz='UTC'), Timestamp('2021-06-24 16:23:40+0000', tz='UTC'), Timestamp('2021-06-24 16:24:02+0000', tz='UTC'), Timestamp('2021-08-16 09:12:04+0000', tz='UTC'), Timestamp('2021-08-23 05:16:40+0000', tz='UTC'), Timestamp('2021-08-15 08:23:10+0000', tz='UTC'), Timestamp('2021-08-24 19:50:25+0000', tz='UTC'), Timestamp('2021-08-24 19:50:36+0000', tz='UTC'), Timestamp('2021-08-29 06:27:54+0000', tz='UTC'), Timestamp('2021-08-27 15:45:34+0000', tz='UTC'), Timestamp('2021-07-09 04:13:02+0000', tz='UTC'), Timestamp('2021-08-29 06:26:19+0000', tz='UTC'), Timestamp('2021-08-15 08:24:18+0000', tz='UTC'), Timestamp('2021-08-15 08:24:29+0000', tz='UTC'), Timestamp('2021-09-01 04:12:48+0000', tz='UTC'), Timestamp('2021-08-16 09:11:26+0000', tz='UTC'), Timestamp('2021-08-21 14:53:55+0000', tz='UTC'), Timestamp('2021-08-23 05:16:02+0000', tz='UTC'), Timestamp('2021-09-03 04:34:25+0000', tz='UTC'), Timestamp('2021-08-13 03:31:15+0000', tz='UTC'), Timestamp('2021-08-13 17:18:06+0000', tz='UTC'), Timestamp('2021-08-19 16:58:21+0000', tz='UTC'), Timestamp('2021-08-29 06:27:16+0000', tz='UTC'), Timestamp('2021-06-18 16:57:48+0000', tz='UTC'), Timestamp('2021-07-01 20:48:20+0000', tz='UTC'), Timestamp('2021-07-09 04:12:24+0000', tz='UTC'), Timestamp('2021-08-15 08:25:26+0000', tz='UTC'), Timestamp('2021-08-15 08:25:37+0000', tz='UTC'), Timestamp('2021-06-24 16:24:10+0000', tz='UTC'), Timestamp('2021-08-16 09:12:23+0000', tz='UTC'), Timestamp('2021-08-27 15:44:56+0000', tz='UTC'), Timestamp('2021-08-27 15:45:18+0000', tz='UTC'), Timestamp('2021-08-29 06:29:52+0000', tz='UTC'), Timestamp('2021-09-03 04:35:22+0000', tz='UTC'), Timestamp('2021-08-21 14:53:17+0000', tz='UTC'), Timestamp('2021-08-13 03:28:23+0000', tz='UTC'), Timestamp('2021-08-24 19:48:58+0000', tz='UTC'), Timestamp('2021-08-05 04:03:17+0000', tz='UTC'), Timestamp('2021-08-13 03:30:37+0000', tz='UTC'), Timestamp('2021-08-19 16:57:43+0000', tz='UTC'), Timestamp('2021-09-03 04:36:01+0000', tz='UTC'), Timestamp('2021-08-29 06:28:35+0000', tz='UTC'), Timestamp('2021-08-21 14:55:33+0000', tz='UTC'), Timestamp('2021-08-05 04:03:56+0000', tz='UTC'), Timestamp('2021-08-29 06:26:38+0000', tz='UTC'), Timestamp('2021-09-01 04:13:07+0000', tz='UTC'), Timestamp('2021-06-24 16:23:32+0000', tz='UTC'), Timestamp('2021-08-16 09:11:56+0000', tz='UTC'), Timestamp('2021-08-15 08:25:27+0000', tz='UTC'), Timestamp('2021-08-16 09:09:59+0000', tz='UTC'), Timestamp('2021-07-09 04:11:26+0000', tz='UTC'), Timestamp('2021-08-05 04:06:50+0000', tz='UTC'), Timestamp('2021-08-21 00:46:37+0000', tz='UTC'), Timestamp('2021-08-24 19:48:31+0000', tz='UTC'), Timestamp('2021-08-19 16:57:05+0000', tz='UTC'), Timestamp('2021-08-05 04:04:53+0000', tz='UTC'), Timestamp('2021-07-01 20:48:39+0000', tz='UTC'), Timestamp('2021-08-27 15:45:26+0000', tz='UTC'), Timestamp('2021-09-01 04:14:15+0000', tz='UTC'), Timestamp('2021-06-18 16:56:32+0000', tz='UTC'), Timestamp('2021-08-13 17:16:41+0000', tz='UTC'), Timestamp('2021-08-27 15:43:51+0000', tz='UTC'), Timestamp('2021-09-01 04:12:18+0000', tz='UTC'), Timestamp('2021-09-01 04:12:29+0000', tz='UTC'), Timestamp('2021-08-16 09:11:07+0000', tz='UTC'), Timestamp('2021-09-01 04:12:40+0000', tz='UTC'), Timestamp('2021-07-09 04:12:23+0000', tz='UTC'), Timestamp('2021-07-09 04:10:48+0000', tz='UTC'), Timestamp('2021-08-23 05:15:45+0000', tz='UTC'), Timestamp('2021-08-19 16:56:27+0000', tz='UTC'), Timestamp('2021-08-05 04:04:15+0000', tz='UTC'), Timestamp('2021-07-01 20:48:12+0000', tz='UTC'), Timestamp('2021-08-27 15:44:48+0000', tz='UTC'), Timestamp('2021-08-29 06:29:44+0000', tz='UTC'), Timestamp('2021-08-16 09:12:15+0000', tz='UTC'), Timestamp('2021-08-13 17:16:03+0000', tz='UTC'), Timestamp('2021-08-16 09:10:40+0000', tz='UTC'), Timestamp('2021-08-19 16:57:24+0000', tz='UTC'), Timestamp('2021-08-19 16:57:35+0000', tz='UTC'), Timestamp('2021-09-01 04:14:07+0000', tz='UTC'), Timestamp('2021-08-23 05:17:21+0000', tz='UTC'), Timestamp('2021-08-21 14:55:25+0000', tz='UTC'), Timestamp('2021-08-23 05:17:32+0000', tz='UTC'), Timestamp('2021-08-13 03:30:20+0000', tz='UTC'), Timestamp('2021-08-13 17:17:11+0000', tz='UTC'), Timestamp('2021-08-21 00:45:01+0000', tz='UTC'), Timestamp('2021-08-21 00:45:12+0000', tz='UTC'), Timestamp('2021-08-21 00:45:23+0000', tz='UTC'), Timestamp('2021-06-24 16:23:24+0000', tz='UTC'), Timestamp('2021-08-24 19:51:06+0000', tz='UTC'), Timestamp('2021-07-09 04:13:04+0000', tz='UTC'), Timestamp('2021-08-13 17:15:25+0000', tz='UTC'), Timestamp('2021-08-27 15:44:10+0000', tz='UTC'), Timestamp('2021-09-01 04:12:59+0000', tz='UTC'), Timestamp('2021-08-27 15:44:49+0000', tz='UTC'), Timestamp('2021-08-29 06:28:46+0000', tz='UTC'), Timestamp('2021-07-09 04:11:07+0000', tz='UTC'), Timestamp('2021-08-19 16:56:57+0000', tz='UTC'), Timestamp('2021-08-21 14:54:25+0000', tz='UTC'), Timestamp('2021-08-21 14:54:36+0000', tz='UTC'), Timestamp('2021-08-29 06:25:52+0000', tz='UTC'), Timestamp('2021-08-13 17:16:22+0000', tz='UTC'), Timestamp('2021-08-27 15:43:32+0000', tz='UTC'), Timestamp('2021-08-17 13:54:29+0000', tz='UTC'), Timestamp('2021-08-17 13:54:40+0000', tz='UTC'), Timestamp('2021-08-16 09:10:59+0000', tz='UTC'), Timestamp('2021-09-03 04:34:55+0000', tz='UTC'), Timestamp('2021-07-09 04:12:15+0000', tz='UTC'), Timestamp('2021-08-24 19:49:20+0000', tz='UTC'), Timestamp('2021-07-09 04:12:54+0000', tz='UTC'), Timestamp('2021-06-18 16:56:43+0000', tz='UTC'), Timestamp('2021-08-21 00:45:42+0000', tz='UTC'), Timestamp('2021-08-23 05:15:54+0000', tz='UTC'), Timestamp('2021-08-29 06:25:25+0000', tz='UTC'), Timestamp('2021-08-21 00:43:56+0000', tz='UTC'), Timestamp('2021-08-13 17:15:44+0000', tz='UTC'), Timestamp('2021-08-19 16:56:10+0000', tz='UTC'), Timestamp('2021-08-13 03:31:29+0000', tz='UTC'), Timestamp('2021-08-17 13:54:02+0000', tz='UTC'), Timestamp('2021-08-05 04:06:23+0000', tz='UTC'), Timestamp('2021-08-16 09:10:10+0000', tz='UTC'), Timestamp('2021-08-16 09:10:21+0000', tz='UTC'), Timestamp('2021-08-19 16:58:24+0000', tz='UTC'), Timestamp('2021-08-21 00:46:21+0000', tz='UTC'), Timestamp('2021-08-27 15:45:19+0000', tz='UTC'), Timestamp('2021-09-03 04:34:17+0000', tz='UTC'), Timestamp('2021-06-18 16:57:51+0000', tz='UTC'), Timestamp('2021-09-01 04:13:48+0000', tz='UTC'), Timestamp('2021-08-21 14:52:41+0000', tz='UTC'), Timestamp('2021-08-16 09:12:26+0000', tz='UTC'), Timestamp('2021-06-18 16:56:05+0000', tz='UTC'), Timestamp('2021-08-21 14:55:06+0000', tz='UTC'), Timestamp('2021-08-23 05:17:13+0000', tz='UTC'), Timestamp('2021-08-24 19:50:47+0000', tz='UTC'), Timestamp('2021-08-24 19:50:58+0000', tz='UTC'), Timestamp('2021-08-17 13:54:59+0000', tz='UTC'), Timestamp('2021-08-21 14:53:20+0000', tz='UTC'), Timestamp('2021-08-05 04:07:31+0000', tz='UTC'), Timestamp('2021-08-05 04:07:42+0000', tz='UTC'), Timestamp('2021-08-13 03:28:15+0000', tz='UTC'), Timestamp('2021-08-27 15:42:05+0000', tz='UTC'), Timestamp('2021-09-03 04:35:14+0000', tz='UTC'), Timestamp('2021-08-13 03:30:40+0000', tz='UTC'), Timestamp('2021-08-21 00:45:32+0000', tz='UTC'), Timestamp('2021-08-05 04:05:45+0000', tz='UTC'), Timestamp('2021-08-15 08:24:40+0000', tz='UTC'), Timestamp('2021-06-18 16:55:27+0000', tz='UTC'), Timestamp('2021-08-21 14:54:28+0000', tz='UTC'), Timestamp('2021-08-13 03:29:23+0000', tz='UTC'), Timestamp('2021-08-16 09:10:02+0000', tz='UTC'), Timestamp('2021-08-13 03:31:59+0000', tz='UTC'), Timestamp('2021-08-17 13:54:21+0000', tz='UTC'), Timestamp('2021-08-05 04:06:42+0000', tz='UTC'), Timestamp('2021-08-21 00:46:29+0000', tz='UTC'), Timestamp('2021-08-21 00:46:40+0000', tz='UTC'), Timestamp('2021-08-21 14:52:42+0000', tz='UTC'), Timestamp('2021-08-29 06:29:35+0000', tz='UTC'), Timestamp('2021-08-13 03:30:02+0000', tz='UTC'), Timestamp('2021-08-29 06:29:46+0000', tz='UTC'), Timestamp('2021-09-01 04:11:53+0000', tz='UTC'), Timestamp('2021-07-09 04:12:35+0000', tz='UTC'), Timestamp('2021-07-09 04:12:46+0000', tz='UTC'), Timestamp('2021-06-24 16:22:46+0000', tz='UTC'), Timestamp('2021-06-24 16:23:08+0000', tz='UTC'), Timestamp('2021-08-13 03:32:56+0000', tz='UTC'), Timestamp('2021-08-13 03:33:07+0000', tz='UTC'), Timestamp('2021-09-03 04:35:44+0000', tz='UTC'), Timestamp('2021-08-13 03:28:56+0000', tz='UTC'), Timestamp('2021-08-24 19:49:31+0000', tz='UTC'), Timestamp('2021-08-24 19:49:42+0000', tz='UTC'), Timestamp('2021-08-13 03:30:59+0000', tz='UTC'), Timestamp('2021-08-13 17:17:50+0000', tz='UTC'), Timestamp('2021-08-13 17:18:01+0000', tz='UTC'), Timestamp('2021-08-17 13:53:32+0000', tz='UTC'), Timestamp('2021-08-17 13:53:43+0000', tz='UTC'), Timestamp('2021-08-13 17:13:39+0000', tz='UTC'), Timestamp('2021-08-17 13:53:54+0000', tz='UTC'), Timestamp('2021-08-19 16:58:05+0000', tz='UTC'), Timestamp('2021-08-19 16:58:16+0000', tz='UTC'), Timestamp('2021-06-18 16:57:43+0000', tz='UTC'), Timestamp('2021-08-27 15:44:40+0000', tz='UTC'), Timestamp('2021-09-01 04:13:29+0000', tz='UTC'), Timestamp('2021-08-16 09:12:18+0000', tz='UTC'), Timestamp('2021-06-18 16:55:46+0000', tz='UTC'), Timestamp('2021-08-15 08:23:24+0000', tz='UTC'), Timestamp('2021-08-15 08:23:35+0000', tz='UTC'), Timestamp('2021-08-15 08:23:46+0000', tz='UTC'), Timestamp('2021-08-16 09:10:32+0000', tz='UTC'), Timestamp('2021-08-17 13:54:51+0000', tz='UTC'), Timestamp('2021-08-21 14:53:01+0000', tz='UTC'), Timestamp('2021-08-24 19:50:50+0000', tz='UTC'), Timestamp('2021-09-01 04:11:54+0000', tz='UTC'), Timestamp('2021-08-13 03:30:21+0000', tz='UTC'), Timestamp('2021-08-17 13:53:05+0000', tz='UTC'), Timestamp('2021-08-05 04:05:26+0000', tz='UTC'), Timestamp('2021-08-19 16:57:38+0000', tz='UTC'), Timestamp('2021-09-03 04:35:45+0000', tz='UTC'), Timestamp('2021-08-05 04:07:51+0000', tz='UTC'), Timestamp('2021-07-09 04:13:05+0000', tz='UTC'), Timestamp('2021-08-23 05:17:35+0000', tz='UTC'), Timestamp('2021-06-18 16:56:54+0000', tz='UTC'), Timestamp('2021-06-18 16:57:05+0000', tz='UTC'), Timestamp('2021-08-27 15:44:24+0000', tz='UTC'), Timestamp('2021-08-15 08:24:43+0000', tz='UTC'), Timestamp('2021-08-13 03:32:48+0000', tz='UTC'), Timestamp('2021-06-24 16:23:16+0000', tz='UTC'), Timestamp('2021-08-16 09:11:29+0000', tz='UTC'), Timestamp('2021-08-21 14:54:09+0000', tz='UTC'), Timestamp('2021-08-15 08:22:57+0000', tz='UTC'), Timestamp('2021-08-24 19:50:01+0000', tz='UTC'), Timestamp('2021-08-16 09:09:43+0000', tz='UTC'), Timestamp('2021-08-17 13:54:13+0000', tz='UTC'), Timestamp('2021-07-09 04:11:10+0000', tz='UTC'), Timestamp('2021-08-21 00:46:32+0000', tz='UTC'), Timestamp('2021-08-29 06:27:52+0000', tz='UTC'), Timestamp('2021-07-01 20:48:23+0000', tz='UTC'), Timestamp('2021-07-01 20:48:34+0000', tz='UTC'), Timestamp('2021-08-21 14:54:39+0000', tz='UTC'), Timestamp('2021-08-23 05:16:57+0000', tz='UTC'), Timestamp('2021-08-27 15:45:21+0000', tz='UTC'), Timestamp('2021-09-01 04:14:10+0000', tz='UTC'), Timestamp('2021-08-13 03:29:45+0000', tz='UTC'), Timestamp('2021-08-27 15:43:35+0000', tz='UTC'), Timestamp('2021-08-24 19:51:09+0000', tz='UTC'), Timestamp('2021-08-16 09:10:51+0000', tz='UTC'), Timestamp('2021-08-15 08:24:33+0000', tz='UTC'), Timestamp('2021-09-03 04:34:01+0000', tz='UTC'), Timestamp('2021-09-03 04:36:04+0000', tz='UTC'), Timestamp('2021-09-03 04:36:15+0000', tz='UTC'), Timestamp('2021-08-19 16:56:11+0000', tz='UTC'), Timestamp('2021-08-05 04:04:10+0000', tz='UTC'), Timestamp('2021-08-21 14:55:47+0000', tz='UTC'), Timestamp('2021-08-29 06:27:14+0000', tz='UTC'), Timestamp('2021-08-27 15:44:43+0000', tz='UTC'), Timestamp('2021-08-23 05:16:08+0000', tz='UTC'), Timestamp('2021-08-13 03:29:07+0000', tz='UTC'), Timestamp('2021-08-16 09:10:13+0000', tz='UTC'), Timestamp('2021-07-09 04:11:29+0000', tz='UTC'), Timestamp('2021-07-09 04:11:40+0000', tz='UTC'), Timestamp('2021-07-09 04:11:51+0000', tz='UTC'), Timestamp('2021-08-24 19:48:34+0000', tz='UTC'), Timestamp('2021-06-18 16:57:54+0000', tz='UTC'), Timestamp('2021-08-23 05:17:05+0000', tz='UTC'), Timestamp('2021-08-23 05:17:16+0000', tz='UTC'), Timestamp('2021-08-05 04:03:21+0000', tz='UTC'), Timestamp('2021-08-05 04:03:43+0000', tz='UTC'), Timestamp('2021-08-29 06:26:14+0000', tz='UTC'), Timestamp('2021-08-13 03:30:04+0000', tz='UTC'), Timestamp('2021-08-13 17:16:55+0000', tz='UTC'), Timestamp('2021-08-13 17:17:06+0000', tz='UTC'), Timestamp('2021-08-17 13:55:02+0000', tz='UTC'), Timestamp('2021-08-21 14:50:58+0000', tz='UTC'), Timestamp('2021-08-24 19:51:01+0000', tz='UTC'), Timestamp('2021-08-29 06:26:36+0000', tz='UTC'), Timestamp('2021-07-09 04:12:48+0000', tz='UTC'), Timestamp('2021-08-13 03:28:18+0000', tz='UTC'), Timestamp('2021-08-27 15:42:08+0000', tz='UTC'), Timestamp('2021-08-16 09:09:24+0000', tz='UTC'), Timestamp('2021-06-18 16:57:16+0000', tz='UTC'), Timestamp('2021-08-29 06:27:33+0000', tz='UTC'), Timestamp('2021-08-13 17:18:03+0000', tz='UTC'), Timestamp('2021-08-13 17:18:14+0000', tz='UTC'), Timestamp('2021-08-23 05:16:38+0000', tz='UTC'), Timestamp('2021-08-24 19:50:12+0000', tz='UTC'), Timestamp('2021-08-27 15:43:16+0000', tz='UTC'), Timestamp('2021-08-13 03:31:51+0000', tz='UTC'), Timestamp('2021-08-21 00:46:43+0000', tz='UTC'), Timestamp('2021-08-19 16:57:49+0000', tz='UTC'), Timestamp('2021-07-09 04:12:49+0000', tz='UTC'), Timestamp('2021-08-21 14:55:28+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 13:36:13+0000', tz='UTC'), Timestamp('2021-07-27 12:58:31+0000', tz='UTC'), Timestamp('2021-07-13 13:38:36+0000', tz='UTC'), Timestamp('2021-07-13 14:51:14+0000', tz='UTC'), Timestamp('2021-07-13 07:31:38+0000', tz='UTC'), Timestamp('2021-07-27 12:00:05+0000', tz='UTC'), Timestamp('2021-07-09 19:06:28+0000', tz='UTC'), Timestamp('2021-07-13 07:31:42+0000', tz='UTC'), Timestamp('2021-07-13 14:19:03+0000', tz='UTC'), Timestamp('2021-07-27 21:30:07+0000', tz='UTC'), Timestamp('2021-07-09 18:49:44+0000', tz='UTC'), Timestamp('2021-07-09 20:08:03+0000', tz='UTC'), Timestamp('2021-07-27 12:12:11+0000', tz='UTC'), Timestamp('2021-07-09 19:20:46+0000', tz='UTC'), Timestamp('2021-07-09 19:05:37+0000', tz='UTC'), Timestamp('2021-07-09 18:49:02+0000', tz='UTC'), Timestamp('2021-08-18 18:42:18+0000', tz='UTC'), Timestamp('2021-07-13 14:18:01+0000', tz='UTC'), Timestamp('2021-07-09 18:42:54+0000', tz='UTC'), Timestamp('2021-07-27 12:27:28+0000', tz='UTC'), Timestamp('2021-07-27 12:28:23+0000', tz='UTC'), Timestamp('2021-07-08 18:23:43+0000', tz='UTC'), Timestamp('2021-07-09 19:34:46+0000', tz='UTC'), Timestamp('2021-07-13 14:34:18+0000', tz='UTC'), Timestamp('2021-07-27 11:51:31+0000', tz='UTC'), Timestamp('2021-07-13 14:04:20+0000', tz='UTC'), Timestamp('2021-08-12 19:43:19+0000', tz='UTC'), Timestamp('2021-07-09 18:00:45+0000', tz='UTC'), Timestamp('2021-07-13 14:05:54+0000', tz='UTC'), Timestamp('2021-07-13 15:16:18+0000', tz='UTC'), Timestamp('2021-07-27 12:27:34+0000', tz='UTC'), Timestamp('2021-07-27 12:58:25+0000', tz='UTC'), Timestamp('2021-07-13 07:33:35+0000', tz='UTC'), Timestamp('2021-08-17 16:16:48+0000', tz='UTC'), Timestamp('2021-06-22 10:35:00+0000', tz='UTC'), Timestamp('2021-06-29 04:20:09+0000', tz='UTC'), Timestamp('2021-07-09 08:14:29+0000', tz='UTC'), Timestamp('2021-08-28 02:07:09+0000', tz='UTC'), Timestamp('2021-07-27 12:01:05+0000', tz='UTC'), Timestamp('2021-07-27 11:49:36+0000', tz='UTC'), Timestamp('2021-06-22 10:35:04+0000', tz='UTC'), Timestamp('2021-07-27 12:00:25+0000', tz='UTC'), Timestamp('2021-07-13 14:45:26+0000', tz='UTC'), Timestamp('2021-07-27 12:12:22+0000', tz='UTC'), Timestamp('2021-07-09 19:04:49+0000', tz='UTC'), Timestamp('2021-07-09 19:00:27+0000', tz='UTC'), Timestamp('2021-08-17 16:17:16+0000', tz='UTC'), Timestamp('2021-08-28 02:06:42+0000', tz='UTC'), Timestamp('2021-08-28 02:06:46+0000', tz='UTC'), Timestamp('2021-07-09 18:49:00+0000', tz='UTC'), Timestamp('2021-07-09 19:04:44+0000', tz='UTC'), Timestamp('2021-07-09 19:06:01+0000', tz='UTC'), Timestamp('2021-08-28 02:06:59+0000', tz='UTC'), Timestamp('2021-07-13 08:02:10+0000', tz='UTC'), Timestamp('2021-07-09 19:08:17+0000', tz='UTC'), Timestamp('2021-07-21 04:25:23+0000', tz='UTC'), Timestamp('2021-06-22 10:35:07+0000', tz='UTC'), Timestamp('2021-07-09 18:11:32+0000', tz='UTC'), Timestamp('2021-07-09 17:59:52+0000', tz='UTC'), Timestamp('2021-08-28 02:07:05+0000', tz='UTC'), Timestamp('2021-06-22 10:35:11+0000', tz='UTC'), Timestamp('2021-07-09 18:11:36+0000', tz='UTC'), Timestamp('2021-07-08 04:20:08+0000', tz='UTC'), Timestamp('2021-07-22 03:37:12+0000', tz='UTC'), Timestamp('2021-07-09 18:44:39+0000', tz='UTC'), Timestamp('2021-07-09 18:54:11+0000', tz='UTC'), Timestamp('2021-08-28 02:06:38+0000', tz='UTC'), Timestamp('2021-07-09 18:28:08+0000', tz='UTC'), Timestamp('2021-07-13 08:04:10+0000', tz='UTC'), Timestamp('2021-07-09 19:17:35+0000', tz='UTC'), Timestamp('2021-07-09 19:06:17+0000', tz='UTC'), Timestamp('2021-07-09 18:53:07+0000', tz='UTC'), Timestamp('2021-07-13 07:18:21+0000', tz='UTC'), Timestamp('2021-07-13 07:07:14+0000', tz='UTC'), Timestamp('2021-07-13 14:23:47+0000', tz='UTC'), Timestamp('2021-07-30 19:30:48+0000', tz='UTC'), Timestamp('2021-07-09 18:43:10+0000', tz='UTC'), Timestamp('2021-07-13 13:35:55+0000', tz='UTC'), Timestamp('2021-07-09 18:54:26+0000', tz='UTC'), Timestamp('2021-07-13 07:15:53+0000', tz='UTC'), Timestamp('2021-08-28 02:07:12+0000', tz='UTC'), Timestamp('2021-06-22 10:35:18+0000', tz='UTC'), Timestamp('2021-07-27 12:00:41+0000', tz='UTC'), Timestamp('2021-08-27 02:17:18+0000', tz='UTC'), Timestamp('2021-07-28 08:10:26+0000', tz='UTC'), Timestamp('2021-07-13 14:18:20+0000', tz='UTC'), Timestamp('2021-07-27 12:12:12+0000', tz='UTC'), Timestamp('2021-08-28 02:06:34+0000', tz='UTC'), Timestamp('2021-07-27 11:50:11+0000', tz='UTC'), Timestamp('2021-07-27 12:27:25+0000', tz='UTC'), Timestamp('2021-07-13 07:05:13+0000', tz='UTC'), Timestamp('2021-07-27 19:15:41+0000', tz='UTC'), Timestamp('2021-07-27 12:02:06+0000', tz='UTC'), Timestamp('2021-07-27 11:59:56+0000', tz='UTC'), Timestamp('2021-08-28 02:06:49+0000', tz='UTC'), Timestamp('2021-07-27 11:49:33+0000', tz='UTC'), Timestamp('2021-07-09 18:27:55+0000', tz='UTC'), Timestamp('2021-07-13 15:23:17+0000', tz='UTC'), Timestamp('2021-08-28 02:06:53+0000', tz='UTC'), Timestamp('2021-07-27 00:26:58+0000', tz='UTC'), Timestamp('2021-08-28 02:07:15+0000', tz='UTC'), Timestamp('2021-07-13 07:05:06+0000', tz='UTC'), Timestamp('2021-06-29 02:07:14+0000', tz='UTC'), Timestamp('2021-07-09 18:49:33+0000', tz='UTC'), Timestamp('2021-07-13 14:29:30+0000', tz='UTC'), Timestamp('2021-07-09 19:05:28+0000', tz='UTC'), Timestamp('2021-07-09 19:05:39+0000', tz='UTC'), Timestamp('2021-07-09 18:54:10+0000', tz='UTC'), Timestamp('2021-07-13 07:05:19+0000', tz='UTC'), Timestamp('2021-07-13 13:36:21+0000', tz='UTC'), Timestamp('2021-07-27 01:50:27+0000', tz='UTC'), Timestamp('2021-07-13 13:48:29+0000', tz='UTC'), Timestamp('2021-08-10 11:20:22+0000', tz='UTC'), Timestamp('2021-07-09 19:06:49+0000', tz='UTC'), Timestamp('2021-06-28 18:30:38+0000', tz='UTC'), Timestamp('2021-07-13 13:50:41+0000', tz='UTC'), Timestamp('2021-07-09 20:05:59+0000', tz='UTC'), Timestamp('2021-08-20 20:03:00+0000', tz='UTC'), Timestamp('2021-08-27 01:30:27+0000', tz='UTC'), Timestamp('2021-07-09 19:34:50+0000', tz='UTC'), Timestamp('2021-07-09 17:59:45+0000', tz='UTC'), Timestamp('2021-07-09 19:36:51+0000', tz='UTC'), Timestamp('2021-07-27 12:01:18+0000', tz='UTC'), Timestamp('2021-07-09 18:53:23+0000', tz='UTC'), Timestamp('2021-07-09 18:54:29+0000', tz='UTC'), Timestamp('2021-08-28 02:06:56+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-27 15:28:48+0000', tz='UTC'), Timestamp('2021-07-27 15:13:01+0000', tz='UTC'), Timestamp('2021-07-27 15:28:49+0000', tz='UTC'), Timestamp('2021-07-27 15:13:02+0000', tz='UTC'), Timestamp('2021-07-27 15:12:59+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-15 17:03:20+0000', tz='UTC'), Timestamp('2021-07-13 20:30:08+0000', tz='UTC'), Timestamp('2021-07-15 20:23:14+0000', tz='UTC'), Timestamp('2021-07-23 05:27:05+0000', tz='UTC'), Timestamp('2021-07-13 20:32:40+0000', tz='UTC'), Timestamp('2021-07-19 13:47:16+0000', tz='UTC'), Timestamp('2021-07-20 13:53:25+0000', tz='UTC'), Timestamp('2021-07-12 20:47:46+0000', tz='UTC'), Timestamp('2021-07-16 19:56:19+0000', tz='UTC'), Timestamp('2021-07-16 20:06:50+0000', tz='UTC'), Timestamp('2021-07-20 13:29:42+0000', tz='UTC'), Timestamp('2021-07-15 20:12:13+0000', tz='UTC'), Timestamp('2021-07-19 14:19:19+0000', tz='UTC'), Timestamp('2021-07-12 20:46:15+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-09-01 08:04:08+0000', tz='UTC'), Timestamp('2021-08-29 14:56:55+0000', tz='UTC'), Timestamp('2021-08-26 15:58:08+0000', tz='UTC'), Timestamp('2021-08-24 16:59:37+0000', tz='UTC'), Timestamp('2021-08-26 17:45:08+0000', tz='UTC'), Timestamp('2021-08-29 15:03:39+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 15:23:10+0000', tz='UTC'), Timestamp('2021-07-20 09:13:30+0000', tz='UTC'), Timestamp('2021-07-19 12:00:43+0000', tz='UTC'), Timestamp('2021-07-15 15:55:45+0000', tz='UTC'), Timestamp('2021-07-15 15:55:46+0000', tz='UTC'), Timestamp('2021-07-23 01:39:06+0000', tz='UTC'), Timestamp('2021-07-15 15:53:20+0000', tz='UTC'), Timestamp('2021-07-20 11:15:27+0000', tz='UTC'), Timestamp('2021-07-16 15:32:39+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-11 07:43:17+0000', tz='UTC'), Timestamp('2021-08-11 07:43:20+0000', tz='UTC'), Timestamp('2021-08-11 07:43:18+0000', tz='UTC'), Timestamp('2021-08-11 07:42:00+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:48:05+0000', tz='UTC'), Timestamp('2021-08-31 15:52:36+0000', tz='UTC'), Timestamp('2021-08-16 16:10:04+0000', tz='UTC'), Timestamp('2021-08-31 14:02:43+0000', tz='UTC'), Timestamp('2021-07-19 15:00:05+0000', tz='UTC'), Timestamp('2021-07-09 18:39:37+0000', tz='UTC'), Timestamp('2021-08-31 14:02:44+0000', tz='UTC'), Timestamp('2021-08-31 14:02:45+0000', tz='UTC'), Timestamp('2021-08-25 17:58:39+0000', tz='UTC'), Timestamp('2021-08-31 12:30:57+0000', tz='UTC'), Timestamp('2021-08-25 17:58:40+0000', tz='UTC'), Timestamp('2021-08-12 00:01:28+0000', tz='UTC'), Timestamp('2021-08-31 15:52:35+0000', tz='UTC'), Timestamp('2021-06-29 17:09:27+0000', tz='UTC'), Timestamp('2021-08-11 07:43:05+0000', tz='UTC'), Timestamp('2021-08-31 12:30:56+0000', tz='UTC'), Timestamp('2021-07-13 12:23:25+0000', tz='UTC'), Timestamp('2021-07-07 19:43:36+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-19 15:04:46+0000', tz='UTC'), Timestamp('2021-07-17 15:42:23+0000', tz='UTC'), Timestamp('2021-07-17 15:42:24+0000', tz='UTC'), Timestamp('2021-07-19 15:13:29+0000', tz='UTC'), Timestamp('2021-07-07 19:41:38+0000', tz='UTC'), Timestamp('2021-07-24 03:11:28+0000', tz='UTC'), Timestamp('2021-07-16 15:59:48+0000', tz='UTC'), Timestamp('2021-07-16 16:00:10+0000', tz='UTC'), Timestamp('2021-07-16 15:59:59+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:48:59+0000', tz='UTC'), Timestamp('2021-08-12 00:49:15+0000', tz='UTC'), Timestamp('2021-08-12 00:02:07+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-07 18:43:14+0000', tz='UTC'), Timestamp('2021-06-29 17:10:23+0000', tz='UTC'), Timestamp('2021-07-07 18:43:05+0000', tz='UTC'), Timestamp('2021-07-07 18:43:16+0000', tz='UTC'), Timestamp('2021-07-07 19:44:06+0000', tz='UTC'), Timestamp('2021-06-14 17:12:14+0000', tz='UTC'), Timestamp('2021-07-13 12:24:02+0000', tz='UTC'), Timestamp('2021-06-29 17:10:08+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 11:42:44+0000', tz='UTC'), Timestamp('2021-07-17 05:27:20+0000', tz='UTC'), Timestamp('2021-07-13 11:43:07+0000', tz='UTC'), Timestamp('2021-07-16 05:07:01+0000', tz='UTC'), Timestamp('2021-07-13 11:42:08+0000', tz='UTC'), Timestamp('2021-07-16 07:05:06+0000', tz='UTC'), Timestamp('2021-07-19 22:44:50+0000', tz='UTC'), Timestamp('2021-07-19 21:44:19+0000', tz='UTC'), Timestamp('2021-07-20 20:29:39+0000', tz='UTC'), Timestamp('2021-07-14 07:51:08+0000', tz='UTC'), Timestamp('2021-07-14 04:53:50+0000', tz='UTC'), Timestamp('2021-07-17 07:15:55+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-23 00:06:23+0000', tz='UTC'), Timestamp('2021-08-26 15:07:00+0000', tz='UTC'), Timestamp('2021-08-30 03:24:43+0000', tz='UTC'), Timestamp('2021-07-22 00:16:46+0000', tz='UTC'), Timestamp('2021-08-29 04:11:38+0000', tz='UTC'), Timestamp('2021-08-02 16:58:36+0000', tz='UTC'), Timestamp('2021-08-15 18:05:23+0000', tz='UTC'), Timestamp('2021-08-15 11:23:34+0000', tz='UTC'), Timestamp('2021-07-16 12:08:46+0000', tz='UTC'), Timestamp('2021-07-15 20:01:07+0000', tz='UTC'), Timestamp('2021-08-31 02:11:16+0000', tz='UTC'), Timestamp('2021-08-29 14:27:04+0000', tz='UTC'), Timestamp('2021-07-15 20:00:16+0000', tz='UTC'), Timestamp('2021-07-12 20:01:37+0000', tz='UTC'), Timestamp('2021-08-03 16:53:04+0000', tz='UTC'), Timestamp('2021-07-14 19:51:35+0000', tz='UTC'), Timestamp('2021-08-15 07:13:23+0000', tz='UTC'), Timestamp('2021-08-13 18:40:22+0000', tz='UTC'), Timestamp('2021-08-05 15:31:28+0000', tz='UTC'), Timestamp('2021-08-12 18:54:20+0000', tz='UTC'), Timestamp('2021-07-27 21:54:16+0000', tz='UTC'), Timestamp('2021-08-11 18:59:29+0000', tz='UTC'), Timestamp('2021-07-31 21:36:30+0000', tz='UTC'), Timestamp('2021-07-11 20:27:40+0000', tz='UTC'), Timestamp('2021-07-31 07:42:34+0000', tz='UTC'), Timestamp('2021-08-11 12:34:01+0000', tz='UTC'), Timestamp('2021-07-12 20:01:31+0000', tz='UTC'), Timestamp('2021-07-16 12:08:44+0000', tz='UTC'), Timestamp('2021-07-08 20:36:40+0000', tz='UTC'), Timestamp('2021-07-31 18:07:33+0000', tz='UTC'), Timestamp('2021-07-13 20:01:44+0000', tz='UTC'), Timestamp('2021-08-12 12:08:59+0000', tz='UTC'), Timestamp('2021-08-03 20:40:26+0000', tz='UTC'), Timestamp('2021-07-30 22:04:27+0000', tz='UTC'), Timestamp('2021-08-10 14:08:49+0000', tz='UTC'), Timestamp('2021-08-31 13:56:09+0000', tz='UTC'), Timestamp('2021-07-27 22:22:47+0000', tz='UTC'), Timestamp('2021-07-09 20:55:02+0000', tz='UTC'), Timestamp('2021-07-29 19:51:04+0000', tz='UTC'), Timestamp('2021-07-08 20:06:08+0000', tz='UTC'), Timestamp('2021-08-17 08:23:46+0000', tz='UTC'), Timestamp('2021-08-17 17:21:07+0000', tz='UTC'), Timestamp('2021-08-13 11:46:18+0000', tz='UTC'), Timestamp('2021-07-07 20:52:05+0000', tz='UTC'), Timestamp('2021-08-24 15:26:39+0000', tz='UTC'), Timestamp('2021-07-30 18:14:11+0000', tz='UTC'), Timestamp('2021-08-01 21:24:02+0000', tz='UTC'), Timestamp('2021-07-16 19:32:38+0000', tz='UTC'), Timestamp('2021-08-22 06:11:38+0000', tz='UTC'), Timestamp('2021-07-10 20:19:54+0000', tz='UTC'), Timestamp('2021-09-01 02:05:27+0000', tz='UTC'), Timestamp('2021-07-25 21:56:00+0000', tz='UTC'), Timestamp('2021-07-11 20:05:50+0000', tz='UTC'), Timestamp('2021-08-30 11:09:52+0000', tz='UTC'), Timestamp('2021-07-14 19:50:18+0000', tz='UTC'), Timestamp('2021-08-26 05:09:39+0000', tz='UTC'), Timestamp('2021-08-08 19:44:23+0000', tz='UTC'), Timestamp('2021-08-01 17:32:52+0000', tz='UTC'), Timestamp('2021-08-22 17:38:33+0000', tz='UTC'), Timestamp('2021-08-10 19:21:31+0000', tz='UTC'), Timestamp('2021-07-16 19:38:59+0000', tz='UTC'), Timestamp('2021-08-24 06:25:44+0000', tz='UTC'), Timestamp('2021-07-28 22:16:34+0000', tz='UTC'), Timestamp('2021-08-27 05:03:27+0000', tz='UTC'), Timestamp('2021-07-17 19:36:14+0000', tz='UTC'), Timestamp('2021-07-13 20:08:38+0000', tz='UTC'), Timestamp('2021-07-22 00:20:08+0000', tz='UTC'), Timestamp('2021-07-25 23:09:00+0000', tz='UTC'), Timestamp('2021-08-14 11:49:17+0000', tz='UTC'), Timestamp('2021-08-22 15:51:34+0000', tz='UTC'), Timestamp('2021-08-23 05:40:43+0000', tz='UTC'), Timestamp('2021-07-22 23:11:51+0000', tz='UTC'), Timestamp('2021-07-10 20:19:02+0000', tz='UTC'), Timestamp('2021-08-08 14:50:10+0000', tz='UTC'), Timestamp('2021-07-09 20:47:26+0000', tz='UTC'), Timestamp('2021-08-07 20:54:23+0000', tz='UTC'), Timestamp('2021-07-07 20:52:03+0000', tz='UTC'), Timestamp('2021-07-28 21:35:58+0000', tz='UTC'), Timestamp('2021-08-20 16:40:15+0000', tz='UTC'), Timestamp('2021-07-23 22:44:59+0000', tz='UTC'), Timestamp('2021-08-21 06:35:03+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-23 06:55:13+0000', tz='UTC'), Timestamp('2021-08-28 06:07:57+0000', tz='UTC'), Timestamp('2021-08-24 06:42:01+0000', tz='UTC'), Timestamp('2021-08-07 13:12:51+0000', tz='UTC'), Timestamp('2021-08-27 06:16:32+0000', tz='UTC'), Timestamp('2021-08-30 05:30:22+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-07 19:43:37+0000', tz='UTC'), Timestamp('2021-07-07 19:43:36+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 18:58:50+0000', tz='UTC'), Timestamp('2021-07-12 19:10:58+0000', tz='UTC'), Timestamp('2021-07-07 19:44:10+0000', tz='UTC'), Timestamp('2021-07-07 19:49:43+0000', tz='UTC'), Timestamp('2021-07-16 18:09:45+0000', tz='UTC'), Timestamp('2021-07-15 18:04:17+0000', tz='UTC'), Timestamp('2021-07-15 18:24:47+0000', tz='UTC'), Timestamp('2021-07-12 13:00:50+0000', tz='UTC'), Timestamp('2021-07-19 18:21:55+0000', tz='UTC'), Timestamp('2021-07-07 19:41:42+0000', tz='UTC'), Timestamp('2021-07-13 13:26:02+0000', tz='UTC'), Timestamp('2021-07-08 13:29:13+0000', tz='UTC'), Timestamp('2021-07-08 18:54:25+0000', tz='UTC'), Timestamp('2021-07-07 19:44:16+0000', tz='UTC'), Timestamp('2021-07-07 19:56:55+0000', tz='UTC'), Timestamp('2021-07-16 12:47:14+0000', tz='UTC'), Timestamp('2021-07-13 18:56:30+0000', tz='UTC'), Timestamp('2021-07-08 19:33:40+0000', tz='UTC'), Timestamp('2021-07-08 13:31:50+0000', tz='UTC'), Timestamp('2021-07-24 07:56:01+0000', tz='UTC'), Timestamp('2021-07-12 19:12:29+0000', tz='UTC'), Timestamp('2021-07-16 18:25:37+0000', tz='UTC'), Timestamp('2021-07-19 17:59:34+0000', tz='UTC'), Timestamp('2021-07-08 19:42:19+0000', tz='UTC'), Timestamp('2021-07-07 19:44:13+0000', tz='UTC'), Timestamp('2021-07-07 19:56:41+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-19 18:36:45+0000', tz='UTC'), Timestamp('2021-07-12 18:13:05+0000', tz='UTC'), Timestamp('2021-07-15 18:38:17+0000', tz='UTC'), Timestamp('2021-07-16 17:08:09+0000', tz='UTC'), Timestamp('2021-07-16 18:49:17+0000', tz='UTC'), Timestamp('2021-07-15 17:18:26+0000', tz='UTC'), Timestamp('2021-07-19 16:37:55+0000', tz='UTC'), Timestamp('2021-07-16 11:36:05+0000', tz='UTC'), Timestamp('2021-07-13 18:15:12+0000', tz='UTC'), Timestamp('2021-07-13 19:20:06+0000', tz='UTC'), Timestamp('2021-07-12 19:16:19+0000', tz='UTC'), Timestamp('2021-07-23 17:39:14+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:12:42+0000', tz='UTC'), Timestamp('2021-08-12 00:11:41+0000', tz='UTC'), Timestamp('2021-08-06 12:00:21+0000', tz='UTC'), Timestamp('2021-08-12 00:04:02+0000', tz='UTC'), Timestamp('2021-08-11 15:20:59+0000', tz='UTC'), Timestamp('2021-08-06 12:04:58+0000', tz='UTC'), Timestamp('2021-08-06 12:04:59+0000', tz='UTC'), Timestamp('2021-08-12 00:40:27+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 15:59:35+0000', tz='UTC'), Timestamp('2021-08-04 15:37:49+0000', tz='UTC'), Timestamp('2021-07-20 10:22:25+0000', tz='UTC'), Timestamp('2021-07-12 19:36:37+0000', tz='UTC'), Timestamp('2021-07-12 19:36:24+0000', tz='UTC'), Timestamp('2021-07-12 19:36:48+0000', tz='UTC'), Timestamp('2021-07-12 19:36:59+0000', tz='UTC'), Timestamp('2021-07-12 19:43:11+0000', tz='UTC'), Timestamp('2021-07-12 19:43:55+0000', tz='UTC'), Timestamp('2021-08-13 14:49:51+0000', tz='UTC'), Timestamp('2021-07-12 19:35:57+0000', tz='UTC'), Timestamp('2021-07-12 19:43:15+0000', tz='UTC'), Timestamp('2021-08-10 07:02:57+0000', tz='UTC'), Timestamp('2021-08-12 19:59:44+0000', tz='UTC'), Timestamp('2021-08-10 06:45:03+0000', tz='UTC'), Timestamp('2021-08-04 15:37:51+0000', tz='UTC'), Timestamp('2021-07-12 19:36:50+0000', tz='UTC'), Timestamp('2021-07-27 17:21:47+0000', tz='UTC'), Timestamp('2021-08-04 15:37:55+0000', tz='UTC'), Timestamp('2021-07-12 19:36:10+0000', tz='UTC'), Timestamp('2021-07-12 19:35:46+0000', tz='UTC'), Timestamp('2021-07-12 19:36:54+0000', tz='UTC'), Timestamp('2021-07-12 19:43:17+0000', tz='UTC'), Timestamp('2021-08-04 15:38:06+0000', tz='UTC'), Timestamp('2021-07-27 17:20:56+0000', tz='UTC'), Timestamp('2021-08-04 15:37:53+0000', tz='UTC'), Timestamp('2021-08-04 15:37:57+0000', tz='UTC'), Timestamp('2021-08-04 15:38:08+0000', tz='UTC'), Timestamp('2021-07-27 17:20:58+0000', tz='UTC'), Timestamp('2021-07-12 17:30:14+0000', tz='UTC'), Timestamp('2021-07-16 15:28:34+0000', tz='UTC'), Timestamp('2021-08-04 15:38:23+0000', tz='UTC'), Timestamp('2021-07-12 19:36:27+0000', tz='UTC'), Timestamp('2021-07-12 19:35:52+0000', tz='UTC'), Timestamp('2021-07-12 19:36:03+0000', tz='UTC'), Timestamp('2021-07-12 19:36:14+0000', tz='UTC'), Timestamp('2021-07-12 19:36:16+0000', tz='UTC'), Timestamp('2021-07-07 18:39:18+0000', tz='UTC'), Timestamp('2021-07-12 19:36:38+0000', tz='UTC'), Timestamp('2021-08-13 14:44:13+0000', tz='UTC'), Timestamp('2021-08-11 07:43:07+0000', tz='UTC'), Timestamp('2021-07-12 18:58:07+0000', tz='UTC'), Timestamp('2021-07-27 12:36:47+0000', tz='UTC'), Timestamp('2021-08-04 15:38:25+0000', tz='UTC'), Timestamp('2021-07-12 19:36:40+0000', tz='UTC'), Timestamp('2021-08-04 15:37:45+0000', tz='UTC'), Timestamp('2021-07-12 19:35:49+0000', tz='UTC'), Timestamp('2021-07-12 19:36:44+0000', tz='UTC'), Timestamp('2021-07-12 19:36:55+0000', tz='UTC'), Timestamp('2021-07-12 19:43:07+0000', tz='UTC'), Timestamp('2021-07-27 10:16:26+0000', tz='UTC'), Timestamp('2021-07-27 09:40:29+0000', tz='UTC'), Timestamp('2021-07-27 13:16:45+0000', tz='UTC'), Timestamp('2021-08-04 15:37:47+0000', tz='UTC'), Timestamp('2021-07-07 21:05:17+0000', tz='UTC'), Timestamp('2021-07-12 19:36:46+0000', tz='UTC'), Timestamp('2021-07-12 19:36:33+0000', tz='UTC'), Timestamp('2021-07-12 19:36:57+0000', tz='UTC'), Timestamp('2021-07-12 19:43:09+0000', tz='UTC'), Timestamp('2021-08-04 15:38:02+0000', tz='UTC'), Timestamp('2021-07-12 19:36:06+0000', tz='UTC'), Timestamp('2021-07-12 19:35:53+0000', tz='UTC'), Timestamp('2021-07-12 19:37:01+0000', tz='UTC'), Timestamp('2021-07-12 19:43:13+0000', tz='UTC'), Timestamp('2021-07-12 19:43:24+0000', tz='UTC'), Timestamp('2021-07-21 08:33:07+0000', tz='UTC'), Timestamp('2021-08-04 15:38:04+0000', tz='UTC'), Timestamp('2021-08-04 15:38:15+0000', tz='UTC'), Timestamp('2021-07-12 19:35:55+0000', tz='UTC'), Timestamp('2021-08-04 15:38:19+0000', tz='UTC'), Timestamp('2021-07-12 19:36:23+0000', tz='UTC'), Timestamp('2021-07-12 19:35:59+0000', tz='UTC'), Timestamp('2021-07-12 19:36:34+0000', tz='UTC'), Timestamp('2021-07-12 19:42:35+0000', tz='UTC'), Timestamp('2021-07-27 13:38:12+0000', tz='UTC'), Timestamp('2021-08-12 01:33:17+0000', tz='UTC'), Timestamp('2021-08-04 15:38:17+0000', tz='UTC'), Timestamp('2021-08-04 15:38:21+0000', tz='UTC'), Timestamp('2021-07-12 19:36:36+0000', tz='UTC'), Timestamp('2021-07-07 22:49:44+0000', tz='UTC'), Timestamp('2021-07-12 19:36:12+0000', tz='UTC'), Timestamp('2021-07-12 19:36:25+0000', tz='UTC'), Timestamp('2021-08-04 15:38:32+0000', tz='UTC'), Timestamp('2021-07-12 19:35:45+0000', tz='UTC'), Timestamp('2021-07-12 19:36:51+0000', tz='UTC'), Timestamp('2021-08-17 21:35:04+0000', tz='UTC'), Timestamp('2021-08-04 15:38:34+0000', tz='UTC'), Timestamp('2021-07-12 19:43:56+0000', tz='UTC'), Timestamp('2021-08-12 19:59:47+0000', tz='UTC'), Timestamp('2021-08-04 15:37:43+0000', tz='UTC'), Timestamp('2021-08-04 15:37:54+0000', tz='UTC'), Timestamp('2021-07-12 19:36:42+0000', tz='UTC'), Timestamp('2021-07-12 19:36:29+0000', tz='UTC'), Timestamp('2021-07-12 19:36:53+0000', tz='UTC'), Timestamp('2021-07-07 18:51:02+0000', tz='UTC'), Timestamp('2021-07-12 19:43:05+0000', tz='UTC'), Timestamp('2021-07-12 19:43:16+0000', tz='UTC'), Timestamp('2021-07-27 12:20:25+0000', tz='UTC'), Timestamp('2021-07-12 19:36:02+0000', tz='UTC'), Timestamp('2021-07-12 19:36:13+0000', tz='UTC'), Timestamp('2021-07-12 19:43:20+0000', tz='UTC'), Timestamp('2021-07-21 08:31:00+0000', tz='UTC'), Timestamp('2021-07-12 19:32:57+0000', tz='UTC'), Timestamp('2021-08-12 19:59:49+0000', tz='UTC'), Timestamp('2021-08-12 20:00:00+0000', tz='UTC'), Timestamp('2021-08-04 15:37:56+0000', tz='UTC'), Timestamp('2021-08-11 07:43:06+0000', tz='UTC'), Timestamp('2021-07-12 19:43:18+0000', tz='UTC'), Timestamp('2021-07-12 19:38:01+0000', tz='UTC'), Timestamp('2021-08-04 15:38:00+0000', tz='UTC'), Timestamp('2021-07-12 19:36:15+0000', tz='UTC'), Timestamp('2021-07-12 19:35:51+0000', tz='UTC'), Timestamp('2021-07-12 19:36:26+0000', tz='UTC'), Timestamp('2021-07-12 19:37:10+0000', tz='UTC'), Timestamp('2021-08-04 15:38:11+0000', tz='UTC'), Timestamp('2021-08-13 14:44:12+0000', tz='UTC'), Timestamp('2021-07-12 19:32:59+0000', tz='UTC'), Timestamp('2021-07-12 19:36:30+0000', tz='UTC'), Timestamp('2021-07-27 13:18:02+0000', tz='UTC'), Timestamp('2021-07-12 18:58:08+0000', tz='UTC'), Timestamp('2021-08-04 15:38:13+0000', tz='UTC'), Timestamp('2021-08-04 15:38:24+0000', tz='UTC'), Timestamp('2021-07-27 09:40:30+0000', tz='UTC'), Timestamp('2021-07-20 10:27:37+0000', tz='UTC'), Timestamp('2021-08-04 15:38:28+0000', tz='UTC'), Timestamp('2021-07-12 19:36:32+0000', tz='UTC'), Timestamp('2021-07-12 19:36:08+0000', tz='UTC'), Timestamp('2021-07-12 19:36:19+0000', tz='UTC'), Timestamp('2021-07-12 19:36:43+0000', tz='UTC'), Timestamp('2021-07-12 19:36:47+0000', tz='UTC'), Timestamp('2021-08-04 15:37:46+0000', tz='UTC'), Timestamp('2021-08-04 15:38:30+0000', tz='UTC'), Timestamp('2021-07-12 19:36:45+0000', tz='UTC'), Timestamp('2021-07-12 19:36:21+0000', tz='UTC'), Timestamp('2021-08-12 19:59:43+0000', tz='UTC'), Timestamp('2021-08-04 15:37:50+0000', tz='UTC'), Timestamp('2021-07-12 19:35:54+0000', tz='UTC'), Timestamp('2021-07-12 19:36:05+0000', tz='UTC'), Timestamp('2021-07-12 19:36:49+0000', tz='UTC'), Timestamp('2021-07-07 18:50:03+0000', tz='UTC'), Timestamp('2021-07-12 19:37:00+0000', tz='UTC'), Timestamp('2021-07-12 19:43:12+0000', tz='UTC'), Timestamp('2021-07-07 18:46:03+0000', tz='UTC'), Timestamp('2021-07-27 13:49:40+0000', tz='UTC'), Timestamp('2021-07-12 19:36:09+0000', tz='UTC'), Timestamp('2021-08-12 19:59:45+0000', tz='UTC'), Timestamp('2021-08-04 15:37:52+0000', tz='UTC'), Timestamp('2021-08-04 15:38:03+0000', tz='UTC'), Timestamp('2021-07-27 12:25:51+0000', tz='UTC'), Timestamp('2021-07-07 22:50:10+0000', tz='UTC'), Timestamp('2021-07-12 19:37:02+0000', tz='UTC'), Timestamp('2021-07-12 19:43:14+0000', tz='UTC'), Timestamp('2021-07-12 19:43:25+0000', tz='UTC'), Timestamp('2021-07-27 17:28:00+0000', tz='UTC'), Timestamp('2021-08-04 15:38:07+0000', tz='UTC'), Timestamp('2021-07-12 19:36:11+0000', tz='UTC'), Timestamp('2021-07-12 19:35:47+0000', tz='UTC'), Timestamp('2021-07-12 18:18:58+0000', tz='UTC'), Timestamp('2021-07-12 19:35:58+0000', tz='UTC'), Timestamp('2021-07-12 19:36:22+0000', tz='UTC'), Timestamp('2021-07-12 19:42:34+0000', tz='UTC'), Timestamp('2021-07-27 17:09:26+0000', tz='UTC'), Timestamp('2021-07-27 15:27:03+0000', tz='UTC'), Timestamp('2021-08-04 15:38:05+0000', tz='UTC'), Timestamp('2021-08-12 01:32:14+0000', tz='UTC'), Timestamp('2021-07-27 09:42:36+0000', tz='UTC'), Timestamp('2021-08-04 15:38:09+0000', tz='UTC'), Timestamp('2021-07-12 19:42:36+0000', tz='UTC'), Timestamp('2021-07-12 19:36:00+0000', tz='UTC'), Timestamp('2021-08-04 15:38:20+0000', tz='UTC'), Timestamp('2021-08-04 15:38:31+0000', tz='UTC'), Timestamp('2021-08-04 15:38:35+0000', tz='UTC'), Timestamp('2021-07-12 19:36:28+0000', tz='UTC'), Timestamp('2021-07-07 20:59:53+0000', tz='UTC'), Timestamp('2021-07-12 19:36:04+0000', tz='UTC'), Timestamp('2021-07-12 19:36:39+0000', tz='UTC'), Timestamp('2021-08-13 14:44:14+0000', tz='UTC'), Timestamp('2021-07-07 18:39:19+0000', tz='UTC'), Timestamp('2021-07-12 19:20:46+0000', tz='UTC'), Timestamp('2021-07-12 19:16:24+0000', tz='UTC'), Timestamp('2021-08-12 19:59:46+0000', tz='UTC'), Timestamp('2021-07-27 09:21:39+0000', tz='UTC'), Timestamp('2021-08-04 15:37:42+0000', tz='UTC'), Timestamp('2021-08-04 15:38:26+0000', tz='UTC'), Timestamp('2021-07-12 19:36:41+0000', tz='UTC'), Timestamp('2021-07-12 19:36:17+0000', tz='UTC'), Timestamp('2021-07-12 19:36:52+0000', tz='UTC'), Timestamp('2021-07-12 19:43:04+0000', tz='UTC'), Timestamp('2021-07-27 15:48:30+0000', tz='UTC'), Timestamp('2021-08-12 19:59:50+0000', tz='UTC'), Timestamp('2021-07-27 15:18:56+0000', tz='UTC'), Timestamp('2021-08-13 14:48:09+0000', tz='UTC'), Timestamp('2021-07-12 19:35:50+0000', tz='UTC'), Timestamp('2021-07-12 19:35:48+0000', tz='UTC'), Timestamp('2021-07-12 19:36:01+0000', tz='UTC'), Timestamp('2021-07-12 19:36:56+0000', tz='UTC'), Timestamp('2021-07-12 19:43:08+0000', tz='UTC'), Timestamp('2021-07-12 19:43:19+0000', tz='UTC'), Timestamp('2021-07-14 10:40:18+0000', tz='UTC'), Timestamp('2021-07-27 17:21:53+0000', tz='UTC'), Timestamp('2021-07-12 19:33:51+0000', tz='UTC'), Timestamp('2021-08-10 07:02:06+0000', tz='UTC'), Timestamp('2021-08-12 19:59:48+0000', tz='UTC'), Timestamp('2021-08-04 15:37:44+0000', tz='UTC'), Timestamp('2021-07-12 19:43:06+0000', tz='UTC'), Timestamp('2021-08-04 15:37:48+0000', tz='UTC'), Timestamp('2021-07-27 12:24:28+0000', tz='UTC'), Timestamp('2021-08-04 15:37:59+0000', tz='UTC'), Timestamp('2021-07-12 19:36:58+0000', tz='UTC'), Timestamp('2021-07-12 19:37:09+0000', tz='UTC'), Timestamp('2021-07-12 19:43:10+0000', tz='UTC'), Timestamp('2021-08-04 15:38:10+0000', tz='UTC'), Timestamp('2021-08-04 15:38:14+0000', tz='UTC'), Timestamp('2021-07-12 19:36:18+0000', tz='UTC'), Timestamp('2021-07-07 18:49:32+0000', tz='UTC'), Timestamp('2021-08-13 14:44:15+0000', tz='UTC'), Timestamp('2021-08-13 14:45:34+0000', tz='UTC'), Timestamp('2021-08-13 14:46:29+0000', tz='UTC'), Timestamp('2021-08-06 13:53:44+0000', tz='UTC'), Timestamp('2021-07-12 18:48:15+0000', tz='UTC'), Timestamp('2021-08-04 15:38:01+0000', tz='UTC'), Timestamp('2021-08-04 15:38:12+0000', tz='UTC'), Timestamp('2021-07-12 19:43:23+0000', tz='UTC'), Timestamp('2021-08-04 15:38:16+0000', tz='UTC'), Timestamp('2021-07-12 19:36:31+0000', tz='UTC'), Timestamp('2021-07-12 19:36:20+0000', tz='UTC'), Timestamp('2021-07-12 19:35:56+0000', tz='UTC'), Timestamp('2021-07-12 19:36:07+0000', tz='UTC'), Timestamp('2021-07-12 19:43:27+0000', tz='UTC'), Timestamp('2021-07-12 19:36:35+0000', tz='UTC'), Timestamp('2021-08-13 14:49:49+0000', tz='UTC'), Timestamp('2021-08-04 15:38:18+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-17 23:25:05+0000', tz='UTC'), Timestamp('2021-06-10 11:18:10+0000', tz='UTC'), Timestamp('2021-06-14 19:30:45+0000', tz='UTC'), Timestamp('2021-06-14 14:06:44+0000', tz='UTC'), Timestamp('2021-06-22 22:01:43+0000', tz='UTC'), Timestamp('2021-06-25 19:46:07+0000', tz='UTC'), Timestamp('2021-06-13 22:09:00+0000', tz='UTC'), Timestamp('2021-06-14 11:12:14+0000', tz='UTC'), Timestamp('2021-06-08 20:11:48+0000', tz='UTC'), Timestamp('2021-06-14 13:52:45+0000', tz='UTC'), Timestamp('2021-06-14 14:06:17+0000', tz='UTC'), Timestamp('2021-06-21 17:45:17+0000', tz='UTC'), Timestamp('2021-06-15 23:26:36+0000', tz='UTC'), Timestamp('2021-06-20 22:13:24+0000', tz='UTC'), Timestamp('2021-06-26 18:37:00+0000', tz='UTC'), Timestamp('2021-06-13 16:53:47+0000', tz='UTC'), Timestamp('2021-06-09 10:47:29+0000', tz='UTC'), Timestamp('2021-06-15 00:06:05+0000', tz='UTC'), Timestamp('2021-06-16 18:15:27+0000', tz='UTC'), Timestamp('2021-06-19 17:40:29+0000', tz='UTC'), Timestamp('2021-06-06 11:58:06+0000', tz='UTC'), Timestamp('2021-06-15 18:24:05+0000', tz='UTC'), Timestamp('2021-06-14 14:06:45+0000', tz='UTC'), Timestamp('2021-06-17 17:50:00+0000', tz='UTC'), Timestamp('2021-06-09 23:44:13+0000', tz='UTC'), Timestamp('2021-06-06 16:54:49+0000', tz='UTC'), Timestamp('2021-06-17 22:01:19+0000', tz='UTC'), Timestamp('2021-06-18 17:52:05+0000', tz='UTC'), Timestamp('2021-06-11 18:58:25+0000', tz='UTC'), Timestamp('2021-06-08 10:44:19+0000', tz='UTC'), Timestamp('2021-06-12 07:18:04+0000', tz='UTC'), Timestamp('2021-06-12 17:25:07+0000', tz='UTC'), Timestamp('2021-06-07 10:48:36+0000', tz='UTC'), Timestamp('2021-06-20 17:49:58+0000', tz='UTC'), Timestamp('2021-06-22 18:13:51+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-14 01:56:59+0000', tz='UTC'), Timestamp('2021-07-23 07:09:35+0000', tz='UTC'), Timestamp('2021-07-22 07:16:44+0000', tz='UTC'), Timestamp('2021-07-17 18:10:06+0000', tz='UTC'), Timestamp('2021-07-31 06:05:46+0000', tz='UTC'), Timestamp('2021-08-21 01:36:05+0000', tz='UTC'), Timestamp('2021-07-17 11:51:14+0000', tz='UTC'), Timestamp('2021-08-06 10:03:14+0000', tz='UTC'), Timestamp('2021-08-27 00:31:51+0000', tz='UTC'), Timestamp('2021-08-11 03:26:01+0000', tz='UTC'), Timestamp('2021-08-18 02:13:43+0000', tz='UTC'), Timestamp('2021-08-30 10:08:01+0000', tz='UTC'), Timestamp('2021-07-15 17:40:48+0000', tz='UTC'), Timestamp('2021-08-01 23:23:53+0000', tz='UTC'), Timestamp('2021-08-10 03:30:30+0000', tz='UTC'), Timestamp('2021-08-11 19:48:41+0000', tz='UTC'), Timestamp('2021-07-30 00:14:27+0000', tz='UTC'), Timestamp('2021-08-29 09:04:42+0000', tz='UTC'), Timestamp('2021-08-25 00:42:30+0000', tz='UTC'), Timestamp('2021-08-02 05:42:31+0000', tz='UTC'), Timestamp('2021-08-26 12:15:00+0000', tz='UTC'), Timestamp('2021-06-17 11:07:02+0000', tz='UTC'), Timestamp('2021-06-08 23:27:57+0000', tz='UTC'), Timestamp('2021-07-10 11:23:03+0000', tz='UTC'), Timestamp('2021-08-22 13:44:57+0000', tz='UTC'), Timestamp('2021-08-24 12:53:23+0000', tz='UTC'), Timestamp('2021-08-29 23:58:42+0000', tz='UTC'), Timestamp('2021-06-29 15:26:50+0000', tz='UTC'), Timestamp('2021-07-14 18:34:25+0000', tz='UTC'), Timestamp('2021-07-19 16:16:13+0000', tz='UTC'), Timestamp('2021-07-07 10:04:11+0000', tz='UTC'), Timestamp('2021-07-10 02:43:55+0000', tz='UTC'), Timestamp('2021-06-09 23:14:09+0000', tz='UTC'), Timestamp('2021-06-18 05:49:01+0000', tz='UTC'), Timestamp('2021-07-24 04:30:37+0000', tz='UTC'), Timestamp('2021-07-12 18:11:10+0000', tz='UTC'), Timestamp('2021-08-08 20:28:47+0000', tz='UTC'), Timestamp('2021-07-23 04:39:08+0000', tz='UTC'), Timestamp('2021-06-06 19:02:57+0000', tz='UTC'), Timestamp('2021-07-29 06:01:08+0000', tz='UTC'), Timestamp('2021-08-13 03:13:14+0000', tz='UTC'), Timestamp('2021-07-22 04:53:15+0000', tz='UTC'), Timestamp('2021-07-16 17:51:04+0000', tz='UTC'), Timestamp('2021-07-13 13:42:52+0000', tz='UTC'), Timestamp('2021-07-27 06:38:50+0000', tz='UTC'), Timestamp('2021-08-03 05:00:00+0000', tz='UTC'), Timestamp('2021-08-03 22:29:48+0000', tz='UTC'), Timestamp('2021-07-20 16:03:54+0000', tz='UTC'), Timestamp('2021-07-11 11:42:50+0000', tz='UTC'), Timestamp('2021-06-29 19:16:02+0000', tz='UTC'), Timestamp('2021-07-16 12:20:05+0000', tz='UTC'), Timestamp('2021-07-28 00:46:47+0000', tz='UTC'), Timestamp('2021-08-10 19:53:12+0000', tz='UTC'), Timestamp('2021-08-23 00:49:37+0000', tz='UTC'), Timestamp('2021-08-13 19:19:12+0000', tz='UTC'), Timestamp('2021-06-10 03:16:38+0000', tz='UTC'), Timestamp('2021-07-26 06:44:18+0000', tz='UTC'), Timestamp('2021-08-31 23:38:29+0000', tz='UTC'), Timestamp('2021-07-29 19:52:02+0000', tz='UTC'), Timestamp('2021-07-12 16:18:51+0000', tz='UTC'), Timestamp('2021-06-17 22:58:44+0000', tz='UTC'), Timestamp('2021-06-21 06:18:55+0000', tz='UTC'), Timestamp('2021-08-21 13:52:48+0000', tz='UTC'), Timestamp('2021-06-06 15:30:21+0000', tz='UTC'), Timestamp('2021-07-15 12:31:41+0000', tz='UTC'), Timestamp('2021-07-14 13:46:25+0000', tz='UTC'), Timestamp('2021-08-31 09:39:29+0000', tz='UTC'), Timestamp('2021-07-22 04:53:13+0000', tz='UTC'), Timestamp('2021-08-17 16:08:27+0000', tz='UTC'), Timestamp('2021-06-20 23:48:59+0000', tz='UTC'), Timestamp('2021-06-23 05:51:22+0000', tz='UTC'), Timestamp('2021-08-16 02:42:55+0000', tz='UTC'), Timestamp('2021-08-12 03:23:38+0000', tz='UTC'), Timestamp('2021-06-10 23:42:25+0000', tz='UTC'), Timestamp('2021-07-18 16:48:27+0000', tz='UTC'), Timestamp('2021-08-12 19:17:51+0000', tz='UTC'), Timestamp('2021-08-06 21:27:00+0000', tz='UTC'), Timestamp('2021-07-14 14:24:55+0000', tz='UTC'), Timestamp('2021-06-17 05:56:14+0000', tz='UTC'), Timestamp('2021-07-13 18:21:10+0000', tz='UTC'), Timestamp('2021-07-20 11:47:40+0000', tz='UTC'), Timestamp('2021-08-05 21:26:28+0000', tz='UTC'), Timestamp('2021-07-11 16:51:17+0000', tz='UTC'), Timestamp('2021-07-31 23:48:20+0000', tz='UTC'), Timestamp('2021-07-29 00:08:58+0000', tz='UTC'), Timestamp('2021-08-09 03:57:43+0000', tz='UTC'), Timestamp('2021-06-08 20:30:11+0000', tz='UTC'), Timestamp('2021-08-14 02:58:38+0000', tz='UTC'), Timestamp('2021-08-21 20:27:17+0000', tz='UTC'), Timestamp('2021-07-30 23:53:48+0000', tz='UTC'), Timestamp('2021-08-01 06:02:05+0000', tz='UTC'), Timestamp('2021-06-22 06:19:27+0000', tz='UTC'), Timestamp('2021-08-04 04:52:45+0000', tz='UTC'), Timestamp('2021-07-21 07:43:24+0000', tz='UTC'), Timestamp('2021-07-18 12:43:48+0000', tz='UTC'), Timestamp('2021-07-08 23:35:51+0000', tz='UTC'), Timestamp('2021-07-26 02:20:48+0000', tz='UTC'), Timestamp('2021-08-18 15:14:56+0000', tz='UTC'), Timestamp('2021-06-23 00:13:14+0000', tz='UTC'), Timestamp('2021-07-28 06:21:36+0000', tz='UTC'), Timestamp('2021-06-29 15:54:26+0000', tz='UTC'), Timestamp('2021-07-19 12:11:47+0000', tz='UTC'), Timestamp('2021-06-05 19:53:25+0000', tz='UTC'), Timestamp('2021-08-15 16:44:35+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 20:14:44+0000', tz='UTC'), Timestamp('2021-07-08 21:10:58+0000', tz='UTC'), Timestamp('2021-07-22 05:29:11+0000', tz='UTC'), Timestamp('2021-07-19 19:36:04+0000', tz='UTC'), Timestamp('2021-08-04 01:52:04+0000', tz='UTC'), Timestamp('2021-07-27 04:12:03+0000', tz='UTC'), Timestamp('2021-07-14 20:50:35+0000', tz='UTC'), Timestamp('2021-07-28 02:32:23+0000', tz='UTC'), Timestamp('2021-07-16 20:13:42+0000', tz='UTC'), Timestamp('2021-07-20 06:31:58+0000', tz='UTC'), Timestamp('2021-08-07 03:51:29+0000', tz='UTC'), Timestamp('2021-08-03 23:43:22+0000', tz='UTC'), Timestamp('2021-07-30 11:31:06+0000', tz='UTC'), Timestamp('2021-07-13 20:49:25+0000', tz='UTC'), Timestamp('2021-07-07 21:22:06+0000', tz='UTC'), Timestamp('2021-07-23 03:41:02+0000', tz='UTC'), Timestamp('2021-07-10 20:39:15+0000', tz='UTC'), Timestamp('2021-08-11 00:01:44+0000', tz='UTC'), Timestamp('2021-07-16 16:29:08+0000', tz='UTC'), Timestamp('2021-07-19 20:00:09+0000', tz='UTC'), Timestamp('2021-07-16 19:44:54+0000', tz='UTC'), Timestamp('2021-07-29 02:28:14+0000', tz='UTC'), Timestamp('2021-07-14 20:03:13+0000', tz='UTC'), Timestamp('2021-07-10 20:58:17+0000', tz='UTC'), Timestamp('2021-07-15 20:02:28+0000', tz='UTC'), Timestamp('2021-07-12 20:50:17+0000', tz='UTC'), Timestamp('2021-08-10 21:58:05+0000', tz='UTC'), Timestamp('2021-07-15 16:28:32+0000', tz='UTC'), Timestamp('2021-08-14 13:49:39+0000', tz='UTC'), Timestamp('2021-07-20 06:31:46+0000', tz='UTC'), Timestamp('2021-08-04 23:04:17+0000', tz='UTC'), Timestamp('2021-08-11 21:54:23+0000', tz='UTC'), Timestamp('2021-07-07 21:22:14+0000', tz='UTC'), Timestamp('2021-07-12 20:26:46+0000', tz='UTC'), Timestamp('2021-07-15 20:28:30+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:01:29+0000', tz='UTC'), Timestamp('2021-08-13 22:05:18+0000', tz='UTC'), Timestamp('2021-08-12 00:12:38+0000', tz='UTC'), Timestamp('2021-08-12 00:01:42+0000', tz='UTC'), Timestamp('2021-08-12 00:13:13+0000', tz='UTC'), Timestamp('2021-08-12 00:03:43+0000', tz='UTC'), Timestamp('2021-08-11 23:20:28+0000', tz='UTC'), Timestamp('2021-08-11 23:23:44+0000', tz='UTC'), Timestamp('2021-08-22 16:52:17+0000', tz='UTC'), Timestamp('2021-08-12 00:40:06+0000', tz='UTC'), Timestamp('2021-08-12 00:12:42+0000', tz='UTC'), Timestamp('2021-08-12 00:14:03+0000', tz='UTC'), Timestamp('2021-08-11 23:21:01+0000', tz='UTC'), Timestamp('2021-08-12 00:11:29+0000', tz='UTC'), Timestamp('2021-08-12 00:40:10+0000', tz='UTC'), Timestamp('2021-08-12 00:03:27+0000', tz='UTC'), Timestamp('2021-08-12 00:01:28+0000', tz='UTC'), Timestamp('2021-08-12 00:03:49+0000', tz='UTC'), Timestamp('2021-08-12 00:04:11+0000', tz='UTC'), Timestamp('2021-08-13 23:25:35+0000', tz='UTC'), Timestamp('2021-08-20 08:08:09+0000', tz='UTC'), Timestamp('2021-08-27 22:12:51+0000', tz='UTC'), Timestamp('2021-08-11 23:21:38+0000', tz='UTC'), Timestamp('2021-08-12 22:18:14+0000', tz='UTC'), Timestamp('2021-08-22 22:07:51+0000', tz='UTC'), Timestamp('2021-08-11 23:36:38+0000', tz='UTC'), Timestamp('2021-08-29 20:41:07+0000', tz='UTC'), Timestamp('2021-08-18 08:03:51+0000', tz='UTC'), Timestamp('2021-08-12 00:11:31+0000', tz='UTC'), Timestamp('2021-08-18 07:38:19+0000', tz='UTC'), Timestamp('2021-08-29 11:27:35+0000', tz='UTC'), Timestamp('2021-08-12 00:01:41+0000', tz='UTC'), Timestamp('2021-08-12 00:03:31+0000', tz='UTC'), Timestamp('2021-08-12 00:11:24+0000', tz='UTC'), Timestamp('2021-08-12 22:40:56+0000', tz='UTC'), Timestamp('2021-08-12 00:03:33+0000', tz='UTC'), Timestamp('2021-08-15 22:51:45+0000', tz='UTC'), Timestamp('2021-08-18 07:38:54+0000', tz='UTC'), Timestamp('2021-08-11 23:23:03+0000', tz='UTC'), Timestamp('2021-08-11 23:00:45+0000', tz='UTC'), Timestamp('2021-08-12 00:03:44+0000', tz='UTC'), Timestamp('2021-08-12 00:40:22+0000', tz='UTC'), Timestamp('2021-08-15 20:45:20+0000', tz='UTC'), Timestamp('2021-08-12 00:03:48+0000', tz='UTC'), Timestamp('2021-08-12 00:01:38+0000', tz='UTC'), Timestamp('2021-08-12 00:14:02+0000', tz='UTC'), Timestamp('2021-08-12 00:03:39+0000', tz='UTC'), Timestamp('2021-08-11 23:36:37+0000', tz='UTC'), Timestamp('2021-08-12 00:03:32+0000', tz='UTC'), Timestamp('2021-08-12 00:40:11+0000', tz='UTC'), Timestamp('2021-08-12 23:18:40+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-31 12:30:53+0000', tz='UTC'), Timestamp('2021-08-31 12:31:04+0000', tz='UTC'), Timestamp('2021-08-31 12:31:15+0000', tz='UTC'), Timestamp('2021-08-25 19:47:58+0000', tz='UTC'), Timestamp('2021-08-31 12:31:26+0000', tz='UTC'), Timestamp('2021-08-31 12:31:37+0000', tz='UTC'), Timestamp('2021-08-25 17:59:10+0000', tz='UTC'), Timestamp('2021-08-31 12:33:58+0000', tz='UTC'), Timestamp('2021-08-31 14:02:44+0000', tz='UTC'), Timestamp('2021-08-31 14:03:04+0000', tz='UTC'), Timestamp('2021-08-25 17:58:39+0000', tz='UTC'), Timestamp('2021-08-31 12:31:30+0000', tz='UTC'), Timestamp('2021-08-31 14:04:23+0000', tz='UTC'), Timestamp('2021-08-26 19:28:06+0000', tz='UTC'), Timestamp('2021-08-31 12:30:55+0000', tz='UTC'), Timestamp('2021-08-31 12:33:51+0000', tz='UTC'), Timestamp('2021-08-31 12:30:59+0000', tz='UTC'), Timestamp('2021-08-31 15:52:42+0000', tz='UTC'), Timestamp('2021-08-31 14:04:05+0000', tz='UTC'), Timestamp('2021-08-31 15:52:33+0000', tz='UTC'), Timestamp('2021-08-25 17:58:34+0000', tz='UTC'), Timestamp('2021-08-31 14:02:41+0000', tz='UTC'), Timestamp('2021-08-31 13:13:45+0000', tz='UTC'), Timestamp('2021-08-31 18:26:08+0000', tz='UTC'), Timestamp('2021-08-28 16:56:47+0000', tz='UTC'), Timestamp('2021-08-30 15:57:01+0000', tz='UTC'), Timestamp('2021-08-31 16:00:04+0000', tz='UTC'), Timestamp('2021-08-31 14:03:01+0000', tz='UTC'), Timestamp('2021-08-29 18:48:50+0000', tz='UTC'), Timestamp('2021-08-31 15:53:28+0000', tz='UTC'), Timestamp('2021-08-31 12:31:16+0000', tz='UTC'), Timestamp('2021-08-31 12:31:27+0000', tz='UTC'), Timestamp('2021-08-25 19:47:59+0000', tz='UTC'), Timestamp('2021-08-25 19:48:10+0000', tz='UTC'), Timestamp('2021-08-25 17:58:38+0000', tz='UTC'), Timestamp('2021-08-25 17:58:49+0000', tz='UTC'), Timestamp('2021-08-31 12:31:18+0000', tz='UTC'), Timestamp('2021-08-31 13:18:20+0000', tz='UTC'), Timestamp('2021-08-31 13:18:22+0000', tz='UTC'), Timestamp('2021-08-31 14:02:43+0000', tz='UTC'), Timestamp('2021-08-31 15:52:37+0000', tz='UTC'), Timestamp('2021-09-02 05:07:32+0000', tz='UTC'), Timestamp('2021-08-31 15:52:41+0000', tz='UTC'), Timestamp('2021-08-29 16:18:21+0000', tz='UTC'), Timestamp('2021-08-31 15:52:47+0000', tz='UTC'), Timestamp('2021-08-31 13:18:19+0000', tz='UTC'), Timestamp('2021-08-31 15:52:34+0000', tz='UTC'), Timestamp('2021-08-26 19:03:43+0000', tz='UTC'), Timestamp('2021-09-02 14:27:53+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 15:27:38+0000', tz='UTC'), Timestamp('2021-07-16 15:34:34+0000', tz='UTC'), Timestamp('2021-07-16 15:44:59+0000', tz='UTC'), Timestamp('2021-07-16 13:56:02+0000', tz='UTC'), Timestamp('2021-07-16 13:56:00+0000', tz='UTC'), Timestamp('2021-07-17 08:13:39+0000', tz='UTC'), Timestamp('2021-07-16 14:44:58+0000', tz='UTC'), Timestamp('2021-07-16 14:32:21+0000', tz='UTC'), Timestamp('2021-07-16 14:36:01+0000', tz='UTC'), Timestamp('2021-07-07 21:46:37+0000', tz='UTC'), Timestamp('2021-07-19 10:42:38+0000', tz='UTC'), Timestamp('2021-07-15 20:33:09+0000', tz='UTC'), Timestamp('2021-07-16 15:27:40+0000', tz='UTC'), Timestamp('2021-07-16 15:40:50+0000', tz='UTC'), Timestamp('2021-07-16 15:39:24+0000', tz='UTC'), Timestamp('2021-07-08 21:30:44+0000', tz='UTC'), Timestamp('2021-07-16 13:56:04+0000', tz='UTC'), Timestamp('2021-07-16 15:27:33+0000', tz='UTC'), Timestamp('2021-07-16 15:37:03+0000', tz='UTC'), Timestamp('2021-07-16 15:45:03+0000', tz='UTC'), Timestamp('2021-07-19 13:48:32+0000', tz='UTC'), Timestamp('2021-07-16 13:56:06+0000', tz='UTC'), Timestamp('2021-07-16 14:33:40+0000', tz='UTC'), Timestamp('2021-07-16 13:55:46+0000', tz='UTC'), Timestamp('2021-07-21 05:20:12+0000', tz='UTC'), Timestamp('2021-07-16 14:32:25+0000', tz='UTC'), Timestamp('2021-07-23 16:25:14+0000', tz='UTC'), Timestamp('2021-07-12 21:00:23+0000', tz='UTC'), Timestamp('2021-07-15 20:03:48+0000', tz='UTC'), Timestamp('2021-07-07 19:57:00+0000', tz='UTC'), Timestamp('2021-07-16 15:34:42+0000', tz='UTC'), Timestamp('2021-07-16 15:44:23+0000', tz='UTC'), Timestamp('2021-07-19 20:47:09+0000', tz='UTC'), Timestamp('2021-07-16 20:22:59+0000', tz='UTC'), Timestamp('2021-07-16 16:03:36+0000', tz='UTC'), Timestamp('2021-07-17 08:58:56+0000', tz='UTC'), Timestamp('2021-07-19 13:02:43+0000', tz='UTC'), Timestamp('2021-07-16 13:55:59+0000', tz='UTC'), Timestamp('2021-07-20 20:42:13+0000', tz='UTC'), Timestamp('2021-07-16 15:39:21+0000', tz='UTC'), Timestamp('2021-07-16 15:40:51+0000', tz='UTC'), Timestamp('2021-07-17 04:56:52+0000', tz='UTC'), Timestamp('2021-07-07 19:46:50+0000', tz='UTC'), Timestamp('2021-07-19 13:00:26+0000', tz='UTC'), Timestamp('2021-07-16 16:10:36+0000', tz='UTC'), Timestamp('2021-07-16 13:56:01+0000', tz='UTC'), Timestamp('2021-07-16 14:32:24+0000', tz='UTC'), Timestamp('2021-07-07 19:45:35+0000', tz='UTC'), Timestamp('2021-07-16 14:36:04+0000', tz='UTC'), Timestamp('2021-07-16 15:37:02+0000', tz='UTC'), Timestamp('2021-07-16 13:56:03+0000', tz='UTC'), Timestamp('2021-07-16 14:32:26+0000', tz='UTC'), Timestamp('2021-07-16 15:27:19+0000', tz='UTC'), Timestamp('2021-07-16 15:27:32+0000', tz='UTC'), Timestamp('2021-07-17 15:57:24+0000', tz='UTC'), Timestamp('2021-07-20 10:20:07+0000', tz='UTC'), Timestamp('2021-07-16 13:56:16+0000', tz='UTC'), Timestamp('2021-07-19 07:51:32+0000', tz='UTC'), Timestamp('2021-07-16 20:41:36+0000', tz='UTC'), Timestamp('2021-07-07 21:46:38+0000', tz='UTC'), Timestamp('2021-07-16 13:55:45+0000', tz='UTC'), Timestamp('2021-07-16 15:27:47+0000', tz='UTC'), Timestamp('2021-07-16 15:44:24+0000', tz='UTC'), Timestamp('2021-07-18 14:36:24+0000', tz='UTC'), Timestamp('2021-07-13 20:29:07+0000', tz='UTC'), Timestamp('2021-07-19 14:32:08+0000', tz='UTC'), Timestamp('2021-07-20 06:25:10+0000', tz='UTC'), Timestamp('2021-07-19 11:13:54+0000', tz='UTC'), Timestamp('2021-07-12 20:49:13+0000', tz='UTC'), Timestamp('2021-07-07 19:46:45+0000', tz='UTC'), Timestamp('2021-07-18 08:18:41+0000', tz='UTC'), Timestamp('2021-07-19 12:59:37+0000', tz='UTC'), Timestamp('2021-07-16 13:56:05+0000', tz='UTC'), Timestamp('2021-07-19 10:41:04+0000', tz='UTC'), Timestamp('2021-07-13 21:01:28+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-31 06:26:52+0000', tz='UTC'), Timestamp('2021-08-23 16:53:53+0000', tz='UTC'), Timestamp('2021-08-29 14:52:59+0000', tz='UTC'), Timestamp('2021-08-23 16:54:18+0000', tz='UTC'), Timestamp('2021-08-29 13:53:59+0000', tz='UTC'), Timestamp('2021-08-24 16:04:49+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 09:38:24+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-30 05:18:41+0000', tz='UTC'), Timestamp('2021-08-30 03:27:38+0000', tz='UTC'), Timestamp('2021-08-28 21:09:42+0000', tz='UTC'), Timestamp('2021-08-22 13:48:57+0000', tz='UTC'), Timestamp('2021-08-22 11:53:13+0000', tz='UTC'), Timestamp('2021-08-24 12:52:28+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-12 18:02:13+0000', tz='UTC'), Timestamp('2021-07-12 19:18:47+0000', tz='UTC'), Timestamp('2021-07-24 06:56:21+0000', tz='UTC'), Timestamp('2021-07-15 13:57:17+0000', tz='UTC'), Timestamp('2021-07-13 17:32:31+0000', tz='UTC'), Timestamp('2021-07-16 16:32:49+0000', tz='UTC'), Timestamp('2021-07-19 11:45:36+0000', tz='UTC'), Timestamp('2021-07-15 18:45:57+0000', tz='UTC'), Timestamp('2021-07-16 18:39:47+0000', tz='UTC'), Timestamp('2021-07-20 12:57:26+0000', tz='UTC'), Timestamp('2021-07-20 09:48:38+0000', tz='UTC'), Timestamp('2021-07-13 19:24:20+0000', tz='UTC'), Timestamp('2021-07-19 11:45:35+0000', tz='UTC'), Timestamp('2021-07-15 16:33:16+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 10:25:56+0000', tz='UTC'), Timestamp('2021-07-16 10:47:42+0000', tz='UTC'), Timestamp('2021-07-17 10:31:17+0000', tz='UTC'), Timestamp('2021-07-14 11:45:42+0000', tz='UTC'), Timestamp('2021-07-13 11:15:44+0000', tz='UTC'), Timestamp('2021-07-17 10:16:39+0000', tz='UTC'), Timestamp('2021-07-13 11:15:12+0000', tz='UTC'), Timestamp('2021-07-13 11:15:51+0000', tz='UTC'), Timestamp('2021-08-02 00:04:57+0000', tz='UTC'), Timestamp('2021-07-20 07:26:52+0000', tz='UTC'), Timestamp('2021-07-20 07:43:53+0000', tz='UTC'), Timestamp('2021-07-21 06:21:35+0000', tz='UTC'), Timestamp('2021-07-13 11:15:01+0000', tz='UTC'), Timestamp('2021-07-14 11:42:53+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-19 00:41:19+0000', tz='UTC'), Timestamp('2021-06-20 15:06:46+0000', tz='UTC'), Timestamp('2021-06-18 08:35:51+0000', tz='UTC'), Timestamp('2021-06-20 00:29:21+0000', tz='UTC'), Timestamp('2021-06-17 07:39:05+0000', tz='UTC'), Timestamp('2021-06-05 17:33:13+0000', tz='UTC'), Timestamp('2021-06-21 00:34:27+0000', tz='UTC'), Timestamp('2021-06-20 07:42:12+0000', tz='UTC'), Timestamp('2021-06-22 13:32:18+0000', tz='UTC'), Timestamp('2021-06-18 00:56:26+0000', tz='UTC'), Timestamp('2021-06-19 07:39:11+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-15 23:04:12+0000', tz='UTC'), Timestamp('2021-07-20 08:50:55+0000', tz='UTC'), Timestamp('2021-07-18 05:28:28+0000', tz='UTC'), Timestamp('2021-07-14 00:35:38+0000', tz='UTC'), Timestamp('2021-07-16 01:13:14+0000', tz='UTC'), Timestamp('2021-07-13 01:06:58+0000', tz='UTC'), Timestamp('2021-08-16 20:15:59+0000', tz='UTC'), Timestamp('2021-07-15 20:58:15+0000', tz='UTC'), Timestamp('2021-07-13 23:43:56+0000', tz='UTC'), Timestamp('2021-08-17 03:36:59+0000', tz='UTC'), Timestamp('2021-08-20 02:48:09+0000', tz='UTC'), Timestamp('2021-07-21 03:16:01+0000', tz='UTC'), Timestamp('2021-07-18 06:18:27+0000', tz='UTC'), Timestamp('2021-07-13 05:59:39+0000', tz='UTC'), Timestamp('2021-07-20 08:47:49+0000', tz='UTC'), Timestamp('2021-07-14 05:27:50+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-24 08:30:05+0000', tz='UTC'), Timestamp('2021-08-29 06:10:45+0000', tz='UTC'), Timestamp('2021-08-29 22:01:13+0000', tz='UTC'), Timestamp('2021-08-31 07:11:47+0000', tz='UTC'), Timestamp('2021-08-27 07:49:29+0000', tz='UTC'), Timestamp('2021-08-22 08:51:06+0000', tz='UTC'), Timestamp('2021-08-25 00:24:01+0000', tz='UTC'), Timestamp('2021-08-23 08:33:29+0000', tz='UTC'), Timestamp('2021-08-31 21:42:08+0000', tz='UTC'), Timestamp('2021-08-23 01:46:28+0000', tz='UTC'), Timestamp('2021-08-26 23:40:21+0000', tz='UTC'), Timestamp('2021-08-30 07:29:20+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 11:00:22+0000', tz='UTC'), Timestamp('2021-07-18 19:30:22+0000', tz='UTC'), Timestamp('2021-08-29 06:09:21+0000', tz='UTC'), Timestamp('2021-09-02 05:09:00+0000', tz='UTC'), Timestamp('2021-07-27 13:51:25+0000', tz='UTC'), Timestamp('2021-08-04 02:55:27+0000', tz='UTC'), Timestamp('2021-08-03 12:49:33+0000', tz='UTC'), Timestamp('2021-07-11 20:37:39+0000', tz='UTC'), Timestamp('2021-07-14 20:20:35+0000', tz='UTC'), Timestamp('2021-06-27 00:42:51+0000', tz='UTC'), Timestamp('2021-08-18 09:53:17+0000', tz='UTC'), Timestamp('2021-07-29 13:44:16+0000', tz='UTC'), Timestamp('2021-08-17 07:07:09+0000', tz='UTC'), Timestamp('2021-06-26 00:36:28+0000', tz='UTC'), Timestamp('2021-07-06 22:13:53+0000', tz='UTC'), Timestamp('2021-07-17 10:52:59+0000', tz='UTC'), Timestamp('2021-08-11 08:49:42+0000', tz='UTC'), Timestamp('2021-06-28 23:57:09+0000', tz='UTC'), Timestamp('2021-07-19 19:36:30+0000', tz='UTC'), Timestamp('2021-08-24 04:27:18+0000', tz='UTC'), Timestamp('2021-06-30 00:34:41+0000', tz='UTC'), Timestamp('2021-07-11 21:51:24+0000', tz='UTC'), Timestamp('2021-06-28 00:34:10+0000', tz='UTC'), Timestamp('2021-06-23 01:11:14+0000', tz='UTC'), Timestamp('2021-07-13 20:23:51+0000', tz='UTC'), Timestamp('2021-07-15 21:00:15+0000', tz='UTC'), Timestamp('2021-06-29 23:55:23+0000', tz='UTC'), Timestamp('2021-06-23 01:07:03+0000', tz='UTC'), Timestamp('2021-07-21 20:02:50+0000', tz='UTC'), Timestamp('2021-08-12 08:53:10+0000', tz='UTC'), Timestamp('2021-07-22 19:45:46+0000', tz='UTC'), Timestamp('2021-07-07 22:55:45+0000', tz='UTC'), Timestamp('2021-07-28 13:51:04+0000', tz='UTC'), Timestamp('2021-08-13 08:35:29+0000', tz='UTC'), Timestamp('2021-07-30 13:29:21+0000', tz='UTC'), Timestamp('2021-08-14 10:27:54+0000', tz='UTC'), Timestamp('2021-07-17 19:40:43+0000', tz='UTC'), Timestamp('2021-08-19 08:27:52+0000', tz='UTC'), Timestamp('2021-08-06 11:06:23+0000', tz='UTC'), Timestamp('2021-07-25 14:32:41+0000', tz='UTC'), Timestamp('2021-07-04 22:29:10+0000', tz='UTC'), Timestamp('2021-07-12 20:45:22+0000', tz='UTC'), Timestamp('2021-08-26 07:40:44+0000', tz='UTC'), Timestamp('2021-07-13 21:38:20+0000', tz='UTC'), Timestamp('2021-06-28 23:26:08+0000', tz='UTC'), Timestamp('2021-07-07 21:39:02+0000', tz='UTC'), Timestamp('2021-07-31 13:38:17+0000', tz='UTC'), Timestamp('2021-08-05 12:52:09+0000', tz='UTC'), Timestamp('2021-07-20 19:20:35+0000', tz='UTC'), Timestamp('2021-06-24 01:07:39+0000', tz='UTC'), Timestamp('2021-07-24 14:45:34+0000', tz='UTC'), Timestamp('2021-08-23 04:50:02+0000', tz='UTC'), Timestamp('2021-08-28 06:58:55+0000', tz='UTC'), Timestamp('2021-08-30 05:55:09+0000', tz='UTC'), Timestamp('2021-07-01 18:32:00+0000', tz='UTC'), Timestamp('2021-08-18 06:32:27+0000', tz='UTC'), Timestamp('2021-08-05 11:25:19+0000', tz='UTC'), Timestamp('2021-07-24 14:45:36+0000', tz='UTC'), Timestamp('2021-08-08 11:49:29+0000', tz='UTC'), Timestamp('2021-07-10 22:18:53+0000', tz='UTC'), Timestamp('2021-07-01 00:08:14+0000', tz='UTC'), Timestamp('2021-08-08 09:44:06+0000', tz='UTC'), Timestamp('2021-08-24 07:55:42+0000', tz='UTC'), Timestamp('2021-08-20 08:45:36+0000', tz='UTC'), Timestamp('2021-08-28 02:58:34+0000', tz='UTC'), Timestamp('2021-07-06 23:08:23+0000', tz='UTC'), Timestamp('2021-08-11 18:24:57+0000', tz='UTC'), Timestamp('2021-07-26 14:30:53+0000', tz='UTC'), Timestamp('2021-07-09 21:07:48+0000', tz='UTC'), Timestamp('2021-08-02 12:26:40+0000', tz='UTC'), Timestamp('2021-07-27 14:30:59+0000', tz='UTC'), Timestamp('2021-07-05 23:01:20+0000', tz='UTC'), Timestamp('2021-07-16 20:45:08+0000', tz='UTC'), Timestamp('2021-08-07 10:16:47+0000', tz='UTC'), Timestamp('2021-09-03 01:31:09+0000', tz='UTC'), Timestamp('2021-08-06 12:12:56+0000', tz='UTC'), Timestamp('2021-09-01 05:18:03+0000', tz='UTC'), Timestamp('2021-06-25 00:52:02+0000', tz='UTC'), Timestamp('2021-07-03 00:10:31+0000', tz='UTC'), Timestamp('2021-07-14 21:05:39+0000', tz='UTC'), Timestamp('2021-08-13 10:33:29+0000', tz='UTC'), Timestamp('2021-08-19 09:27:51+0000', tz='UTC'), Timestamp('2021-07-04 23:18:17+0000', tz='UTC'), Timestamp('2021-07-15 20:01:33+0000', tz='UTC'), Timestamp('2021-08-27 03:37:40+0000', tz='UTC'), Timestamp('2021-08-03 12:14:30+0000', tz='UTC'), Timestamp('2021-08-31 05:30:55+0000', tz='UTC'), Timestamp('2021-08-02 12:45:19+0000', tz='UTC'), Timestamp('2021-07-23 19:17:13+0000', tz='UTC'), Timestamp('2021-07-26 14:13:33+0000', tz='UTC'), Timestamp('2021-07-20 15:25:58+0000', tz='UTC'), Timestamp('2021-07-29 13:50:17+0000', tz='UTC'), Timestamp('2021-08-16 07:38:34+0000', tz='UTC'), Timestamp('2021-08-09 11:38:31+0000', tz='UTC'), Timestamp('2021-06-23 01:29:24+0000', tz='UTC'), Timestamp('2021-06-23 01:07:08+0000', tz='UTC'), Timestamp('2021-08-25 07:43:18+0000', tz='UTC'), Timestamp('2021-07-12 21:28:27+0000', tz='UTC'), Timestamp('2021-07-16 20:01:36+0000', tz='UTC'), Timestamp('2021-07-18 20:35:39+0000', tz='UTC'), Timestamp('2021-08-31 01:52:05+0000', tz='UTC'), Timestamp('2021-06-27 00:36:45+0000', tz='UTC'), Timestamp('2021-08-22 05:02:22+0000', tz='UTC'), Timestamp('2021-06-24 01:42:31+0000', tz='UTC'), Timestamp('2021-07-02 23:29:07+0000', tz='UTC'), Timestamp('2021-08-19 06:21:55+0000', tz='UTC'), Timestamp('2021-06-25 00:41:35+0000', tz='UTC'), Timestamp('2021-08-10 09:04:52+0000', tz='UTC'), Timestamp('2021-07-05 22:13:26+0000', tz='UTC'), Timestamp('2021-08-31 17:12:48+0000', tz='UTC'), Timestamp('2021-08-26 03:39:36+0000', tz='UTC'), Timestamp('2021-08-07 12:04:51+0000', tz='UTC'), Timestamp('2021-06-23 01:16:11+0000', tz='UTC'), Timestamp('2021-09-01 01:49:26+0000', tz='UTC'), Timestamp('2021-08-16 11:32:04+0000', tz='UTC'), Timestamp('2021-08-01 03:48:42+0000', tz='UTC'), Timestamp('2021-07-10 20:53:59+0000', tz='UTC'), Timestamp('2021-08-10 11:10:43+0000', tz='UTC'), Timestamp('2021-08-14 08:37:42+0000', tz='UTC'), Timestamp('2021-08-15 09:53:56+0000', tz='UTC'), Timestamp('2021-08-08 20:46:53+0000', tz='UTC'), Timestamp('2021-08-11 10:55:26+0000', tz='UTC'), Timestamp('2021-07-30 13:36:32+0000', tz='UTC'), Timestamp('2021-08-15 08:33:40+0000', tz='UTC'), Timestamp('2021-08-01 12:33:52+0000', tz='UTC'), Timestamp('2021-07-01 00:37:09+0000', tz='UTC'), Timestamp('2021-06-23 01:07:11+0000', tz='UTC'), Timestamp('2021-08-23 07:53:27+0000', tz='UTC'), Timestamp('2021-08-22 07:54:14+0000', tz='UTC'), Timestamp('2021-07-09 14:55:47+0000', tz='UTC'), Timestamp('2021-07-01 23:38:07+0000', tz='UTC'), Timestamp('2021-07-21 19:06:57+0000', tz='UTC'), Timestamp('2021-08-21 05:12:35+0000', tz='UTC'), Timestamp('2021-06-29 00:30:46+0000', tz='UTC'), Timestamp('2021-08-29 03:14:29+0000', tz='UTC'), Timestamp('2021-07-08 21:35:04+0000', tz='UTC'), Timestamp('2021-07-28 14:04:48+0000', tz='UTC'), Timestamp('2021-07-19 20:39:25+0000', tz='UTC'), Timestamp('2021-07-31 13:13:55+0000', tz='UTC'), Timestamp('2021-08-17 09:39:05+0000', tz='UTC'), Timestamp('2021-08-20 05:28:22+0000', tz='UTC'), Timestamp('2021-08-24 01:40:42+0000', tz='UTC'), Timestamp('2021-08-09 09:33:52+0000', tz='UTC'), Timestamp('2021-07-25 14:35:03+0000', tz='UTC'), Timestamp('2021-08-27 07:02:55+0000', tz='UTC'), Timestamp('2021-07-20 20:21:10+0000', tz='UTC'), Timestamp('2021-07-23 18:51:51+0000', tz='UTC'), Timestamp('2021-08-25 04:11:12+0000', tz='UTC'), Timestamp('2021-06-23 01:29:06+0000', tz='UTC'), Timestamp('2021-09-02 01:32:42+0000', tz='UTC'), Timestamp('2021-06-28 00:24:44+0000', tz='UTC'), Timestamp('2021-09-03 05:02:24+0000', tz='UTC'), Timestamp('2021-08-21 08:17:38+0000', tz='UTC'), Timestamp('2021-08-01 12:58:56+0000', tz='UTC'), Timestamp('2021-08-04 12:39:29+0000', tz='UTC'), Timestamp('2021-07-02 00:18:16+0000', tz='UTC'), Timestamp('2021-07-09 22:19:04+0000', tz='UTC'), Timestamp('2021-07-22 19:06:35+0000', tz='UTC'), Timestamp('2021-06-23 01:07:07+0000', tz='UTC'), Timestamp('2021-07-03 22:24:36+0000', tz='UTC'), Timestamp('2021-07-03 23:54:00+0000', tz='UTC'), Timestamp('2021-06-24 01:29:33+0000', tz='UTC'), Timestamp('2021-06-26 00:46:36+0000', tz='UTC'), Timestamp('2021-08-04 11:39:43+0000', tz='UTC'), Timestamp('2021-08-30 02:31:30+0000', tz='UTC'), Timestamp('2021-08-26 22:42:56+0000', tz='UTC'), Timestamp('2021-08-16 10:16:49+0000', tz='UTC'), Timestamp('2021-07-08 22:53:06+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-14 17:11:42+0000', tz='UTC'), Timestamp('2021-06-15 05:38:55+0000', tz='UTC'), Timestamp('2021-06-14 17:12:12+0000', tz='UTC'), Timestamp('2021-06-15 05:38:59+0000', tz='UTC'), Timestamp('2021-06-14 17:11:46+0000', tz='UTC'), Timestamp('2021-06-14 17:11:47+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-14 11:33:40+0000', tz='UTC'), Timestamp('2021-06-28 01:46:05+0000', tz='UTC'), Timestamp('2021-06-26 01:55:53+0000', tz='UTC'), Timestamp('2021-06-12 04:47:00+0000', tz='UTC'), Timestamp('2021-06-14 00:25:23+0000', tz='UTC'), Timestamp('2021-06-07 10:23:08+0000', tz='UTC'), Timestamp('2021-06-12 03:43:19+0000', tz='UTC'), Timestamp('2021-06-30 08:11:21+0000', tz='UTC'), Timestamp('2021-06-06 15:55:53+0000', tz='UTC'), Timestamp('2021-06-20 23:40:05+0000', tz='UTC'), Timestamp('2021-06-29 05:45:54+0000', tz='UTC'), Timestamp('2021-06-22 10:02:38+0000', tz='UTC'), Timestamp('2021-06-09 14:52:47+0000', tz='UTC'), Timestamp('2021-06-18 02:44:37+0000', tz='UTC'), Timestamp('2021-06-13 03:10:54+0000', tz='UTC'), Timestamp('2021-06-14 03:38:46+0000', tz='UTC'), Timestamp('2021-06-21 02:16:23+0000', tz='UTC'), Timestamp('2021-06-21 22:55:50+0000', tz='UTC'), Timestamp('2021-06-17 23:42:56+0000', tz='UTC'), Timestamp('2021-06-10 13:22:26+0000', tz='UTC'), Timestamp('2021-06-22 23:16:08+0000', tz='UTC'), Timestamp('2021-06-30 01:40:34+0000', tz='UTC'), Timestamp('2021-06-28 05:44:21+0000', tz='UTC'), Timestamp('2021-06-15 00:25:20+0000', tz='UTC'), Timestamp('2021-06-15 23:49:03+0000', tz='UTC'), Timestamp('2021-07-07 16:14:18+0000', tz='UTC'), Timestamp('2021-06-27 02:11:58+0000', tz='UTC'), Timestamp('2021-06-08 14:12:58+0000', tz='UTC'), Timestamp('2021-06-07 13:24:50+0000', tz='UTC'), Timestamp('2021-06-23 01:53:29+0000', tz='UTC'), Timestamp('2021-06-06 13:37:54+0000', tz='UTC'), Timestamp('2021-06-09 01:20:02+0000', tz='UTC'), Timestamp('2021-06-19 23:37:41+0000', tz='UTC'), Timestamp('2021-06-29 01:58:40+0000', tz='UTC'), Timestamp('2021-06-15 03:00:40+0000', tz='UTC'), Timestamp('2021-07-07 16:16:05+0000', tz='UTC'), Timestamp('2021-07-07 16:14:50+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-13 15:46:57+0000', tz='UTC'), Timestamp('2021-08-12 19:16:58+0000', tz='UTC'), Timestamp('2021-07-08 21:55:04+0000', tz='UTC'), Timestamp('2021-07-12 18:04:48+0000', tz='UTC'), Timestamp('2021-08-01 01:04:10+0000', tz='UTC'), Timestamp('2021-08-13 21:29:52+0000', tz='UTC'), Timestamp('2021-07-22 14:24:40+0000', tz='UTC'), Timestamp('2021-07-30 22:13:38+0000', tz='UTC'), Timestamp('2021-07-27 12:44:59+0000', tz='UTC'), Timestamp('2021-07-19 14:19:41+0000', tz='UTC'), Timestamp('2021-08-11 19:44:40+0000', tz='UTC'), Timestamp('2021-08-08 22:36:29+0000', tz='UTC'), Timestamp('2021-07-25 13:35:31+0000', tz='UTC'), Timestamp('2021-07-21 16:24:00+0000', tz='UTC'), Timestamp('2021-08-10 22:11:16+0000', tz='UTC'), Timestamp('2021-08-13 19:19:27+0000', tz='UTC'), Timestamp('2021-08-20 15:40:07+0000', tz='UTC'), Timestamp('2021-07-09 16:53:05+0000', tz='UTC'), Timestamp('2021-07-20 17:05:46+0000', tz='UTC'), Timestamp('2021-08-01 23:45:17+0000', tz='UTC'), Timestamp('2021-07-13 18:01:23+0000', tz='UTC'), Timestamp('2021-07-08 23:46:03+0000', tz='UTC'), Timestamp('2021-07-28 02:03:00+0000', tz='UTC'), Timestamp('2021-08-17 17:57:40+0000', tz='UTC'), Timestamp('2021-08-03 23:27:38+0000', tz='UTC'), Timestamp('2021-08-11 21:47:16+0000', tz='UTC'), Timestamp('2021-08-01 00:52:47+0000', tz='UTC'), Timestamp('2021-07-23 16:17:56+0000', tz='UTC'), Timestamp('2021-08-07 10:54:21+0000', tz='UTC'), Timestamp('2021-07-16 17:29:11+0000', tz='UTC'), Timestamp('2021-07-17 17:14:22+0000', tz='UTC'), Timestamp('2021-07-15 16:31:09+0000', tz='UTC'), Timestamp('2021-07-11 16:27:19+0000', tz='UTC'), Timestamp('2021-07-27 15:59:45+0000', tz='UTC'), Timestamp('2021-07-14 17:34:02+0000', tz='UTC'), Timestamp('2021-07-16 15:21:25+0000', tz='UTC'), Timestamp('2021-07-15 15:33:16+0000', tz='UTC'), Timestamp('2021-07-29 01:49:43+0000', tz='UTC'), Timestamp('2021-07-19 16:53:00+0000', tz='UTC'), Timestamp('2021-08-15 18:57:10+0000', tz='UTC'), Timestamp('2021-08-03 23:54:24+0000', tz='UTC'), Timestamp('2021-08-08 21:32:01+0000', tz='UTC'), Timestamp('2021-07-18 17:08:01+0000', tz='UTC'), Timestamp('2021-08-02 00:35:26+0000', tz='UTC'), Timestamp('2021-07-10 16:26:28+0000', tz='UTC'), Timestamp('2021-07-23 11:23:46+0000', tz='UTC'), Timestamp('2021-07-31 00:58:32+0000', tz='UTC'), Timestamp('2021-07-10 18:08:24+0000', tz='UTC'), Timestamp('2021-07-20 14:20:56+0000', tz='UTC'), Timestamp('2021-07-22 16:25:20+0000', tz='UTC'), Timestamp('2021-07-21 14:18:21+0000', tz='UTC'), Timestamp('2021-07-18 14:51:20+0000', tz='UTC'), Timestamp('2021-08-15 21:01:00+0000', tz='UTC'), Timestamp('2021-07-09 18:32:57+0000', tz='UTC'), Timestamp('2021-07-11 17:57:04+0000', tz='UTC'), Timestamp('2021-07-31 01:07:24+0000', tz='UTC'), Timestamp('2021-08-12 21:34:25+0000', tz='UTC'), Timestamp('2021-08-15 01:29:40+0000', tz='UTC'), Timestamp('2021-07-15 17:43:02+0000', tz='UTC'), Timestamp('2021-07-14 15:42:39+0000', tz='UTC'), Timestamp('2021-08-20 19:56:08+0000', tz='UTC'), Timestamp('2021-07-17 14:48:19+0000', tz='UTC'), Timestamp('2021-07-25 16:01:29+0000', tz='UTC'), Timestamp('2021-08-17 20:18:59+0000', tz='UTC'), Timestamp('2021-08-10 20:40:14+0000', tz='UTC'), Timestamp('2021-07-29 01:31:44+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-30 16:44:20+0000', tz='UTC'), Timestamp('2021-07-05 12:29:47+0000', tz='UTC'), Timestamp('2021-07-22 13:36:22+0000', tz='UTC'), Timestamp('2021-06-29 17:09:28+0000', tz='UTC'), Timestamp('2021-07-20 13:56:29+0000', tz='UTC'), Timestamp('2021-07-21 15:02:49+0000', tz='UTC'), Timestamp('2021-07-20 13:56:25+0000', tz='UTC'), Timestamp('2021-06-29 17:09:27+0000', tz='UTC'), Timestamp('2021-07-22 10:49:02+0000', tz='UTC'), Timestamp('2021-07-20 13:56:24+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-10 06:22:12+0000', tz='UTC'), Timestamp('2021-08-10 06:23:18+0000', tz='UTC'), Timestamp('2021-08-11 23:53:56+0000', tz='UTC'), Timestamp('2021-08-10 06:39:35+0000', tz='UTC'), Timestamp('2021-08-10 06:37:25+0000', tz='UTC'), Timestamp('2021-08-10 06:28:39+0000', tz='UTC'), Timestamp('2021-08-10 06:22:47+0000', tz='UTC'), Timestamp('2021-08-10 06:25:21+0000', tz='UTC'), Timestamp('2021-08-10 06:23:44+0000', tz='UTC'), Timestamp('2021-08-11 23:53:51+0000', tz='UTC'), Timestamp('2021-08-11 23:53:55+0000', tz='UTC'), Timestamp('2021-08-10 06:22:11+0000', tz='UTC'), Timestamp('2021-08-10 06:28:23+0000', tz='UTC'), Timestamp('2021-08-10 06:37:31+0000', tz='UTC'), Timestamp('2021-08-10 06:23:52+0000', tz='UTC'), Timestamp('2021-08-10 06:22:15+0000', tz='UTC'), Timestamp('2021-08-10 06:28:27+0000', tz='UTC'), Timestamp('2021-08-09 13:44:41+0000', tz='UTC'), Timestamp('2021-08-10 06:37:24+0000', tz='UTC'), Timestamp('2021-08-10 06:37:26+0000', tz='UTC'), Timestamp('2021-08-10 06:22:17+0000', tz='UTC'), Timestamp('2021-08-10 06:39:49+0000', tz='UTC'), Timestamp('2021-08-10 06:22:08+0000', tz='UTC'), Timestamp('2021-08-11 23:53:54+0000', tz='UTC'), Timestamp('2021-07-19 15:00:05+0000', tz='UTC'), Timestamp('2021-08-10 06:28:22+0000', tz='UTC'), Timestamp('2021-08-10 06:25:26+0000', tz='UTC'), Timestamp('2021-08-10 06:23:16+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-09 05:08:50+0000', tz='UTC'), Timestamp('2021-06-20 18:46:13+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-21 14:29:04+0000', tz='UTC'), Timestamp('2021-07-19 14:59:44+0000', tz='UTC'), Timestamp('2021-07-15 00:44:52+0000', tz='UTC'), Timestamp('2021-07-15 15:58:54+0000', tz='UTC'), Timestamp('2021-07-13 17:18:21+0000', tz='UTC'), Timestamp('2021-07-19 16:39:29+0000', tz='UTC'), Timestamp('2021-07-13 16:08:51+0000', tz='UTC'), Timestamp('2021-07-27 12:56:41+0000', tz='UTC'), Timestamp('2021-07-28 10:55:34+0000', tz='UTC'), Timestamp('2021-07-28 12:49:24+0000', tz='UTC'), Timestamp('2021-07-30 03:28:08+0000', tz='UTC'), Timestamp('2021-07-12 17:24:46+0000', tz='UTC'), Timestamp('2021-07-15 17:06:12+0000', tz='UTC'), Timestamp('2021-07-22 11:55:19+0000', tz='UTC'), Timestamp('2021-07-16 15:53:48+0000', tz='UTC'), Timestamp('2021-07-16 16:53:41+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-25 20:13:40+0000', tz='UTC'), Timestamp('2021-06-29 20:08:38+0000', tz='UTC'), Timestamp('2021-06-21 17:15:24+0000', tz='UTC'), Timestamp('2021-07-01 03:17:18+0000', tz='UTC'), Timestamp('2021-08-12 01:33:42+0000', tz='UTC'), Timestamp('2021-06-12 21:47:12+0000', tz='UTC'), Timestamp('2021-08-26 10:52:08+0000', tz='UTC'), Timestamp('2021-06-25 20:32:53+0000', tz='UTC'), Timestamp('2021-08-13 00:28:24+0000', tz='UTC'), Timestamp('2021-06-12 21:44:20+0000', tz='UTC'), Timestamp('2021-08-31 06:26:02+0000', tz='UTC'), Timestamp('2021-08-27 05:37:27+0000', tz='UTC'), Timestamp('2021-06-14 21:24:03+0000', tz='UTC'), Timestamp('2021-08-27 10:30:30+0000', tz='UTC'), Timestamp('2021-08-28 08:38:19+0000', tz='UTC'), Timestamp('2021-06-16 21:24:24+0000', tz='UTC'), Timestamp('2021-06-22 20:59:12+0000', tz='UTC'), Timestamp('2021-08-30 08:32:39+0000', tz='UTC'), Timestamp('2021-06-06 16:19:26+0000', tz='UTC'), Timestamp('2021-08-12 01:33:19+0000', tz='UTC'), Timestamp('2021-06-13 20:10:02+0000', tz='UTC'), Timestamp('2021-06-18 20:59:30+0000', tz='UTC'), Timestamp('2021-06-17 08:40:00+0000', tz='UTC'), Timestamp('2021-06-18 21:01:31+0000', tz='UTC'), Timestamp('2021-06-21 21:00:10+0000', tz='UTC'), Timestamp('2021-09-02 04:49:17+0000', tz='UTC'), Timestamp('2021-08-16 19:13:23+0000', tz='UTC'), Timestamp('2021-06-29 20:47:10+0000', tz='UTC'), Timestamp('2021-06-15 21:38:54+0000', tz='UTC'), Timestamp('2021-08-12 01:33:36+0000', tz='UTC'), Timestamp('2021-06-21 16:28:58+0000', tz='UTC'), Timestamp('2021-08-16 19:16:56+0000', tz='UTC'), Timestamp('2021-06-27 20:27:04+0000', tz='UTC'), Timestamp('2021-08-26 11:10:09+0000', tz='UTC'), Timestamp('2021-08-12 01:32:47+0000', tz='UTC'), Timestamp('2021-08-18 17:06:37+0000', tz='UTC'), Timestamp('2021-08-13 23:59:43+0000', tz='UTC'), Timestamp('2021-06-28 20:55:09+0000', tz='UTC'), Timestamp('2021-08-14 22:16:31+0000', tz='UTC'), Timestamp('2021-06-05 17:17:26+0000', tz='UTC'), Timestamp('2021-06-11 21:53:27+0000', tz='UTC'), Timestamp('2021-08-27 09:47:09+0000', tz='UTC'), Timestamp('2021-08-29 08:15:45+0000', tz='UTC'), Timestamp('2021-09-01 04:55:26+0000', tz='UTC'), Timestamp('2021-06-11 21:57:22+0000', tz='UTC'), Timestamp('2021-06-22 20:49:38+0000', tz='UTC'), Timestamp('2021-06-17 21:23:37+0000', tz='UTC'), Timestamp('2021-08-23 14:19:26+0000', tz='UTC'), Timestamp('2021-08-25 11:57:10+0000', tz='UTC'), Timestamp('2021-06-24 20:11:27+0000', tz='UTC'), Timestamp('2021-06-16 21:16:13+0000', tz='UTC'), Timestamp('2021-08-13 23:23:38+0000', tz='UTC'), Timestamp('2021-06-26 20:41:47+0000', tz='UTC'), Timestamp('2021-06-06 16:19:23+0000', tz='UTC'), Timestamp('2021-08-15 19:59:07+0000', tz='UTC'), Timestamp('2021-06-20 20:50:05+0000', tz='UTC'), Timestamp('2021-08-21 15:45:11+0000', tz='UTC'), Timestamp('2021-08-30 07:11:12+0000', tz='UTC'), Timestamp('2021-08-15 20:23:06+0000', tz='UTC'), Timestamp('2021-08-28 09:42:58+0000', tz='UTC'), Timestamp('2021-06-13 21:55:11+0000', tz='UTC'), Timestamp('2021-06-17 21:05:39+0000', tz='UTC'), Timestamp('2021-08-23 13:53:42+0000', tz='UTC'), Timestamp('2021-06-19 21:02:48+0000', tz='UTC'), Timestamp('2021-06-23 20:50:59+0000', tz='UTC'), Timestamp('2021-06-06 17:01:26+0000', tz='UTC'), Timestamp('2021-08-13 00:41:58+0000', tz='UTC'), Timestamp('2021-08-24 13:20:20+0000', tz='UTC'), Timestamp('2021-08-17 18:00:18+0000', tz='UTC'), Timestamp('2021-08-19 17:00:22+0000', tz='UTC'), Timestamp('2021-06-23 20:21:57+0000', tz='UTC'), Timestamp('2021-09-01 05:52:21+0000', tz='UTC'), Timestamp('2021-08-22 14:39:31+0000', tz='UTC'), Timestamp('2021-08-18 17:46:08+0000', tz='UTC'), Timestamp('2021-08-17 18:00:31+0000', tz='UTC'), Timestamp('2021-08-21 15:07:00+0000', tz='UTC'), Timestamp('2021-06-13 21:35:54+0000', tz='UTC'), Timestamp('2021-08-31 05:17:34+0000', tz='UTC'), Timestamp('2021-06-10 23:06:41+0000', tz='UTC'), Timestamp('2021-06-29 12:09:10+0000', tz='UTC'), Timestamp('2021-08-20 16:10:43+0000', tz='UTC'), Timestamp('2021-06-24 20:47:01+0000', tz='UTC'), Timestamp('2021-08-25 11:57:11+0000', tz='UTC'), Timestamp('2021-06-05 17:45:23+0000', tz='UTC'), Timestamp('2021-06-27 20:34:17+0000', tz='UTC'), Timestamp('2021-06-21 21:00:24+0000', tz='UTC'), Timestamp('2021-08-12 01:33:37+0000', tz='UTC'), Timestamp('2021-06-14 21:40:14+0000', tz='UTC'), Timestamp('2021-06-21 17:15:17+0000', tz='UTC'), Timestamp('2021-06-26 19:59:28+0000', tz='UTC'), Timestamp('2021-07-01 04:34:11+0000', tz='UTC'), Timestamp('2021-06-19 21:10:01+0000', tz='UTC'), Timestamp('2021-09-03 03:17:08+0000', tz='UTC'), Timestamp('2021-06-28 20:09:15+0000', tz='UTC'), Timestamp('2021-08-19 13:38:48+0000', tz='UTC'), Timestamp('2021-09-03 04:17:24+0000', tz='UTC'), Timestamp('2021-06-07 17:03:35+0000', tz='UTC'), Timestamp('2021-06-07 17:55:51+0000', tz='UTC'), Timestamp('2021-08-14 23:10:36+0000', tz='UTC'), Timestamp('2021-06-15 21:22:50+0000', tz='UTC'), Timestamp('2021-08-12 01:33:23+0000', tz='UTC'), Timestamp('2021-06-20 20:56:24+0000', tz='UTC'), Timestamp('2021-08-19 16:27:58+0000', tz='UTC'), Timestamp('2021-06-10 23:07:45+0000', tz='UTC'), Timestamp('2021-09-02 03:51:34+0000', tz='UTC'), Timestamp('2021-08-24 13:02:18+0000', tz='UTC'), Timestamp('2021-06-06 17:50:56+0000', tz='UTC'), Timestamp('2021-08-20 16:16:24+0000', tz='UTC'), Timestamp('2021-08-29 08:50:03+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-18 08:02:15+0000', tz='UTC'), Timestamp('2021-08-11 07:16:17+0000', tz='UTC'), Timestamp('2021-08-10 07:43:18+0000', tz='UTC'), Timestamp('2021-08-12 06:49:14+0000', tz='UTC'), Timestamp('2021-08-23 21:26:52+0000', tz='UTC'), Timestamp('2021-08-18 06:35:10+0000', tz='UTC'), Timestamp('2021-08-10 14:50:19+0000', tz='UTC'), Timestamp('2021-08-18 16:20:08+0000', tz='UTC'), Timestamp('2021-08-26 06:28:56+0000', tz='UTC'), Timestamp('2021-08-10 18:53:15+0000', tz='UTC'), Timestamp('2021-08-17 06:16:44+0000', tz='UTC'), Timestamp('2021-08-18 04:52:09+0000', tz='UTC'), Timestamp('2021-08-10 13:39:06+0000', tz='UTC'), Timestamp('2021-08-18 16:15:21+0000', tz='UTC'), Timestamp('2021-08-18 07:47:22+0000', tz='UTC'), Timestamp('2021-08-18 14:01:14+0000', tz='UTC'), Timestamp('2021-08-24 05:01:22+0000', tz='UTC'), Timestamp('2021-08-17 02:49:04+0000', tz='UTC'), Timestamp('2021-08-11 07:15:31+0000', tz='UTC'), Timestamp('2021-08-18 02:50:12+0000', tz='UTC'), Timestamp('2021-08-18 09:35:08+0000', tz='UTC'), Timestamp('2021-08-18 09:35:19+0000', tz='UTC'), Timestamp('2021-08-18 19:43:06+0000', tz='UTC'), Timestamp('2021-08-11 06:43:25+0000', tz='UTC'), Timestamp('2021-08-12 06:37:34+0000', tz='UTC'), Timestamp('2021-08-10 18:54:17+0000', tz='UTC'), Timestamp('2021-08-10 08:11:17+0000', tz='UTC'), Timestamp('2021-08-10 20:35:38+0000', tz='UTC'), Timestamp('2021-08-10 08:09:18+0000', tz='UTC'), Timestamp('2021-08-18 04:13:12+0000', tz='UTC'), Timestamp('2021-08-18 11:39:15+0000', tz='UTC'), Timestamp('2021-08-10 19:30:09+0000', tz='UTC'), Timestamp('2021-08-18 17:05:21+0000', tz='UTC'), Timestamp('2021-08-30 16:09:36+0000', tz='UTC'), Timestamp('2021-08-18 07:35:21+0000', tz='UTC'), Timestamp('2021-08-18 15:35:20+0000', tz='UTC'), Timestamp('2021-08-10 19:42:15+0000', tz='UTC'), Timestamp('2021-08-18 03:45:14+0000', tz='UTC'), Timestamp('2021-08-18 17:36:47+0000', tz='UTC'), Timestamp('2021-08-19 01:57:39+0000', tz='UTC'), Timestamp('2021-08-10 22:54:30+0000', tz='UTC'), Timestamp('2021-08-18 06:48:12+0000', tz='UTC'), Timestamp('2021-08-10 17:03:13+0000', tz='UTC'), Timestamp('2021-08-19 05:42:19+0000', tz='UTC'), Timestamp('2021-08-31 03:23:33+0000', tz='UTC'), Timestamp('2021-08-16 09:52:25+0000', tz='UTC'), Timestamp('2021-08-18 11:14:21+0000', tz='UTC'), Timestamp('2021-08-18 22:52:07+0000', tz='UTC'), Timestamp('2021-08-18 03:54:10+0000', tz='UTC'), Timestamp('2021-08-18 04:52:14+0000', tz='UTC'), Timestamp('2021-08-10 13:32:19+0000', tz='UTC'), Timestamp('2021-08-18 04:31:32+0000', tz='UTC'), Timestamp('2021-08-18 18:12:11+0000', tz='UTC'), Timestamp('2021-08-10 15:19:10+0000', tz='UTC'), Timestamp('2021-08-10 16:37:16+0000', tz='UTC'), Timestamp('2021-08-18 11:11:11+0000', tz='UTC'), Timestamp('2021-08-18 22:36:09+0000', tz='UTC'), Timestamp('2021-08-18 03:46:18+0000', tz='UTC'), Timestamp('2021-08-10 09:29:13+0000', tz='UTC'), Timestamp('2021-08-18 20:45:35+0000', tz='UTC'), Timestamp('2021-08-10 20:48:10+0000', tz='UTC'), Timestamp('2021-08-10 23:41:14+0000', tz='UTC'), Timestamp('2021-08-18 09:06:01+0000', tz='UTC'), Timestamp('2021-08-18 21:06:18+0000', tz='UTC'), Timestamp('2021-08-18 08:33:11+0000', tz='UTC'), Timestamp('2021-08-18 19:42:29+0000', tz='UTC'), Timestamp('2021-08-18 05:48:11+0000', tz='UTC'), Timestamp('2021-08-18 05:56:04+0000', tz='UTC'), Timestamp('2021-08-18 12:27:10+0000', tz='UTC'), Timestamp('2021-08-18 20:24:13+0000', tz='UTC'), Timestamp('2021-08-10 21:18:18+0000', tz='UTC'), Timestamp('2021-08-10 20:20:27+0000', tz='UTC'), Timestamp('2021-08-18 09:35:14+0000', tz='UTC'), Timestamp('2021-08-30 09:23:23+0000', tz='UTC'), Timestamp('2021-08-10 17:26:10+0000', tz='UTC'), Timestamp('2021-08-18 05:42:29+0000', tz='UTC'), Timestamp('2021-08-10 08:20:20+0000', tz='UTC'), Timestamp('2021-08-10 18:03:17+0000', tz='UTC'), Timestamp('2021-08-18 15:35:13+0000', tz='UTC'), Timestamp('2021-08-10 15:37:13+0000', tz='UTC'), Timestamp('2021-08-18 09:35:33+0000', tz='UTC'), Timestamp('2021-08-23 08:50:34+0000', tz='UTC'), Timestamp('2021-08-10 06:16:16+0000', tz='UTC'), Timestamp('2021-08-18 20:48:11+0000', tz='UTC'), Timestamp('2021-08-18 04:53:32+0000', tz='UTC'), Timestamp('2021-08-10 07:43:16+0000', tz='UTC'), Timestamp('2021-08-18 09:57:15+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 13:55:07+0000', tz='UTC'), Timestamp('2021-07-12 17:36:07+0000', tz='UTC'), Timestamp('2021-07-13 09:22:38+0000', tz='UTC'), Timestamp('2021-07-12 16:33:56+0000', tz='UTC'), Timestamp('2021-07-12 17:31:45+0000', tz='UTC'), Timestamp('2021-07-12 17:31:56+0000', tz='UTC'), Timestamp('2021-07-12 17:34:10+0000', tz='UTC'), Timestamp('2021-07-19 10:53:01+0000', tz='UTC'), Timestamp('2021-07-19 14:45:37+0000', tz='UTC'), Timestamp('2021-07-19 14:45:48+0000', tz='UTC'), Timestamp('2021-07-12 17:29:59+0000', tz='UTC'), Timestamp('2021-07-16 15:59:37+0000', tz='UTC'), Timestamp('2021-07-12 16:35:24+0000', tz='UTC'), Timestamp('2021-07-16 16:00:16+0000', tz='UTC'), Timestamp('2021-07-16 13:56:15+0000', tz='UTC'), Timestamp('2021-07-14 19:02:42+0000', tz='UTC'), Timestamp('2021-07-12 17:35:18+0000', tz='UTC'), Timestamp('2021-07-12 17:35:29+0000', tz='UTC'), Timestamp('2021-07-12 17:37:43+0000', tz='UTC'), Timestamp('2021-07-12 17:30:56+0000', tz='UTC'), Timestamp('2021-07-12 17:31:07+0000', tz='UTC'), Timestamp('2021-07-12 17:31:18+0000', tz='UTC'), Timestamp('2021-07-12 17:33:32+0000', tz='UTC'), Timestamp('2021-07-12 17:37:54+0000', tz='UTC'), Timestamp('2021-07-12 17:03:34+0000', tz='UTC'), Timestamp('2021-07-12 17:03:45+0000', tz='UTC'), Timestamp('2021-07-16 15:57:13+0000', tz='UTC'), Timestamp('2021-07-16 15:59:38+0000', tz='UTC'), Timestamp('2021-07-12 16:34:26+0000', tz='UTC'), Timestamp('2021-07-12 17:32:15+0000', tz='UTC'), Timestamp('2021-07-14 11:59:14+0000', tz='UTC'), Timestamp('2021-07-12 17:34:29+0000', tz='UTC'), Timestamp('2021-07-12 17:34:40+0000', tz='UTC'), Timestamp('2021-07-12 17:34:51+0000', tz='UTC'), Timestamp('2021-07-12 17:30:29+0000', tz='UTC'), Timestamp('2021-07-12 17:30:40+0000', tz='UTC'), Timestamp('2021-07-12 17:32:54+0000', tz='UTC'), Timestamp('2021-07-18 00:08:02+0000', tz='UTC'), Timestamp('2021-07-13 14:05:39+0000', tz='UTC'), Timestamp('2021-07-12 17:05:21+0000', tz='UTC'), Timestamp('2021-07-12 17:05:32+0000', tz='UTC'), Timestamp('2021-07-15 13:33:27+0000', tz='UTC'), Timestamp('2021-07-12 16:35:23+0000', tz='UTC'), Timestamp('2021-07-16 13:54:59+0000', tz='UTC'), Timestamp('2021-07-12 17:35:48+0000', tz='UTC'), Timestamp('2021-07-12 16:33:48+0000', tz='UTC'), Timestamp('2021-07-12 17:31:37+0000', tz='UTC'), Timestamp('2021-07-19 14:45:40+0000', tz='UTC'), Timestamp('2021-07-12 17:33:51+0000', tz='UTC'), Timestamp('2021-07-12 17:34:02+0000', tz='UTC'), Timestamp('2021-07-12 17:34:13+0000', tz='UTC'), Timestamp('2021-07-12 17:30:02+0000', tz='UTC'), Timestamp('2021-07-12 17:04:43+0000', tz='UTC'), Timestamp('2021-07-12 16:34:45+0000', tz='UTC'), Timestamp('2021-07-12 16:34:56+0000', tz='UTC'), Timestamp('2021-07-12 17:35:10+0000', tz='UTC'), Timestamp('2021-07-12 17:37:24+0000', tz='UTC'), Timestamp('2021-07-12 17:30:59+0000', tz='UTC'), Timestamp('2021-07-12 17:37:35+0000', tz='UTC'), Timestamp('2021-07-12 17:37:46+0000', tz='UTC'), Timestamp('2021-07-12 17:33:13+0000', tz='UTC'), Timestamp('2021-07-12 17:33:24+0000', tz='UTC'), Timestamp('2021-07-12 17:33:35+0000', tz='UTC'), Timestamp('2021-07-12 17:10:13+0000', tz='UTC'), Timestamp('2021-07-12 16:36:04+0000', tz='UTC'), Timestamp('2021-07-12 17:04:05+0000', tz='UTC'), Timestamp('2021-07-19 14:08:56+0000', tz='UTC'), Timestamp('2021-07-12 16:34:07+0000', tz='UTC'), Timestamp('2021-07-12 16:34:18+0000', tz='UTC'), Timestamp('2021-07-12 17:30:10+0000', tz='UTC'), Timestamp('2021-07-12 17:30:21+0000', tz='UTC'), Timestamp('2021-07-12 17:32:35+0000', tz='UTC'), Timestamp('2021-07-12 17:32:46+0000', tz='UTC'), Timestamp('2021-07-13 14:05:31+0000', tz='UTC'), Timestamp('2021-07-12 17:36:37+0000', tz='UTC'), Timestamp('2021-07-12 17:05:13+0000', tz='UTC'), Timestamp('2021-07-12 17:05:24+0000', tz='UTC'), Timestamp('2021-07-12 17:36:48+0000', tz='UTC'), Timestamp('2021-07-15 13:33:30+0000', tz='UTC'), Timestamp('2021-07-12 16:35:15+0000', tz='UTC'), Timestamp('2021-07-12 16:33:40+0000', tz='UTC'), Timestamp('2021-07-12 16:35:54+0000', tz='UTC'), Timestamp('2021-07-12 17:33:43+0000', tz='UTC'), Timestamp('2021-07-12 17:33:54+0000', tz='UTC'), Timestamp('2021-07-13 18:33:15+0000', tz='UTC'), Timestamp('2021-07-16 15:57:24+0000', tz='UTC'), Timestamp('2021-07-12 17:35:59+0000', tz='UTC'), Timestamp('2021-07-12 17:04:24+0000', tz='UTC'), Timestamp('2021-07-12 17:04:35+0000', tz='UTC'), Timestamp('2021-07-12 17:04:46+0000', tz='UTC'), Timestamp('2021-07-12 17:31:48+0000', tz='UTC'), Timestamp('2021-07-12 17:36:10+0000', tz='UTC'), Timestamp('2021-07-13 09:22:30+0000', tz='UTC'), Timestamp('2021-07-12 16:34:37+0000', tz='UTC'), Timestamp('2021-07-13 09:22:41+0000', tz='UTC'), Timestamp('2021-07-15 13:32:30+0000', tz='UTC'), Timestamp('2021-07-16 15:59:29+0000', tz='UTC'), Timestamp('2021-07-16 15:59:40+0000', tz='UTC'), Timestamp('2021-07-12 16:35:16+0000', tz='UTC'), Timestamp('2021-07-12 17:33:05+0000', tz='UTC'), Timestamp('2021-07-12 17:33:16+0000', tz='UTC'), Timestamp('2021-07-12 17:37:07+0000', tz='UTC'), Timestamp('2021-07-12 17:35:21+0000', tz='UTC'), Timestamp('2021-07-12 17:03:57+0000', tz='UTC'), Timestamp('2021-07-12 17:35:32+0000', tz='UTC'), Timestamp('2021-07-12 17:31:10+0000', tz='UTC'), Timestamp('2021-07-12 16:34:38+0000', tz='UTC'), Timestamp('2021-07-16 15:57:16+0000', tz='UTC'), Timestamp('2021-07-19 14:09:05+0000', tz='UTC'), Timestamp('2021-07-19 14:45:42+0000', tz='UTC'), Timestamp('2021-07-12 17:36:29+0000', tz='UTC'), Timestamp('2021-07-12 17:36:40+0000', tz='UTC'), Timestamp('2021-07-12 17:32:07+0000', tz='UTC'), Timestamp('2021-07-12 17:32:18+0000', tz='UTC'), Timestamp('2021-07-12 17:34:43+0000', tz='UTC'), Timestamp('2021-07-12 17:37:08+0000', tz='UTC'), Timestamp('2021-07-12 17:30:32+0000', tz='UTC'), Timestamp('2021-07-12 16:35:35+0000', tz='UTC'), Timestamp('2021-07-12 16:35:46+0000', tz='UTC'), Timestamp('2021-07-12 16:35:57+0000', tz='UTC'), Timestamp('2021-07-12 17:35:40+0000', tz='UTC'), Timestamp('2021-07-12 17:04:27+0000', tz='UTC'), Timestamp('2021-07-12 17:35:51+0000', tz='UTC'), Timestamp('2021-07-12 17:36:02+0000', tz='UTC'), Timestamp('2021-07-12 17:31:29+0000', tz='UTC'), Timestamp('2021-07-12 17:31:40+0000', tz='UTC'), Timestamp('2021-07-12 17:31:51+0000', tz='UTC'), Timestamp('2021-07-12 17:34:05+0000', tz='UTC'), Timestamp('2021-07-15 13:32:22+0000', tz='UTC'), Timestamp('2021-07-15 13:32:33+0000', tz='UTC'), Timestamp('2021-07-12 17:29:54+0000', tz='UTC'), Timestamp('2021-07-16 15:59:32+0000', tz='UTC'), Timestamp('2021-07-16 13:56:10+0000', tz='UTC'), Timestamp('2021-07-12 17:36:59+0000', tz='UTC'), Timestamp('2021-07-12 16:34:48+0000', tz='UTC'), Timestamp('2021-07-12 17:32:48+0000', tz='UTC'), Timestamp('2021-07-12 17:35:02+0000', tz='UTC'), Timestamp('2021-07-12 17:35:13+0000', tz='UTC'), Timestamp('2021-07-12 17:35:24+0000', tz='UTC'), Timestamp('2021-07-12 17:30:51+0000', tz='UTC'), Timestamp('2021-07-12 17:31:02+0000', tz='UTC'), Timestamp('2021-07-12 17:31:13+0000', tz='UTC'), Timestamp('2021-07-12 17:33:27+0000', tz='UTC'), Timestamp('2021-07-12 16:36:05+0000', tz='UTC'), Timestamp('2021-07-12 17:03:40+0000', tz='UTC'), Timestamp('2021-07-16 15:57:08+0000', tz='UTC'), Timestamp('2021-07-16 13:55:10+0000', tz='UTC'), Timestamp('2021-07-19 14:08:59+0000', tz='UTC'), Timestamp('2021-07-12 17:36:21+0000', tz='UTC'), Timestamp('2021-07-12 16:34:10+0000', tz='UTC'), Timestamp('2021-07-12 17:32:10+0000', tz='UTC'), Timestamp('2021-07-12 17:34:24+0000', tz='UTC'), Timestamp('2021-07-12 17:34:35+0000', tz='UTC'), Timestamp('2021-07-12 17:34:46+0000', tz='UTC'), Timestamp('2021-07-12 17:36:49+0000', tz='UTC'), Timestamp('2021-07-12 17:30:13+0000', tz='UTC'), Timestamp('2021-07-12 17:30:24+0000', tz='UTC'), Timestamp('2021-07-12 17:37:00+0000', tz='UTC'), Timestamp('2021-07-12 17:32:38+0000', tz='UTC'), Timestamp('2021-07-12 17:32:49+0000', tz='UTC'), Timestamp('2021-07-15 07:21:05+0000', tz='UTC'), Timestamp('2021-07-13 14:05:34+0000', tz='UTC'), Timestamp('2021-07-12 17:05:16+0000', tz='UTC'), Timestamp('2021-07-15 13:33:22+0000', tz='UTC'), Timestamp('2021-07-16 13:54:43+0000', tz='UTC'), Timestamp('2021-07-12 17:35:43+0000', tz='UTC'), Timestamp('2021-07-12 17:33:46+0000', tz='UTC'), Timestamp('2021-07-12 17:33:57+0000', tz='UTC'), Timestamp('2021-07-12 17:03:59+0000', tz='UTC'), Timestamp('2021-07-12 17:32:00+0000', tz='UTC'), Timestamp('2021-07-12 17:04:38+0000', tz='UTC'), Timestamp('2021-07-13 09:22:33+0000', tz='UTC'), Timestamp('2021-07-12 16:34:29+0000', tz='UTC'), Timestamp('2021-07-12 16:34:40+0000', tz='UTC'), Timestamp('2021-07-12 16:34:51+0000', tz='UTC'), Timestamp('2021-07-12 17:34:54+0000', tz='UTC'), Timestamp('2021-07-12 17:35:05+0000', tz='UTC'), Timestamp('2021-07-16 13:56:19+0000', tz='UTC'), Timestamp('2021-07-12 17:30:43+0000', tz='UTC'), Timestamp('2021-07-12 17:30:54+0000', tz='UTC'), Timestamp('2021-07-12 17:33:08+0000', tz='UTC'), Timestamp('2021-07-12 17:33:19+0000', tz='UTC'), Timestamp('2021-07-16 10:11:56+0000', tz='UTC'), Timestamp('2021-07-12 16:35:48+0000', tz='UTC'), Timestamp('2021-07-12 17:04:00+0000', tz='UTC'), Timestamp('2021-07-16 13:55:02+0000', tz='UTC'), Timestamp('2021-07-16 13:55:13+0000', tz='UTC'), Timestamp('2021-07-12 16:33:51+0000', tz='UTC'), Timestamp('2021-07-12 16:34:02+0000', tz='UTC'), Timestamp('2021-07-27 07:07:34+0000', tz='UTC'), Timestamp('2021-07-12 17:34:16+0000', tz='UTC'), Timestamp('2021-07-12 17:34:27+0000', tz='UTC'), Timestamp('2021-07-12 17:30:05+0000', tz='UTC'), Timestamp('2021-07-12 17:30:16+0000', tz='UTC'), Timestamp('2021-07-12 17:32:30+0000', tz='UTC'), Timestamp('2021-07-12 17:32:41+0000', tz='UTC'), Timestamp('2021-07-12 17:36:32+0000', tz='UTC'), Timestamp('2021-07-12 17:04:57+0000', tz='UTC'), Timestamp('2021-07-12 17:05:08+0000', tz='UTC'), Timestamp('2021-07-12 17:36:43+0000', tz='UTC'), Timestamp('2021-07-12 16:35:10+0000', tz='UTC'), Timestamp('2021-07-12 16:35:49+0000', tz='UTC'), Timestamp('2021-07-12 17:33:38+0000', tz='UTC'), Timestamp('2021-07-12 15:53:38+0000', tz='UTC'), Timestamp('2021-07-16 15:57:19+0000', tz='UTC'), Timestamp('2021-07-12 17:35:54+0000', tz='UTC'), Timestamp('2021-07-12 17:04:19+0000', tz='UTC'), Timestamp('2021-07-12 17:04:30+0000', tz='UTC'), Timestamp('2021-07-13 09:22:14+0000', tz='UTC'), Timestamp('2021-07-12 17:31:43+0000', tz='UTC'), Timestamp('2021-07-13 09:22:36+0000', tz='UTC'), Timestamp('2021-07-15 13:32:25+0000', tz='UTC'), Timestamp('2021-07-12 16:34:32+0000', tz='UTC'), Timestamp('2021-07-19 14:09:10+0000', tz='UTC'), Timestamp('2021-07-16 15:59:35+0000', tz='UTC'), Timestamp('2021-07-12 17:30:35+0000', tz='UTC'), Timestamp('2021-07-12 17:33:00+0000', tz='UTC'), Timestamp('2021-07-12 17:36:51+0000', tz='UTC'), Timestamp('2021-07-12 17:05:27+0000', tz='UTC'), Timestamp('2021-07-12 17:37:13+0000', tz='UTC'), Timestamp('2021-07-15 13:33:33+0000', tz='UTC'), Timestamp('2021-07-12 17:35:16+0000', tz='UTC'), Timestamp('2021-07-12 17:03:52+0000', tz='UTC'), Timestamp('2021-07-12 17:31:05+0000', tz='UTC'), Timestamp('2021-07-12 16:33:43+0000', tz='UTC'), Timestamp('2021-07-12 16:33:54+0000', tz='UTC'), Timestamp('2021-07-12 17:29:57+0000', tz='UTC'), Timestamp('2021-07-12 17:36:24+0000', tz='UTC'), Timestamp('2021-07-12 17:04:49+0000', tz='UTC'), Timestamp('2021-07-12 17:36:35+0000', tz='UTC'), Timestamp('2021-07-12 17:32:02+0000', tz='UTC'), Timestamp('2021-07-12 17:32:13+0000', tz='UTC'), Timestamp('2021-07-12 17:34:38+0000', tz='UTC'), Timestamp('2021-07-12 17:15:27+0000', tz='UTC'), Timestamp('2021-07-12 17:30:27+0000', tz='UTC'), Timestamp('2021-07-12 16:35:30+0000', tz='UTC'), Timestamp('2021-07-12 16:35:41+0000', tz='UTC'), Timestamp('2021-07-13 14:05:26+0000', tz='UTC'), Timestamp('2021-07-13 14:05:37+0000', tz='UTC'), Timestamp('2021-07-16 13:56:21+0000', tz='UTC'), Timestamp('2021-07-12 17:37:32+0000', tz='UTC'), Timestamp('2021-07-14 11:57:33+0000', tz='UTC'), Timestamp('2021-07-12 17:35:35+0000', tz='UTC'), Timestamp('2021-07-12 17:35:46+0000', tz='UTC'), Timestamp('2021-07-12 17:35:57+0000', tz='UTC'), Timestamp('2021-07-19 14:09:02+0000', tz='UTC'), Timestamp('2021-07-12 17:31:24+0000', tz='UTC'), Timestamp('2021-07-12 17:31:35+0000', tz='UTC'), Timestamp('2021-07-12 17:33:49+0000', tz='UTC'), Timestamp('2021-07-12 17:34:00+0000', tz='UTC'), Timestamp('2021-07-16 15:59:27+0000', tz='UTC'), Timestamp('2021-07-12 17:03:51+0000', tz='UTC'), Timestamp('2021-07-13 14:04:48+0000', tz='UTC'), Timestamp('2021-07-12 17:36:54+0000', tz='UTC'), Timestamp('2021-07-12 17:05:19+0000', tz='UTC'), Timestamp('2021-07-15 13:33:25+0000', tz='UTC'), Timestamp('2021-07-19 14:44:10+0000', tz='UTC'), Timestamp('2021-07-12 17:32:32+0000', tz='UTC'), Timestamp('2021-07-12 17:32:43+0000', tz='UTC'), Timestamp('2021-07-16 18:59:22+0000', tz='UTC'), Timestamp('2021-07-12 17:34:57+0000', tz='UTC'), Timestamp('2021-07-12 17:35:08+0000', tz='UTC'), Timestamp('2021-07-12 17:37:33+0000', tz='UTC'), Timestamp('2021-07-12 17:30:46+0000', tz='UTC'), Timestamp('2021-07-12 17:30:57+0000', tz='UTC'), Timestamp('2021-07-12 17:33:11+0000', tz='UTC'), Timestamp('2021-07-12 17:03:35+0000', tz='UTC'), Timestamp('2021-07-16 13:55:05+0000', tz='UTC'), Timestamp('2021-07-12 17:36:05+0000', tz='UTC'), Timestamp('2021-07-12 17:36:16+0000', tz='UTC'), Timestamp('2021-07-12 16:34:05+0000', tz='UTC'), Timestamp('2021-07-12 17:31:54+0000', tz='UTC'), Timestamp('2021-07-12 17:32:05+0000', tz='UTC'), Timestamp('2021-07-12 17:34:08+0000', tz='UTC'), Timestamp('2021-07-12 17:34:19+0000', tz='UTC'), Timestamp('2021-07-12 17:34:30+0000', tz='UTC'), Timestamp('2021-07-12 17:36:44+0000', tz='UTC'), Timestamp('2021-07-12 17:30:08+0000', tz='UTC'), Timestamp('2021-07-12 17:30:19+0000', tz='UTC'), Timestamp('2021-07-19 14:45:46+0000', tz='UTC'), Timestamp('2021-07-12 17:32:33+0000', tz='UTC'), Timestamp('2021-07-13 14:05:29+0000', tz='UTC'), Timestamp('2021-07-16 16:00:14+0000', tz='UTC'), Timestamp('2021-07-16 13:56:13+0000', tz='UTC'), Timestamp('2021-07-12 17:05:00+0000', tz='UTC'), Timestamp('2021-07-12 17:05:11+0000', tz='UTC'), Timestamp('2021-07-15 11:35:41+0000', tz='UTC'), Timestamp('2021-07-12 16:35:02+0000', tz='UTC'), Timestamp('2021-07-12 17:35:27+0000', tz='UTC'), Timestamp('2021-07-12 17:37:52+0000', tz='UTC'), Timestamp('2021-07-12 17:31:16+0000', tz='UTC'), Timestamp('2021-07-12 17:31:27+0000', tz='UTC'), Timestamp('2021-07-12 17:33:30+0000', tz='UTC'), Timestamp('2021-07-12 17:33:41+0000', tz='UTC'), Timestamp('2021-07-12 17:33:52+0000', tz='UTC'), Timestamp('2021-07-12 17:03:43+0000', tz='UTC'), Timestamp('2021-07-12 17:03:54+0000', tz='UTC'), Timestamp('2021-07-12 17:31:55+0000', tz='UTC'), Timestamp('2021-07-15 13:32:00+0000', tz='UTC'), Timestamp('2021-07-16 15:57:11+0000', tz='UTC'), Timestamp('2021-07-16 15:57:22+0000', tz='UTC'), Timestamp('2021-07-19 14:09:13+0000', tz='UTC'), Timestamp('2021-07-12 17:04:22+0000', tz='UTC'), Timestamp('2021-07-15 13:32:28+0000', tz='UTC'), Timestamp('2021-07-12 16:34:24+0000', tz='UTC'), Timestamp('2021-07-12 16:34:35+0000', tz='UTC'), Timestamp('2021-07-12 16:34:46+0000', tz='UTC'), Timestamp('2021-07-12 17:34:49+0000', tz='UTC'), Timestamp('2021-07-14 11:59:12+0000', tz='UTC'), Timestamp('2021-07-16 13:56:14+0000', tz='UTC'), Timestamp('2021-07-19 14:08:54+0000', tz='UTC'), Timestamp('2021-07-12 17:30:38+0000', tz='UTC'), Timestamp('2021-07-12 17:32:52+0000', tz='UTC'), Timestamp('2021-07-12 17:33:03+0000', tz='UTC'), Timestamp('2021-07-12 17:33:14+0000', tz='UTC'), Timestamp('2021-07-12 16:35:43+0000', tz='UTC'), Timestamp('2021-07-12 17:03:44+0000', tz='UTC'), Timestamp('2021-07-12 16:33:46+0000', tz='UTC'), Timestamp('2021-07-12 16:33:57+0000', tz='UTC'), Timestamp('2021-07-12 17:31:46+0000', tz='UTC'), Timestamp('2021-07-12 17:34:11+0000', tz='UTC'), Timestamp('2021-07-19 14:45:49+0000', tz='UTC'), Timestamp('2021-07-12 17:30:00+0000', tz='UTC'), Timestamp('2021-07-12 17:32:14+0000', tz='UTC'), Timestamp('2021-07-12 17:32:25+0000', tz='UTC'), Timestamp('2021-07-12 16:35:40+0000', tz='UTC'), Timestamp('2021-07-19 23:33:31+0000', tz='UTC'), Timestamp('2021-07-12 17:36:27+0000', tz='UTC'), Timestamp('2021-07-12 17:04:52+0000', tz='UTC'), Timestamp('2021-07-12 17:05:03+0000', tz='UTC'), Timestamp('2021-07-12 16:34:54+0000', tz='UTC'), Timestamp('2021-07-12 16:35:05+0000', tz='UTC'), Timestamp('2021-07-12 16:35:33+0000', tz='UTC'), Timestamp('2021-07-12 17:33:22+0000', tz='UTC'), Timestamp('2021-07-12 17:33:33+0000', tz='UTC'), Timestamp('2021-07-13 14:05:40+0000', tz='UTC'), Timestamp('2021-07-16 15:57:14+0000', tz='UTC'), Timestamp('2021-07-12 17:35:38+0000', tz='UTC'), Timestamp('2021-07-12 17:04:03+0000', tz='UTC'), Timestamp('2021-07-12 17:04:14+0000', tz='UTC'), Timestamp('2021-07-12 17:04:25+0000', tz='UTC'), Timestamp('2021-07-12 17:31:38+0000', tz='UTC'), Timestamp('2021-07-12 17:35:49+0000', tz='UTC'), Timestamp('2021-07-15 13:32:31+0000', tz='UTC'), Timestamp('2021-07-12 16:34:16+0000', tz='UTC'), Timestamp('2021-07-12 16:34:27+0000', tz='UTC'), Timestamp('2021-07-09 18:39:39+0000', tz='UTC'), Timestamp('2021-07-16 15:59:30+0000', tz='UTC'), Timestamp('2021-07-12 16:34:55+0000', tz='UTC'), Timestamp('2021-07-12 17:32:55+0000', tz='UTC'), Timestamp('2021-07-19 14:09:07+0000', tz='UTC'), Timestamp('2021-07-19 14:09:15+0000', tz='UTC'), Timestamp('2021-07-12 17:36:46+0000', tz='UTC'), Timestamp('2021-07-12 17:05:22+0000', tz='UTC'), Timestamp('2021-07-12 17:36:57+0000', tz='UTC'), Timestamp('2021-07-15 13:33:28+0000', tz='UTC'), Timestamp('2021-07-12 17:35:00+0000', tz='UTC'), Timestamp('2021-07-12 17:35:11+0000', tz='UTC'), Timestamp('2021-07-12 17:30:49+0000', tz='UTC'), Timestamp('2021-07-12 16:33:49+0000', tz='UTC'), Timestamp('2021-07-12 16:35:52+0000', tz='UTC'), Timestamp('2021-07-12 16:36:03+0000', tz='UTC'), Timestamp('2021-07-16 13:55:08+0000', tz='UTC'), Timestamp('2021-07-12 17:36:08+0000', tz='UTC'), Timestamp('2021-07-12 17:04:33+0000', tz='UTC'), Timestamp('2021-07-12 17:04:44+0000', tz='UTC'), Timestamp('2021-07-12 17:36:19+0000', tz='UTC'), Timestamp('2021-07-12 17:31:57+0000', tz='UTC'), Timestamp('2021-07-12 17:32:08+0000', tz='UTC'), Timestamp('2021-07-13 09:22:39+0000', tz='UTC'), Timestamp('2021-07-12 17:34:22+0000', tz='UTC'), Timestamp('2021-07-12 17:15:22+0000', tz='UTC'), Timestamp('2021-07-12 17:30:11+0000', tz='UTC'), Timestamp('2021-07-12 16:35:14+0000', tz='UTC'), Timestamp('2021-07-13 14:05:32+0000', tz='UTC'), Timestamp('2021-07-16 13:56:16+0000', tz='UTC'), Timestamp('2021-07-12 17:37:16+0000', tz='UTC'), Timestamp('2021-07-12 17:37:27+0000', tz='UTC'), Timestamp('2021-07-12 17:35:19+0000', tz='UTC'), Timestamp('2021-07-12 17:35:30+0000', tz='UTC'), Timestamp('2021-07-12 17:35:41+0000', tz='UTC'), Timestamp('2021-07-12 17:37:55+0000', tz='UTC'), Timestamp('2021-07-12 17:31:08+0000', tz='UTC'), Timestamp('2021-07-12 17:31:19+0000', tz='UTC'), Timestamp('2021-07-12 17:31:30+0000', tz='UTC'), Timestamp('2021-07-12 17:33:44+0000', tz='UTC'), Timestamp('2021-07-19 14:08:57+0000', tz='UTC'), Timestamp('2021-07-12 17:03:46+0000', tz='UTC'), Timestamp('2021-07-14 18:45:59+0000', tz='UTC'), Timestamp('2021-07-13 14:04:54+0000', tz='UTC'), Timestamp('2021-07-16 15:57:25+0000', tz='UTC'), Timestamp('2021-07-27 17:31:44+0000', tz='UTC'), Timestamp('2021-07-12 17:36:38+0000', tz='UTC'), Timestamp('2021-07-12 17:32:27+0000', tz='UTC'), Timestamp('2021-07-14 11:59:15+0000', tz='UTC'), Timestamp('2021-07-13 09:38:09+0000', tz='UTC'), Timestamp('2021-07-12 17:34:41+0000', tz='UTC'), Timestamp('2021-07-12 17:34:52+0000', tz='UTC'), Timestamp('2021-07-12 17:35:03+0000', tz='UTC'), Timestamp('2021-07-12 17:37:17+0000', tz='UTC'), Timestamp('2021-07-12 17:30:30+0000', tz='UTC'), Timestamp('2021-07-12 17:30:41+0000', tz='UTC'), Timestamp('2021-07-16 16:00:15+0000', tz='UTC'), Timestamp('2021-07-12 17:33:06+0000', tz='UTC'), Timestamp('2021-07-16 16:00:19+0000', tz='UTC'), Timestamp('2021-07-12 16:35:44+0000', tz='UTC'), Timestamp('2021-07-12 16:35:55+0000', tz='UTC'), Timestamp('2021-07-16 13:55:00+0000', tz='UTC'), Timestamp('2021-07-13 13:49:07+0000', tz='UTC'), Timestamp('2021-07-13 09:22:31+0000', tz='UTC'), Timestamp('2021-07-12 17:31:49+0000', tz='UTC'), Timestamp('2021-07-19 14:45:41+0000', tz='UTC'), Timestamp('2021-07-12 17:34:03+0000', tz='UTC'), Timestamp('2021-07-12 17:34:14+0000', tz='UTC'), Timestamp('2021-07-12 17:34:25+0000', tz='UTC'), Timestamp('2021-07-12 17:36:39+0000', tz='UTC'), Timestamp('2021-07-12 17:30:03+0000', tz='UTC'), Timestamp('2021-07-19 10:53:05+0000', tz='UTC'), Timestamp('2021-07-12 17:04:16+0000', tz='UTC'), Timestamp('2021-07-16 16:00:20+0000', tz='UTC'), Timestamp('2021-07-12 17:04:55+0000', tz='UTC'), Timestamp('2021-07-12 16:34:57+0000', tz='UTC'), Timestamp('2021-07-12 16:35:08+0000', tz='UTC'), Timestamp('2021-07-12 17:32:57+0000', tz='UTC'), Timestamp('2021-07-12 17:35:22+0000', tz='UTC'), Timestamp('2021-07-12 17:37:36+0000', tz='UTC'), Timestamp('2021-07-12 17:31:00+0000', tz='UTC'), Timestamp('2021-07-12 17:31:11+0000', tz='UTC'), Timestamp('2021-07-12 17:37:47+0000', tz='UTC'), Timestamp('2021-07-12 17:33:25+0000', tz='UTC'), Timestamp('2021-07-12 17:33:36+0000', tz='UTC'), Timestamp('2021-07-12 17:03:49+0000', tz='UTC'), Timestamp('2021-07-15 13:31:55+0000', tz='UTC'), Timestamp('2021-07-16 15:57:06+0000', tz='UTC'), Timestamp('2021-07-16 15:57:17+0000', tz='UTC'), Timestamp('2021-07-19 14:06:32+0000', tz='UTC'), Timestamp('2021-07-19 14:06:43+0000', tz='UTC'), Timestamp('2021-07-19 14:09:08+0000', tz='UTC'), Timestamp('2021-07-12 17:04:17+0000', tz='UTC'), Timestamp('2021-07-15 13:32:23+0000', tz='UTC'), Timestamp('2021-07-12 16:34:19+0000', tz='UTC'), Timestamp('2021-07-12 16:34:30+0000', tz='UTC'), Timestamp('2021-07-12 17:34:33+0000', tz='UTC'), Timestamp('2021-07-12 17:34:44+0000', tz='UTC'), Timestamp('2021-07-12 17:30:22+0000', tz='UTC'), Timestamp('2021-07-12 17:30:33+0000', tz='UTC'), Timestamp('2021-07-12 17:32:47+0000', tz='UTC'), Timestamp('2021-07-12 17:32:58+0000', tz='UTC'), Timestamp('2021-07-12 17:05:25+0000', tz='UTC'), Timestamp('2021-07-12 17:05:14+0000', tz='UTC'), Timestamp('2021-07-15 13:33:31+0000', tz='UTC'), Timestamp('2021-07-16 10:42:02+0000', tz='UTC'), Timestamp('2021-07-19 14:44:16+0000', tz='UTC'), Timestamp('2021-07-12 16:35:38+0000', tz='UTC'), Timestamp('2021-07-12 16:35:27+0000', tz='UTC'), Timestamp('2021-07-13 09:21:34+0000', tz='UTC'), Timestamp('2021-07-12 16:33:41+0000', tz='UTC'), Timestamp('2021-07-12 16:33:52+0000', tz='UTC'), Timestamp('2021-07-12 17:33:55+0000', tz='UTC'), Timestamp('2021-07-12 17:34:06+0000', tz='UTC'), Timestamp('2021-07-12 17:29:55+0000', tz='UTC'), Timestamp('2021-07-12 17:04:08+0000', tz='UTC'), Timestamp('2021-07-12 17:32:09+0000', tz='UTC'), Timestamp('2021-07-12 17:32:20+0000', tz='UTC'), Timestamp('2021-07-12 17:36:22+0000', tz='UTC'), Timestamp('2021-07-12 17:04:36+0000', tz='UTC'), Timestamp('2021-07-13 09:22:42+0000', tz='UTC'), Timestamp('2021-07-16 10:42:03+0000', tz='UTC'), Timestamp('2021-07-12 17:37:39+0000', tz='UTC'), Timestamp('2021-07-12 16:35:28+0000', tz='UTC'), Timestamp('2021-07-12 17:33:17+0000', tz='UTC'), Timestamp('2021-07-12 17:33:28+0000', tz='UTC'), Timestamp('2021-07-14 11:59:17+0000', tz='UTC'), Timestamp('2021-07-12 17:35:33+0000', tz='UTC'), Timestamp('2021-07-12 17:04:09+0000', tz='UTC'), Timestamp('2021-07-15 18:50:04+0000', tz='UTC'), Timestamp('2021-07-16 13:55:11+0000', tz='UTC'), Timestamp('2021-07-19 14:09:00+0000', tz='UTC'), Timestamp('2021-07-12 16:34:00+0000', tz='UTC'), Timestamp('2021-07-12 16:34:11+0000', tz='UTC'), Timestamp('2021-07-12 17:30:14+0000', tz='UTC'), Timestamp('2021-07-12 17:32:50+0000', tz='UTC'), Timestamp('2021-07-19 14:45:43+0000', tz='UTC'), Timestamp('2021-07-12 17:36:30+0000', tz='UTC'), Timestamp('2021-07-12 17:05:06+0000', tz='UTC'), Timestamp('2021-07-12 17:36:41+0000', tz='UTC'), Timestamp('2021-07-12 17:36:52+0000', tz='UTC'), Timestamp('2021-07-12 17:32:19+0000', tz='UTC'), Timestamp('2021-07-14 11:59:18+0000', tz='UTC'), Timestamp('2021-07-15 13:33:23+0000', tz='UTC'), Timestamp('2021-07-12 16:35:19+0000', tz='UTC'), Timestamp('2021-07-12 17:34:55+0000', tz='UTC'), Timestamp('2021-07-12 17:30:44+0000', tz='UTC'), Timestamp('2021-07-16 16:00:22+0000', tz='UTC'), Timestamp('2021-07-12 16:35:47+0000', tz='UTC'), Timestamp('2021-07-12 16:35:58+0000', tz='UTC'), Timestamp('2021-07-12 17:33:47+0000', tz='UTC'), Timestamp('2021-07-12 17:37:49+0000', tz='UTC'), Timestamp('2021-07-16 13:55:03+0000', tz='UTC'), Timestamp('2021-07-12 17:36:14+0000', tz='UTC'), Timestamp('2021-07-12 17:04:28+0000', tz='UTC'), Timestamp('2021-07-12 17:04:39+0000', tz='UTC'), Timestamp('2021-07-13 09:22:34+0000', tz='UTC'), Timestamp('2021-07-12 17:31:41+0000', tz='UTC'), Timestamp('2021-07-12 17:31:52+0000', tz='UTC'), Timestamp('2021-07-12 17:32:03+0000', tz='UTC'), Timestamp('2021-07-12 17:34:17+0000', tz='UTC'), Timestamp('2021-07-15 13:32:34+0000', tz='UTC'), Timestamp('2021-07-19 14:45:44+0000', tz='UTC'), Timestamp('2021-07-12 17:30:06+0000', tz='UTC'), Timestamp('2021-07-16 15:59:33+0000', tz='UTC'), Timestamp('2021-07-12 16:35:09+0000', tz='UTC'), Timestamp('2021-07-12 16:35:20+0000', tz='UTC'), Timestamp('2021-07-14 19:08:46+0000', tz='UTC'), Timestamp('2021-07-16 13:56:11+0000', tz='UTC'), Timestamp('2021-07-12 17:37:11+0000', tz='UTC'), Timestamp('2021-07-12 17:35:14+0000', tz='UTC'), Timestamp('2021-07-12 17:35:25+0000', tz='UTC'), Timestamp('2021-07-12 17:35:36+0000', tz='UTC'), Timestamp('2021-07-12 17:37:50+0000', tz='UTC'), Timestamp('2021-07-12 17:31:03+0000', tz='UTC'), Timestamp('2021-07-12 17:03:41+0000', tz='UTC'), Timestamp('2021-07-16 15:57:09+0000', tz='UTC'), Timestamp('2021-07-16 15:57:20+0000', tz='UTC'), Timestamp('2021-07-12 17:36:33+0000', tz='UTC'), Timestamp('2021-07-12 17:04:58+0000', tz='UTC'), Timestamp('2021-07-12 16:34:22+0000', tz='UTC'), Timestamp('2021-07-12 17:32:11+0000', tz='UTC'), Timestamp('2021-07-12 17:32:22+0000', tz='UTC'), Timestamp('2021-07-12 17:34:36+0000', tz='UTC'), Timestamp('2021-07-12 17:34:47+0000', tz='UTC'), Timestamp('2021-07-12 17:30:36+0000', tz='UTC'), Timestamp('2021-07-16 07:21:13+0000', tz='UTC'), Timestamp('2021-07-16 15:55:52+0000', tz='UTC'), Timestamp('2021-07-12 16:35:39+0000', tz='UTC'), Timestamp('2021-07-12 16:35:50+0000', tz='UTC'), Timestamp('2021-07-13 14:05:35+0000', tz='UTC'), Timestamp('2021-07-12 17:05:28+0000', tz='UTC'), Timestamp('2021-07-15 13:33:34+0000', tz='UTC'), Timestamp('2021-07-12 18:24:42+0000', tz='UTC'), Timestamp('2021-07-12 17:35:44+0000', tz='UTC'), Timestamp('2021-07-12 17:35:55+0000', tz='UTC'), Timestamp('2021-07-12 17:31:33+0000', tz='UTC'), Timestamp('2021-07-12 17:31:44+0000', tz='UTC'), Timestamp('2021-07-12 17:33:58+0000', tz='UTC'), Timestamp('2021-07-12 17:34:09+0000', tz='UTC'), Timestamp('2021-07-12 17:36:23+0000', tz='UTC'), Timestamp('2021-07-12 17:29:58+0000', tz='UTC'), Timestamp('2021-07-12 17:04:11+0000', tz='UTC'), Timestamp('2021-07-16 15:55:53+0000', tz='UTC'), Timestamp('2021-07-12 16:34:41+0000', tz='UTC'), Timestamp('2021-07-12 16:34:52+0000', tz='UTC'), Timestamp('2021-07-12 16:35:03+0000', tz='UTC'), Timestamp('2021-07-12 17:35:06+0000', tz='UTC'), Timestamp('2021-07-12 17:35:17+0000', tz='UTC'), Timestamp('2021-07-12 17:37:42+0000', tz='UTC'), Timestamp('2021-07-12 17:30:55+0000', tz='UTC'), Timestamp('2021-07-12 17:31:06+0000', tz='UTC'), Timestamp('2021-07-12 17:33:20+0000', tz='UTC'), Timestamp('2021-07-10 17:58:23+0000', tz='UTC'), Timestamp('2021-07-12 17:33:31+0000', tz='UTC'), Timestamp('2021-07-12 17:31:34+0000', tz='UTC'), Timestamp('2021-07-16 15:57:12+0000', tz='UTC'), Timestamp('2021-07-16 13:55:14+0000', tz='UTC'), Timestamp('2021-07-19 14:08:52+0000', tz='UTC'), Timestamp('2021-07-19 14:09:03+0000', tz='UTC'), Timestamp('2021-07-21 02:55:10+0000', tz='UTC'), Timestamp('2021-07-12 16:34:03+0000', tz='UTC'), Timestamp('2021-07-12 16:34:14+0000', tz='UTC'), Timestamp('2021-07-09 18:39:37+0000', tz='UTC'), Timestamp('2021-07-12 17:34:28+0000', tz='UTC'), Timestamp('2021-07-12 17:15:28+0000', tz='UTC'), Timestamp('2021-07-12 17:34:39+0000', tz='UTC'), Timestamp('2021-07-12 17:37:04+0000', tz='UTC'), Timestamp('2021-07-12 17:30:17+0000', tz='UTC'), Timestamp('2021-07-12 17:30:28+0000', tz='UTC'), Timestamp('2021-07-25 10:57:01+0000', tz='UTC'), Timestamp('2021-07-12 17:32:42+0000', tz='UTC'), Timestamp('2021-07-12 17:32:53+0000', tz='UTC'), Timestamp('2021-07-12 17:30:48+0000', tz='UTC'), Timestamp('2021-07-13 14:05:27+0000', tz='UTC'), Timestamp('2021-07-13 14:05:38+0000', tz='UTC'), Timestamp('2021-07-12 17:05:20+0000', tz='UTC'), Timestamp('2021-07-15 13:33:26+0000', tz='UTC'), Timestamp('2021-07-12 16:35:11+0000', tz='UTC'), Timestamp('2021-07-12 16:35:22+0000', tz='UTC'), Timestamp('2021-07-16 17:30:26+0000', tz='UTC'), Timestamp('2021-07-12 17:33:50+0000', tz='UTC'), Timestamp('2021-07-12 17:34:01+0000', tz='UTC'), Timestamp('2021-07-13 18:33:11+0000', tz='UTC'), Timestamp('2021-07-12 17:32:04+0000', tz='UTC'), Timestamp('2021-07-19 14:09:11+0000', tz='UTC'), Timestamp('2021-07-12 17:04:31+0000', tz='UTC'), Timestamp('2021-07-12 17:04:42+0000', tz='UTC'), Timestamp('2021-07-13 09:22:37+0000', tz='UTC'), Timestamp('2021-07-12 16:34:33+0000', tz='UTC'), Timestamp('2021-07-12 16:34:44+0000', tz='UTC'), Timestamp('2021-07-12 17:34:58+0000', tz='UTC'), Timestamp('2021-07-16 15:59:36+0000', tz='UTC'), Timestamp('2021-07-12 17:30:47+0000', tz='UTC'), Timestamp('2021-07-12 17:33:01+0000', tz='UTC'), Timestamp('2021-07-12 17:33:12+0000', tz='UTC'), Timestamp('2021-07-12 17:37:03+0000', tz='UTC'), Timestamp('2021-07-12 17:35:28+0000', tz='UTC'), Timestamp('2021-07-12 17:03:53+0000', tz='UTC'), Timestamp('2021-07-16 13:55:06+0000', tz='UTC'), Timestamp('2021-07-19 14:08:55+0000', tz='UTC'), Timestamp('2021-07-12 17:31:17+0000', tz='UTC'), Timestamp('2021-07-20 14:40:49+0000', tz='UTC'), Timestamp('2021-07-12 16:33:55+0000', tz='UTC'), Timestamp('2021-07-12 16:34:06+0000', tz='UTC'), Timestamp('2021-07-12 17:34:20+0000', tz='UTC'), Timestamp('2021-07-12 17:30:09+0000', tz='UTC'), Timestamp('2021-07-19 14:45:38+0000', tz='UTC'), Timestamp('2021-07-27 22:20:21+0000', tz='UTC'), Timestamp('2021-07-12 17:36:25+0000', tz='UTC'), Timestamp('2021-07-12 17:04:50+0000', tz='UTC'), Timestamp('2021-07-12 17:05:01+0000', tz='UTC'), Timestamp('2021-07-12 17:05:12+0000', tz='UTC'), Timestamp('2021-07-12 17:36:47+0000', tz='UTC'), Timestamp('2021-07-12 17:34:50+0000', tz='UTC'), Timestamp('2021-07-16 16:00:17+0000', tz='UTC'), Timestamp('2021-07-12 16:35:42+0000', tz='UTC'), Timestamp('2021-07-12 16:35:53+0000', tz='UTC'), Timestamp('2021-07-12 17:33:42+0000', tz='UTC'), Timestamp('2021-07-12 17:37:44+0000', tz='UTC'), Timestamp('2021-07-19 14:09:14+0000', tz='UTC'), Timestamp('2021-07-12 17:04:12+0000', tz='UTC'), Timestamp('2021-07-12 17:04:34+0000', tz='UTC'), Timestamp('2021-07-13 09:22:29+0000', tz='UTC'), Timestamp('2021-07-12 17:31:47+0000', tz='UTC'), Timestamp('2021-07-15 13:32:29+0000', tz='UTC'), Timestamp('2021-07-12 16:34:25+0000', tz='UTC'), Timestamp('2021-07-16 15:59:28+0000', tz='UTC'), Timestamp('2021-07-16 15:59:39+0000', tz='UTC'), Timestamp('2021-07-16 15:55:06+0000', tz='UTC'), Timestamp('2021-07-12 16:35:04+0000', tz='UTC'), Timestamp('2021-07-19 16:12:09+0000', tz='UTC'), Timestamp('2021-07-12 17:36:55+0000', tz='UTC'), Timestamp('2021-07-12 17:05:31+0000', tz='UTC'), Timestamp('2021-07-12 17:32:44+0000', tz='UTC'), Timestamp('2021-07-12 17:35:09+0000', tz='UTC'), Timestamp('2021-07-12 17:35:20+0000', tz='UTC'), Timestamp('2021-07-12 17:30:58+0000', tz='UTC'), Timestamp('2021-07-12 17:31:09+0000', tz='UTC'), Timestamp('2021-07-12 16:33:47+0000', tz='UTC'), Timestamp('2021-07-12 17:33:23+0000', tz='UTC'), Timestamp('2021-07-12 16:36:01+0000', tz='UTC'), Timestamp('2021-07-12 17:03:36+0000', tz='UTC'), Timestamp('2021-07-12 17:36:28+0000', tz='UTC'), Timestamp('2021-07-12 17:04:53+0000', tz='UTC'), Timestamp('2021-07-12 16:34:17+0000', tz='UTC'), Timestamp('2021-07-12 17:32:06+0000', tz='UTC'), Timestamp('2021-07-12 17:32:17+0000', tz='UTC'), Timestamp('2021-07-12 17:34:31+0000', tz='UTC'), Timestamp('2021-07-12 17:34:42+0000', tz='UTC'), Timestamp('2021-07-12 17:36:56+0000', tz='UTC'), Timestamp('2021-07-12 17:30:20+0000', tz='UTC'), Timestamp('2021-07-12 17:30:31+0000', tz='UTC'), Timestamp('2021-07-12 16:35:34+0000', tz='UTC'), Timestamp('2021-07-13 14:05:30+0000', tz='UTC'), Timestamp('2021-07-16 13:54:39+0000', tz='UTC'), Timestamp('2021-07-12 17:35:39+0000', tz='UTC'), Timestamp('2021-07-12 17:35:50+0000', tz='UTC'), Timestamp('2021-07-12 17:37:53+0000', tz='UTC'), Timestamp('2021-07-12 17:31:28+0000', tz='UTC'), Timestamp('2021-07-12 17:31:39+0000', tz='UTC'), Timestamp('2021-07-12 17:33:53+0000', tz='UTC'), Timestamp('2021-07-12 17:34:04+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-27 12:06:46+0000', tz='UTC'), Timestamp('2021-07-27 12:03:39+0000', tz='UTC'), Timestamp('2021-07-27 12:04:25+0000', tz='UTC'), Timestamp('2021-07-27 11:39:13+0000', tz='UTC'), Timestamp('2021-07-27 12:02:26+0000', tz='UTC'), Timestamp('2021-07-27 12:05:33+0000', tz='UTC'), Timestamp('2021-07-27 12:03:43+0000', tz='UTC'), Timestamp('2021-07-27 12:07:34+0000', tz='UTC'), Timestamp('2021-07-27 11:37:27+0000', tz='UTC'), Timestamp('2021-07-27 11:37:03+0000', tz='UTC'), Timestamp('2021-07-27 11:37:07+0000', tz='UTC'), Timestamp('2021-07-27 05:59:54+0000', tz='UTC'), Timestamp('2021-07-27 05:59:45+0000', tz='UTC'), Timestamp('2021-07-27 05:56:49+0000', tz='UTC'), Timestamp('2021-07-27 05:57:13+0000', tz='UTC'), Timestamp('2021-07-27 12:07:49+0000', tz='UTC'), Timestamp('2021-07-27 12:04:42+0000', tz='UTC'), Timestamp('2021-07-27 12:06:45+0000', tz='UTC'), Timestamp('2021-07-27 12:03:49+0000', tz='UTC'), Timestamp('2021-07-27 05:56:51+0000', tz='UTC'), Timestamp('2021-07-27 12:04:35+0000', tz='UTC'), Timestamp('2021-07-27 05:56:53+0000', tz='UTC'), Timestamp('2021-07-27 05:57:15+0000', tz='UTC'), Timestamp('2021-07-27 05:57:37+0000', tz='UTC'), Timestamp('2021-07-27 12:03:42+0000', tz='UTC'), Timestamp('2021-07-27 12:07:33+0000', tz='UTC'), Timestamp('2021-07-27 12:04:37+0000', tz='UTC'), Timestamp('2021-07-27 12:02:27+0000', tz='UTC'), Timestamp('2021-07-27 12:04:39+0000', tz='UTC'), Timestamp('2021-07-27 11:37:04+0000', tz='UTC'), Timestamp('2021-07-27 12:04:19+0000', tz='UTC'), Timestamp('2021-07-27 12:07:26+0000', tz='UTC'), Timestamp('2021-07-27 12:07:24+0000', tz='UTC'), Timestamp('2021-07-27 05:57:23+0000', tz='UTC'), Timestamp('2021-07-27 05:59:48+0000', tz='UTC'), Timestamp('2021-07-27 05:56:52+0000', tz='UTC'), Timestamp('2021-07-27 12:02:31+0000', tz='UTC'), Timestamp('2021-07-27 12:02:53+0000', tz='UTC'), Timestamp('2021-07-27 12:10:02+0000', tz='UTC'), Timestamp('2021-07-27 12:05:29+0000', tz='UTC'), Timestamp('2021-07-27 11:37:08+0000', tz='UTC'), Timestamp('2021-07-27 11:39:11+0000', tz='UTC'), Timestamp('2021-07-27 05:59:46+0000', tz='UTC'), Timestamp('2021-07-27 05:56:54+0000', tz='UTC'), Timestamp('2021-07-27 05:57:38+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-10 16:30:12+0000', tz='UTC'), Timestamp('2021-08-18 11:10:32+0000', tz='UTC'), Timestamp('2021-08-18 14:23:11+0000', tz='UTC'), Timestamp('2021-08-12 08:17:49+0000', tz='UTC'), Timestamp('2021-08-12 00:48:05+0000', tz='UTC'), Timestamp('2021-08-12 00:47:30+0000', tz='UTC'), Timestamp('2021-08-18 11:41:29+0000', tz='UTC'), Timestamp('2021-08-12 03:19:28+0000', tz='UTC'), Timestamp('2021-08-10 14:01:22+0000', tz='UTC'), Timestamp('2021-08-18 02:36:27+0000', tz='UTC'), Timestamp('2021-08-22 19:12:10+0000', tz='UTC'), Timestamp('2021-08-19 05:33:20+0000', tz='UTC'), Timestamp('2021-08-26 04:10:35+0000', tz='UTC'), Timestamp('2021-08-19 18:54:39+0000', tz='UTC'), Timestamp('2021-08-24 10:33:55+0000', tz='UTC'), Timestamp('2021-08-19 05:52:35+0000', tz='UTC'), Timestamp('2021-08-12 13:11:01+0000', tz='UTC'), Timestamp('2021-08-12 00:51:48+0000', tz='UTC'), Timestamp('2021-08-12 08:17:58+0000', tz='UTC'), Timestamp('2021-08-12 00:18:14+0000', tz='UTC'), Timestamp('2021-08-22 10:45:12+0000', tz='UTC'), Timestamp('2021-08-10 07:14:01+0000', tz='UTC'), Timestamp('2021-08-10 20:44:17+0000', tz='UTC'), Timestamp('2021-08-13 22:22:03+0000', tz='UTC'), Timestamp('2021-08-18 18:01:35+0000', tz='UTC'), Timestamp('2021-08-10 23:15:36+0000', tz='UTC'), Timestamp('2021-08-14 12:25:26+0000', tz='UTC'), Timestamp('2021-08-15 11:55:46+0000', tz='UTC'), Timestamp('2021-08-18 10:21:18+0000', tz='UTC'), Timestamp('2021-08-18 22:38:21+0000', tz='UTC'), Timestamp('2021-08-12 08:17:46+0000', tz='UTC'), Timestamp('2021-08-12 01:22:05+0000', tz='UTC'), Timestamp('2021-08-10 18:50:25+0000', tz='UTC'), Timestamp('2021-08-12 00:54:32+0000', tz='UTC'), Timestamp('2021-08-23 18:41:40+0000', tz='UTC'), Timestamp('2021-08-19 05:42:46+0000', tz='UTC'), Timestamp('2021-08-18 11:06:09+0000', tz='UTC'), Timestamp('2021-08-10 19:21:07+0000', tz='UTC'), Timestamp('2021-08-10 21:40:08+0000', tz='UTC'), Timestamp('2021-08-18 17:10:46+0000', tz='UTC'), Timestamp('2021-08-24 18:32:02+0000', tz='UTC'), Timestamp('2021-08-18 17:56:13+0000', tz='UTC'), Timestamp('2021-08-18 21:11:28+0000', tz='UTC'), Timestamp('2021-08-23 18:37:02+0000', tz='UTC'), Timestamp('2021-08-19 21:01:14+0000', tz='UTC'), Timestamp('2021-08-12 01:24:47+0000', tz='UTC'), Timestamp('2021-08-23 10:30:42+0000', tz='UTC'), Timestamp('2021-08-18 23:50:13+0000', tz='UTC'), Timestamp('2021-08-18 16:36:49+0000', tz='UTC'), Timestamp('2021-08-17 11:39:46+0000', tz='UTC'), Timestamp('2021-08-18 17:56:14+0000', tz='UTC'), Timestamp('2021-08-18 23:51:32+0000', tz='UTC'), Timestamp('2021-08-12 00:48:27+0000', tz='UTC'), Timestamp('2021-08-18 18:18:23+0000', tz='UTC'), Timestamp('2021-08-10 10:09:10+0000', tz='UTC'), Timestamp('2021-08-10 16:14:05+0000', tz='UTC'), Timestamp('2021-08-15 22:08:41+0000', tz='UTC'), Timestamp('2021-08-13 12:49:46+0000', tz='UTC'), Timestamp('2021-08-18 20:19:06+0000', tz='UTC'), Timestamp('2021-08-10 12:59:44+0000', tz='UTC'), Timestamp('2021-08-22 18:42:32+0000', tz='UTC'), Timestamp('2021-08-12 00:43:23+0000', tz='UTC'), Timestamp('2021-08-10 13:25:29+0000', tz='UTC'), Timestamp('2021-08-21 19:23:00+0000', tz='UTC'), Timestamp('2021-08-18 11:02:35+0000', tz='UTC'), Timestamp('2021-08-12 22:35:34+0000', tz='UTC'), Timestamp('2021-08-18 20:29:13+0000', tz='UTC'), Timestamp('2021-08-18 17:15:21+0000', tz='UTC'), Timestamp('2021-08-12 03:19:43+0000', tz='UTC'), Timestamp('2021-08-19 05:17:18+0000', tz='UTC'), Timestamp('2021-08-10 21:20:15+0000', tz='UTC'), Timestamp('2021-08-18 09:56:07+0000', tz='UTC'), Timestamp('2021-08-15 18:33:01+0000', tz='UTC'), Timestamp('2021-08-19 05:55:47+0000', tz='UTC'), Timestamp('2021-08-18 23:03:32+0000', tz='UTC'), Timestamp('2021-08-21 10:50:39+0000', tz='UTC'), Timestamp('2021-08-12 18:04:22+0000', tz='UTC'), Timestamp('2021-08-18 20:32:11+0000', tz='UTC'), Timestamp('2021-08-12 00:54:42+0000', tz='UTC'), Timestamp('2021-08-10 21:56:16+0000', tz='UTC'), Timestamp('2021-08-12 00:51:15+0000', tz='UTC'), Timestamp('2021-08-11 13:25:51+0000', tz='UTC'), Timestamp('2021-08-12 08:17:51+0000', tz='UTC'), Timestamp('2021-08-10 06:43:21+0000', tz='UTC'), Timestamp('2021-08-16 18:13:49+0000', tz='UTC'), Timestamp('2021-08-12 00:48:36+0000', tz='UTC'), Timestamp('2021-08-19 11:19:09+0000', tz='UTC'), Timestamp('2021-08-10 06:23:30+0000', tz='UTC'), Timestamp('2021-08-18 23:03:11+0000', tz='UTC'), Timestamp('2021-08-10 12:36:16+0000', tz='UTC'), Timestamp('2021-08-18 17:34:24+0000', tz='UTC'), Timestamp('2021-08-18 20:52:07+0000', tz='UTC'), Timestamp('2021-08-20 20:02:36+0000', tz='UTC'), Timestamp('2021-08-20 10:48:55+0000', tz='UTC'), Timestamp('2021-08-18 21:47:08+0000', tz='UTC'), Timestamp('2021-08-18 06:05:28+0000', tz='UTC'), Timestamp('2021-08-16 21:45:32+0000', tz='UTC'), Timestamp('2021-08-18 05:08:10+0000', tz='UTC'), Timestamp('2021-08-12 01:24:52+0000', tz='UTC'), Timestamp('2021-08-11 22:45:05+0000', tz='UTC'), Timestamp('2021-08-16 12:00:07+0000', tz='UTC'), Timestamp('2021-08-14 22:13:02+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-09 22:35:19+0000', tz='UTC'), Timestamp('2021-07-12 19:35:29+0000', tz='UTC'), Timestamp('2021-06-17 10:01:07+0000', tz='UTC'), Timestamp('2021-08-08 17:04:00+0000', tz='UTC'), Timestamp('2021-08-30 15:22:48+0000', tz='UTC'), Timestamp('2021-07-22 19:24:04+0000', tz='UTC'), Timestamp('2021-07-18 18:23:07+0000', tz='UTC'), Timestamp('2021-07-21 19:48:39+0000', tz='UTC'), Timestamp('2021-08-24 18:56:56+0000', tz='UTC'), Timestamp('2021-07-31 17:55:51+0000', tz='UTC'), Timestamp('2021-08-12 16:01:55+0000', tz='UTC'), Timestamp('2021-08-07 04:36:01+0000', tz='UTC'), Timestamp('2021-06-07 12:27:33+0000', tz='UTC'), Timestamp('2021-06-30 00:32:25+0000', tz='UTC'), Timestamp('2021-08-06 05:47:29+0000', tz='UTC'), Timestamp('2021-07-02 21:14:01+0000', tz='UTC'), Timestamp('2021-06-16 10:17:29+0000', tz='UTC'), Timestamp('2021-07-06 22:59:48+0000', tz='UTC'), Timestamp('2021-06-25 08:30:12+0000', tz='UTC'), Timestamp('2021-07-29 18:14:25+0000', tz='UTC'), Timestamp('2021-08-01 03:53:20+0000', tz='UTC'), Timestamp('2021-08-08 04:16:16+0000', tz='UTC'), Timestamp('2021-08-19 14:58:22+0000', tz='UTC'), Timestamp('2021-06-11 11:54:23+0000', tz='UTC'), Timestamp('2021-06-15 12:58:45+0000', tz='UTC'), Timestamp('2021-07-21 16:50:11+0000', tz='UTC'), Timestamp('2021-08-07 17:02:34+0000', tz='UTC'), Timestamp('2021-06-06 12:45:10+0000', tz='UTC'), Timestamp('2021-08-28 16:25:45+0000', tz='UTC'), Timestamp('2021-07-25 18:49:41+0000', tz='UTC'), Timestamp('2021-08-21 14:26:04+0000', tz='UTC'), Timestamp('2021-06-08 13:44:37+0000', tz='UTC'), Timestamp('2021-06-21 08:49:45+0000', tz='UTC'), Timestamp('2021-09-03 12:14:44+0000', tz='UTC'), Timestamp('2021-07-17 17:58:56+0000', tz='UTC'), Timestamp('2021-08-30 13:16:14+0000', tz='UTC'), Timestamp('2021-08-20 14:47:08+0000', tz='UTC'), Timestamp('2021-06-25 11:41:34+0000', tz='UTC'), Timestamp('2021-07-14 18:29:14+0000', tz='UTC'), Timestamp('2021-07-04 23:15:39+0000', tz='UTC'), Timestamp('2021-06-23 11:41:17+0000', tz='UTC'), Timestamp('2021-08-18 21:48:58+0000', tz='UTC'), Timestamp('2021-08-17 15:12:44+0000', tz='UTC'), Timestamp('2021-08-14 15:45:43+0000', tz='UTC'), Timestamp('2021-07-31 11:15:27+0000', tz='UTC'), Timestamp('2021-07-25 14:42:22+0000', tz='UTC'), Timestamp('2021-09-01 13:44:35+0000', tz='UTC'), Timestamp('2021-07-19 18:30:23+0000', tz='UTC'), Timestamp('2021-06-28 23:57:28+0000', tz='UTC'), Timestamp('2021-07-21 19:47:14+0000', tz='UTC'), Timestamp('2021-06-29 00:28:39+0000', tz='UTC'), Timestamp('2021-06-29 00:29:45+0000', tz='UTC'), Timestamp('2021-07-28 13:49:20+0000', tz='UTC'), Timestamp('2021-08-08 14:47:04+0000', tz='UTC'), Timestamp('2021-07-16 17:56:03+0000', tz='UTC'), Timestamp('2021-08-23 14:20:53+0000', tz='UTC'), Timestamp('2021-08-24 14:18:47+0000', tz='UTC'), Timestamp('2021-08-12 02:29:01+0000', tz='UTC'), Timestamp('2021-06-19 09:24:38+0000', tz='UTC'), Timestamp('2021-08-04 08:24:23+0000', tz='UTC'), Timestamp('2021-07-05 23:01:17+0000', tz='UTC'), Timestamp('2021-09-02 12:25:02+0000', tz='UTC'), Timestamp('2021-06-14 13:04:25+0000', tz='UTC'), Timestamp('2021-09-01 12:52:58+0000', tz='UTC'), Timestamp('2021-08-15 22:44:17+0000', tz='UTC'), Timestamp('2021-09-02 11:53:58+0000', tz='UTC'), Timestamp('2021-06-06 13:55:28+0000', tz='UTC'), Timestamp('2021-08-11 16:13:23+0000', tz='UTC'), Timestamp('2021-08-09 16:51:45+0000', tz='UTC'), Timestamp('2021-06-27 08:04:21+0000', tz='UTC'), Timestamp('2021-07-26 14:13:48+0000', tz='UTC'), Timestamp('2021-07-28 18:19:16+0000', tz='UTC'), Timestamp('2021-06-24 11:56:26+0000', tz='UTC'), Timestamp('2021-06-25 13:02:12+0000', tz='UTC'), Timestamp('2021-07-23 18:06:44+0000', tz='UTC'), Timestamp('2021-08-18 14:55:08+0000', tz='UTC'), Timestamp('2021-08-28 13:36:46+0000', tz='UTC'), Timestamp('2021-08-27 17:01:54+0000', tz='UTC'), Timestamp('2021-07-29 11:35:08+0000', tz='UTC'), Timestamp('2021-08-03 17:26:01+0000', tz='UTC'), Timestamp('2021-08-10 03:42:57+0000', tz='UTC'), Timestamp('2021-08-01 17:42:34+0000', tz='UTC'), Timestamp('2021-06-18 09:12:14+0000', tz='UTC'), Timestamp('2021-08-29 13:37:00+0000', tz='UTC'), Timestamp('2021-07-24 16:25:59+0000', tz='UTC'), Timestamp('2021-08-22 14:09:44+0000', tz='UTC'), Timestamp('2021-06-27 11:23:27+0000', tz='UTC'), Timestamp('2021-07-12 19:29:20+0000', tz='UTC'), Timestamp('2021-06-28 23:59:05+0000', tz='UTC'), Timestamp('2021-07-23 19:05:29+0000', tz='UTC'), Timestamp('2021-07-04 00:03:25+0000', tz='UTC'), Timestamp('2021-06-21 11:46:40+0000', tz='UTC'), Timestamp('2021-06-22 08:15:02+0000', tz='UTC'), Timestamp('2021-07-15 18:18:00+0000', tz='UTC'), Timestamp('2021-07-27 18:18:57+0000', tz='UTC'), Timestamp('2021-07-05 23:21:28+0000', tz='UTC'), Timestamp('2021-07-17 14:26:54+0000', tz='UTC'), Timestamp('2021-06-23 07:57:53+0000', tz='UTC'), Timestamp('2021-08-29 16:16:18+0000', tz='UTC'), Timestamp('2021-07-02 21:14:00+0000', tz='UTC'), Timestamp('2021-08-05 17:15:34+0000', tz='UTC'), Timestamp('2021-08-09 04:40:19+0000', tz='UTC'), Timestamp('2021-06-17 12:31:40+0000', tz='UTC'), Timestamp('2021-08-13 02:12:11+0000', tz='UTC'), Timestamp('2021-08-13 16:05:14+0000', tz='UTC'), Timestamp('2021-06-17 17:39:17+0000', tz='UTC'), Timestamp('2021-06-07 13:39:19+0000', tz='UTC'), Timestamp('2021-07-30 11:27:29+0000', tz='UTC'), Timestamp('2021-08-14 23:58:14+0000', tz='UTC'), Timestamp('2021-06-10 12:00:32+0000', tz='UTC'), Timestamp('2021-08-05 07:39:37+0000', tz='UTC'), Timestamp('2021-08-20 19:24:57+0000', tz='UTC'), Timestamp('2021-07-01 23:43:55+0000', tz='UTC'), Timestamp('2021-07-06 23:23:00+0000', tz='UTC'), Timestamp('2021-07-26 18:36:36+0000', tz='UTC'), Timestamp('2021-08-15 15:28:21+0000', tz='UTC'), Timestamp('2021-08-25 18:55:26+0000', tz='UTC'), Timestamp('2021-06-13 13:04:01+0000', tz='UTC'), Timestamp('2021-06-16 12:47:27+0000', tz='UTC'), Timestamp('2021-08-06 17:02:35+0000', tz='UTC'), Timestamp('2021-08-11 03:27:47+0000', tz='UTC'), Timestamp('2021-08-21 19:07:17+0000', tz='UTC'), Timestamp('2021-06-14 10:39:11+0000', tz='UTC'), Timestamp('2021-08-14 00:47:10+0000', tz='UTC'), Timestamp('2021-06-22 11:54:15+0000', tz='UTC'), Timestamp('2021-06-26 08:06:46+0000', tz='UTC'), Timestamp('2021-08-19 20:44:32+0000', tz='UTC'), Timestamp('2021-08-23 18:59:48+0000', tz='UTC'), Timestamp('2021-07-10 14:04:24+0000', tz='UTC'), Timestamp('2021-07-16 18:55:01+0000', tz='UTC'), Timestamp('2021-06-15 10:24:21+0000', tz='UTC'), Timestamp('2021-07-08 22:52:27+0000', tz='UTC'), Timestamp('2021-07-13 19:04:32+0000', tz='UTC'), Timestamp('2021-08-02 17:39:20+0000', tz='UTC'), Timestamp('2021-07-09 23:00:07+0000', tz='UTC'), Timestamp('2021-06-20 09:14:27+0000', tz='UTC'), Timestamp('2021-07-14 18:46:22+0000', tz='UTC'), Timestamp('2021-07-20 18:32:19+0000', tz='UTC'), Timestamp('2021-08-22 19:14:42+0000', tz='UTC'), Timestamp('2021-07-01 00:41:58+0000', tz='UTC'), Timestamp('2021-07-19 17:35:04+0000', tz='UTC'), Timestamp('2021-06-24 08:32:10+0000', tz='UTC'), Timestamp('2021-08-10 16:30:02+0000', tz='UTC'), Timestamp('2021-07-02 23:42:03+0000', tz='UTC'), Timestamp('2021-07-22 18:06:34+0000', tz='UTC'), Timestamp('2021-08-04 17:16:30+0000', tz='UTC'), Timestamp('2021-06-20 12:06:09+0000', tz='UTC'), Timestamp('2021-07-30 18:11:15+0000', tz='UTC'), Timestamp('2021-06-08 12:24:38+0000', tz='UTC'), Timestamp('2021-06-17 12:25:17+0000', tz='UTC'), Timestamp('2021-08-01 03:53:21+0000', tz='UTC'), Timestamp('2021-08-02 09:20:05+0000', tz='UTC'), Timestamp('2021-07-20 17:10:59+0000', tz='UTC'), Timestamp('2021-06-13 10:59:18+0000', tz='UTC'), Timestamp('2021-06-09 13:43:21+0000', tz='UTC'), Timestamp('2021-08-03 08:30:57+0000', tz='UTC'), Timestamp('2021-08-25 14:02:18+0000', tz='UTC'), Timestamp('2021-08-31 12:56:29+0000', tz='UTC'), Timestamp('2021-06-10 13:24:45+0000', tz='UTC'), Timestamp('2021-07-08 23:00:41+0000', tz='UTC'), Timestamp('2021-07-01 00:19:56+0000', tz='UTC'), Timestamp('2021-07-09 23:23:21+0000', tz='UTC'), Timestamp('2021-07-21 18:07:51+0000', tz='UTC'), Timestamp('2021-06-19 12:08:40+0000', tz='UTC'), Timestamp('2021-08-30 22:55:16+0000', tz='UTC'), Timestamp('2021-07-13 18:53:26+0000', tz='UTC'), Timestamp('2021-06-11 13:30:56+0000', tz='UTC'), Timestamp('2021-07-02 00:50:38+0000', tz='UTC'), Timestamp('2021-08-17 21:50:38+0000', tz='UTC'), Timestamp('2021-06-17 12:31:39+0000', tz='UTC'), Timestamp('2021-07-03 23:19:56+0000', tz='UTC'), Timestamp('2021-07-27 13:40:59+0000', tz='UTC'), Timestamp('2021-06-09 12:49:23+0000', tz='UTC'), Timestamp('2021-07-18 17:41:57+0000', tz='UTC'), Timestamp('2021-08-01 10:40:06+0000', tz='UTC'), Timestamp('2021-08-16 15:28:58+0000', tz='UTC'), Timestamp('2021-08-31 14:48:21+0000', tz='UTC'), Timestamp('2021-08-26 13:55:10+0000', tz='UTC'), Timestamp('2021-06-18 12:30:32+0000', tz='UTC'), Timestamp('2021-06-30 00:06:00+0000', tz='UTC'), Timestamp('2021-08-15 22:28:56+0000', tz='UTC'), Timestamp('2021-07-07 22:47:25+0000', tz='UTC'), Timestamp('2021-06-12 11:23:55+0000', tz='UTC'), Timestamp('2021-08-16 23:01:08+0000', tz='UTC'), Timestamp('2021-09-03 11:43:42+0000', tz='UTC'), Timestamp('2021-06-26 11:47:39+0000', tz='UTC'), Timestamp('2021-07-07 23:23:24+0000', tz='UTC'), Timestamp('2021-08-27 13:39:04+0000', tz='UTC'), Timestamp('2021-07-04 23:50:12+0000', tz='UTC'), Timestamp('2021-08-26 18:30:16+0000', tz='UTC'), Timestamp('2021-06-12 13:25:04+0000', tz='UTC'), Timestamp('2021-08-23 12:29:29+0000', tz='UTC'), Timestamp('2021-07-03 00:18:08+0000', tz='UTC'), Timestamp('2021-07-15 18:48:39+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-30 14:20:40+0000', tz='UTC'), Timestamp('2021-07-13 22:26:03+0000', tz='UTC'), Timestamp('2021-08-10 13:06:59+0000', tz='UTC'), Timestamp('2021-07-19 09:39:24+0000', tz='UTC'), Timestamp('2021-08-20 17:57:52+0000', tz='UTC'), Timestamp('2021-07-13 22:24:17+0000', tz='UTC'), Timestamp('2021-08-11 02:52:43+0000', tz='UTC'), Timestamp('2021-07-14 22:02:16+0000', tz='UTC'), Timestamp('2021-08-02 04:31:23+0000', tz='UTC'), Timestamp('2021-07-29 14:15:42+0000', tz='UTC'), Timestamp('2021-07-28 05:14:49+0000', tz='UTC'), Timestamp('2021-08-31 12:55:58+0000', tz='UTC'), Timestamp('2021-08-20 16:59:10+0000', tz='UTC'), Timestamp('2021-08-01 04:51:00+0000', tz='UTC'), Timestamp('2021-08-20 20:06:23+0000', tz='UTC'), Timestamp('2021-08-25 14:06:22+0000', tz='UTC'), Timestamp('2021-07-12 22:31:06+0000', tz='UTC'), Timestamp('2021-08-20 17:05:17+0000', tz='UTC'), Timestamp('2021-08-06 20:11:05+0000', tz='UTC'), Timestamp('2021-07-20 05:18:16+0000', tz='UTC'), Timestamp('2021-08-10 15:06:55+0000', tz='UTC'), Timestamp('2021-08-01 20:21:48+0000', tz='UTC'), Timestamp('2021-09-01 14:32:39+0000', tz='UTC'), Timestamp('2021-07-12 22:48:51+0000', tz='UTC'), Timestamp('2021-07-16 21:49:15+0000', tz='UTC'), Timestamp('2021-07-25 23:18:05+0000', tz='UTC'), Timestamp('2021-07-16 16:39:06+0000', tz='UTC'), Timestamp('2021-07-19 15:57:32+0000', tz='UTC'), Timestamp('2021-07-12 22:34:08+0000', tz='UTC'), Timestamp('2021-07-15 21:54:32+0000', tz='UTC'), Timestamp('2021-07-31 20:32:04+0000', tz='UTC'), Timestamp('2021-08-11 18:11:35+0000', tz='UTC'), Timestamp('2021-07-27 09:01:45+0000', tz='UTC'), Timestamp('2021-07-20 07:23:03+0000', tz='UTC'), Timestamp('2021-07-12 21:08:22+0000', tz='UTC'), Timestamp('2021-07-27 22:37:51+0000', tz='UTC'), Timestamp('2021-08-04 04:45:28+0000', tz='UTC'), Timestamp('2021-07-15 22:11:35+0000', tz='UTC'), Timestamp('2021-08-20 17:50:21+0000', tz='UTC'), Timestamp('2021-07-13 21:36:43+0000', tz='UTC'), Timestamp('2021-07-19 08:58:15+0000', tz='UTC'), Timestamp('2021-07-16 21:50:18+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 10:40:11+0000', tz='UTC'), Timestamp('2021-07-12 06:04:49+0000', tz='UTC'), Timestamp('2021-07-12 15:13:59+0000', tz='UTC'), Timestamp('2021-07-16 12:23:36+0000', tz='UTC'), Timestamp('2021-07-12 06:04:50+0000', tz='UTC'), Timestamp('2021-07-19 15:09:36+0000', tz='UTC'), Timestamp('2021-07-14 10:33:37+0000', tz='UTC'), Timestamp('2021-07-14 10:32:49+0000', tz='UTC'), Timestamp('2021-07-16 10:40:10+0000', tz='UTC'), Timestamp('2021-07-12 15:30:47+0000', tz='UTC'), Timestamp('2021-07-12 17:02:10+0000', tz='UTC'), Timestamp('2021-07-12 17:01:11+0000', tz='UTC'), Timestamp('2021-07-12 17:01:39+0000', tz='UTC'), Timestamp('2021-07-13 14:45:50+0000', tz='UTC'), Timestamp('2021-07-12 17:01:40+0000', tz='UTC'), Timestamp('2021-07-12 17:01:09+0000', tz='UTC'), Timestamp('2021-07-12 17:02:09+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-07-16 12:08:18+0000', tz='UTC'), Timestamp('2021-07-16 10:43:34+0000', tz='UTC'), Timestamp('2021-07-19 13:00:25+0000', tz='UTC'), Timestamp('2021-07-19 12:27:15+0000', tz='UTC'), Timestamp('2021-07-16 10:37:48+0000', tz='UTC'), Timestamp('2021-07-16 12:28:26+0000', tz='UTC'), Timestamp('2021-07-16 07:00:01+0000', tz='UTC'), Timestamp('2021-07-19 10:39:20+0000', tz='UTC'), Timestamp('2021-07-16 13:05:59+0000', tz='UTC'), Timestamp('2021-07-15 11:36:40+0000', tz='UTC'), Timestamp('2021-07-16 12:28:56+0000', tz='UTC'), Timestamp('2021-07-16 12:22:20+0000', tz='UTC'), Timestamp('2021-07-16 12:05:45+0000', tz='UTC'), Timestamp('2021-08-18 13:08:27+0000', tz='UTC'), Timestamp('2021-07-15 11:35:51+0000', tz='UTC'), Timestamp('2021-07-16 12:07:59+0000', tz='UTC'), Timestamp('2021-07-19 13:47:12+0000', tz='UTC'), Timestamp('2021-07-13 13:49:06+0000', tz='UTC'), Timestamp('2021-07-13 12:54:09+0000', tz='UTC'), Timestamp('2021-07-16 13:06:29+0000', tz='UTC'), Timestamp('2021-07-19 14:30:31+0000', tz='UTC'), Timestamp('2021-07-16 06:59:42+0000', tz='UTC'), Timestamp('2021-07-19 12:26:47+0000', tz='UTC'), Timestamp('2021-07-16 12:22:21+0000', tz='UTC'), Timestamp('2021-07-16 13:05:40+0000', tz='UTC'), Timestamp('2021-07-16 12:08:29+0000', tz='UTC'), Timestamp('2021-07-19 10:39:42+0000', tz='UTC'), Timestamp('2021-07-19 12:59:12+0000', tz='UTC'), Timestamp('2021-07-19 14:31:01+0000', tz='UTC'), Timestamp('2021-07-19 12:27:17+0000', tz='UTC'), Timestamp('2021-07-16 12:22:51+0000', tz='UTC'), Timestamp('2021-07-13 13:48:47+0000', tz='UTC'), Timestamp('2021-07-16 12:08:21+0000', tz='UTC'), Timestamp('2021-07-16 13:06:10+0000', tz='UTC'), Timestamp('2021-07-16 12:22:02+0000', tz='UTC'), Timestamp('2021-07-16 07:01:28+0000', tz='UTC'), Timestamp('2021-07-16 12:28:29+0000', tz='UTC'), Timestamp('2021-07-19 10:39:23+0000', tz='UTC'), Timestamp('2021-07-16 12:29:48+0000', tz='UTC'), Timestamp('2021-07-19 12:58:53+0000', tz='UTC'), Timestamp('2021-07-15 11:36:43+0000', tz='UTC'), Timestamp('2021-08-17 02:41:48+0000', tz='UTC'), Timestamp('2021-07-19 14:31:32+0000', tz='UTC'), Timestamp('2021-07-16 12:22:32+0000', tz='UTC'), Timestamp('2021-07-19 12:27:48+0000', tz='UTC'), Timestamp('2021-07-16 12:28:59+0000', tz='UTC'), Timestamp('2021-07-16 12:08:02+0000', tz='UTC'), Timestamp('2021-07-16 13:04:27+0000', tz='UTC'), Timestamp('2021-08-18 22:39:12+0000', tz='UTC'), Timestamp('2021-07-19 14:30:34+0000', tz='UTC'), Timestamp('2021-07-16 10:56:21+0000', tz='UTC'), Timestamp('2021-07-16 12:28:10+0000', tz='UTC'), Timestamp('2021-07-15 11:37:13+0000', tz='UTC'), Timestamp('2021-07-16 12:09:21+0000', tz='UTC'), Timestamp('2021-07-16 13:06:32+0000', tz='UTC'), Timestamp('2021-07-16 06:59:45+0000', tz='UTC'), Timestamp('2021-07-19 12:28:18+0000', tz='UTC'), Timestamp('2021-07-16 12:29:29+0000', tz='UTC'), Timestamp('2021-07-16 12:08:32+0000', tz='UTC'), Timestamp('2021-07-19 12:59:15+0000', tz='UTC'), Timestamp('2021-07-19 14:31:04+0000', tz='UTC'), Timestamp('2021-07-16 12:28:40+0000', tz='UTC'), Timestamp('2021-07-16 12:22:54+0000', tz='UTC'), Timestamp('2021-08-11 07:32:43+0000', tz='UTC'), Timestamp('2021-07-16 13:06:13+0000', tz='UTC'), Timestamp('2021-07-15 11:36:54+0000', tz='UTC'), Timestamp('2021-07-16 12:09:02+0000', tz='UTC'), Timestamp('2021-07-19 10:40:15+0000', tz='UTC'), Timestamp('2021-07-16 12:22:05+0000', tz='UTC'), Timestamp('2021-07-16 10:27:05+0000', tz='UTC'), Timestamp('2021-07-19 12:59:45+0000', tz='UTC'), Timestamp('2021-07-19 14:31:34+0000', tz='UTC'), Timestamp('2021-07-16 09:52:56+0000', tz='UTC'), Timestamp('2021-07-19 12:27:50+0000', tz='UTC'), Timestamp('2021-07-16 12:23:24+0000', tz='UTC'), Timestamp('2021-07-19 13:47:26+0000', tz='UTC'), Timestamp('2021-07-13 13:49:20+0000', tz='UTC'), Timestamp('2021-07-15 11:36:55+0000', tz='UTC'), Timestamp('2021-07-19 12:58:56+0000', tz='UTC'), Timestamp('2021-07-19 14:30:45+0000', tz='UTC'), Timestamp('2021-08-10 14:17:17+0000', tz='UTC'), Timestamp('2021-07-16 12:22:35+0000', tz='UTC'), Timestamp('2021-07-16 12:29:02+0000', tz='UTC'), Timestamp('2021-07-16 13:05:54+0000', tz='UTC'), Timestamp('2021-07-19 10:39:56+0000', tz='UTC'), Timestamp('2021-07-19 14:30:46+0000', tz='UTC'), Timestamp('2021-07-19 12:59:26+0000', tz='UTC'), Timestamp('2021-07-16 12:09:24+0000', tz='UTC'), Timestamp('2021-07-16 12:23:05+0000', tz='UTC'), Timestamp('2021-07-19 13:47:07+0000', tz='UTC'), Timestamp('2021-07-13 13:49:01+0000', tz='UTC'), Timestamp('2021-07-16 12:29:32+0000', tz='UTC'), Timestamp('2021-07-15 11:36:27+0000', tz='UTC'), Timestamp('2021-07-16 10:06:59+0000', tz='UTC'), Timestamp('2021-08-19 20:37:32+0000', tz='UTC'), Timestamp('2021-08-18 17:34:31+0000', tz='UTC'), Timestamp('2021-07-19 14:31:16+0000', tz='UTC'), Timestamp('2021-07-16 12:22:16+0000', tz='UTC'), Timestamp('2021-07-19 12:27:32+0000', tz='UTC'), Timestamp('2021-07-16 12:28:43+0000', tz='UTC'), Timestamp('2021-07-16 07:00:18+0000', tz='UTC'), Timestamp('2021-07-19 10:39:37+0000', tz='UTC'), Timestamp('2021-07-17 11:22:52+0000', tz='UTC'), Timestamp('2021-07-16 12:09:05+0000', tz='UTC'), Timestamp('2021-08-18 23:01:12+0000', tz='UTC'), Timestamp('2021-07-16 06:59:29+0000', tz='UTC'), Timestamp('2021-07-16 10:43:43+0000', tz='UTC'), Timestamp('2021-07-19 12:59:48+0000', tz='UTC'), Timestamp('2021-07-19 12:28:02+0000', tz='UTC'), Timestamp('2021-07-16 12:08:16+0000', tz='UTC'), Timestamp('2021-07-19 10:39:29+0000', tz='UTC'), Timestamp('2021-07-16 10:06:40+0000', tz='UTC'), Timestamp('2021-07-19 13:47:29+0000', tz='UTC'), Timestamp('2021-07-13 13:49:23+0000', tz='UTC'), Timestamp('2021-08-11 07:57:55+0000', tz='UTC'), Timestamp('2021-08-18 08:53:25+0000', tz='UTC'), Timestamp('2021-07-19 12:58:59+0000', tz='UTC'), Timestamp('2021-07-19 14:30:48+0000', tz='UTC'), Timestamp('2021-08-18 08:30:14+0000', tz='UTC'), Timestamp('2021-07-16 12:09:35+0000', tz='UTC'), Timestamp('2021-07-16 06:59:59+0000', tz='UTC'), Timestamp('2021-07-19 13:00:18+0000', tz='UTC'), Timestamp('2021-08-18 15:49:12+0000', tz='UTC'), Timestamp('2021-07-19 10:39:59+0000', tz='UTC'), Timestamp('2021-07-13 13:49:53+0000', tz='UTC'), Timestamp('2021-07-19 12:59:29+0000', tz='UTC'), Timestamp('2021-07-19 14:31:18+0000', tz='UTC'), Timestamp('2021-08-16 03:33:55+0000', tz='UTC'), Timestamp('2021-08-13 02:43:53+0000', tz='UTC'), Timestamp('2021-07-19 12:27:34+0000', tz='UTC'), Timestamp('2021-07-16 12:23:08+0000', tz='UTC'), Timestamp('2021-07-19 13:47:10+0000', tz='UTC'), Timestamp('2021-07-16 12:29:35+0000', tz='UTC'), Timestamp('2021-07-19 10:40:29+0000', tz='UTC'), Timestamp('2021-07-16 06:59:40+0000', tz='UTC'), Timestamp('2021-07-16 12:22:19+0000', tz='UTC'), Timestamp('2021-07-19 12:59:59+0000', tz='UTC'), Timestamp('2021-07-16 12:09:57+0000', tz='UTC'), Timestamp('2021-07-19 10:39:40+0000', tz='UTC'), Timestamp('2021-07-19 14:30:30+0000', tz='UTC'), Timestamp('2021-07-19 12:26:40+0000', tz='UTC'), Timestamp('2021-07-19 12:59:10+0000', tz='UTC'), Timestamp('2021-07-16 12:09:08+0000', tz='UTC'), Timestamp('2021-07-16 06:59:32+0000', tz='UTC'), Timestamp('2021-07-16 12:22:49+0000', tz='UTC'), Timestamp('2021-07-16 12:29:16+0000', tz='UTC'), Timestamp('2021-07-16 10:06:43+0000', tz='UTC'), Timestamp('2021-07-19 10:40:10+0000', tz='UTC'), Timestamp('2021-07-16 13:04:44+0000', tz='UTC'), Timestamp('2021-07-19 14:31:00+0000', tz='UTC'), Timestamp('2021-07-19 12:59:02+0000', tz='UTC'), Timestamp('2021-07-16 10:37:49+0000', tz='UTC'), Timestamp('2021-07-16 12:09:38+0000', tz='UTC'), Timestamp('2021-07-16 07:00:02+0000', tz='UTC'), Timestamp('2021-07-19 12:26:21+0000', tz='UTC'), Timestamp('2021-07-16 12:29:46+0000', tz='UTC'), Timestamp('2021-08-11 07:27:22+0000', tz='UTC'), Timestamp('2021-07-15 11:36:41+0000', tz='UTC'), Timestamp('2021-07-16 12:08:49+0000', tz='UTC'), Timestamp('2021-07-19 13:48:02+0000', tz='UTC'), Timestamp('2021-07-19 12:59:32+0000', tz='UTC'), Timestamp('2021-07-19 12:27:46+0000', tz='UTC'), Timestamp('2021-08-10 06:49:16+0000', tz='UTC'), Timestamp('2021-08-18 13:06:14+0000', tz='UTC'), Timestamp('2021-07-16 07:00:32+0000', tz='UTC'), Timestamp('2021-07-16 12:05:46+0000', tz='UTC'), Timestamp('2021-07-19 13:47:13+0000', tz='UTC'), Timestamp('2021-07-13 13:49:07+0000', tz='UTC'), Timestamp('2021-07-16 13:06:30+0000', tz='UTC'), Timestamp('2021-07-19 14:30:32+0000', tz='UTC'), Timestamp('2021-07-15 11:37:11+0000', tz='UTC'), Timestamp('2021-07-16 12:09:19+0000', tz='UTC'), Timestamp('2021-07-19 10:40:32+0000', tz='UTC'), Timestamp('2021-07-19 13:00:02+0000', tz='UTC'), Timestamp('2021-07-16 12:23:41+0000', tz='UTC'), Timestamp('2021-07-19 10:39:43+0000', tz='UTC'), Timestamp('2021-07-19 13:47:43+0000', tz='UTC'), Timestamp('2021-07-13 13:49:37+0000', tz='UTC'), Timestamp('2021-07-15 11:37:12+0000', tz='UTC'), Timestamp('2021-07-16 13:04:46+0000', tz='UTC'), Timestamp('2021-07-19 12:59:13+0000', tz='UTC'), Timestamp('2021-07-16 12:09:11+0000', tz='UTC'), Timestamp('2021-07-19 14:31:02+0000', tz='UTC'), Timestamp('2021-07-19 10:41:02+0000', tz='UTC'), Timestamp('2021-07-16 07:00:13+0000', tz='UTC'), Timestamp('2021-07-16 12:22:52+0000', tz='UTC'), Timestamp('2021-07-19 08:35:04+0000', tz='UTC'), Timestamp('2021-07-13 13:48:48+0000', tz='UTC'), Timestamp('2021-08-10 07:38:52+0000', tz='UTC'), Timestamp('2021-07-16 13:06:11+0000', tz='UTC'), Timestamp('2021-07-16 10:06:46+0000', tz='UTC'), Timestamp('2021-07-19 10:40:13+0000', tz='UTC'), Timestamp('2021-07-15 11:35:28+0000', tz='UTC'), Timestamp('2021-07-19 14:31:03+0000', tz='UTC'), Timestamp('2021-07-16 12:22:03+0000', tz='UTC'), Timestamp('2021-07-19 12:59:43+0000', tz='UTC'), Timestamp('2021-08-10 07:53:14+0000', tz='UTC'), Timestamp('2021-07-16 12:09:41+0000', tz='UTC'), Timestamp('2021-07-19 10:39:24+0000', tz='UTC'), Timestamp('2021-07-19 13:47:24+0000', tz='UTC'), Timestamp('2021-07-19 12:26:24+0000', tz='UTC'), Timestamp('2021-07-13 13:49:18+0000', tz='UTC'), Timestamp('2021-07-16 12:29:49+0000', tz='UTC'), Timestamp('2021-07-16 12:08:52+0000', tz='UTC'), Timestamp('2021-07-19 10:40:43+0000', tz='UTC'), Timestamp('2021-07-16 13:05:17+0000', tz='UTC'), Timestamp('2021-07-19 14:31:33+0000', tz='UTC'), Timestamp('2021-08-12 23:48:54+0000', tz='UTC'), Timestamp('2021-07-16 12:29:00+0000', tz='UTC'), Timestamp('2021-07-16 10:15:11+0000', tz='UTC'), Timestamp('2021-07-16 07:00:35+0000', tz='UTC'), Timestamp('2021-07-19 13:47:16+0000', tz='UTC'), Timestamp('2021-08-20 15:52:56+0000', tz='UTC'), Timestamp('2021-08-16 02:05:45+0000', tz='UTC'), Timestamp('2021-07-13 13:50:38+0000', tz='UTC'), Timestamp('2021-07-15 11:37:14+0000', tz='UTC'), Timestamp('2021-07-16 12:09:22+0000', tz='UTC'), Timestamp('2021-07-16 06:59:46+0000', tz='UTC'), Timestamp('2021-07-19 13:00:05+0000', tz='UTC'), Timestamp('2021-07-19 12:28:19+0000', tz='UTC'), Timestamp('2021-07-16 12:29:30+0000', tz='UTC'), Timestamp('2021-07-16 07:01:05+0000', tz='UTC'), Timestamp('2021-07-16 12:08:33+0000', tz='UTC'), Timestamp('2021-07-16 12:23:44+0000', tz='UTC'), Timestamp('2021-07-19 13:47:46+0000', tz='UTC'), Timestamp('2021-07-16 13:04:58+0000', tz='UTC'), Timestamp('2021-08-24 16:51:22+0000', tz='UTC'), Timestamp('2021-07-19 12:59:16+0000', tz='UTC'), Timestamp('2021-07-16 12:09:52+0000', tz='UTC'), Timestamp('2021-07-19 10:41:05+0000', tz='UTC'), Timestamp('2021-07-16 07:00:16+0000', tz='UTC'), Timestamp('2021-07-16 12:22:55+0000', tz='UTC'), Timestamp('2021-07-13 13:48:51+0000', tz='UTC'), Timestamp('2021-07-19 13:48:16+0000', tz='UTC'), Timestamp('2021-07-19 10:40:16+0000', tz='UTC'), Timestamp('2021-07-13 13:50:10+0000', tz='UTC'), Timestamp('2021-07-19 12:59:46+0000', tz='UTC'), Timestamp('2021-07-19 14:31:35+0000', tz='UTC'), Timestamp('2021-08-10 07:14:55+0000', tz='UTC'), Timestamp('2021-07-16 12:23:25+0000', tz='UTC'), Timestamp('2021-07-19 10:39:27+0000', tz='UTC'), Timestamp('2021-07-19 13:47:27+0000', tz='UTC'), Timestamp('2021-07-13 13:49:21+0000', tz='UTC'), Timestamp('2021-08-18 19:21:10+0000', tz='UTC'), Timestamp('2021-07-16 12:29:52+0000', tz='UTC'), Timestamp('2021-07-16 13:04:30+0000', tz='UTC'), Timestamp('2021-07-19 12:58:57+0000', tz='UTC'), Timestamp('2021-07-20 11:16:51+0000', tz='UTC'), Timestamp('2021-07-19 10:40:46+0000', tz='UTC'), Timestamp('2021-07-19 14:31:36+0000', tz='UTC'), Timestamp('2021-07-16 12:22:36+0000', tz='UTC'), Timestamp('2021-07-19 13:00:16+0000', tz='UTC'), Timestamp('2021-08-23 02:25:54+0000', tz='UTC'), Timestamp('2021-07-19 13:47:57+0000', tz='UTC'), Timestamp('2021-07-16 12:23:55+0000', tz='UTC'), Timestamp('2021-07-16 13:04:31+0000', tz='UTC'), Timestamp('2021-07-19 10:39:57+0000', tz='UTC'), Timestamp('2021-07-19 12:26:57+0000', tz='UTC'), Timestamp('2021-07-13 13:49:51+0000', tz='UTC'), Timestamp('2021-07-15 11:37:26+0000', tz='UTC'), Timestamp('2021-07-16 12:09:25+0000', tz='UTC'), Timestamp('2021-07-19 10:41:16+0000', tz='UTC'), Timestamp('2021-07-19 13:00:17+0000', tz='UTC'), Timestamp('2021-07-19 13:47:58+0000', tz='UTC'), Timestamp('2021-07-16 12:29:33+0000', tz='UTC'), Timestamp('2021-07-16 07:01:08+0000', tz='UTC'), Timestamp('2021-07-13 13:49:52+0000', tz='UTC'), Timestamp('2021-07-19 10:40:27+0000', tz='UTC'), Timestamp('2021-07-16 13:05:01+0000', tz='UTC'), Timestamp('2021-07-19 14:31:17+0000', tz='UTC'), Timestamp('2021-08-18 20:28:11+0000', tz='UTC'), Timestamp('2021-07-16 12:09:55+0000', tz='UTC'), Timestamp('2021-07-16 07:00:19+0000', tz='UTC'), Timestamp('2021-07-16 12:30:03+0000', tz='UTC'), Timestamp('2021-07-16 12:09:06+0000', tz='UTC'), Timestamp('2021-07-19 10:40:19+0000', tz='UTC'), Timestamp('2021-07-16 13:05:31+0000', tz='UTC'), Timestamp('2021-07-19 12:59:49+0000', tz='UTC'), Timestamp('2021-07-16 07:00:49+0000', tz='UTC'), Timestamp('2021-07-16 12:23:28+0000', tz='UTC'), Timestamp('2021-07-16 10:06:41+0000', tz='UTC'), Timestamp('2021-07-19 13:47:30+0000', tz='UTC'), Timestamp('2021-07-13 13:49:24+0000', tz='UTC'), Timestamp('2021-07-16 10:37:47+0000', tz='UTC'), Timestamp('2021-07-19 08:35:00+0000', tz='UTC'), Timestamp('2021-08-11 07:23:47+0000', tz='UTC'), Timestamp('2021-07-20 11:16:54+0000', tz='UTC'), Timestamp('2021-07-19 10:40:49+0000', tz='UTC'), Timestamp('2021-08-12 07:15:44+0000', tz='UTC'), Timestamp('2021-07-19 12:26:19+0000', tz='UTC'), Timestamp('2021-07-19 13:00:19+0000', tz='UTC'), Timestamp('2021-07-16 07:01:19+0000', tz='UTC'), Timestamp('2021-07-19 13:48:00+0000', tz='UTC'), Timestamp('2021-07-16 12:23:58+0000', tz='UTC'), Timestamp('2021-07-19 10:40:00+0000', tz='UTC'), Timestamp('2021-07-15 11:35:15+0000', tz='UTC'), Timestamp('2021-07-19 12:59:30+0000', tz='UTC'), Timestamp('2021-07-19 14:31:19+0000', tz='UTC'), Timestamp('2021-07-16 10:15:06+0000', tz='UTC'), Timestamp('2021-07-16 07:00:30+0000', tz='UTC'), Timestamp('2021-07-16 12:23:09+0000', tz='UTC'), Timestamp('2021-07-19 13:47:11+0000', tz='UTC'), Timestamp('2021-08-10 11:55:18+0000', tz='UTC'), Timestamp('2021-07-13 13:49:05+0000', tz='UTC'), Timestamp('2021-07-16 11:39:01+0000', tz='UTC'), Timestamp('2021-07-19 10:40:30+0000', tz='UTC'), Timestamp('2021-07-19 12:50:41+0000', tz='UTC'), Timestamp('2021-07-16 12:07:53+0000', tz='UTC'), Timestamp('2021-07-13 13:50:24+0000', tz='UTC'), Timestamp('2021-07-16 12:09:58+0000', tz='UTC'), Timestamp('2021-07-16 07:00:22+0000', tz='UTC'), Timestamp('2021-07-13 12:04:05+0000', tz='UTC'), Timestamp('2021-07-16 12:23:39+0000', tz='UTC'), Timestamp('2021-07-19 10:39:41+0000', tz='UTC'), Timestamp('2021-08-30 06:12:33+0000', tz='UTC'), Timestamp('2021-07-19 12:26:41+0000', tz='UTC'), Timestamp('2021-07-13 13:49:35+0000', tz='UTC'), Timestamp('2021-07-19 10:41:00+0000', tz='UTC'), Timestamp('2021-07-16 13:05:34+0000', tz='UTC'), Timestamp('2021-07-16 07:00:52+0000', tz='UTC'), Timestamp('2021-07-13 13:49:36+0000', tz='UTC'), Timestamp('2021-07-16 13:04:45+0000', tz='UTC'), Timestamp('2021-07-19 12:27:11+0000', tz='UTC'), Timestamp('2021-07-16 10:37:50+0000', tz='UTC'), Timestamp('2021-07-16 07:00:03+0000', tz='UTC'), Timestamp('2021-07-16 06:34:38+0000', tz='UTC'), Timestamp('2021-08-18 08:35:09+0000', tz='UTC'), Timestamp('2021-07-19 12:26:22+0000', tz='UTC'), Timestamp('2021-07-16 12:29:47+0000', tz='UTC'), Timestamp('2021-07-16 07:01:22+0000', tz='UTC'), Timestamp('2021-07-13 13:50:06+0000', tz='UTC'), Timestamp('2021-07-16 13:05:15+0000', tz='UTC'), Timestamp('2021-07-19 14:31:31+0000', tz='UTC'), Timestamp('2021-07-19 12:42:58+0000', tz='UTC'), Timestamp('2021-07-16 10:15:09+0000', tz='UTC'), Timestamp('2021-07-16 07:00:33+0000', tz='UTC'), Timestamp('2021-07-19 13:47:14+0000', tz='UTC'), Timestamp('2021-07-19 12:26:52+0000', tz='UTC'), Timestamp('2021-07-16 12:28:53+0000', tz='UTC'), Timestamp('2021-07-19 10:40:33+0000', tz='UTC'), Timestamp('2021-07-16 06:59:44+0000', tz='UTC'), Timestamp('2021-07-15 11:35:48+0000', tz='UTC'), Timestamp('2021-07-16 12:07:56+0000', tz='UTC'), Timestamp('2021-08-18 22:39:06+0000', tz='UTC'), Timestamp('2021-07-19 13:00:03+0000', tz='UTC'), Timestamp('2021-07-19 12:41:14+0000', tz='UTC'), Timestamp('2021-07-16 07:01:03+0000', tz='UTC'), Timestamp('2021-07-19 13:47:44+0000', tz='UTC'), Timestamp('2021-07-13 13:49:38+0000', tz='UTC'), Timestamp('2021-07-16 13:04:47+0000', tz='UTC'), Timestamp('2021-07-15 11:36:18+0000', tz='UTC'), Timestamp('2021-07-19 13:00:33+0000', tz='UTC'), Timestamp('2021-07-16 12:28:34+0000', tz='UTC'), Timestamp('2021-07-19 10:40:14+0000', tz='UTC'), Timestamp('2021-07-19 13:48:14+0000', tz='UTC'), Timestamp('2021-08-18 09:19:29+0000', tz='UTC'), Timestamp('2021-07-15 11:35:29+0000', tz='UTC'), Timestamp('2021-07-19 13:00:34+0000', tz='UTC'), Timestamp('2021-07-19 13:48:15+0000', tz='UTC'), Timestamp('2021-07-16 07:01:25+0000', tz='UTC'), Timestamp('2021-07-13 13:50:09+0000', tz='UTC'), Timestamp('2021-07-16 13:05:18+0000', tz='UTC'), Timestamp('2021-07-15 11:35:59+0000', tz='UTC'), Timestamp('2021-07-19 12:27:44+0000', tz='UTC'), Timestamp('2021-07-16 10:15:12+0000', tz='UTC'), Timestamp('2021-07-16 13:04:29+0000', tz='UTC'), Timestamp('2021-07-13 13:50:39+0000', tz='UTC'), Timestamp('2021-07-16 13:05:48+0000', tz='UTC'), Timestamp('2021-07-16 14:16:40+0000', tz='UTC'), Timestamp('2021-07-19 13:00:06+0000', tz='UTC'), Timestamp('2021-07-19 12:41:17+0000', tz='UTC'), Timestamp('2021-08-18 08:08:10+0000', tz='UTC'), Timestamp('2021-07-16 12:23:45+0000', tz='UTC'), Timestamp('2021-07-19 13:47:47+0000', tz='UTC'), Timestamp('2021-07-19 14:31:15+0000', tz='UTC'), Timestamp('2021-07-19 12:27:25+0000', tz='UTC'), Timestamp('2021-07-16 10:38:04+0000', tz='UTC'), Timestamp('2021-07-19 10:41:06+0000', tz='UTC'), Timestamp('2021-07-16 07:00:17+0000', tz='UTC'), Timestamp('2021-07-15 11:36:21+0000', tz='UTC'), Timestamp('2021-07-19 12:27:26+0000', tz='UTC'), Timestamp('2021-07-16 07:01:36+0000', tz='UTC'), Timestamp('2021-07-16 12:28:37+0000', tz='UTC'), Timestamp('2021-07-19 13:48:17+0000', tz='UTC'), Timestamp('2021-07-15 11:35:32+0000', tz='UTC'), Timestamp('2021-07-16 13:05:29+0000', tz='UTC'), Timestamp('2021-07-19 12:59:47+0000', tz='UTC'), Timestamp('2021-07-15 11:36:51+0000', tz='UTC'), Timestamp('2021-07-16 12:23:26+0000', tz='UTC'), Timestamp('2021-07-19 13:47:28+0000', tz='UTC'), Timestamp('2021-07-19 12:26:28+0000', tz='UTC'), Timestamp('2021-07-19 12:27:56+0000', tz='UTC'), Timestamp('2021-07-19 10:40:47+0000', tz='UTC'), Timestamp('2021-07-16 13:05:21+0000', tz='UTC'), Timestamp('2021-07-15 11:36:02+0000', tz='UTC'), Timestamp('2021-07-19 14:30:42+0000', tz='UTC'), Timestamp('2021-07-16 12:28:18+0000', tz='UTC'), Timestamp('2021-07-19 12:26:58+0000', tz='UTC'), Timestamp('2021-07-19 10:41:17+0000', tz='UTC'), Timestamp('2021-07-16 13:05:51+0000', tz='UTC'), Timestamp('2021-08-10 14:09:49+0000', tz='UTC'), Timestamp('2021-07-15 11:36:32+0000', tz='UTC'), Timestamp('2021-07-19 13:47:59+0000', tz='UTC'), Timestamp('2021-07-16 13:05:02+0000', tz='UTC'), Timestamp('2021-07-15 11:35:43+0000', tz='UTC'), Timestamp('2021-07-19 12:27:28+0000', tz='UTC'), Timestamp('2021-07-16 12:09:56+0000', tz='UTC'), Timestamp('2021-07-16 13:06:21+0000', tz='UTC'), Timestamp('2021-07-19 12:26:39+0000', tz='UTC'), Timestamp('2021-07-16 12:22:13+0000', tz='UTC'), Timestamp('2021-07-16 07:01:39+0000', tz='UTC'), Timestamp('2021-07-13 13:50:23+0000', tz='UTC'), Timestamp('2021-07-16 13:05:32+0000', tz='UTC'), Timestamp('2021-08-19 01:35:51+0000', tz='UTC'), Timestamp('2021-07-16 12:08:12+0000', tz='UTC'), Timestamp('2021-07-19 12:27:09+0000', tz='UTC'), Timestamp('2021-07-16 10:56:31+0000', tz='UTC'), Timestamp('2021-07-15 11:50:35+0000', tz='UTC'), Timestamp('2021-08-10 23:13:20+0000', tz='UTC'), Timestamp('2021-07-16 12:29:10+0000', tz='UTC'), Timestamp('2021-07-16 12:08:13+0000', tz='UTC'), Timestamp('2021-07-16 13:06:02+0000', tz='UTC'), Timestamp('2021-07-19 13:00:20+0000', tz='UTC'), Timestamp('2021-07-19 12:27:10+0000', tz='UTC'), Timestamp('2021-07-16 07:01:20+0000', tz='UTC'), Timestamp('2021-07-16 12:28:21+0000', tz='UTC'), Timestamp('2021-07-16 12:23:59+0000', tz='UTC'), Timestamp('2021-07-19 13:35:48+0000', tz='UTC'), Timestamp('2021-07-19 13:48:01+0000', tz='UTC'), Timestamp('2021-07-13 13:49:55+0000', tz='UTC'), Timestamp('2021-07-15 11:36:35+0000', tz='UTC'), Timestamp('2021-07-19 12:27:40+0000', tz='UTC'), Timestamp('2021-07-16 12:28:51+0000', tz='UTC'), Timestamp('2021-07-19 12:50:42+0000', tz='UTC'), Timestamp('2021-07-15 11:35:46+0000', tz='UTC'), Timestamp('2021-07-16 12:07:54+0000', tz='UTC'), Timestamp('2021-07-13 13:50:25+0000', tz='UTC'), Timestamp('2021-07-19 12:41:12+0000', tz='UTC'), Timestamp('2021-08-18 08:08:05+0000', tz='UTC'), Timestamp('2021-07-16 13:06:24+0000', tz='UTC'), Timestamp('2021-07-16 12:28:02+0000', tz='UTC'), Timestamp('2021-07-15 11:37:05+0000', tz='UTC'), Timestamp('2021-07-19 12:26:42+0000', tz='UTC'), Timestamp('2021-07-13 13:50:26+0000', tz='UTC'), Timestamp('2021-08-10 08:05:40+0000', tz='UTC'), Timestamp('2021-07-16 13:05:35+0000', tz='UTC'), Timestamp('2021-07-20 10:41:42+0000', tz='UTC'), Timestamp('2021-07-15 11:36:16+0000', tz='UTC'), Timestamp('2021-07-16 12:08:24+0000', tz='UTC'), Timestamp('2021-07-19 12:59:07+0000', tz='UTC'), Timestamp('2021-07-19 12:27:12+0000', tz='UTC'), Timestamp('2021-07-16 12:22:46+0000', tz='UTC'), Timestamp('2021-07-13 13:48:42+0000', tz='UTC'), Timestamp('2021-07-16 13:06:05+0000', tz='UTC'), Timestamp('2021-07-19 12:26:23+0000', tz='UTC'), Timestamp('2021-07-16 10:43:32+0000', tz='UTC'), Timestamp('2021-07-16 07:01:23+0000', tz='UTC'), Timestamp('2021-07-13 13:50:07+0000', tz='UTC'), Timestamp('2021-07-16 13:05:16+0000', tz='UTC'), Timestamp('2021-07-19 12:27:42+0000', tz='UTC'), Timestamp('2021-07-07 19:41:30+0000', tz='UTC'), Timestamp('2021-07-16 12:29:43+0000', tz='UTC'), Timestamp('2021-08-13 03:04:09+0000', tz='UTC'), Timestamp('2021-07-15 11:36:38+0000', tz='UTC'), Timestamp('2021-07-16 12:08:46+0000', tz='UTC'), Timestamp('2021-07-19 12:27:43+0000', tz='UTC'), Timestamp('2021-07-13 13:50:37+0000', tz='UTC'), Timestamp('2021-07-15 11:35:49+0000', tz='UTC'), Timestamp('2021-07-16 12:07:57+0000', tz='UTC'), Timestamp('2021-07-16 13:05:46+0000', tz='UTC'), Timestamp('2021-07-19 12:41:15+0000', tz='UTC'), Timestamp('2021-08-18 02:56:18+0000', tz='UTC'), Timestamp('2021-07-16 12:28:05+0000', tz='UTC'), Timestamp('2021-07-15 11:37:08+0000', tz='UTC'), Timestamp('2021-07-16 12:09:16+0000', tz='UTC'), Timestamp('2021-07-19 12:28:13+0000', tz='UTC'), Timestamp('2021-07-16 12:29:24+0000', tz='UTC'), Timestamp('2021-07-19 10:41:04+0000', tz='UTC'), Timestamp('2021-07-16 12:08:27+0000', tz='UTC'), Timestamp('2021-07-15 08:50:35+0000', tz='UTC'), Timestamp('2021-08-20 19:33:12+0000', tz='UTC'), Timestamp('2021-07-19 14:30:59+0000', tz='UTC'), Timestamp('2021-07-16 12:28:35+0000', tz='UTC'), Timestamp('2021-08-17 02:08:05+0000', tz='UTC'), Timestamp('2021-07-16 10:26:59+0000', tz='UTC'), Timestamp('2021-07-15 11:35:30+0000', tz='UTC'), Timestamp('2021-08-20 01:31:02+0000', tz='UTC'), Timestamp('2021-07-13 13:48:45+0000', tz='UTC'), Timestamp('2021-07-16 13:06:08+0000', tz='UTC'), Timestamp('2021-07-15 11:36:49+0000', tz='UTC'), Timestamp('2021-07-16 12:08:57+0000', tz='UTC'), Timestamp('2021-07-19 08:42:12+0000', tz='UTC'), Timestamp('2021-07-16 10:43:35+0000', tz='UTC'), Timestamp('2021-07-16 12:22:00+0000', tz='UTC'), Timestamp('2021-07-16 12:29:05+0000', tz='UTC'), Timestamp('2021-07-16 13:05:19+0000', tz='UTC'), Timestamp('2021-07-15 11:36:00+0000', tz='UTC'), Timestamp('2021-07-16 12:08:08+0000', tz='UTC'), Timestamp('2021-07-16 12:23:19+0000', tz='UTC'), Timestamp('2021-08-24 19:47:30+0000', tz='UTC'), Timestamp('2021-07-13 13:49:15+0000', tz='UTC'), Timestamp('2021-07-16 10:15:13+0000', tz='UTC'), Timestamp('2021-07-19 14:30:40+0000', tz='UTC'), Timestamp('2021-07-19 12:26:56+0000', tz='UTC'), Timestamp('2021-07-16 12:22:30+0000', tz='UTC'), Timestamp('2021-07-16 12:28:57+0000', tz='UTC'), Timestamp('2021-07-16 13:05:49+0000', tz='UTC'), Timestamp('2021-07-19 12:28:15+0000', tz='UTC'), Timestamp('2021-07-19 10:39:51+0000', tz='UTC'), Timestamp('2021-07-15 11:37:20+0000', tz='UTC'), Timestamp('2021-07-19 12:41:18+0000', tz='UTC'), Timestamp('2021-07-16 07:01:07+0000', tz='UTC'), Timestamp('2021-07-16 13:05:00+0000', tz='UTC'), Timestamp('2021-07-19 12:28:16+0000', tz='UTC'), Timestamp('2021-07-16 12:29:27+0000', tz='UTC'), Timestamp('2021-07-15 11:36:22+0000', tz='UTC'), Timestamp('2021-07-16 12:08:30+0000', tz='UTC'), Timestamp('2021-07-16 13:06:19+0000', tz='UTC'), Timestamp('2021-07-19 14:31:11+0000', tz='UTC'), Timestamp('2021-07-16 12:22:11+0000', tz='UTC'), Timestamp('2021-07-13 13:50:21+0000', tz='UTC'), Timestamp('2021-07-16 12:28:38+0000', tz='UTC'), Timestamp('2021-07-19 10:39:32+0000', tz='UTC'), Timestamp('2021-07-19 12:27:57+0000', tz='UTC'), Timestamp('2021-07-16 12:29:08+0000', tz='UTC'), Timestamp('2021-07-16 12:08:11+0000', tz='UTC'), Timestamp('2021-07-16 10:06:35+0000', tz='UTC'), Timestamp('2021-07-19 12:58:54+0000', tz='UTC'), Timestamp('2021-07-19 14:30:43+0000', tz='UTC'), Timestamp('2021-07-16 12:28:19+0000', tz='UTC'), Timestamp('2021-07-15 11:37:22+0000', tz='UTC'), Timestamp('2021-07-16 12:09:30+0000', tz='UTC'), Timestamp('2021-07-16 06:59:54+0000', tz='UTC'), Timestamp('2021-07-16 12:29:38+0000', tz='UTC'), Timestamp('2021-07-19 10:39:54+0000', tz='UTC'), Timestamp('2021-07-19 12:59:24+0000', tz='UTC'), Timestamp('2021-07-19 14:31:13+0000', tz='UTC'), Timestamp('2021-07-19 12:27:29+0000', tz='UTC'), Timestamp('2021-07-16 12:23:03+0000', tz='UTC'), Timestamp('2021-07-19 13:47:05+0000', tz='UTC'), Timestamp('2021-07-13 13:48:59+0000', tz='UTC'), Timestamp('2021-07-19 10:40:24+0000', tz='UTC'), Timestamp('2021-07-16 06:59:35+0000', tz='UTC'), Timestamp('2021-07-16 12:22:14+0000', tz='UTC'), Timestamp('2021-07-16 07:01:40+0000', tz='UTC'), Timestamp('2021-07-16 12:28:41+0000', tz='UTC'), Timestamp('2021-07-19 10:39:35+0000', tz='UTC'), Timestamp('2021-07-16 12:30:00+0000', tz='UTC'), Timestamp('2021-07-19 12:59:05+0000', tz='UTC'), Timestamp('2021-07-16 12:09:03+0000', tz='UTC'), Timestamp('2021-07-19 14:30:54+0000', tz='UTC'), Timestamp('2021-08-12 02:52:35+0000', tz='UTC'), Timestamp('2021-08-10 15:51:20+0000', tz='UTC'), Timestamp('2021-07-13 13:48:40+0000', tz='UTC'), Timestamp('2021-07-19 12:28:00+0000', tz='UTC'), Timestamp('2021-07-16 12:29:11+0000', tz='UTC'), Timestamp('2021-07-16 12:08:14+0000', tz='UTC'), Timestamp('2021-07-16 10:06:38+0000', tz='UTC'), Timestamp('2021-07-19 12:45:54+0000', tz='UTC'), Timestamp('2021-07-19 14:30:55+0000', tz='UTC'), Timestamp('2021-07-16 10:43:30+0000', tz='UTC'), Timestamp('2021-07-16 12:28:22+0000', tz='UTC'), Timestamp('2021-07-15 11:37:25+0000', tz='UTC'), Timestamp('2021-07-16 12:09:33+0000', tz='UTC'), Timestamp('2021-08-18 20:00:16+0000', tz='UTC'), Timestamp('2021-07-16 06:59:57+0000', tz='UTC'), Timestamp('2021-07-16 12:29:41+0000', tz='UTC'), Timestamp('2021-07-15 11:36:36+0000', tz='UTC'), Timestamp('2021-07-16 12:08:44+0000', tz='UTC'), Timestamp('2021-07-19 14:31:25+0000', tz='UTC'), Timestamp('2021-07-19 12:59:27+0000', tz='UTC'), Timestamp('2021-07-19 12:27:41+0000', tz='UTC'), Timestamp('2021-07-16 12:28:52+0000', tz='UTC'), Timestamp('2021-07-16 07:00:27+0000', tz='UTC'), Timestamp('2021-07-19 13:47:08+0000', tz='UTC'), Timestamp('2021-07-13 13:49:02+0000', tz='UTC'), Timestamp('2021-07-16 13:06:25+0000', tz='UTC'), Timestamp('2021-07-16 12:09:14+0000', tz='UTC'), Timestamp('2021-07-16 06:59:38+0000', tz='UTC'), Timestamp('2021-07-16 12:22:17+0000', tz='UTC'), Timestamp('2021-07-19 12:59:57+0000', tz='UTC'), Timestamp('2021-08-10 06:51:55+0000', tz='UTC'), Timestamp('2021-07-16 12:23:36+0000', tz='UTC'), Timestamp('2021-07-19 10:39:38+0000', tz='UTC'), Timestamp('2021-07-19 13:47:38+0000', tz='UTC'), Timestamp('2021-07-13 13:49:32+0000', tz='UTC'), Timestamp('2021-07-15 11:37:07+0000', tz='UTC'), Timestamp('2021-07-19 12:59:08+0000', tz='UTC'), Timestamp('2021-07-19 14:30:57+0000', tz='UTC'), Timestamp('2021-07-16 07:00:08+0000', tz='UTC'), Timestamp('2021-07-19 12:27:13+0000', tz='UTC'), Timestamp('2021-07-16 12:22:47+0000', tz='UTC'), Timestamp('2021-07-13 13:48:43+0000', tz='UTC'), Timestamp('2021-07-16 12:29:14+0000', tz='UTC'), Timestamp('2021-07-16 13:06:06+0000', tz='UTC'), Timestamp('2021-07-19 10:40:08+0000', tz='UTC'), Timestamp('2021-07-19 12:59:38+0000', tz='UTC'), Timestamp('2021-07-16 12:09:36+0000', tz='UTC'), Timestamp('2021-07-19 14:31:27+0000', tz='UTC'), Timestamp('2021-07-19 12:43:03+0000', tz='UTC'), Timestamp('2021-07-16 12:23:17+0000', tz='UTC'), Timestamp('2021-07-19 13:47:19+0000', tz='UTC'), Timestamp('2021-07-13 13:49:13+0000', tz='UTC'), Timestamp('2021-07-16 12:29:44+0000', tz='UTC'), Timestamp('2021-07-16 12:08:47+0000', tz='UTC'), Timestamp('2021-07-19 14:31:28+0000', tz='UTC'), Timestamp('2021-07-16 12:22:28+0000', tz='UTC'), Timestamp('2021-07-16 12:28:55+0000', tz='UTC'), Timestamp('2021-07-16 12:10:06+0000', tz='UTC'), Timestamp('2021-07-19 10:39:49+0000', tz='UTC'), Timestamp('2021-08-10 21:04:13+0000', tz='UTC'), Timestamp('2021-08-10 07:32:33+0000', tz='UTC'), Timestamp('2021-07-19 12:41:16+0000', tz='UTC'), Timestamp('2021-07-13 12:54:08+0000', tz='UTC'), Timestamp('2021-07-15 11:37:09+0000', tz='UTC'), Timestamp('2021-07-16 12:09:17+0000', tz='UTC'), Timestamp('2021-07-27 08:53:11+0000', tz='UTC'), Timestamp('2021-07-16 06:59:41+0000', tz='UTC'), Timestamp('2021-07-19 12:28:14+0000', tz='UTC'), Timestamp('2021-08-11 05:21:12+0000', tz='UTC'), Timestamp('2021-07-16 12:29:25+0000', tz='UTC'), Timestamp('2021-07-20 10:41:46+0000', tz='UTC'), Timestamp('2021-07-16 12:08:28+0000', tz='UTC'), Timestamp('2021-07-19 13:47:41+0000', tz='UTC'), Timestamp('2021-08-18 23:59:14+0000', tz='UTC'), Timestamp('2021-07-19 12:59:11+0000', tz='UTC'), Timestamp('2021-07-16 10:27:00+0000', tz='UTC'), Timestamp('2021-07-16 07:00:11+0000', tz='UTC'), Timestamp('2021-07-13 13:48:46+0000', tz='UTC'), Timestamp('2021-07-19 13:00:30+0000', tz='UTC'), Timestamp('2021-07-16 12:29:55+0000', tz='UTC'), Timestamp('2021-07-15 11:36:50+0000', tz='UTC'), Timestamp('2021-07-19 13:48:11+0000', tz='UTC'), Timestamp('2021-07-16 12:24:09+0000', tz='UTC'), Timestamp('2021-07-19 10:40:11+0000', tz='UTC'), Timestamp('2021-07-16 10:43:36+0000', tz='UTC'), Timestamp('2021-07-13 13:50:05+0000', tz='UTC'), Timestamp('2021-07-19 12:59:41+0000', tz='UTC'), Timestamp('2021-07-19 14:31:30+0000', tz='UTC'), Timestamp('2021-07-16 12:23:20+0000', tz='UTC'), Timestamp('2021-07-19 10:39:22+0000', tz='UTC'), Timestamp('2021-07-19 13:47:22+0000', tz='UTC'), Timestamp('2021-07-13 13:49:16+0000', tz='UTC'), Timestamp('2021-07-19 14:30:41+0000', tz='UTC'), Timestamp('2021-07-19 10:40:41+0000', tz='UTC'), Timestamp('2021-07-16 12:22:31+0000', tz='UTC'), Timestamp('2021-07-19 13:00:11+0000', tz='UTC'), Timestamp('2021-08-10 06:52:09+0000', tz='UTC'), Timestamp('2021-07-16 12:23:50+0000', tz='UTC'), Timestamp('2021-07-19 13:47:52+0000', tz='UTC'), Timestamp('2021-07-13 13:49:46+0000', tz='UTC'), Timestamp('2021-07-15 11:37:21+0000', tz='UTC'), Timestamp('2021-07-19 12:59:22+0000', tz='UTC'), Timestamp('2021-07-16 12:09:20+0000', tz='UTC'), Timestamp('2021-07-16 12:23:01+0000', tz='UTC'), Timestamp('2021-07-19 10:40:22+0000', tz='UTC'), Timestamp('2021-07-16 13:04:56+0000', tz='UTC'), Timestamp('2021-07-19 14:31:12+0000', tz='UTC'), Timestamp('2021-07-16 12:09:50+0000', tz='UTC'), Timestamp('2021-07-16 07:00:14+0000', tz='UTC'), Timestamp('2021-07-16 12:23:31+0000', tz='UTC'), Timestamp('2021-07-19 10:39:33+0000', tz='UTC'), Timestamp('2021-07-19 12:26:33+0000', tz='UTC'), Timestamp('2021-07-16 12:34:20+0000', tz='UTC'), Timestamp('2021-07-16 12:29:58+0000', tz='UTC'), Timestamp('2021-07-13 10:18:16+0000', tz='UTC'), Timestamp('2021-07-19 10:33:47+0000', tz='UTC'), Timestamp('2021-07-13 13:50:17+0000', tz='UTC'), Timestamp('2021-07-15 11:36:53+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-06-30 05:12:23+0000', tz='UTC'), Timestamp('2021-06-29 06:15:00+0000', tz='UTC'), Timestamp('2021-06-25 00:12:15+0000', tz='UTC'), Timestamp('2021-06-21 07:44:33+0000', tz='UTC'), Timestamp('2021-07-01 06:12:47+0000', tz='UTC'), Timestamp('2021-06-20 09:08:18+0000', tz='UTC'), Timestamp('2021-06-06 22:59:54+0000', tz='UTC'), Timestamp('2021-06-26 08:10:22+0000', tz='UTC'), Timestamp('2021-06-08 11:10:05+0000', tz='UTC'), Timestamp('2021-06-25 11:10:35+0000', tz='UTC'), Timestamp('2021-06-06 21:38:43+0000', tz='UTC'), Timestamp('2021-06-15 23:26:32+0000', tz='UTC'), Timestamp('2021-06-19 00:12:47+0000', tz='UTC'), Timestamp('2021-07-05 17:54:39+0000', tz='UTC'), Timestamp('2021-07-06 15:46:22+0000', tz='UTC'), Timestamp('2021-07-08 21:31:17+0000', tz='UTC'), Timestamp('2021-07-02 01:53:13+0000', tz='UTC'), Timestamp('2021-06-17 04:12:18+0000', tz='UTC'), Timestamp('2021-06-09 16:11:39+0000', tz='UTC'), Timestamp('2021-06-11 08:08:01+0000', tz='UTC'), Timestamp('2021-06-18 14:11:03+0000', tz='UTC'), Timestamp('2021-06-10 14:11:35+0000', tz='UTC'), Timestamp('2021-06-24 10:10:36+0000', tz='UTC'), Timestamp('2021-06-06 11:37:14+0000', tz='UTC'), Timestamp('2021-06-12 23:10:14+0000', tz='UTC'), Timestamp('2021-06-15 00:04:37+0000', tz='UTC'), Timestamp('2021-07-02 06:12:44+0000', tz='UTC'), Timestamp('2021-06-29 04:14:33+0000', tz='UTC'), Timestamp('2021-06-15 16:55:34+0000', tz='UTC'), Timestamp('2021-07-03 08:08:05+0000', tz='UTC'), Timestamp('2021-06-11 23:22:01+0000', tz='UTC'), Timestamp('2021-07-09 02:32:00+0000', tz='UTC'), Timestamp('2021-06-09 20:12:12+0000', tz='UTC'), Timestamp('2021-06-24 07:31:08+0000', tz='UTC'), Timestamp('2021-07-08 08:08:07+0000', tz='UTC'), Timestamp('2021-06-21 03:43:54+0000', tz='UTC'), Timestamp('2021-06-14 05:41:14+0000', tz='UTC'), Timestamp('2021-06-28 09:10:43+0000', tz='UTC'), Timestamp('2021-06-29 09:09:39+0000', tz='UTC'), Timestamp('2021-06-29 10:09:53+0000', tz='UTC'), Timestamp('2021-06-09 09:10:27+0000', tz='UTC'), Timestamp('2021-07-04 16:31:53+0000', tz='UTC'), Timestamp('2021-06-15 19:26:04+0000', tz='UTC'), Timestamp('2021-06-07 03:51:43+0000', tz='UTC'), Timestamp('2021-06-26 11:10:47+0000', tz='UTC'), Timestamp('2021-07-04 18:47:10+0000', tz='UTC'), Timestamp('2021-07-07 03:07:01+0000', tz='UTC'), Timestamp('2021-06-11 14:20:46+0000', tz='UTC'), Timestamp('2021-06-22 02:57:17+0000', tz='UTC'), Timestamp('2021-07-06 06:12:45+0000', tz='UTC'), Timestamp('2021-06-17 13:52:42+0000', tz='UTC'), Timestamp('2021-06-26 12:10:52+0000', tz='UTC'), Timestamp('2021-06-24 00:27:18+0000', tz='UTC'), Timestamp('2021-06-25 17:08:41+0000', tz='UTC'), Timestamp('2021-07-03 17:38:20+0000', tz='UTC'), Timestamp('2021-06-06 08:06:44+0000', tz='UTC'), Timestamp('2021-07-01 07:12:55+0000', tz='UTC'), Timestamp('2021-06-15 11:09:36+0000', tz='UTC'), Timestamp('2021-07-08 00:46:07+0000', tz='UTC'), Timestamp('2021-06-16 11:10:06+0000', tz='UTC'), Timestamp('2021-06-16 03:48:05+0000', tz='UTC'), Timestamp('2021-06-28 19:46:11+0000', tz='UTC'), Timestamp('2021-06-26 15:56:23+0000', tz='UTC'), Timestamp('2021-07-04 03:21:27+0000', tz='UTC'), Timestamp('2021-06-14 17:45:57+0000', tz='UTC'), Timestamp('2021-06-19 09:11:10+0000', tz='UTC'), Timestamp('2021-07-06 18:05:33+0000', tz='UTC'), Timestamp('2021-06-15 08:08:52+0000', tz='UTC'), Timestamp('2021-06-12 20:09:51+0000', tz='UTC'), Timestamp('2021-06-28 08:10:37+0000', tz='UTC'), Timestamp('2021-06-30 14:10:46+0000', tz='UTC'), Timestamp('2021-06-07 08:08:00+0000', tz='UTC'), Timestamp('2021-06-26 13:23:03+0000', tz='UTC'), Timestamp('2021-07-04 04:21:32+0000', tz='UTC'), Timestamp('2021-06-21 19:29:19+0000', tz='UTC'), Timestamp('2021-06-23 10:25:26+0000', tz='UTC'), Timestamp('2021-06-21 14:10:42+0000', tz='UTC'), Timestamp('2021-06-14 02:40:49+0000', tz='UTC'), Timestamp('2021-06-17 01:11:54+0000', tz='UTC'), Timestamp('2021-06-15 05:25:11+0000', tz='UTC'), Timestamp('2021-06-29 08:09:26+0000', tz='UTC'), Timestamp('2021-06-19 04:13:29+0000', tz='UTC'), Timestamp('2021-06-20 11:41:40+0000', tz='UTC'), Timestamp('2021-06-29 12:10:15+0000', tz='UTC'), Timestamp('2021-06-26 19:56:56+0000', tz='UTC'), Timestamp('2021-06-29 21:11:19+0000', tz='UTC'), Timestamp('2021-06-10 11:11:11+0000', tz='UTC'), Timestamp('2021-06-11 10:11:16+0000', tz='UTC'), Timestamp('2021-07-09 12:09:21+0000', tz='UTC'), Timestamp('2021-06-16 09:09:46+0000', tz='UTC'), Timestamp('2021-06-07 16:54:36+0000', tz='UTC'), Timestamp('2021-06-24 19:11:42+0000', tz='UTC'), Timestamp('2021-06-05 22:05:25+0000', tz='UTC'), Timestamp('2021-06-14 17:00:51+0000', tz='UTC'), Timestamp('2021-06-09 17:11:48+0000', tz='UTC'), Timestamp('2021-06-22 14:11:46+0000', tz='UTC'), Timestamp('2021-06-30 13:10:40+0000', tz='UTC'), Timestamp('2021-07-01 22:11:47+0000', tz='UTC'), Timestamp('2021-06-27 01:12:37+0000', tz='UTC'), Timestamp('2021-06-16 05:48:16+0000', tz='UTC'), Timestamp('2021-06-18 18:08:31+0000', tz='UTC'), Timestamp('2021-07-01 09:10:12+0000', tz='UTC'), Timestamp('2021-06-16 15:10:36+0000', tz='UTC'), Timestamp('2021-07-03 15:11:06+0000', tz='UTC'), Timestamp('2021-07-05 15:07:50+0000', tz='UTC'), Timestamp('2021-06-12 08:08:04+0000', tz='UTC'), Timestamp('2021-06-13 15:39:21+0000', tz='UTC'), Timestamp('2021-06-11 11:20:24+0000', tz='UTC'), Timestamp('2021-06-20 21:43:03+0000', tz='UTC'), Timestamp('2021-06-27 19:45:04+0000', tz='UTC'), Timestamp('2021-06-22 10:10:10+0000', tz='UTC'), Timestamp('2021-06-26 09:10:30+0000', tz='UTC'), Timestamp('2021-06-24 05:27:57+0000', tz='UTC'), Timestamp('2021-06-13 00:10:22+0000', tz='UTC'), Timestamp('2021-07-05 17:08:09+0000', tz='UTC'), Timestamp('2021-06-18 13:10:52+0000', tz='UTC'), Timestamp('2021-06-06 06:06:25+0000', tz='UTC'), Timestamp('2021-06-12 02:22:22+0000', tz='UTC'), Timestamp('2021-06-25 06:12:57+0000', tz='UTC'), Timestamp('2021-06-20 23:43:22+0000', tz='UTC'), Timestamp('2021-06-11 19:21:33+0000', tz='UTC'), Timestamp('2021-06-24 01:27:27+0000', tz='UTC'), Timestamp('2021-06-15 04:53:19+0000', tz='UTC'), Timestamp('2021-06-18 15:11:11+0000', tz='UTC'), Timestamp('2021-06-28 06:46:26+0000', tz='UTC'), Timestamp('2021-06-19 13:50:41+0000', tz='UTC'), Timestamp('2021-06-10 12:11:19+0000', tz='UTC'), Timestamp('2021-07-07 09:11:07+0000', tz='UTC'), Timestamp('2021-06-30 18:11:17+0000', tz='UTC'), Timestamp('2021-06-09 08:08:00+0000', tz='UTC'), Timestamp('2021-06-13 05:10:58+0000', tz='UTC'), Timestamp('2021-06-26 05:13:05+0000', tz='UTC'), Timestamp('2021-06-24 16:55:37+0000', tz='UTC'), Timestamp('2021-06-18 19:11:42+0000', tz='UTC'), Timestamp('2021-07-01 12:10:37+0000', tz='UTC'), Timestamp('2021-06-10 04:13:12+0000', tz='UTC'), Timestamp('2021-06-07 11:11:33+0000', tz='UTC'), Timestamp('2021-07-03 06:10:03+0000', tz='UTC'), Timestamp('2021-06-18 08:10:08+0000', tz='UTC'), Timestamp('2021-06-19 08:08:02+0000', tz='UTC'), Timestamp('2021-06-28 03:46:01+0000', tz='UTC'), Timestamp('2021-07-04 06:21:44+0000', tz='UTC'), Timestamp('2021-07-06 01:09:09+0000', tz='UTC'), Timestamp('2021-06-20 17:42:24+0000', tz='UTC'), Timestamp('2021-06-08 02:56:07+0000', tz='UTC'), Timestamp('2021-06-12 11:08:40+0000', tz='UTC'), Timestamp('2021-06-27 02:12:45+0000', tz='UTC'), Timestamp('2021-07-03 02:04:54+0000', tz='UTC'), Timestamp('2021-06-24 17:45:45+0000', tz='UTC'), Timestamp('2021-07-09 04:32:15+0000', tz='UTC'), Timestamp('2021-07-02 15:11:07+0000', tz='UTC'), Timestamp('2021-07-07 21:12:36+0000', tz='UTC'), Timestamp('2021-06-27 08:10:30+0000', tz='UTC'), Timestamp('2021-07-06 04:12:29+0000', tz='UTC'), Timestamp('2021-06-21 23:29:52+0000', tz='UTC'), Timestamp('2021-06-25 03:12:34+0000', tz='UTC'), Timestamp('2021-06-09 05:12:54+0000', tz='UTC'), Timestamp('2021-06-09 02:39:32+0000', tz='UTC'), Timestamp('2021-06-11 20:21:39+0000', tz='UTC'), Timestamp('2021-06-15 14:10:23+0000', tz='UTC'), Timestamp('2021-06-19 16:51:06+0000', tz='UTC'), Timestamp('2021-06-14 18:46:05+0000', tz='UTC'), Timestamp('2021-06-17 15:19:56+0000', tz='UTC'), Timestamp('2021-07-09 01:31:50+0000', tz='UTC'), Timestamp('2021-06-27 16:39:52+0000', tz='UTC'), Timestamp('2021-06-30 01:11:50+0000', tz='UTC'), Timestamp('2021-06-13 19:39:52+0000', tz='UTC'), Timestamp('2021-06-10 17:57:01+0000', tz='UTC'), Timestamp('2021-06-20 19:42:44+0000', tz='UTC'), Timestamp('2021-06-28 21:46:26+0000', tz='UTC'), Timestamp('2021-06-15 16:25:42+0000', tz='UTC'), Timestamp('2021-07-02 10:10:23+0000', tz='UTC'), Timestamp('2021-07-06 23:06:12+0000', tz='UTC'), Timestamp('2021-07-08 17:30:42+0000', tz='UTC'), Timestamp('2021-06-10 08:08:05+0000', tz='UTC'), Timestamp('2021-06-28 14:11:30+0000', tz='UTC'), Timestamp('2021-06-29 22:11:27+0000', tz='UTC'), Timestamp('2021-07-08 14:12:06+0000', tz='UTC'), Timestamp('2021-06-07 19:55:05+0000', tz='UTC'), Timestamp('2021-06-23 21:26:54+0000', tz='UTC'), Timestamp('2021-06-11 01:31:01+0000', tz='UTC'), Timestamp('2021-06-14 17:00:54+0000', tz='UTC'), Timestamp('2021-06-23 09:10:06+0000', tz='UTC'), Timestamp('2021-06-27 21:45:18+0000', tz='UTC'), Timestamp('2021-07-07 08:07:59+0000', tz='UTC'), Timestamp('2021-07-04 00:21:05+0000', tz='UTC'), Timestamp('2021-06-14 19:46:11+0000', tz='UTC'), Timestamp('2021-06-14 03:40:58+0000', tz='UTC'), Timestamp('2021-06-11 11:11:24+0000', tz='UTC'), Timestamp('2021-06-07 22:55:29+0000', tz='UTC'), Timestamp('2021-07-05 14:10:42+0000', tz='UTC'), Timestamp('2021-06-08 18:11:25+0000', tz='UTC'), Timestamp('2021-06-15 07:53:47+0000', tz='UTC'), Timestamp('2021-07-08 11:10:33+0000', tz='UTC'), Timestamp('2021-06-19 10:11:19+0000', tz='UTC'), Timestamp('2021-06-30 04:12:15+0000', tz='UTC'), Timestamp('2021-06-08 00:55:48+0000', tz='UTC'), Timestamp('2021-07-01 01:33:44+0000', tz='UTC'), Timestamp('2021-07-08 06:47:21+0000', tz='UTC'), Timestamp('2021-06-16 13:10:20+0000', tz='UTC'), Timestamp('2021-06-20 22:43:09+0000', tz='UTC'), Timestamp('2021-07-02 12:10:45+0000', tz='UTC'), Timestamp('2021-06-14 11:45:10+0000', tz='UTC'), Timestamp('2021-06-23 22:27:00+0000', tz='UTC'), Timestamp('2021-07-01 14:10:51+0000', tz='UTC'), Timestamp('2021-06-30 06:12:34+0000', tz='UTC'), Timestamp('2021-07-01 08:08:04+0000', tz='UTC'), Timestamp('2021-06-18 05:06:43+0000', tz='UTC'), Timestamp('2021-06-11 08:10:59+0000', tz='UTC'), Timestamp('2021-06-21 01:43:39+0000', tz='UTC'), Timestamp('2021-07-04 18:32:37+0000', tz='UTC'), Timestamp('2021-06-23 12:25:40+0000', tz='UTC'), Timestamp('2021-07-07 22:12:45+0000', tz='UTC'), Timestamp('2021-06-19 18:45:20+0000', tz='UTC'), Timestamp('2021-07-06 16:05:17+0000', tz='UTC'), Timestamp('2021-06-21 11:10:21+0000', tz='UTC'), Timestamp('2021-06-29 14:10:29+0000', tz='UTC'), Timestamp('2021-06-24 11:10:47+0000', tz='UTC'), Timestamp('2021-06-16 10:09:55+0000', tz='UTC'), Timestamp('2021-07-09 08:08:07+0000', tz='UTC'), Timestamp('2021-07-05 09:09:58+0000', tz='UTC'), Timestamp('2021-06-09 15:11:31+0000', tz='UTC'), Timestamp('2021-06-17 08:09:50+0000', tz='UTC'), Timestamp('2021-06-24 08:10:14+0000', tz='UTC'), Timestamp('2021-06-11 18:21:22+0000', tz='UTC'), Timestamp('2021-06-13 16:39:30+0000', tz='UTC'), Timestamp('2021-06-10 23:18:43+0000', tz='UTC'), Timestamp('2021-06-16 12:10:14+0000', tz='UTC'), Timestamp('2021-06-24 23:12:08+0000', tz='UTC'), Timestamp('2021-06-25 08:08:02+0000', tz='UTC'), Timestamp('2021-07-02 19:11:40+0000', tz='UTC'), Timestamp('2021-06-15 20:26:13+0000', tz='UTC'), Timestamp('2021-07-09 10:09:05+0000', tz='UTC'), Timestamp('2021-06-15 02:11:00+0000', tz='UTC'), Timestamp('2021-07-04 07:21:52+0000', tz='UTC'), Timestamp('2021-06-09 08:10:17+0000', tz='UTC'), Timestamp('2021-06-18 10:10:30+0000', tz='UTC'), Timestamp('2021-06-28 01:45:45+0000', tz='UTC'), Timestamp('2021-06-14 09:14:56+0000', tz='UTC'), Timestamp('2021-06-17 13:10:37+0000', tz='UTC'), Timestamp('2021-06-19 05:13:37+0000', tz='UTC'), Timestamp('2021-06-28 17:06:50+0000', tz='UTC'), Timestamp('2021-06-21 08:08:39+0000', tz='UTC'), Timestamp('2021-07-03 19:11:21+0000', tz='UTC'), Timestamp('2021-07-09 05:32:23+0000', tz='UTC'), Timestamp('2021-07-07 02:06:53+0000', tz='UTC'), Timestamp('2021-06-11 13:20:38+0000', tz='UTC'), Timestamp('2021-06-08 07:18:24+0000', tz='UTC'), Timestamp('2021-06-08 21:11:51+0000', tz='UTC'), Timestamp('2021-06-07 04:00:41+0000', tz='UTC'), Timestamp('2021-06-07 14:52:07+0000', tz='UTC'), Timestamp('2021-06-26 02:12:43+0000', tz='UTC'), Timestamp('2021-07-02 04:12:30+0000', tz='UTC'), Timestamp('2021-07-03 13:10:50+0000', tz='UTC'), Timestamp('2021-07-02 20:11:46+0000', tz='UTC'), Timestamp('2021-06-21 08:08:01+0000', tz='UTC'), Timestamp('2021-06-28 15:04:03+0000', tz='UTC'), Timestamp('2021-06-11 21:21:47+0000', tz='UTC'), Timestamp('2021-06-18 23:12:35+0000', tz='UTC'), Timestamp('2021-06-24 12:10:53+0000', tz='UTC'), Timestamp('2021-06-29 05:14:45+0000', tz='UTC'), Timestamp('2021-06-07 23:55:38+0000', tz='UTC'), Timestamp('2021-06-16 17:10:51+0000', tz='UTC'), Timestamp('2021-07-02 14:29:29+0000', tz='UTC'), Timestamp('2021-06-29 16:27:54+0000', tz='UTC'), Timestamp('2021-06-18 04:06:38+0000', tz='UTC'), Timestamp('2021-06-23 05:15:17+0000', tz='UTC'), Timestamp('2021-06-29 08:08:04+0000', tz='UTC'), Timestamp('2021-07-02 11:10:31+0000', tz='UTC'), Timestamp('2021-06-17 09:09:58+0000', tz='UTC'), Timestamp('2021-07-05 19:08:24+0000', tz='UTC'), Timestamp('2021-07-05 01:47:57+0000', tz='UTC'), Timestamp('2021-06-15 21:26:19+0000', tz='UTC'), Timestamp('2021-07-08 18:30:50+0000', tz='UTC'), Timestamp('2021-06-20 10:41:32+0000', tz='UTC'), Timestamp('2021-06-30 09:09:57+0000', tz='UTC'), Timestamp('2021-07-05 15:05:01+0000', tz='UTC'), Timestamp('2021-06-24 17:11:29+0000', tz='UTC'), Timestamp('2021-07-02 09:10:12+0000', tz='UTC'), Timestamp('2021-06-10 01:12:51+0000', tz='UTC'), Timestamp('2021-07-02 22:51:06+0000', tz='UTC'), Timestamp('2021-06-12 19:09:44+0000', tz='UTC'), Timestamp('2021-06-20 14:42:03+0000', tz='UTC'), Timestamp('2021-06-13 23:40:26+0000', tz='UTC'), Timestamp('2021-06-15 12:09:48+0000', tz='UTC'), Timestamp('2021-06-29 16:10:41+0000', tz='UTC'), Timestamp('2021-06-09 06:13:03+0000', tz='UTC'), Timestamp('2021-06-27 12:44:06+0000', tz='UTC'), Timestamp('2021-06-11 07:31:54+0000', tz='UTC'), Timestamp('2021-06-15 09:09:04+0000', tz='UTC'), Timestamp('2021-06-27 00:12:29+0000', tz='UTC'), Timestamp('2021-06-21 05:44:12+0000', tz='UTC'), Timestamp('2021-06-22 07:57:51+0000', tz='UTC'), Timestamp('2021-06-05 17:04:47+0000', tz='UTC'), Timestamp('2021-06-10 06:13:27+0000', tz='UTC'), Timestamp('2021-06-20 03:25:31+0000', tz='UTC'), Timestamp('2021-06-21 17:29:05+0000', tz='UTC'), Timestamp('2021-06-23 16:26:13+0000', tz='UTC'), Timestamp('2021-06-21 10:09:40+0000', tz='UTC'), Timestamp('2021-07-02 21:11:52+0000', tz='UTC'), Timestamp('2021-06-08 22:11:59+0000', tz='UTC'), Timestamp('2021-06-16 14:10:28+0000', tz='UTC'), Timestamp('2021-06-28 12:11:06+0000', tz='UTC'), Timestamp('2021-06-07 15:54:29+0000', tz='UTC'), Timestamp('2021-06-15 08:08:01+0000', tz='UTC'), Timestamp('2021-06-18 11:10:39+0000', tz='UTC'), Timestamp('2021-06-08 05:41:27+0000', tz='UTC'), Timestamp('2021-06-09 14:11:18+0000', tz='UTC'), Timestamp('2021-06-17 03:12:11+0000', tz='UTC'), Timestamp('2021-06-19 19:45:26+0000', tz='UTC'), Timestamp('2021-06-19 06:13:46+0000', tz='UTC'), Timestamp('2021-06-30 12:10:33+0000', tz='UTC'), Timestamp('2021-06-22 05:57:40+0000', tz='UTC'), Timestamp('2021-07-03 10:10:28+0000', tz='UTC'), Timestamp('2021-06-23 09:25:10+0000', tz='UTC'), Timestamp('2021-07-07 00:06:25+0000', tz='UTC'), Timestamp('2021-06-14 16:45:49+0000', tz='UTC'), Timestamp('2021-06-08 19:11:34+0000', tz='UTC'), Timestamp('2021-06-12 01:22:14+0000', tz='UTC'), Timestamp('2021-06-21 12:10:29+0000', tz='UTC'), Timestamp('2021-06-30 21:11:39+0000', tz='UTC'), Timestamp('2021-06-12 16:09:19+0000', tz='UTC'), Timestamp('2021-07-07 08:08:05+0000', tz='UTC'), Timestamp('2021-06-16 08:09:39+0000', tz='UTC'), Timestamp('2021-06-20 17:42:28+0000', tz='UTC'), Timestamp('2021-07-03 14:10:59+0000', tz='UTC'), Timestamp('2021-06-11 03:31:15+0000', tz='UTC'), Timestamp('2021-06-20 05:25:51+0000', tz='UTC'), Timestamp('2021-07-02 22:11:58+0000', tz='UTC'), Timestamp('2021-06-13 14:39:14+0000', tz='UTC'), Timestamp('2021-06-27 15:44:31+0000', tz='UTC'), Timestamp('2021-06-12 06:22:59+0000', tz='UTC'), Timestamp('2021-06-16 23:11:35+0000', tz='UTC'), Timestamp('2021-06-16 07:48:33+0000', tz='UTC'), Timestamp('2021-06-05 20:05:12+0000', tz='UTC'), Timestamp('2021-06-21 16:29:03+0000', tz='UTC'), Timestamp('2021-06-14 21:46:25+0000', tz='UTC'), Timestamp('2021-06-17 18:20:16+0000', tz='UTC'), Timestamp('2021-06-28 08:08:02+0000', tz='UTC'), Timestamp('2021-07-07 15:11:52+0000', tz='UTC'), Timestamp('2021-06-22 01:30:06+0000', tz='UTC'), Timestamp('2021-06-17 19:09:43+0000', tz='UTC'), Timestamp('2021-07-03 05:09:55+0000', tz='UTC'), Timestamp('2021-06-25 09:10:17+0000', tz='UTC'), Timestamp('2021-06-22 18:13:03+0000', tz='UTC'), Timestamp('2021-07-06 08:08:05+0000', tz='UTC'), Timestamp('2021-06-20 00:46:04+0000', tz='UTC'), Timestamp('2021-06-06 12:37:29+0000', tz='UTC'), Timestamp('2021-07-05 12:10:26+0000', tz='UTC'), Timestamp('2021-06-08 04:05:19+0000', tz='UTC'), Timestamp('2021-06-25 18:11:40+0000', tz='UTC'), Timestamp('2021-06-21 14:28:43+0000', tz='UTC'), Timestamp('2021-06-14 22:10:28+0000', tz='UTC'), Timestamp('2021-06-24 03:27:44+0000', tz='UTC'), Timestamp('2021-06-19 20:45:34+0000', tz='UTC'), Timestamp('2021-07-08 08:08:46+0000', tz='UTC'), Timestamp('2021-06-23 17:53:44+0000', tz='UTC'), Timestamp('2021-06-29 18:10:55+0000', tz='UTC'), Timestamp('2021-06-24 08:08:01+0000', tz='UTC'), Timestamp('2021-06-29 07:15:18+0000', tz='UTC'), Timestamp('2021-06-07 12:11:45+0000', tz='UTC'), Timestamp('2021-06-09 23:12:35+0000', tz='UTC'), Timestamp('2021-06-25 23:12:16+0000', tz='UTC'), Timestamp('2021-07-01 16:11:06+0000', tz='UTC'), Timestamp('2021-07-02 08:10:01+0000', tz='UTC'), Timestamp('2021-06-13 21:40:10+0000', tz='UTC'), Timestamp('2021-06-20 08:08:13+0000', tz='UTC'), Timestamp('2021-06-25 02:12:27+0000', tz='UTC'), Timestamp('2021-06-22 03:57:23+0000', tz='UTC'), Timestamp('2021-07-07 16:12:00+0000', tz='UTC'), Timestamp('2021-06-24 13:11:02+0000', tz='UTC'), Timestamp('2021-06-13 18:50:04+0000', tz='UTC'), Timestamp('2021-07-02 22:21:00+0000', tz='UTC'), Timestamp('2021-06-19 11:17:25+0000', tz='UTC'), Timestamp('2021-06-25 13:10:58+0000', tz='UTC'), Timestamp('2021-06-11 00:30:53+0000', tz='UTC'), Timestamp('2021-06-26 01:12:33+0000', tz='UTC'), Timestamp('2021-06-17 05:12:25+0000', tz='UTC'), Timestamp('2021-06-27 20:45:10+0000', tz='UTC'), Timestamp('2021-07-02 23:51:14+0000', tz='UTC'), Timestamp('2021-06-08 07:05:55+0000', tz='UTC'), Timestamp('2021-06-27 10:10:47+0000', tz='UTC'), Timestamp('2021-06-29 17:10:49+0000', tz='UTC'), Timestamp('2021-07-07 12:11:30+0000', tz='UTC'), Timestamp('2021-06-09 03:12:33+0000', tz='UTC'), Timestamp('2021-06-18 08:08:00+0000', tz='UTC'), Timestamp('2021-06-15 15:25:35+0000', tz='UTC'), Timestamp('2021-06-16 03:15:03+0000', tz='UTC'), Timestamp('2021-06-23 06:15:26+0000', tz='UTC'), Timestamp('2021-06-26 03:12:52+0000', tz='UTC'), Timestamp('2021-06-08 08:06:00+0000', tz='UTC'), Timestamp('2021-06-12 10:08:32+0000', tz='UTC'), Timestamp('2021-07-02 05:12:39+0000', tz='UTC'), Timestamp('2021-07-06 14:29:04+0000', tz='UTC'), Timestamp('2021-06-05 18:04:55+0000', tz='UTC'), Timestamp('2021-07-08 05:47:11+0000', tz='UTC'), Timestamp('2021-07-05 13:10:34+0000', tz='UTC'), Timestamp('2021-06-26 06:13:09+0000', tz='UTC'), Timestamp('2021-06-23 20:26:47+0000', tz='UTC'), Timestamp('2021-07-04 14:46:43+0000', tz='UTC'), Timestamp('2021-06-06 04:06:04+0000', tz='UTC'), Timestamp('2021-06-08 05:41:30+0000', tz='UTC'), Timestamp('2021-07-01 03:12:26+0000', tz='UTC'), Timestamp('2021-06-27 06:49:19+0000', tz='UTC'), Timestamp('2021-06-23 08:09:48+0000', tz='UTC'), Timestamp('2021-06-29 23:11:39+0000', tz='UTC'), Timestamp('2021-06-14 10:45:02+0000', tz='UTC'), Timestamp('2021-06-16 19:11:05+0000', tz='UTC'), Timestamp('2021-06-28 23:46:43+0000', tz='UTC'), Timestamp('2021-07-01 04:12:31+0000', tz='UTC'), Timestamp('2021-07-08 19:30:59+0000', tz='UTC'), Timestamp('2021-06-21 00:43:31+0000', tz='UTC'), Timestamp('2021-06-28 16:45:47+0000', tz='UTC'), Timestamp('2021-06-07 03:00:30+0000', tz='UTC'), Timestamp('2021-06-17 22:05:49+0000', tz='UTC'), Timestamp('2021-06-21 20:29:25+0000', tz='UTC'), Timestamp('2021-06-07 21:55:22+0000', tz='UTC'), Timestamp('2021-07-03 18:38:27+0000', tz='UTC'), Timestamp('2021-06-26 04:12:58+0000', tz='UTC'), Timestamp('2021-06-08 17:11:18+0000', tz='UTC'), Timestamp('2021-06-30 10:10:08+0000', tz='UTC'), Timestamp('2021-07-04 20:47:22+0000', tz='UTC'), Timestamp('2021-06-24 06:31:04+0000', tz='UTC'), Timestamp('2021-06-28 20:46:18+0000', tz='UTC'), Timestamp('2021-07-02 07:12:50+0000', tz='UTC'), Timestamp('2021-06-16 01:26:49+0000', tz='UTC'), Timestamp('2021-06-06 16:38:00+0000', tz='UTC'), Timestamp('2021-07-01 11:10:32+0000', tz='UTC'), Timestamp('2021-06-25 20:11:54+0000', tz='UTC'), Timestamp('2021-06-12 21:09:58+0000', tz='UTC'), Timestamp('2021-06-10 18:57:12+0000', tz='UTC'), Timestamp('2021-06-18 02:06:24+0000', tz='UTC'), Timestamp('2021-06-26 16:56:32+0000', tz='UTC'), Timestamp('2021-06-21 06:44:21+0000', tz='UTC'), Timestamp('2021-06-19 17:51:10+0000', tz='UTC'), Timestamp('2021-06-24 15:11:13+0000', tz='UTC'), Timestamp('2021-07-04 09:10:04+0000', tz='UTC'), Timestamp('2021-06-23 17:26:22+0000', tz='UTC'), Timestamp('2021-07-09 08:08:43+0000', tz='UTC'), Timestamp('2021-07-09 09:08:57+0000', tz='UTC'), Timestamp('2021-06-17 08:08:01+0000', tz='UTC'), Timestamp('2021-06-14 07:41:34+0000', tz='UTC'), Timestamp('2021-06-15 01:10:52+0000', tz='UTC'), Timestamp('2021-06-29 11:10:10+0000', tz='UTC'), Timestamp('2021-06-10 09:10:52+0000', tz='UTC'), Timestamp('2021-06-12 17:09:28+0000', tz='UTC'), Timestamp('2021-07-02 03:15:36+0000', tz='UTC'), Timestamp('2021-06-25 17:11:29+0000', tz='UTC'), Timestamp('2021-07-07 17:32:44+0000', tz='UTC'), Timestamp('2021-07-08 22:31:24+0000', tz='UTC'), Timestamp('2021-06-14 14:18:30+0000', tz='UTC'), Timestamp('2021-06-14 08:08:40+0000', tz='UTC'), Timestamp('2021-06-20 10:08:27+0000', tz='UTC'), Timestamp('2021-06-24 20:11:49+0000', tz='UTC'), Timestamp('2021-06-23 04:15:07+0000', tz='UTC'), Timestamp('2021-06-16 02:26:55+0000', tz='UTC'), Timestamp('2021-06-08 05:05:27+0000', tz='UTC'), Timestamp('2021-06-25 19:11:48+0000', tz='UTC'), Timestamp('2021-06-15 18:38:43+0000', tz='UTC'), Timestamp('2021-06-24 09:10:26+0000', tz='UTC'), Timestamp('2021-06-10 15:11:42+0000', tz='UTC'), Timestamp('2021-06-29 19:11:01+0000', tz='UTC'), Timestamp('2021-06-23 18:26:28+0000', tz='UTC'), Timestamp('2021-06-25 07:13:03+0000', tz='UTC'), Timestamp('2021-07-08 00:43:05+0000', tz='UTC'), Timestamp('2021-06-14 08:08:02+0000', tz='UTC'), Timestamp('2021-06-09 03:44:47+0000', tz='UTC'), Timestamp('2021-06-27 16:44:40+0000', tz='UTC'), Timestamp('2021-06-27 05:49:14+0000', tz='UTC'), Timestamp('2021-06-24 02:27:33+0000', tz='UTC'), Timestamp('2021-06-22 18:38:04+0000', tz='UTC'), Timestamp('2021-06-26 22:12:14+0000', tz='UTC'), Timestamp('2021-07-06 12:10:44+0000', tz='UTC'), Timestamp('2021-06-05 21:05:23+0000', tz='UTC'), Timestamp('2021-06-24 21:11:55+0000', tz='UTC'), Timestamp('2021-07-05 08:09:50+0000', tz='UTC'), Timestamp('2021-07-05 00:47:49+0000', tz='UTC'), Timestamp('2021-07-03 12:10:43+0000', tz='UTC'), Timestamp('2021-06-27 17:22:13+0000', tz='UTC'), Timestamp('2021-06-08 07:18:22+0000', tz='UTC'), Timestamp('2021-06-19 11:50:31+0000', tz='UTC'), Timestamp('2021-06-23 05:26:51+0000', tz='UTC'), Timestamp('2021-06-30 08:08:03+0000', tz='UTC'), Timestamp('2021-06-30 23:11:54+0000', tz='UTC'), Timestamp('2021-06-28 15:05:47+0000', tz='UTC'), Timestamp('2021-06-18 16:11:18+0000', tz='UTC'), Timestamp('2021-06-22 15:12:14+0000', tz='UTC'), Timestamp('2021-07-07 04:07:10+0000', tz='UTC'), Timestamp('2021-06-20 13:41:55+0000', tz='UTC'), Timestamp('2021-06-19 12:50:36+0000', tz='UTC'), Timestamp('2021-06-27 03:48:54+0000', tz='UTC'), Timestamp('2021-06-29 15:10:33+0000', tz='UTC'), Timestamp('2021-07-01 23:11:53+0000', tz='UTC'), Timestamp('2021-07-03 03:09:39+0000', tz='UTC'), Timestamp('2021-06-21 15:28:52+0000', tz='UTC'), Timestamp('2021-07-09 03:32:10+0000', tz='UTC'), Timestamp('2021-06-20 06:25:59+0000', tz='UTC'), Timestamp('2021-06-06 02:05:55+0000', tz='UTC'), Timestamp('2021-06-17 12:10:29+0000', tz='UTC'), Timestamp('2021-06-26 07:13:15+0000', tz='UTC'), Timestamp('2021-06-27 11:43:58+0000', tz='UTC'), Timestamp('2021-07-08 01:46:16+0000', tz='UTC'), Timestamp('2021-06-21 04:44:04+0000', tz='UTC'), Timestamp('2021-06-05 16:04:39+0000', tz='UTC'), Timestamp('2021-07-03 23:21:00+0000', tz='UTC'), Timestamp('2021-06-24 16:11:22+0000', tz='UTC'), Timestamp('2021-06-22 22:14:15+0000', tz='UTC'), Timestamp('2021-06-08 13:10:39+0000', tz='UTC'), Timestamp('2021-07-04 12:46:27+0000', tz='UTC'), Timestamp('2021-06-28 11:10:58+0000', tz='UTC'), Timestamp('2021-06-29 20:11:09+0000', tz='UTC'), Timestamp('2021-06-22 11:10:16+0000', tz='UTC'), Timestamp('2021-07-03 08:10:15+0000', tz='UTC'), Timestamp('2021-06-17 11:10:15+0000', tz='UTC'), Timestamp('2021-06-09 13:11:10+0000', tz='UTC'), Timestamp('2021-06-17 02:12:03+0000', tz='UTC'), Timestamp('2021-07-02 16:11:14+0000', tz='UTC'), Timestamp('2021-07-03 19:38:33+0000', tz='UTC'), Timestamp('2021-07-03 21:26:57+0000', tz='UTC'), Timestamp('2021-06-30 11:10:25+0000', tz='UTC'), Timestamp('2021-06-22 04:57:32+0000', tz='UTC'), Timestamp('2021-07-08 23:31:33+0000', tz='UTC'), Timestamp('2021-06-23 02:14:50+0000', tz='UTC'), Timestamp('2021-06-08 09:09:12+0000', tz='UTC'), Timestamp('2021-06-23 17:14:41+0000', tz='UTC'), Timestamp('2021-07-07 07:07:46+0000', tz='UTC'), Timestamp('2021-06-19 22:45:49+0000', tz='UTC'), Timestamp('2021-06-20 16:42:20+0000', tz='UTC'), Timestamp('2021-06-12 17:24:01+0000', tz='UTC'), Timestamp('2021-06-23 00:14:31+0000', tz='UTC'), Timestamp('2021-06-18 03:06:30+0000', tz='UTC'), Timestamp('2021-06-14 15:42:47+0000', tz='UTC'), Timestamp('2021-06-10 16:11:51+0000', tz='UTC'), Timestamp('2021-06-24 22:12:03+0000', tz='UTC'), Timestamp('2021-06-28 18:46:02+0000', tz='UTC'), Timestamp('2021-07-04 11:46:21+0000', tz='UTC'), Timestamp('2021-06-07 08:10:39+0000', tz='UTC'), Timestamp('2021-07-03 07:10:09+0000', tz='UTC'), Timestamp('2021-06-15 09:22:23+0000', tz='UTC'), Timestamp('2021-06-08 12:10:26+0000', tz='UTC'), Timestamp('2021-07-04 23:47:42+0000', tz='UTC'), Timestamp('2021-07-01 01:33:45+0000', tz='UTC'), Timestamp('2021-06-16 16:55:32+0000', tz='UTC'), Timestamp('2021-06-27 18:44:54+0000', tz='UTC'), Timestamp('2021-06-22 16:12:39+0000', tz='UTC'), Timestamp('2021-07-01 19:11:26+0000', tz='UTC'), Timestamp('2021-06-13 09:08:27+0000', tz='UTC'), Timestamp('2021-06-07 02:00:20+0000', tz='UTC'), Timestamp('2021-07-07 18:12:15+0000', tz='UTC'), Timestamp('2021-07-04 16:46:57+0000', tz='UTC'), Timestamp('2021-07-04 08:08:07+0000', tz='UTC'), Timestamp('2021-06-13 10:38:41+0000', tz='UTC'), Timestamp('2021-06-25 15:11:13+0000', tz='UTC'), Timestamp('2021-06-13 17:03:31+0000', tz='UTC'), Timestamp('2021-07-01 20:11:31+0000', tz='UTC'), Timestamp('2021-06-10 21:57:32+0000', tz='UTC'), Timestamp('2021-07-07 19:12:20+0000', tz='UTC'), Timestamp('2021-06-08 15:11:01+0000', tz='UTC'), Timestamp('2021-06-12 01:57:29+0000', tz='UTC'), Timestamp('2021-07-01 10:10:22+0000', tz='UTC'), Timestamp('2021-07-03 01:09:22+0000', tz='UTC'), Timestamp('2021-06-23 03:14:56+0000', tz='UTC'), Timestamp('2021-06-21 14:26:52+0000', tz='UTC'), Timestamp('2021-06-09 21:12:22+0000', tz='UTC'), Timestamp('2021-06-14 06:41:24+0000', tz='UTC'), Timestamp('2021-06-12 14:09:06+0000', tz='UTC'), Timestamp('2021-06-26 17:56:41+0000', tz='UTC'), Timestamp('2021-06-09 03:45:47+0000', tz='UTC'), Timestamp('2021-06-17 20:20:33+0000', tz='UTC'), Timestamp('2021-07-06 21:05:54+0000', tz='UTC'), Timestamp('2021-06-28 04:46:08+0000', tz='UTC'), Timestamp('2021-07-01 15:10:58+0000', tz='UTC'), Timestamp('2021-06-29 00:46:51+0000', tz='UTC'), Timestamp('2021-06-13 20:40:02+0000', tz='UTC'), Timestamp('2021-06-11 09:11:06+0000', tz='UTC'), Timestamp('2021-06-22 20:13:18+0000', tz='UTC'), Timestamp('2021-06-09 18:11:57+0000', tz='UTC'), Timestamp('2021-06-28 16:06:26+0000', tz='UTC'), Timestamp('2021-06-13 13:39:06+0000', tz='UTC'), Timestamp('2021-06-12 05:22:51+0000', tz='UTC'), Timestamp('2021-06-26 14:56:16+0000', tz='UTC'), Timestamp('2021-06-14 09:08:49+0000', tz='UTC'), Timestamp('2021-07-05 05:48:28+0000', tz='UTC'), Timestamp('2021-07-07 01:06:40+0000', tz='UTC'), Timestamp('2021-06-20 02:25:24+0000', tz='UTC'), Timestamp('2021-06-15 17:25:49+0000', tz='UTC'), Timestamp('2021-07-05 08:08:07+0000', tz='UTC'), Timestamp('2021-06-08 06:05:36+0000', tz='UTC'), Timestamp('2021-06-27 09:10:39+0000', tz='UTC'), Timestamp('2021-06-25 08:10:09+0000', tz='UTC'), Timestamp('2021-06-12 09:08:24+0000', tz='UTC'), Timestamp('2021-06-18 22:12:22+0000', tz='UTC'), Timestamp('2021-07-01 05:12:40+0000', tz='UTC'), Timestamp('2021-07-08 00:13:02+0000', tz='UTC'), Timestamp('2021-06-22 17:30:58+0000', tz='UTC'), Timestamp('2021-06-25 10:10:28+0000', tz='UTC'), Timestamp('2021-06-26 21:12:06+0000', tz='UTC'), Timestamp('2021-07-04 13:46:35+0000', tz='UTC'), Timestamp('2021-06-20 20:42:53+0000', tz='UTC'), Timestamp('2021-06-11 16:21:04+0000', tz='UTC'), Timestamp('2021-06-07 00:00:03+0000', tz='UTC'), Timestamp('2021-06-22 21:14:04+0000', tz='UTC'), Timestamp('2021-07-02 01:12:06+0000', tz='UTC'), Timestamp('2021-06-17 18:41:49+0000', tz='UTC'), Timestamp('2021-07-09 06:32:30+0000', tz='UTC'), Timestamp('2021-07-03 20:38:41+0000', tz='UTC'), Timestamp('2021-07-07 15:46:50+0000', tz='UTC'), Timestamp('2021-07-01 08:10:03+0000', tz='UTC'), Timestamp('2021-06-08 10:09:31+0000', tz='UTC'), Timestamp('2021-06-15 02:53:06+0000', tz='UTC'), Timestamp('2021-07-07 20:12:29+0000', tz='UTC'), Timestamp('2021-06-13 03:10:43+0000', tz='UTC'), Timestamp('2021-06-16 06:48:26+0000', tz='UTC'), Timestamp('2021-06-09 04:12:45+0000', tz='UTC'), Timestamp('2021-06-17 07:12:42+0000', tz='UTC'), Timestamp('2021-06-14 20:46:18+0000', tz='UTC'), Timestamp('2021-06-19 23:45:57+0000', tz='UTC'), Timestamp('2021-06-29 01:46:59+0000', tz='UTC'), Timestamp('2021-07-08 14:30:10+0000', tz='UTC'), Timestamp('2021-06-10 16:56:59+0000', tz='UTC'), Timestamp('2021-06-23 01:14:39+0000', tz='UTC'), Timestamp('2021-06-11 22:21:54+0000', tz='UTC'), Timestamp('2021-06-28 17:17:10+0000', tz='UTC'), Timestamp('2021-07-05 16:03:21+0000', tz='UTC'), Timestamp('2021-06-16 00:26:41+0000', tz='UTC'), Timestamp('2021-06-14 09:44:55+0000', tz='UTC'), Timestamp('2021-07-08 15:30:26+0000', tz='UTC'), Timestamp('2021-06-12 12:08:49+0000', tz='UTC'), Timestamp('2021-06-18 12:10:43+0000', tz='UTC'), Timestamp('2021-07-03 02:18:50+0000', tz='UTC'), Timestamp('2021-06-29 17:25:36+0000', tz='UTC'), Timestamp('2021-06-07 02:00:23+0000', tz='UTC'), Timestamp('2021-06-26 00:12:25+0000', tz='UTC'), Timestamp('2021-06-26 10:10:40+0000', tz='UTC'), Timestamp('2021-07-02 13:10:52+0000', tz='UTC'), Timestamp('2021-06-28 05:46:17+0000', tz='UTC'), Timestamp('2021-06-10 08:10:44+0000', tz='UTC'), Timestamp('2021-06-15 03:53:12+0000', tz='UTC'), Timestamp('2021-07-05 11:10:21+0000', tz='UTC'), Timestamp('2021-06-15 22:26:28+0000', tz='UTC'), Timestamp('2021-06-08 05:41:28+0000', tz='UTC'), Timestamp('2021-06-07 14:12:11+0000', tz='UTC'), Timestamp('2021-06-18 18:11:33+0000', tz='UTC'), Timestamp('2021-07-07 06:07:36+0000', tz='UTC'), Timestamp('2021-07-07 08:11:00+0000', tz='UTC'), Timestamp('2021-06-21 22:29:42+0000', tz='UTC'), Timestamp('2021-06-23 13:25:49+0000', tz='UTC'), Timestamp('2021-06-06 10:37:08+0000', tz='UTC'), Timestamp('2021-07-04 02:21:20+0000', tz='UTC'), Timestamp('2021-06-22 13:11:09+0000', tz='UTC'), Timestamp('2021-07-06 19:05:38+0000', tz='UTC'), Timestamp('2021-06-14 00:40:37+0000', tz='UTC'), Timestamp('2021-06-27 13:44:13+0000', tz='UTC'), Timestamp('2021-07-01 02:12:18+0000', tz='UTC'), Timestamp('2021-06-22 06:57:46+0000', tz='UTC'), Timestamp('2021-06-13 17:39:37+0000', tz='UTC'), Timestamp('2021-06-22 17:30:12+0000', tz='UTC'), Timestamp('2021-06-22 09:10:00+0000', tz='UTC'), Timestamp('2021-07-08 16:30:32+0000', tz='UTC'), Timestamp('2021-06-28 22:46:35+0000', tz='UTC'), Timestamp('2021-06-17 14:19:46+0000', tz='UTC'), Timestamp('2021-06-21 18:29:12+0000', tz='UTC'), Timestamp('2021-06-26 18:56:47+0000', tz='UTC'), Timestamp('2021-06-06 01:05:48+0000', tz='UTC'), Timestamp('2021-06-07 13:11:57+0000', tz='UTC'), Timestamp('2021-06-20 18:42:34+0000', tz='UTC'), Timestamp('2021-06-06 10:10:05+0000', tz='UTC'), Timestamp('2021-07-06 22:06:02+0000', tz='UTC'), Timestamp('2021-06-08 16:11:10+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-16 23:03:13+0000', tz='UTC'), Timestamp('2021-08-31 17:09:55+0000', tz='UTC'), Timestamp('2021-07-21 06:50:22+0000', tz='UTC'), Timestamp('2021-08-21 02:34:31+0000', tz='UTC'), Timestamp('2021-08-07 02:26:43+0000', tz='UTC'), Timestamp('2021-08-21 22:30:52+0000', tz='UTC'), Timestamp('2021-08-29 23:11:09+0000', tz='UTC'), Timestamp('2021-07-21 14:09:20+0000', tz='UTC'), Timestamp('2021-07-24 08:08:26+0000', tz='UTC'), Timestamp('2021-08-02 11:18:46+0000', tz='UTC'), Timestamp('2021-07-15 22:13:17+0000', tz='UTC'), Timestamp('2021-07-17 11:11:37+0000', tz='UTC'), Timestamp('2021-08-10 22:29:47+0000', tz='UTC'), Timestamp('2021-07-25 03:10:42+0000', tz='UTC'), Timestamp('2021-07-10 18:46:05+0000', tz='UTC'), Timestamp('2021-07-29 11:10:20+0000', tz='UTC'), Timestamp('2021-08-09 03:28:21+0000', tz='UTC'), Timestamp('2021-07-24 00:04:22+0000', tz='UTC'), Timestamp('2021-08-28 22:11:04+0000', tz='UTC'), Timestamp('2021-08-15 03:15:30+0000', tz='UTC'), Timestamp('2021-07-13 13:51:20+0000', tz='UTC'), Timestamp('2021-09-01 09:08:42+0000', tz='UTC'), Timestamp('2021-07-22 22:28:13+0000', tz='UTC'), Timestamp('2021-08-29 20:10:44+0000', tz='UTC'), Timestamp('2021-07-20 16:24:04+0000', tz='UTC'), Timestamp('2021-08-17 14:11:41+0000', tz='UTC'), Timestamp('2021-08-14 03:30:38+0000', tz='UTC'), Timestamp('2021-07-26 17:06:35+0000', tz='UTC'), Timestamp('2021-08-19 11:11:52+0000', tz='UTC'), Timestamp('2021-08-12 19:02:55+0000', tz='UTC'), Timestamp('2021-07-27 12:12:07+0000', tz='UTC'), Timestamp('2021-08-03 03:18:07+0000', tz='UTC'), Timestamp('2021-07-25 16:57:14+0000', tz='UTC'), Timestamp('2021-08-22 08:11:04+0000', tz='UTC'), Timestamp('2021-08-15 16:05:02+0000', tz='UTC'), Timestamp('2021-07-27 18:15:51+0000', tz='UTC'), Timestamp('2021-07-13 15:23:39+0000', tz='UTC'), Timestamp('2021-07-28 21:53:51+0000', tz='UTC'), Timestamp('2021-08-26 07:12:46+0000', tz='UTC'), Timestamp('2021-07-20 22:49:24+0000', tz='UTC'), Timestamp('2021-08-25 08:08:30+0000', tz='UTC'), Timestamp('2021-08-20 12:11:54+0000', tz='UTC'), Timestamp('2021-07-19 04:04:33+0000', tz='UTC'), Timestamp('2021-08-26 11:40:19+0000', tz='UTC'), Timestamp('2021-07-18 16:29:43+0000', tz='UTC'), Timestamp('2021-08-04 08:10:23+0000', tz='UTC'), Timestamp('2021-07-12 12:09:20+0000', tz='UTC'), Timestamp('2021-08-26 05:12:35+0000', tz='UTC'), Timestamp('2021-07-26 23:07:17+0000', tz='UTC'), Timestamp('2021-08-24 06:55:47+0000', tz='UTC'), Timestamp('2021-07-19 22:18:57+0000', tz='UTC'), Timestamp('2021-08-15 07:16:01+0000', tz='UTC'), Timestamp('2021-07-20 03:16:35+0000', tz='UTC'), Timestamp('2021-08-03 16:55:55+0000', tz='UTC'), Timestamp('2021-08-30 12:09:32+0000', tz='UTC'), Timestamp('2021-08-04 01:57:01+0000', tz='UTC'), Timestamp('2021-07-13 01:19:54+0000', tz='UTC'), Timestamp('2021-07-25 04:10:48+0000', tz='UTC'), Timestamp('2021-07-27 15:15:27+0000', tz='UTC'), Timestamp('2021-08-12 08:08:26+0000', tz='UTC'), Timestamp('2021-08-22 06:58:55+0000', tz='UTC'), Timestamp('2021-07-23 16:12:22+0000', tz='UTC'), Timestamp('2021-07-22 08:08:14+0000', tz='UTC'), Timestamp('2021-07-22 12:09:03+0000', tz='UTC'), Timestamp('2021-08-24 17:11:57+0000', tz='UTC'), Timestamp('2021-09-02 17:21:21+0000', tz='UTC'), Timestamp('2021-08-25 18:11:29+0000', tz='UTC'), Timestamp('2021-08-11 19:30:39+0000', tz='UTC'), Timestamp('2021-08-20 18:51:42+0000', tz='UTC'), Timestamp('2021-09-03 08:08:30+0000', tz='UTC'), Timestamp('2021-08-24 09:28:50+0000', tz='UTC'), Timestamp('2021-07-12 09:08:56+0000', tz='UTC'), Timestamp('2021-08-21 21:30:33+0000', tz='UTC'), Timestamp('2021-07-15 19:12:55+0000', tz='UTC'), Timestamp('2021-08-04 13:17:27+0000', tz='UTC'), Timestamp('2021-07-16 14:54:16+0000', tz='UTC'), Timestamp('2021-07-20 16:48:37+0000', tz='UTC'), Timestamp('2021-08-22 12:05:29+0000', tz='UTC'), Timestamp('2021-08-05 18:25:27+0000', tz='UTC'), Timestamp('2021-08-15 19:38:30+0000', tz='UTC'), Timestamp('2021-09-03 03:22:35+0000', tz='UTC'), Timestamp('2021-07-27 08:08:18+0000', tz='UTC'), Timestamp('2021-07-10 09:33:01+0000', tz='UTC'), Timestamp('2021-08-19 01:13:29+0000', tz='UTC'), Timestamp('2021-09-01 02:16:52+0000', tz='UTC'), Timestamp('2021-07-23 17:03:28+0000', tz='UTC'), Timestamp('2021-08-06 15:26:16+0000', tz='UTC'), Timestamp('2021-08-31 02:20:12+0000', tz='UTC'), Timestamp('2021-08-04 08:08:21+0000', tz='UTC'), Timestamp('2021-09-02 11:20:42+0000', tz='UTC'), Timestamp('2021-08-21 05:34:51+0000', tz='UTC'), Timestamp('2021-07-30 11:22:25+0000', tz='UTC'), Timestamp('2021-08-10 03:29:12+0000', tz='UTC'), Timestamp('2021-08-03 00:17:45+0000', tz='UTC'), Timestamp('2021-07-12 00:53:00+0000', tz='UTC'), Timestamp('2021-08-29 07:45:18+0000', tz='UTC'), Timestamp('2021-08-31 04:32:26+0000', tz='UTC'), Timestamp('2021-08-04 21:24:36+0000', tz='UTC'), Timestamp('2021-07-28 17:53:26+0000', tz='UTC'), Timestamp('2021-07-15 13:36:17+0000', tz='UTC'), Timestamp('2021-08-08 09:27:44+0000', tz='UTC'), Timestamp('2021-08-08 03:27:33+0000', tz='UTC'), Timestamp('2021-07-19 14:32:59+0000', tz='UTC'), Timestamp('2021-07-26 11:11:46+0000', tz='UTC'), Timestamp('2021-07-16 12:26:57+0000', tz='UTC'), Timestamp('2021-08-03 14:55:41+0000', tz='UTC'), Timestamp('2021-08-26 10:40:09+0000', tz='UTC'), Timestamp('2021-08-25 19:11:35+0000', tz='UTC'), Timestamp('2021-08-19 14:12:12+0000', tz='UTC'), Timestamp('2021-08-20 02:22:42+0000', tz='UTC'), Timestamp('2021-08-27 08:08:31+0000', tz='UTC'), Timestamp('2021-08-17 07:04:16+0000', tz='UTC'), Timestamp('2021-07-13 22:52:30+0000', tz='UTC'), Timestamp('2021-07-15 01:34:48+0000', tz='UTC'), Timestamp('2021-07-25 19:57:34+0000', tz='UTC'), Timestamp('2021-09-03 05:22:49+0000', tz='UTC'), Timestamp('2021-08-17 11:11:01+0000', tz='UTC'), Timestamp('2021-08-11 21:30:43+0000', tz='UTC'), Timestamp('2021-07-25 00:10:23+0000', tz='UTC'), Timestamp('2021-07-15 11:09:03+0000', tz='UTC'), Timestamp('2021-07-28 08:09:23+0000', tz='UTC'), Timestamp('2021-08-22 09:32:10+0000', tz='UTC'), Timestamp('2021-07-14 08:08:11+0000', tz='UTC'), Timestamp('2021-08-04 19:51:30+0000', tz='UTC'), Timestamp('2021-08-28 07:54:22+0000', tz='UTC'), Timestamp('2021-07-23 07:29:05+0000', tz='UTC'), Timestamp('2021-07-13 18:52:02+0000', tz='UTC'), Timestamp('2021-07-18 16:21:08+0000', tz='UTC'), Timestamp('2021-07-27 08:05:18+0000', tz='UTC'), Timestamp('2021-08-25 12:10:53+0000', tz='UTC'), Timestamp('2021-09-03 02:18:52+0000', tz='UTC'), Timestamp('2021-08-14 11:10:29+0000', tz='UTC'), Timestamp('2021-07-12 01:53:06+0000', tz='UTC'), Timestamp('2021-07-25 13:56:55+0000', tz='UTC'), Timestamp('2021-07-19 09:11:12+0000', tz='UTC'), Timestamp('2021-08-23 10:11:16+0000', tz='UTC'), Timestamp('2021-07-28 15:20:07+0000', tz='UTC'), Timestamp('2021-07-29 08:08:18+0000', tz='UTC'), Timestamp('2021-08-26 03:12:24+0000', tz='UTC'), Timestamp('2021-08-10 04:29:13+0000', tz='UTC'), Timestamp('2021-07-11 10:51:15+0000', tz='UTC'), Timestamp('2021-07-13 05:14:22+0000', tz='UTC'), Timestamp('2021-07-23 22:04:07+0000', tz='UTC'), Timestamp('2021-07-29 02:54:20+0000', tz='UTC'), Timestamp('2021-08-25 21:11:49+0000', tz='UTC'), Timestamp('2021-07-22 16:24:37+0000', tz='UTC'), Timestamp('2021-07-19 21:18:49+0000', tz='UTC'), Timestamp('2021-08-15 06:15:53+0000', tz='UTC'), Timestamp('2021-08-04 15:51:03+0000', tz='UTC'), Timestamp('2021-07-30 15:31:51+0000', tz='UTC'), Timestamp('2021-08-08 11:27:48+0000', tz='UTC'), Timestamp('2021-09-03 13:11:45+0000', tz='UTC'), Timestamp('2021-08-04 00:56:53+0000', tz='UTC'), Timestamp('2021-08-27 11:10:07+0000', tz='UTC'), Timestamp('2021-09-02 18:21:30+0000', tz='UTC'), Timestamp('2021-08-07 05:26:47+0000', tz='UTC'), Timestamp('2021-07-16 12:23:57+0000', tz='UTC'), Timestamp('2021-08-25 07:07:25+0000', tz='UTC'), Timestamp('2021-07-20 03:49:41+0000', tz='UTC'), Timestamp('2021-08-25 08:07:28+0000', tz='UTC'), Timestamp('2021-08-31 23:10:34+0000', tz='UTC'), Timestamp('2021-08-07 18:27:16+0000', tz='UTC'), Timestamp('2021-07-26 05:31:37+0000', tz='UTC'), Timestamp('2021-08-05 03:24:55+0000', tz='UTC'), Timestamp('2021-08-31 13:09:25+0000', tz='UTC'), Timestamp('2021-09-03 06:22:55+0000', tz='UTC'), Timestamp('2021-08-29 11:09:38+0000', tz='UTC'), Timestamp('2021-08-25 00:15:41+0000', tz='UTC'), Timestamp('2021-08-21 08:11:10+0000', tz='UTC'), Timestamp('2021-07-24 05:05:07+0000', tz='UTC'), Timestamp('2021-08-26 10:10:06+0000', tz='UTC'), Timestamp('2021-08-18 06:13:49+0000', tz='UTC'), Timestamp('2021-07-25 15:57:09+0000', tz='UTC'), Timestamp('2021-07-29 16:11:06+0000', tz='UTC'), Timestamp('2021-09-03 02:22:27+0000', tz='UTC'), Timestamp('2021-08-04 12:50:30+0000', tz='UTC'), Timestamp('2021-08-25 13:10:59+0000', tz='UTC'), Timestamp('2021-07-15 16:36:37+0000', tz='UTC'), Timestamp('2021-07-29 22:14:50+0000', tz='UTC'), Timestamp('2021-08-16 12:10:51+0000', tz='UTC'), Timestamp('2021-08-21 10:05:16+0000', tz='UTC'), Timestamp('2021-07-28 14:02:51+0000', tz='UTC'), Timestamp('2021-08-04 18:51:20+0000', tz='UTC'), Timestamp('2021-08-19 00:13:22+0000', tz='UTC'), Timestamp('2021-08-18 03:13:24+0000', tz='UTC'), Timestamp('2021-09-03 15:11:59+0000', tz='UTC'), Timestamp('2021-08-26 04:12:30+0000', tz='UTC'), Timestamp('2021-09-02 20:21:44+0000', tz='UTC'), Timestamp('2021-08-24 05:55:42+0000', tz='UTC'), Timestamp('2021-07-22 13:55:40+0000', tz='UTC'), Timestamp('2021-09-01 21:13:06+0000', tz='UTC'), Timestamp('2021-07-25 05:10:54+0000', tz='UTC'), Timestamp('2021-07-25 22:57:54+0000', tz='UTC'), Timestamp('2021-07-13 00:19:49+0000', tz='UTC'), Timestamp('2021-07-27 05:59:04+0000', tz='UTC'), Timestamp('2021-08-09 06:28:27+0000', tz='UTC'), Timestamp('2021-07-26 10:11:38+0000', tz='UTC'), Timestamp('2021-08-29 06:45:11+0000', tz='UTC'), Timestamp('2021-07-11 09:09:01+0000', tz='UTC'), Timestamp('2021-08-03 10:10:01+0000', tz='UTC'), Timestamp('2021-08-15 18:08:17+0000', tz='UTC'), Timestamp('2021-08-23 14:11:49+0000', tz='UTC'), Timestamp('2021-07-18 16:51:09+0000', tz='UTC'), Timestamp('2021-08-12 00:00:51+0000', tz='UTC'), Timestamp('2021-07-13 21:52:22+0000', tz='UTC'), Timestamp('2021-07-15 00:34:40+0000', tz='UTC'), Timestamp('2021-07-12 08:08:51+0000', tz='UTC'), Timestamp('2021-08-18 21:13:02+0000', tz='UTC'), Timestamp('2021-07-28 23:54:03+0000', tz='UTC'), Timestamp('2021-08-29 02:44:43+0000', tz='UTC'), Timestamp('2021-08-07 13:27:03+0000', tz='UTC'), Timestamp('2021-07-29 07:54:51+0000', tz='UTC'), Timestamp('2021-07-13 19:52:11+0000', tz='UTC'), Timestamp('2021-07-29 09:10:05+0000', tz='UTC'), Timestamp('2021-08-02 14:16:29+0000', tz='UTC'), Timestamp('2021-07-21 01:49:42+0000', tz='UTC'), Timestamp('2021-09-02 10:20:37+0000', tz='UTC'), Timestamp('2021-07-22 08:08:34+0000', tz='UTC'), Timestamp('2021-07-19 13:02:46+0000', tz='UTC'), Timestamp('2021-07-31 17:53:02+0000', tz='UTC'), Timestamp('2021-08-01 00:53:56+0000', tz='UTC'), Timestamp('2021-08-03 18:56:07+0000', tz='UTC'), Timestamp('2021-07-31 10:10:04+0000', tz='UTC'), Timestamp('2021-07-23 04:28:46+0000', tz='UTC'), Timestamp('2021-08-30 14:09:44+0000', tz='UTC'), Timestamp('2021-08-27 14:10:27+0000', tz='UTC'), Timestamp('2021-08-31 00:19:59+0000', tz='UTC'), Timestamp('2021-08-22 21:03:20+0000', tz='UTC'), Timestamp('2021-08-27 07:42:34+0000', tz='UTC'), Timestamp('2021-07-29 01:54:12+0000', tz='UTC'), Timestamp('2021-07-22 15:24:29+0000', tz='UTC'), Timestamp('2021-08-08 22:28:11+0000', tz='UTC'), Timestamp('2021-08-22 02:31:23+0000', tz='UTC'), Timestamp('2021-08-04 14:50:55+0000', tz='UTC'), Timestamp('2021-08-12 08:10:35+0000', tz='UTC'), Timestamp('2021-09-01 11:08:57+0000', tz='UTC'), Timestamp('2021-08-29 22:10:59+0000', tz='UTC'), Timestamp('2021-09-02 14:08:54+0000', tz='UTC'), Timestamp('2021-07-26 12:10:14+0000', tz='UTC'), Timestamp('2021-08-05 08:25:07+0000', tz='UTC'), Timestamp('2021-08-19 13:12:07+0000', tz='UTC'), Timestamp('2021-08-01 08:09:52+0000', tz='UTC'), Timestamp('2021-08-05 11:25:13+0000', tz='UTC'), Timestamp('2021-07-23 09:11:20+0000', tz='UTC'), Timestamp('2021-08-31 12:09:17+0000', tz='UTC'), Timestamp('2021-07-29 19:11:26+0000', tz='UTC'), Timestamp('2021-08-02 02:21:08+0000', tz='UTC'), Timestamp('2021-08-03 09:09:50+0000', tz='UTC'), Timestamp('2021-08-05 14:25:19+0000', tz='UTC'), Timestamp('2021-08-05 15:25:22+0000', tz='UTC'), Timestamp('2021-07-25 02:10:33+0000', tz='UTC'), Timestamp('2021-07-25 20:39:27+0000', tz='UTC'), Timestamp('2021-07-22 20:28:00+0000', tz='UTC'), Timestamp('2021-07-31 02:33:09+0000', tz='UTC'), Timestamp('2021-07-24 23:10:16+0000', tz='UTC'), Timestamp('2021-08-23 20:54:37+0000', tz='UTC'), Timestamp('2021-08-06 12:26:11+0000', tz='UTC'), Timestamp('2021-08-04 07:58:13+0000', tz='UTC'), Timestamp('2021-08-18 05:13:41+0000', tz='UTC'), Timestamp('2021-08-19 03:13:42+0000', tz='UTC'), Timestamp('2021-07-11 21:52:39+0000', tz='UTC'), Timestamp('2021-09-02 23:22:04+0000', tz='UTC'), Timestamp('2021-08-20 13:12:01+0000', tz='UTC'), Timestamp('2021-07-09 13:42:33+0000', tz='UTC'), Timestamp('2021-07-29 21:14:42+0000', tz='UTC'), Timestamp('2021-08-16 11:10:43+0000', tz='UTC'), Timestamp('2021-07-22 18:24:46+0000', tz='UTC'), Timestamp('2021-07-25 12:56:50+0000', tz='UTC'), Timestamp('2021-08-08 06:27:39+0000', tz='UTC'), Timestamp('2021-07-19 12:59:46+0000', tz='UTC'), Timestamp('2021-08-02 18:17:02+0000', tz='UTC'), Timestamp('2021-08-21 13:11:44+0000', tz='UTC'), Timestamp('2021-07-23 21:04:02+0000', tz='UTC'), Timestamp('2021-08-02 12:10:15+0000', tz='UTC'), Timestamp('2021-09-02 19:21:36+0000', tz='UTC'), Timestamp('2021-07-27 10:11:35+0000', tz='UTC'), Timestamp('2021-08-19 23:20:33+0000', tz='UTC'), Timestamp('2021-07-30 09:22:10+0000', tz='UTC'), Timestamp('2021-08-14 06:30:59+0000', tz='UTC'), Timestamp('2021-08-09 08:28:34+0000', tz='UTC'), Timestamp('2021-08-13 14:32:09+0000', tz='UTC'), Timestamp('2021-08-09 11:28:40+0000', tz='UTC'), Timestamp('2021-08-28 21:10:57+0000', tz='UTC'), Timestamp('2021-08-03 08:08:20+0000', tz='UTC'), Timestamp('2021-07-19 19:18:31+0000', tz='UTC'), Timestamp('2021-08-29 03:44:52+0000', tz='UTC'), Timestamp('2021-09-01 08:08:35+0000', tz='UTC'), Timestamp('2021-07-16 05:14:08+0000', tz='UTC'), Timestamp('2021-08-18 12:11:53+0000', tz='UTC'), Timestamp('2021-07-23 15:12:13+0000', tz='UTC'), Timestamp('2021-07-19 06:04:51+0000', tz='UTC'), Timestamp('2021-07-17 08:11:14+0000', tz='UTC'), Timestamp('2021-08-05 16:25:23+0000', tz='UTC'), Timestamp('2021-08-19 10:11:45+0000', tz='UTC'), Timestamp('2021-07-24 21:10:02+0000', tz='UTC'), Timestamp('2021-08-15 15:04:55+0000', tz='UTC'), Timestamp('2021-07-09 17:31:21+0000', tz='UTC'), Timestamp('2021-08-02 14:10:29+0000', tz='UTC'), Timestamp('2021-07-11 12:51:27+0000', tz='UTC'), Timestamp('2021-08-26 06:12:39+0000', tz='UTC'), Timestamp('2021-08-10 12:28:56+0000', tz='UTC'), Timestamp('2021-08-23 17:54:15+0000', tz='UTC'), Timestamp('2021-07-24 03:04:49+0000', tz='UTC'), Timestamp('2021-08-15 13:04:44+0000', tz='UTC'), Timestamp('2021-08-15 18:38:21+0000', tz='UTC'), Timestamp('2021-08-12 11:10:55+0000', tz='UTC'), Timestamp('2021-08-28 03:53:55+0000', tz='UTC'), Timestamp('2021-08-16 07:40:05+0000', tz='UTC'), Timestamp('2021-08-25 06:13:18+0000', tz='UTC'), Timestamp('2021-08-02 05:21:28+0000', tz='UTC'), Timestamp('2021-08-30 11:09:25+0000', tz='UTC'), Timestamp('2021-08-08 14:27:55+0000', tz='UTC'), Timestamp('2021-07-11 00:46:55+0000', tz='UTC'), Timestamp('2021-07-22 23:28:20+0000', tz='UTC'), Timestamp('2021-08-21 10:11:22+0000', tz='UTC'), Timestamp('2021-09-02 08:38:16+0000', tz='UTC'), Timestamp('2021-08-20 17:51:35+0000', tz='UTC'), Timestamp('2021-07-27 09:11:25+0000', tz='UTC'), Timestamp('2021-07-21 04:50:05+0000', tz='UTC'), Timestamp('2021-07-10 12:33:22+0000', tz='UTC'), Timestamp('2021-08-09 12:30:05+0000', tz='UTC'), Timestamp('2021-07-23 08:11:12+0000', tz='UTC'), Timestamp('2021-08-09 19:28:55+0000', tz='UTC'), Timestamp('2021-09-02 14:21:03+0000', tz='UTC'), Timestamp('2021-09-03 11:11:30+0000', tz='UTC'), Timestamp('2021-08-25 15:11:11+0000', tz='UTC'), Timestamp('2021-07-17 09:11:20+0000', tz='UTC'), Timestamp('2021-07-16 03:13:54+0000', tz='UTC'), Timestamp('2021-07-28 03:17:45+0000', tz='UTC'), Timestamp('2021-07-20 15:48:30+0000', tz='UTC'), Timestamp('2021-07-27 11:53:17+0000', tz='UTC'), Timestamp('2021-08-28 00:11:28+0000', tz='UTC'), Timestamp('2021-07-24 22:10:08+0000', tz='UTC'), Timestamp('2021-07-12 03:53:21+0000', tz='UTC'), Timestamp('2021-08-26 09:02:48+0000', tz='UTC'), Timestamp('2021-07-31 11:10:10+0000', tz='UTC'), Timestamp('2021-07-22 13:54:16+0000', tz='UTC'), Timestamp('2021-07-21 09:08:38+0000', tz='UTC'), Timestamp('2021-08-03 17:56:02+0000', tz='UTC'), Timestamp('2021-07-30 12:22:30+0000', tz='UTC'), Timestamp('2021-07-13 02:20:01+0000', tz='UTC'), Timestamp('2021-08-27 13:10:22+0000', tz='UTC'), Timestamp('2021-07-20 01:19:20+0000', tz='UTC'), Timestamp('2021-08-23 14:51:10+0000', tz='UTC'), Timestamp('2021-07-31 14:10:46+0000', tz='UTC'), Timestamp('2021-08-02 11:10:07+0000', tz='UTC'), Timestamp('2021-07-14 05:53:18+0000', tz='UTC'), Timestamp('2021-07-27 01:07:32+0000', tz='UTC'), Timestamp('2021-08-18 08:11:09+0000', tz='UTC'), Timestamp('2021-08-09 13:28:46+0000', tz='UTC'), Timestamp('2021-08-11 00:29:52+0000', tz='UTC'), Timestamp('2021-07-12 10:09:03+0000', tz='UTC'), Timestamp('2021-07-14 14:27:30+0000', tz='UTC'), Timestamp('2021-08-17 05:29:40+0000', tz='UTC'), Timestamp('2021-07-19 10:41:22+0000', tz='UTC'), Timestamp('2021-09-01 08:02:14+0000', tz='UTC'), Timestamp('2021-07-19 20:18:40+0000', tz='UTC'), Timestamp('2021-08-20 08:11:26+0000', tz='UTC'), Timestamp('2021-07-28 05:20:51+0000', tz='UTC'), Timestamp('2021-07-21 15:33:50+0000', tz='UTC'), Timestamp('2021-08-05 20:25:37+0000', tz='UTC'), Timestamp('2021-07-25 18:57:27+0000', tz='UTC'), Timestamp('2021-08-15 18:05:15+0000', tz='UTC'), Timestamp('2021-07-30 00:15:04+0000', tz='UTC'), Timestamp('2021-07-26 19:06:49+0000', tz='UTC'), Timestamp('2021-08-30 23:19:49+0000', tz='UTC'), Timestamp('2021-07-14 11:09:02+0000', tz='UTC'), Timestamp('2021-08-06 02:25:49+0000', tz='UTC'), Timestamp('2021-08-18 11:11:45+0000', tz='UTC'), Timestamp('2021-08-06 05:25:55+0000', tz='UTC'), Timestamp('2021-08-15 01:15:16+0000', tz='UTC'), Timestamp('2021-07-30 20:32:23+0000', tz='UTC'), Timestamp('2021-08-06 08:36:09+0000', tz='UTC'), Timestamp('2021-09-02 07:37:57+0000', tz='UTC'), Timestamp('2021-07-21 23:16:29+0000', tz='UTC'), Timestamp('2021-07-26 15:06:21+0000', tz='UTC'), Timestamp('2021-07-11 11:51:19+0000', tz='UTC'), Timestamp('2021-08-14 10:10:22+0000', tz='UTC'), Timestamp('2021-07-19 08:11:05+0000', tz='UTC'), Timestamp('2021-07-28 08:08:16+0000', tz='UTC'), Timestamp('2021-08-15 12:04:36+0000', tz='UTC'), Timestamp('2021-08-17 18:12:17+0000', tz='UTC'), Timestamp('2021-08-25 09:10:35+0000', tz='UTC'), Timestamp('2021-08-18 01:13:11+0000', tz='UTC'), Timestamp('2021-07-15 12:36:13+0000', tz='UTC'), Timestamp('2021-08-24 19:12:10+0000', tz='UTC'), Timestamp('2021-08-25 20:11:42+0000', tz='UTC'), Timestamp('2021-08-18 23:40:50+0000', tz='UTC'), Timestamp('2021-08-01 14:01:32+0000', tz='UTC'), Timestamp('2021-08-27 10:10:00+0000', tz='UTC'), Timestamp('2021-07-16 14:57:15+0000', tz='UTC'), Timestamp('2021-08-10 23:29:50+0000', tz='UTC'), Timestamp('2021-08-24 04:55:33+0000', tz='UTC'), Timestamp('2021-07-18 05:26:00+0000', tz='UTC'), Timestamp('2021-08-02 16:16:44+0000', tz='UTC'), Timestamp('2021-08-20 16:51:27+0000', tz='UTC'), Timestamp('2021-08-07 14:27:04+0000', tz='UTC'), Timestamp('2021-07-18 11:56:37+0000', tz='UTC'), Timestamp('2021-08-25 18:35:12+0000', tz='UTC'), Timestamp('2021-08-27 19:10:56+0000', tz='UTC'), Timestamp('2021-08-22 04:58:41+0000', tz='UTC'), Timestamp('2021-08-14 12:13:39+0000', tz='UTC'), Timestamp('2021-08-21 09:11:15+0000', tz='UTC'), Timestamp('2021-09-01 16:12:29+0000', tz='UTC'), Timestamp('2021-07-29 08:09:55+0000', tz='UTC'), Timestamp('2021-07-15 07:35:32+0000', tz='UTC'), Timestamp('2021-08-03 02:17:58+0000', tz='UTC'), Timestamp('2021-08-08 12:23:03+0000', tz='UTC'), Timestamp('2021-08-25 09:21:35+0000', tz='UTC'), Timestamp('2021-08-17 20:12:31+0000', tz='UTC'), Timestamp('2021-07-15 15:36:30+0000', tz='UTC'), Timestamp('2021-08-20 22:52:09+0000', tz='UTC'), Timestamp('2021-08-07 08:08:22+0000', tz='UTC'), Timestamp('2021-07-21 08:08:30+0000', tz='UTC'), Timestamp('2021-09-03 01:22:21+0000', tz='UTC'), Timestamp('2021-08-04 17:51:13+0000', tz='UTC'), Timestamp('2021-07-24 09:08:31+0000', tz='UTC'), Timestamp('2021-07-25 21:57:47+0000', tz='UTC'), Timestamp('2021-07-10 08:08:50+0000', tz='UTC'), Timestamp('2021-08-20 22:29:28+0000', tz='UTC'), Timestamp('2021-07-12 15:55:37+0000', tz='UTC'), Timestamp('2021-09-01 00:10:41+0000', tz='UTC'), Timestamp('2021-07-16 18:07:32+0000', tz='UTC'), Timestamp('2021-07-14 13:09:19+0000', tz='UTC'), Timestamp('2021-08-14 08:08:30+0000', tz='UTC'), Timestamp('2021-08-02 10:10:00+0000', tz='UTC'), Timestamp('2021-07-24 08:08:18+0000', tz='UTC'), Timestamp('2021-07-19 08:05:03+0000', tz='UTC'), Timestamp('2021-08-07 21:27:21+0000', tz='UTC'), Timestamp('2021-08-22 01:31:14+0000', tz='UTC'), Timestamp('2021-08-16 19:59:48+0000', tz='UTC'), Timestamp('2021-07-15 16:42:36+0000', tz='UTC'), Timestamp('2021-08-05 19:25:29+0000', tz='UTC'), Timestamp('2021-08-05 13:25:18+0000', tz='UTC'), Timestamp('2021-08-14 13:13:45+0000', tz='UTC'), Timestamp('2021-08-21 18:12:22+0000', tz='UTC'), Timestamp('2021-08-25 14:11:06+0000', tz='UTC'), Timestamp('2021-08-30 22:19:41+0000', tz='UTC'), Timestamp('2021-08-17 05:04:02+0000', tz='UTC'), Timestamp('2021-07-18 07:59:15+0000', tz='UTC'), Timestamp('2021-08-06 13:26:13+0000', tz='UTC'), Timestamp('2021-07-30 19:32:15+0000', tz='UTC'), Timestamp('2021-07-15 18:12:47+0000', tz='UTC'), Timestamp('2021-08-24 22:12:30+0000', tz='UTC'), Timestamp('2021-07-29 14:10:48+0000', tz='UTC'), Timestamp('2021-08-25 05:01:11+0000', tz='UTC'), Timestamp('2021-08-16 08:08:28+0000', tz='UTC'), Timestamp('2021-08-11 12:19:52+0000', tz='UTC'), Timestamp('2021-08-19 09:11:33+0000', tz='UTC'), Timestamp('2021-08-18 02:13:20+0000', tz='UTC'), Timestamp('2021-08-08 07:27:41+0000', tz='UTC'), Timestamp('2021-08-19 08:08:27+0000', tz='UTC'), Timestamp('2021-07-18 03:16:44+0000', tz='UTC'), Timestamp('2021-08-10 12:29:27+0000', tz='UTC'), Timestamp('2021-08-24 18:12:02+0000', tz='UTC'), Timestamp('2021-08-10 15:29:33+0000', tz='UTC'), Timestamp('2021-09-02 01:13:33+0000', tz='UTC'), Timestamp('2021-09-02 16:21:15+0000', tz='UTC'), Timestamp('2021-07-17 04:04:51+0000', tz='UTC'), Timestamp('2021-08-25 17:11:23+0000', tz='UTC'), Timestamp('2021-08-24 03:55:25+0000', tz='UTC'), Timestamp('2021-08-09 16:28:50+0000', tz='UTC'), Timestamp('2021-08-23 08:07:59+0000', tz='UTC'), Timestamp('2021-08-02 15:16:36+0000', tz='UTC'), Timestamp('2021-08-11 08:08:27+0000', tz='UTC'), Timestamp('2021-07-30 13:31:37+0000', tz='UTC'), Timestamp('2021-08-29 21:10:53+0000', tz='UTC'), Timestamp('2021-08-20 15:51:19+0000', tz='UTC'), Timestamp('2021-07-15 20:13:01+0000', tz='UTC'), Timestamp('2021-08-16 13:11:01+0000', tz='UTC'), Timestamp('2021-09-02 08:08:31+0000', tz='UTC'), Timestamp('2021-08-05 08:08:20+0000', tz='UTC'), Timestamp('2021-09-03 04:22:41+0000', tz='UTC'), Timestamp('2021-08-04 02:57:17+0000', tz='UTC'), Timestamp('2021-08-19 02:13:35+0000', tz='UTC'), Timestamp('2021-08-02 08:33:33+0000', tz='UTC'), Timestamp('2021-09-01 13:12:10+0000', tz='UTC'), Timestamp('2021-08-10 05:35:51+0000', tz='UTC'), Timestamp('2021-07-22 02:16:57+0000', tz='UTC'), Timestamp('2021-08-10 05:29:15+0000', tz='UTC'), Timestamp('2021-08-12 17:02:39+0000', tz='UTC'), Timestamp('2021-07-24 20:09:53+0000', tz='UTC'), Timestamp('2021-08-03 01:17:51+0000', tz='UTC'), Timestamp('2021-08-10 08:29:21+0000', tz='UTC'), Timestamp('2021-07-26 14:05:27+0000', tz='UTC'), Timestamp('2021-08-10 02:29:10+0000', tz='UTC'), Timestamp('2021-07-14 23:34:32+0000', tz='UTC'), Timestamp('2021-08-27 06:42:30+0000', tz='UTC'), Timestamp('2021-08-02 13:10:20+0000', tz='UTC'), Timestamp('2021-07-12 07:43:07+0000', tz='UTC'), Timestamp('2021-08-19 06:14:05+0000', tz='UTC'), Timestamp('2021-08-20 10:11:38+0000', tz='UTC'), Timestamp('2021-08-07 03:26:44+0000', tz='UTC'), Timestamp('2021-08-08 19:28:05+0000', tz='UTC'), Timestamp('2021-08-21 21:12:42+0000', tz='UTC'), Timestamp('2021-08-14 05:30:52+0000', tz='UTC'), Timestamp('2021-07-26 21:07:01+0000', tz='UTC'), Timestamp('2021-08-29 04:44:56+0000', tz='UTC'), Timestamp('2021-08-13 13:32:02+0000', tz='UTC'), Timestamp('2021-07-28 02:17:14+0000', tz='UTC'), Timestamp('2021-07-18 00:16:22+0000', tz='UTC'), Timestamp('2021-07-15 08:08:10+0000', tz='UTC'), Timestamp('2021-07-25 20:57:40+0000', tz='UTC'), Timestamp('2021-07-28 07:51:20+0000', tz='UTC'), Timestamp('2021-08-09 23:29:02+0000', tz='UTC'), Timestamp('2021-08-02 13:37:34+0000', tz='UTC'), Timestamp('2021-08-05 07:25:04+0000', tz='UTC'), Timestamp('2021-07-18 10:56:32+0000', tz='UTC'), Timestamp('2021-07-09 12:12:21+0000', tz='UTC'), Timestamp('2021-07-16 04:14:01+0000', tz='UTC'), Timestamp('2021-07-13 12:09:09+0000', tz='UTC'), Timestamp('2021-08-03 08:08:57+0000', tz='UTC'), Timestamp('2021-07-31 01:33:05+0000', tz='UTC'), Timestamp('2021-08-03 14:10:36+0000', tz='UTC'), Timestamp('2021-08-21 17:12:14+0000', tz='UTC'), Timestamp('2021-07-13 08:08:11+0000', tz='UTC'), Timestamp('2021-08-24 00:55:03+0000', tz='UTC'), Timestamp('2021-08-01 19:02:09+0000', tz='UTC'), Timestamp('2021-07-28 12:37:37+0000', tz='UTC'), Timestamp('2021-08-13 03:03:50+0000', tz='UTC'), Timestamp('2021-08-29 18:10:31+0000', tz='UTC'), Timestamp('2021-07-15 16:42:23+0000', tz='UTC'), Timestamp('2021-08-06 21:26:31+0000', tz='UTC'), Timestamp('2021-08-25 22:11:54+0000', tz='UTC'), Timestamp('2021-08-30 21:19:34+0000', tz='UTC'), Timestamp('2021-08-16 16:59:30+0000', tz='UTC'), Timestamp('2021-08-23 16:54:08+0000', tz='UTC'), Timestamp('2021-08-18 10:11:33+0000', tz='UTC'), Timestamp('2021-07-12 02:53:12+0000', tz='UTC'), Timestamp('2021-07-25 14:57:01+0000', tz='UTC'), Timestamp('2021-08-10 08:08:27+0000', tz='UTC'), Timestamp('2021-09-03 13:04:02+0000', tz='UTC'), Timestamp('2021-07-18 22:03:47+0000', tz='UTC'), Timestamp('2021-08-29 16:22:28+0000', tz='UTC'), Timestamp('2021-07-20 06:49:58+0000', tz='UTC'), Timestamp('2021-08-09 20:14:37+0000', tz='UTC'), Timestamp('2021-07-31 23:53:49+0000', tz='UTC'), Timestamp('2021-08-12 10:10:49+0000', tz='UTC'), Timestamp('2021-08-09 04:28:24+0000', tz='UTC'), Timestamp('2021-07-09 15:33:06+0000', tz='UTC'), Timestamp('2021-07-30 16:31:57+0000', tz='UTC'), Timestamp('2021-08-12 14:02:17+0000', tz='UTC'), Timestamp('2021-07-24 17:09:31+0000', tz='UTC'), Timestamp('2021-07-18 13:56:49+0000', tz='UTC'), Timestamp('2021-08-01 23:20:43+0000', tz='UTC'), Timestamp('2021-08-07 10:26:56+0000', tz='UTC'), Timestamp('2021-08-14 03:03:14+0000', tz='UTC'), Timestamp('2021-08-16 02:21:36+0000', tz='UTC'), Timestamp('2021-08-31 14:09:31+0000', tz='UTC'), Timestamp('2021-08-30 06:11:53+0000', tz='UTC'), Timestamp('2021-07-21 03:49:58+0000', tz='UTC'), Timestamp('2021-07-22 07:17:28+0000', tz='UTC'), Timestamp('2021-07-13 05:44:22+0000', tz='UTC'), Timestamp('2021-07-11 07:47:50+0000', tz='UTC'), Timestamp('2021-08-05 21:25:39+0000', tz='UTC'), Timestamp('2021-07-29 17:11:11+0000', tz='UTC'), Timestamp('2021-07-21 11:08:56+0000', tz='UTC'), Timestamp('2021-08-02 08:09:47+0000', tz='UTC'), Timestamp('2021-08-29 01:44:34+0000', tz='UTC'), Timestamp('2021-08-12 20:02:59+0000', tz='UTC'), Timestamp('2021-08-02 14:13:31+0000', tz='UTC'), Timestamp('2021-08-02 00:20:54+0000', tz='UTC'), Timestamp('2021-08-23 11:11:24+0000', tz='UTC'), Timestamp('2021-08-24 21:12:25+0000', tz='UTC'), Timestamp('2021-07-18 09:11:24+0000', tz='UTC'), Timestamp('2021-08-25 23:12:00+0000', tz='UTC'), Timestamp('2021-08-24 19:13:03+0000', tz='UTC'), Timestamp('2021-07-28 15:00:43+0000', tz='UTC'), Timestamp('2021-08-30 08:37:02+0000', tz='UTC'), Timestamp('2021-08-10 00:29:04+0000', tz='UTC'), Timestamp('2021-08-01 16:01:47+0000', tz='UTC'), Timestamp('2021-07-22 01:16:49+0000', tz='UTC'), Timestamp('2021-08-12 16:02:31+0000', tz='UTC'), Timestamp('2021-09-01 05:44:18+0000', tz='UTC'), Timestamp('2021-08-30 00:11:15+0000', tz='UTC'), Timestamp('2021-09-02 03:13:42+0000', tz='UTC'), Timestamp('2021-08-13 22:54:09+0000', tz='UTC'), Timestamp('2021-08-07 08:10:21+0000', tz='UTC'), Timestamp('2021-07-19 01:04:09+0000', tz='UTC'), Timestamp('2021-07-27 02:07:37+0000', tz='UTC'), Timestamp('2021-08-17 17:12:08+0000', tz='UTC'), Timestamp('2021-08-22 22:06:47+0000', tz='UTC'), Timestamp('2021-08-04 04:57:46+0000', tz='UTC'), Timestamp('2021-08-27 03:42:11+0000', tz='UTC'), Timestamp('2021-08-13 12:31:54+0000', tz='UTC'), Timestamp('2021-07-28 01:17:06+0000', tz='UTC'), Timestamp('2021-07-13 20:52:16+0000', tz='UTC'), Timestamp('2021-08-04 13:50:47+0000', tz='UTC'), Timestamp('2021-08-05 12:25:16+0000', tz='UTC'), Timestamp('2021-08-22 09:11:10+0000', tz='UTC'), Timestamp('2021-08-01 08:08:22+0000', tz='UTC'), Timestamp('2021-07-08 23:06:05+0000', tz='UTC'), Timestamp('2021-07-26 18:06:42+0000', tz='UTC'), Timestamp('2021-07-10 23:46:45+0000', tz='UTC'), Timestamp('2021-07-31 12:49:23+0000', tz='UTC'), Timestamp('2021-07-17 22:16:10+0000', tz='UTC'), Timestamp('2021-07-27 20:16:04+0000', tz='UTC'), Timestamp('2021-08-22 03:58:31+0000', tz='UTC'), Timestamp('2021-08-15 17:05:09+0000', tz='UTC'), Timestamp('2021-08-31 11:09:09+0000', tz='UTC'), Timestamp('2021-07-21 00:49:36+0000', tz='UTC'), Timestamp('2021-08-20 06:44:16+0000', tz='UTC'), Timestamp('2021-07-28 11:37:29+0000', tz='UTC'), Timestamp('2021-08-18 00:19:10+0000', tz='UTC'), Timestamp('2021-07-10 05:41:32+0000', tz='UTC'), Timestamp('2021-08-14 00:30:17+0000', tz='UTC'), Timestamp('2021-09-02 06:13:59+0000', tz='UTC'), Timestamp('2021-08-29 00:44:24+0000', tz='UTC'), Timestamp('2021-07-14 06:53:25+0000', tz='UTC'), Timestamp('2021-08-15 00:15:10+0000', tz='UTC'), Timestamp('2021-07-12 13:09:27+0000', tz='UTC'), Timestamp('2021-07-26 07:31:54+0000', tz='UTC'), Timestamp('2021-08-28 22:17:05+0000', tz='UTC'), Timestamp('2021-07-19 16:51:14+0000', tz='UTC'), Timestamp('2021-07-27 06:05:05+0000', tz='UTC'), Timestamp('2021-08-15 10:10:22+0000', tz='UTC'), Timestamp('2021-08-09 09:28:36+0000', tz='UTC'), Timestamp('2021-08-18 08:08:25+0000', tz='UTC'), Timestamp('2021-07-20 05:49:50+0000', tz='UTC'), Timestamp('2021-07-25 11:56:42+0000', tz='UTC'), Timestamp('2021-08-13 08:04:24+0000', tz='UTC'), Timestamp('2021-08-27 22:11:17+0000', tz='UTC'), Timestamp('2021-08-01 15:01:37+0000', tz='UTC'), Timestamp('2021-08-11 08:30:14+0000', tz='UTC'), Timestamp('2021-08-03 23:56:46+0000', tz='UTC'), Timestamp('2021-07-30 08:22:01+0000', tz='UTC'), Timestamp('2021-08-21 20:12:37+0000', tz='UTC'), Timestamp('2021-07-30 04:15:26+0000', tz='UTC'), Timestamp('2021-07-10 15:35:47+0000', tz='UTC'), Timestamp('2021-08-16 15:59:03+0000', tz='UTC'), Timestamp('2021-08-05 04:24:56+0000', tz='UTC'), Timestamp('2021-08-07 22:27:23+0000', tz='UTC'), Timestamp('2021-07-21 02:49:50+0000', tz='UTC'), Timestamp('2021-08-15 08:08:27+0000', tz='UTC'), Timestamp('2021-07-20 10:11:26+0000', tz='UTC'), Timestamp('2021-08-20 02:58:46+0000', tz='UTC'), Timestamp('2021-08-28 12:09:51+0000', tz='UTC'), Timestamp('2021-08-27 18:10:49+0000', tz='UTC'), Timestamp('2021-08-22 21:06:37+0000', tz='UTC'), Timestamp('2021-08-27 02:42:01+0000', tz='UTC'), Timestamp('2021-08-17 10:10:48+0000', tz='UTC'), Timestamp('2021-08-06 14:26:14+0000', tz='UTC'), Timestamp('2021-08-23 04:07:32+0000', tz='UTC'), Timestamp('2021-08-31 07:32:44+0000', tz='UTC'), Timestamp('2021-08-14 01:30:23+0000', tz='UTC'), Timestamp('2021-08-30 03:11:35+0000', tz='UTC'), Timestamp('2021-07-10 20:46:23+0000', tz='UTC'), Timestamp('2021-08-06 08:08:30+0000', tz='UTC'), Timestamp('2021-09-01 12:09:14+0000', tz='UTC'), Timestamp('2021-07-25 17:28:07+0000', tz='UTC'), Timestamp('2021-07-27 23:16:43+0000', tz='UTC'), Timestamp('2021-08-31 05:32:33+0000', tz='UTC'), Timestamp('2021-08-04 05:57:54+0000', tz='UTC'), Timestamp('2021-08-28 04:53:58+0000', tz='UTC'), Timestamp('2021-07-20 08:08:13+0000', tz='UTC'), Timestamp('2021-08-08 15:27:57+0000', tz='UTC'), Timestamp('2021-08-12 23:03:21+0000', tz='UTC'), Timestamp('2021-08-24 08:10:57+0000', tz='UTC'), Timestamp('2021-08-10 19:29:40+0000', tz='UTC'), Timestamp('2021-08-08 18:28:03+0000', tz='UTC'), Timestamp('2021-08-28 02:53:47+0000', tz='UTC'), Timestamp('2021-08-11 07:30:12+0000', tz='UTC'), Timestamp('2021-07-28 09:37:02+0000', tz='UTC'), Timestamp('2021-08-30 08:08:30+0000', tz='UTC'), Timestamp('2021-07-20 14:26:57+0000', tz='UTC'), Timestamp('2021-07-19 00:04:01+0000', tz='UTC'), Timestamp('2021-08-27 20:11:03+0000', tz='UTC'), Timestamp('2021-08-09 20:28:57+0000', tz='UTC'), Timestamp('2021-07-12 07:43:38+000</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-28 23:54:12+0000', tz='UTC'), Timestamp('2021-08-30 01:17:30+0000', tz='UTC'), Timestamp('2021-08-29 21:04:25+0000', tz='UTC'), Timestamp('2021-08-22 23:45:20+0000', tz='UTC'), Timestamp('2021-08-23 03:19:19+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-23 09:50:47+0000', tz='UTC'), Timestamp('2021-08-23 09:28:26+0000', tz='UTC'), Timestamp('2021-08-28 19:14:18+0000', tz='UTC'), Timestamp('2021-08-30 08:16:01+0000', tz='UTC'), Timestamp('2021-08-30 05:56:09+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-25 20:41:55+0000', tz='UTC'), Timestamp('2021-08-25 20:42:06+0000', tz='UTC'), Timestamp('2021-08-06 11:58:34+0000', tz='UTC'), Timestamp('2021-08-12 12:45:56+0000', tz='UTC'), Timestamp('2021-08-31 19:28:06+0000', tz='UTC'), Timestamp('2021-08-31 19:29:25+0000', tz='UTC'), Timestamp('2021-08-11 15:18:30+0000', tz='UTC'), Timestamp('2021-08-25 20:42:19+0000', tz='UTC'), Timestamp('2021-08-17 19:11:39+0000', tz='UTC'), Timestamp('2021-08-17 19:11:15+0000', tz='UTC'), Timestamp('2021-08-17 12:11:45+0000', tz='UTC'), Timestamp('2021-08-17 19:08:38+0000', tz='UTC'), Timestamp('2021-08-11 15:20:06+0000', tz='UTC'), Timestamp('2021-08-18 19:42:47+0000', tz='UTC'), Timestamp('2021-08-17 19:11:56+0000', tz='UTC'), Timestamp('2021-08-06 11:58:13+0000', tz='UTC'), Timestamp('2021-08-12 12:45:46+0000', tz='UTC'), Timestamp('2021-08-17 12:12:26+0000', tz='UTC'), Timestamp('2021-08-17 12:12:13+0000', tz='UTC'), Timestamp('2021-08-17 14:08:43+0000', tz='UTC'), Timestamp('2021-08-05 12:30:42+0000', tz='UTC'), Timestamp('2021-08-17 19:11:16+0000', tz='UTC'), Timestamp('2021-08-18 19:42:49+0000', tz='UTC'), Timestamp('2021-08-16 16:10:02+0000', tz='UTC'), Timestamp('2021-08-25 20:41:58+0000', tz='UTC'), Timestamp('2021-08-17 19:11:18+0000', tz='UTC'), Timestamp('2021-08-06 11:58:30+0000', tz='UTC'), Timestamp('2021-08-17 14:09:00+0000', tz='UTC'), Timestamp('2021-08-06 11:58:19+0000', tz='UTC'), Timestamp('2021-08-05 12:30:59+0000', tz='UTC'), Timestamp('2021-08-11 15:20:12+0000', tz='UTC'), Timestamp('2021-08-16 16:10:04+0000', tz='UTC'), Timestamp('2021-08-31 19:28:02+0000', tz='UTC'), Timestamp('2021-08-25 20:42:55+0000', tz='UTC'), Timestamp('2021-08-25 20:42:15+0000', tz='UTC'), Timestamp('2021-08-06 11:58:32+0000', tz='UTC'), Timestamp('2021-08-05 12:32:20+0000', tz='UTC'), Timestamp('2021-08-05 12:32:07+0000', tz='UTC'), Timestamp('2021-08-06 11:50:34+0000', tz='UTC'), Timestamp('2021-08-12 12:45:49+0000', tz='UTC'), Timestamp('2021-08-17 12:11:52+0000', tz='UTC'), Timestamp('2021-08-17 14:09:17+0000', tz='UTC'), Timestamp('2021-08-11 15:20:53+0000', tz='UTC'), Timestamp('2021-08-31 19:28:54+0000', tz='UTC'), Timestamp('2021-08-26 19:49:40+0000', tz='UTC'), Timestamp('2021-08-11 15:18:32+0000', tz='UTC'), Timestamp('2021-08-17 19:30:24+0000', tz='UTC'), Timestamp('2021-08-06 11:59:24+0000', tz='UTC'), Timestamp('2021-08-17 19:08:32+0000', tz='UTC'), Timestamp('2021-08-18 19:43:36+0000', tz='UTC'), Timestamp('2021-08-06 11:58:09+0000', tz='UTC'), Timestamp('2021-08-31 19:26:46+0000', tz='UTC'), Timestamp('2021-08-11 15:20:26+0000', tz='UTC'), Timestamp('2021-08-05 12:30:38+0000', tz='UTC'), Timestamp('2021-08-18 19:42:45+0000', tz='UTC'), Timestamp('2021-08-05 12:31:33+0000', tz='UTC'), Timestamp('2021-08-18 19:43:51+0000', tz='UTC'), Timestamp('2021-08-31 19:28:05+0000', tz='UTC'), Timestamp('2021-08-06 11:59:57+0000', tz='UTC'), Timestamp('2021-08-16 16:09:58+0000', tz='UTC'), Timestamp('2021-08-17 19:11:14+0000', tz='UTC'), Timestamp('2021-08-05 12:30:55+0000', tz='UTC'), Timestamp('2021-08-11 15:20:08+0000', tz='UTC'), Timestamp('2021-08-06 11:58:28+0000', tz='UTC'), Timestamp('2021-08-06 11:59:58+0000', tz='UTC'), Timestamp('2021-08-05 12:30:57+0000', tz='UTC'), Timestamp('2021-08-11 15:18:24+0000', tz='UTC'), Timestamp('2021-08-05 12:31:12+0000', tz='UTC'), Timestamp('2021-08-25 20:42:13+0000', tz='UTC'), Timestamp('2021-08-11 15:20:09+0000', tz='UTC'), Timestamp('2021-08-17 19:11:20+0000', tz='UTC'), Timestamp('2021-08-18 19:42:48+0000', tz='UTC'), Timestamp('2021-08-11 15:20:11+0000', tz='UTC'), Timestamp('2021-08-05 12:30:34+0000', tz='UTC'), Timestamp('2021-08-11 15:19:47+0000', tz='UTC'), Timestamp('2021-08-18 19:42:52+0000', tz='UTC'), Timestamp('2021-08-25 20:42:41+0000', tz='UTC'), Timestamp('2021-08-25 20:42:17+0000', tz='UTC'), Timestamp('2021-08-16 16:10:05+0000', tz='UTC'), Timestamp('2021-08-17 19:11:17+0000', tz='UTC'), Timestamp('2021-08-18 19:42:50+0000', tz='UTC'), Timestamp('2021-08-31 19:28:03+0000', tz='UTC'), Timestamp('2021-08-05 12:30:58+0000', tz='UTC'), Timestamp('2021-08-05 12:32:06+0000', tz='UTC'), Timestamp('2021-08-31 19:28:01+0000', tz='UTC'), Timestamp('2021-08-18 19:42:53+0000', tz='UTC'), Timestamp('2021-08-25 20:43:09+0000', tz='UTC'), Timestamp('2021-08-06 11:58:31+0000', tz='UTC'), Timestamp('2021-08-25 20:42:18+0000', tz='UTC'), Timestamp('2021-08-06 11:58:35+0000', tz='UTC'), Timestamp('2021-08-31 19:28:42+0000', tz='UTC'), Timestamp('2021-08-11 15:18:31+0000', tz='UTC'), Timestamp('2021-08-11 15:18:42+0000', tz='UTC'), Timestamp('2021-08-11 15:19:50+0000', tz='UTC'), Timestamp('2021-08-06 11:58:48+0000', tz='UTC'), Timestamp('2021-08-31 19:28:04+0000', tz='UTC'), Timestamp('2021-08-05 12:30:37+0000', tz='UTC'), Timestamp('2021-08-18 18:18:13+0000', tz='UTC'), Timestamp('2021-08-05 12:31:21+0000', tz='UTC'), Timestamp('2021-08-05 12:30:41+0000', tz='UTC'), Timestamp('2021-08-16 16:12:11+0000', tz='UTC'), Timestamp('2021-08-05 12:30:39+0000', tz='UTC'), Timestamp('2021-08-18 19:42:46+0000', tz='UTC'), Timestamp('2021-08-31 19:29:12+0000', tz='UTC'), Timestamp('2021-08-11 15:20:20+0000', tz='UTC'), Timestamp('2021-08-11 15:20:07+0000', tz='UTC'), Timestamp('2021-08-06 11:58:12+0000', tz='UTC'), Timestamp('2021-08-11 15:18:21+0000', tz='UTC'), Timestamp('2021-08-16 16:09:19+0000', tz='UTC'), Timestamp('2021-08-16 16:10:03+0000', tz='UTC'), Timestamp('2021-08-06 11:59:11+0000', tz='UTC'), Timestamp('2021-08-17 12:12:27+0000', tz='UTC'), Timestamp('2021-08-05 12:30:56+0000', tz='UTC'), Timestamp('2021-08-17 19:11:19+0000', tz='UTC'), Timestamp('2021-08-25 20:42:14+0000', tz='UTC'), Timestamp('2021-08-11 15:20:37+0000', tz='UTC'), Timestamp('2021-08-06 11:58:29+0000', tz='UTC'), Timestamp('2021-08-25 20:42:16+0000', tz='UTC'), Timestamp('2021-08-06 11:58:33+0000', tz='UTC'), Timestamp('2021-08-05 12:32:08+0000', tz='UTC'), Timestamp('2021-08-11 15:20:10+0000', tz='UTC'), Timestamp('2021-08-05 12:30:33+0000', tz='UTC'), Timestamp('2021-08-18 19:42:51+0000', tz='UTC'), Timestamp('2021-08-31 19:28:00+0000', tz='UTC'), Timestamp('2021-08-25 20:42:05+0000', tz='UTC'), Timestamp('2021-08-18 18:18:07+0000', tz='UTC'), Timestamp('2021-08-31 19:26:43+0000', tz='UTC'), Timestamp('2021-08-05 12:30:35+0000', tz='UTC'), Timestamp('2021-08-05 12:32:05+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:40:34+0000', tz='UTC'), Timestamp('2021-08-12 00:14:34+0000', tz='UTC'), Timestamp('2021-08-12 00:11:44+0000', tz='UTC'), Timestamp('2021-08-12 00:11:51+0000', tz='UTC'), Timestamp('2021-08-12 00:14:49+0000', tz='UTC'), Timestamp('2021-08-12 00:11:42+0000', tz='UTC'), Timestamp('2021-08-12 00:12:43+0000', tz='UTC'), Timestamp('2021-08-12 00:40:37+0000', tz='UTC'), Timestamp('2021-08-12 00:40:27+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-12 00:04:03+0000', tz='UTC'), Timestamp('2021-08-12 00:05:58+0000', tz='UTC'), Timestamp('2021-08-12 00:04:02+0000', tz='UTC'), Timestamp('2021-08-12 00:04:19+0000', tz='UTC')}</t>
-  </si>
-  <si>
-    <t>{Timestamp('2021-08-11 15:21:00+0000', tz='UTC'), Timestamp('2021-08-06 12:05:00+0000', tz='UTC'), Timestamp('2021-08-06 12:00:21+0000', tz='UTC'), Timestamp('2021-08-06 12:00:22+0000', tz='UTC'), Timestamp('2021-08-11 15:20:59+0000', tz='UTC')}</t>
   </si>
   <si>
     <t>{'True'}</t>
@@ -781,8 +535,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +599,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -891,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,9 +685,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,6 +737,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1132,14 +930,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,2680 +975,2442 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
-        <v>176</v>
-      </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" t="s">
-        <v>245</v>
+        <v>161</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" t="s">
-        <v>246</v>
+        <v>162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" t="s">
-        <v>246</v>
+        <v>162</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" t="s">
-        <v>246</v>
+        <v>162</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H10" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H12" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>0.41</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
-      </c>
-      <c r="H15" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H17" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
         <v>0.51</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
         <v>0.42</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" t="s">
-        <v>248</v>
+        <v>164</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
         <v>0.43</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
         <v>0.44</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" t="s">
-        <v>245</v>
+        <v>161</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
         <v>0.47</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" t="s">
-        <v>249</v>
+        <v>165</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" t="s">
-        <v>246</v>
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
-      </c>
-      <c r="H33" t="s">
-        <v>245</v>
+        <v>161</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
         <v>0.44</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
-      </c>
-      <c r="H35" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
         <v>0.41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
         <v>0.44</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
         <v>0.44</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
         <v>0.44</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
         <v>0.43</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
-      </c>
-      <c r="H47" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
         <v>0.43</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
         <v>0.43</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" t="s">
-        <v>250</v>
+        <v>166</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
         <v>0.59</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
-      </c>
-      <c r="H50" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
         <v>0.51</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
         <v>0.52</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
         <v>0.43</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H53" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
         <v>0.43</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
-      </c>
-      <c r="H54" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
         <v>0.43</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
-      </c>
-      <c r="H55" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
         <v>0.43</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
-      </c>
-      <c r="H56" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
         <v>0.43</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
         <v>0.42</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
-      </c>
-      <c r="H58" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
         <v>0.42</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>239</v>
-      </c>
-      <c r="H59" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="F60" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
-      </c>
-      <c r="H60" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
         <v>0.43</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F61" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H61" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
         <v>0.46</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
-      </c>
-      <c r="H62" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
         <v>0.43</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
-      </c>
-      <c r="H63" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
         <v>0.41</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
-      </c>
-      <c r="H64" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
         <v>0.49</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>177</v>
-      </c>
-      <c r="H65" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
         <v>0.46</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
         <v>0.43</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
-      </c>
-      <c r="H67" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
         <v>0.43</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F68" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
-      </c>
-      <c r="H68" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
         <v>0.42</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
         <v>0.42</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" t="s">
         <v>160</v>
       </c>
-      <c r="D70" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F70" t="s">
-        <v>227</v>
-      </c>
-      <c r="G70" t="s">
-        <v>240</v>
-      </c>
-      <c r="H70" t="s">
-        <v>244</v>
+      <c r="H70">
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
-      </c>
-      <c r="H71" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
         <v>0.46</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
-      </c>
-      <c r="H72" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
         <v>0.49</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
-      </c>
-      <c r="H73" t="s">
-        <v>251</v>
+        <v>167</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
         <v>0.49</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
-      </c>
-      <c r="H74" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
         <v>0.42</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>175</v>
-      </c>
-      <c r="H75" t="s">
-        <v>245</v>
+        <v>161</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
         <v>0.44</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
         <v>0.51</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>240</v>
-      </c>
-      <c r="H77" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
         <v>0.53</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
-      </c>
-      <c r="H78" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
         <v>0.53</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
-      </c>
-      <c r="H79" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
         <v>0.43</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
-      </c>
-      <c r="H80" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
         <v>0.41</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
-      </c>
-      <c r="H81" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
         <v>0.43</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
-      </c>
-      <c r="H82" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
         <v>0.41</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
-      </c>
-      <c r="H83" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
         <v>0.42</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="G84" t="s">
-        <v>177</v>
-      </c>
-      <c r="H84" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
         <v>0.43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3862,346 +3435,331 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" t="s">
-        <v>249</v>
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" t="s">
-        <v>250</v>
+        <v>166</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" t="s">
-        <v>244</v>
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
         <v>160</v>
       </c>
-      <c r="D7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" t="s">
-        <v>244</v>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" t="s">
-        <v>247</v>
+        <v>163</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
         <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4228,12 +3786,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -4260,12 +3818,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -4292,12 +3850,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -4324,12 +3882,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -4356,12 +3914,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -4388,12 +3946,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -4420,12 +3978,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -4452,12 +4010,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4484,12 +4042,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4516,12 +4074,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>127</v>
@@ -4548,12 +4106,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4580,12 +4138,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4612,12 +4170,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -4644,12 +4202,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -4676,12 +4234,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>357</v>
@@ -4708,12 +4266,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -4740,12 +4298,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>2158</v>
@@ -4772,12 +4330,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>34</v>
@@ -4804,12 +4362,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4836,12 +4394,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>720</v>
@@ -4868,12 +4426,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4900,12 +4458,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4932,12 +4490,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>2607</v>
@@ -4964,12 +4522,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>1150</v>
@@ -4996,12 +4554,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>1048</v>
@@ -5028,12 +4586,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>126</v>
@@ -5060,12 +4618,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -5092,12 +4650,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -5124,12 +4682,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -5156,12 +4714,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -5188,12 +4746,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5220,12 +4778,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -5252,12 +4810,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -5284,12 +4842,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -5316,12 +4874,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -5348,12 +4906,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -5380,12 +4938,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>81</v>
@@ -5412,12 +4970,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5444,12 +5002,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -5476,12 +5034,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>26</v>
@@ -5508,12 +5066,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -5540,12 +5098,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -5572,12 +5130,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>232</v>
@@ -5604,12 +5162,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>35</v>
@@ -5636,12 +5194,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>104</v>
@@ -5668,12 +5226,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>35</v>
@@ -5700,12 +5258,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>51</v>
@@ -5732,12 +5290,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -5764,12 +5322,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>75</v>
@@ -5796,12 +5354,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5828,12 +5386,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5860,12 +5418,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -5892,12 +5450,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>14</v>
@@ -5924,12 +5482,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>14</v>
@@ -5956,12 +5514,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -5988,12 +5546,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>16</v>
@@ -6020,12 +5578,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -6052,12 +5610,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>168</v>
@@ -6084,12 +5642,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6116,12 +5674,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>37</v>
@@ -6148,12 +5706,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>66</v>
@@ -6180,12 +5738,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -6212,12 +5770,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>28</v>
@@ -6244,12 +5802,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6276,12 +5834,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -6308,12 +5866,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68">
         <v>109</v>
@@ -6340,12 +5898,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>87</v>
@@ -6372,12 +5930,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>906</v>
@@ -6401,15 +5959,15 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>45</v>
@@ -6436,12 +5994,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>102</v>
@@ -6468,12 +6026,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73">
         <v>194</v>
@@ -6500,12 +6058,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>42</v>
@@ -6532,12 +6090,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>17</v>
@@ -6564,12 +6122,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>1416</v>
@@ -6596,12 +6154,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>978</v>
@@ -6628,12 +6186,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>1644</v>
@@ -6660,12 +6218,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -6692,12 +6250,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -6724,12 +6282,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>129</v>
@@ -6756,12 +6314,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -6788,12 +6346,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -6820,12 +6378,12 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -6854,52 +6412,67 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>357</v>
@@ -6926,12 +6499,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>126</v>
@@ -6958,12 +6531,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>51</v>
@@ -6990,12 +6563,12 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>49</v>
@@ -7022,12 +6595,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -7054,12 +6627,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>906</v>
@@ -7083,15 +6656,15 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>1416</v>
@@ -7118,12 +6691,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>978</v>
@@ -7150,12 +6723,12 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>1644</v>
@@ -7184,5 +6757,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>